--- a/EHD/weight-model.xlsx
+++ b/EHD/weight-model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mickos01/Desktop/MolecularKinetics/EHD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0366E86B-93A4-2046-834F-08985169E90A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF43B6D-8322-F34C-BC2F-A9C14C279D98}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="500" windowWidth="27240" windowHeight="16860" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1100" yWindow="500" windowWidth="27240" windowHeight="16860" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Thrust and Weight" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="324">
   <si>
     <t>Coil form</t>
   </si>
@@ -997,6 +997,15 @@
   </si>
   <si>
     <t>Qres</t>
+  </si>
+  <si>
+    <t>seconds</t>
+  </si>
+  <si>
+    <t>amps</t>
+  </si>
+  <si>
+    <t>C=it/v</t>
   </si>
 </sst>
 </file>
@@ -1008,7 +1017,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.0E+00"/>
-    <numFmt numFmtId="172" formatCode="0.00000"/>
+    <numFmt numFmtId="168" formatCode="0.00000"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -1315,7 +1324,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -4983,8 +4992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:Y119"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5019,6 +5028,16 @@
         <v>66</v>
       </c>
       <c r="E3" s="12"/>
+      <c r="F3">
+        <f>10^3</f>
+        <v>1000</v>
+      </c>
+      <c r="G3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H3" t="s">
+        <v>323</v>
+      </c>
       <c r="S3">
         <v>37</v>
       </c>
@@ -5043,6 +5062,17 @@
       <c r="D4" t="s">
         <v>67</v>
       </c>
+      <c r="F4">
+        <f>1.6*10^-6</f>
+        <v>1.5999999999999999E-6</v>
+      </c>
+      <c r="G4" t="s">
+        <v>321</v>
+      </c>
+      <c r="H4">
+        <f>F5*F4/F3</f>
+        <v>1.6E-12</v>
+      </c>
       <c r="J4">
         <v>2.54</v>
       </c>
@@ -5062,6 +5092,13 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B5" s="11"/>
+      <c r="F5">
+        <f>10^-3</f>
+        <v>1E-3</v>
+      </c>
+      <c r="G5" t="s">
+        <v>322</v>
+      </c>
       <c r="I5" s="2">
         <f>I6/J4</f>
         <v>0.11023622047244096</v>
@@ -7219,7 +7256,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:AD78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -7414,35 +7451,35 @@
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B8" s="5">
-        <f>(B3*10^8)/(B4*B5*B6*B7)</f>
+        <f t="shared" ref="B8:I8" si="0">(B3*10^8)/(B4*B5*B6*B7)</f>
         <v>302.0408163265306</v>
       </c>
       <c r="C8" s="5">
-        <f>(C3*10^8)/(C4*C5*C6*C7)</f>
+        <f t="shared" si="0"/>
         <v>402.72108843537416</v>
       </c>
       <c r="D8" s="5">
-        <f>(D3*10^8)/(D4*D5*D6*D7)</f>
+        <f t="shared" si="0"/>
         <v>354.63258785942492</v>
       </c>
       <c r="E8" s="5">
-        <f>(E3*10^8)/(E4*E5*E6*E7)</f>
+        <f t="shared" si="0"/>
         <v>315.22896698615551</v>
       </c>
       <c r="F8" s="5">
-        <f>(F3*10^8)/(F4*F5*F6*F7)</f>
+        <f t="shared" si="0"/>
         <v>315.22896698615551</v>
       </c>
       <c r="G8" s="5">
-        <f>(G3*10^8)/(G4*G5*G6*G7)</f>
+        <f t="shared" si="0"/>
         <v>354.63258785942492</v>
       </c>
       <c r="H8" s="5">
-        <f>(H3*10^8)/(H4*H5*H6*H7)</f>
+        <f t="shared" si="0"/>
         <v>315.22896698615551</v>
       </c>
       <c r="I8" s="5">
-        <f>(I3*10^8)/(I4*I5*I6*I7)</f>
+        <f t="shared" si="0"/>
         <v>236.42172523961662</v>
       </c>
       <c r="J8" t="s">
@@ -7454,35 +7491,35 @@
     </row>
     <row r="9" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
-        <f>B8/10</f>
+        <f t="shared" ref="B9:I9" si="1">B8/10</f>
         <v>30.204081632653061</v>
       </c>
       <c r="C9" s="4">
-        <f>C8/10</f>
+        <f t="shared" si="1"/>
         <v>40.272108843537417</v>
       </c>
       <c r="D9" s="4">
-        <f>D8/10</f>
+        <f t="shared" si="1"/>
         <v>35.463258785942493</v>
       </c>
       <c r="E9" s="4">
-        <f>E8/10</f>
+        <f t="shared" si="1"/>
         <v>31.522896698615551</v>
       </c>
       <c r="F9" s="4">
-        <f>F8/10</f>
+        <f t="shared" si="1"/>
         <v>31.522896698615551</v>
       </c>
       <c r="G9" s="4">
-        <f>G8/10</f>
+        <f t="shared" si="1"/>
         <v>35.463258785942493</v>
       </c>
       <c r="H9" s="4">
-        <f>H8/10</f>
+        <f t="shared" si="1"/>
         <v>31.522896698615551</v>
       </c>
       <c r="I9" s="4">
-        <f>I8/10</f>
+        <f t="shared" si="1"/>
         <v>23.642172523961662</v>
       </c>
       <c r="K9" t="s">
@@ -7534,35 +7571,35 @@
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B11" s="2">
-        <f>B10/B3</f>
+        <f t="shared" ref="B11:I11" si="2">B10/B3</f>
         <v>9.0090090090090094</v>
       </c>
       <c r="C11" s="2">
-        <f>C10/C3</f>
+        <f t="shared" si="2"/>
         <v>13.513513513513512</v>
       </c>
       <c r="D11" s="2">
-        <f>D10/D3</f>
+        <f t="shared" si="2"/>
         <v>11.711711711711713</v>
       </c>
       <c r="E11" s="2">
-        <f>E10/E3</f>
+        <f t="shared" si="2"/>
         <v>8.7837837837837842</v>
       </c>
       <c r="F11" s="2">
-        <f>F10/F3</f>
+        <f t="shared" si="2"/>
         <v>10.810810810810811</v>
       </c>
       <c r="G11" s="2">
-        <f>G10/G3</f>
+        <f t="shared" si="2"/>
         <v>18.018018018018019</v>
       </c>
       <c r="H11" s="2">
-        <f>H10/H3</f>
+        <f t="shared" si="2"/>
         <v>13.513513513513512</v>
       </c>
       <c r="I11" s="2">
-        <f>I10/I3</f>
+        <f t="shared" si="2"/>
         <v>13.513513513513512</v>
       </c>
       <c r="J11" t="s">
@@ -7696,15 +7733,15 @@
         <v>0.33666666666666667</v>
       </c>
       <c r="X13" s="2">
-        <f>R13*25.4</f>
+        <f t="shared" ref="X13:X18" si="3">R13*25.4</f>
         <v>0.40639999999999998</v>
       </c>
       <c r="Y13" s="5">
-        <f>V$33/$X13</f>
+        <f t="shared" ref="Y13:Z18" si="4">V$33/$X13</f>
         <v>200.98771897966199</v>
       </c>
       <c r="Z13" s="5">
-        <f>W$33/$X13</f>
+        <f t="shared" si="4"/>
         <v>177.79682832816249</v>
       </c>
       <c r="AB13" s="34">
@@ -7712,11 +7749,11 @@
         <v>0.36909448818897639</v>
       </c>
       <c r="AC13" s="4">
-        <f>$AB13*V$35</f>
+        <f t="shared" ref="AC13:AD16" si="5">$AB13*V$35</f>
         <v>1.3965737390934241</v>
       </c>
       <c r="AD13" s="4">
-        <f>$AB13*W$35</f>
+        <f t="shared" si="5"/>
         <v>1.1172589912747395</v>
       </c>
     </row>
@@ -7775,35 +7812,35 @@
         <v>71.599999999999994</v>
       </c>
       <c r="U14">
-        <f t="shared" ref="U14:U16" si="0">P14/500</f>
+        <f t="shared" ref="U14:U16" si="6">P14/500</f>
         <v>0.32600000000000001</v>
       </c>
       <c r="V14" s="1">
-        <f t="shared" ref="V14:V16" si="1">P14/300</f>
+        <f t="shared" ref="V14:V16" si="7">P14/300</f>
         <v>0.54333333333333333</v>
       </c>
       <c r="X14" s="2">
-        <f>R14*25.4</f>
+        <f t="shared" si="3"/>
         <v>0.48259999999999997</v>
       </c>
       <c r="Y14" s="5">
-        <f>V$33/$X14</f>
+        <f t="shared" si="4"/>
         <v>169.25281598287324</v>
       </c>
       <c r="Z14" s="5">
-        <f>W$33/$X14</f>
+        <f t="shared" si="4"/>
         <v>149.72364490792631</v>
       </c>
       <c r="AB14" s="34">
-        <f t="shared" ref="AB14:AB16" si="2">S14/1000 / (2.54 * 12) * 100</f>
+        <f t="shared" ref="AB14:AB16" si="8">S14/1000 / (2.54 * 12) * 100</f>
         <v>0.23490813648293962</v>
       </c>
       <c r="AC14" s="4">
-        <f>$AB14*V$35</f>
+        <f t="shared" si="5"/>
         <v>0.88884159750301484</v>
       </c>
       <c r="AD14" s="4">
-        <f>$AB14*W$35</f>
+        <f t="shared" si="5"/>
         <v>0.71107327800241182</v>
       </c>
     </row>
@@ -7835,35 +7872,35 @@
         <v>45.1</v>
       </c>
       <c r="U15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0.51800000000000002</v>
       </c>
       <c r="V15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0.86333333333333329</v>
       </c>
       <c r="X15" s="2">
-        <f>R15*25.4</f>
+        <f t="shared" si="3"/>
         <v>0.66039999999999999</v>
       </c>
       <c r="Y15" s="5">
-        <f>V$33/$X15</f>
+        <f t="shared" si="4"/>
         <v>123.68475014133045</v>
       </c>
       <c r="Z15" s="5">
-        <f>W$33/$X15</f>
+        <f t="shared" si="4"/>
         <v>109.41343281733077</v>
       </c>
       <c r="AB15" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.14796587926509186</v>
       </c>
       <c r="AC15" s="4">
-        <f>$AB15*V$35</f>
+        <f t="shared" si="5"/>
         <v>0.5598708945165638</v>
       </c>
       <c r="AD15" s="4">
-        <f>$AB15*W$35</f>
+        <f t="shared" si="5"/>
         <v>0.44789671561325106</v>
       </c>
     </row>
@@ -7914,69 +7951,69 @@
         <v>28.7</v>
       </c>
       <c r="U16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0.81599999999999995</v>
       </c>
       <c r="V16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.36</v>
       </c>
       <c r="X16" s="2">
-        <f>R16*25.4</f>
+        <f t="shared" si="3"/>
         <v>0.81279999999999997</v>
       </c>
       <c r="Y16" s="5">
-        <f>V$33/$X16</f>
+        <f t="shared" si="4"/>
         <v>100.493859489831</v>
       </c>
       <c r="Z16" s="5">
-        <f>W$33/$X16</f>
+        <f t="shared" si="4"/>
         <v>88.898414164081245</v>
       </c>
       <c r="AB16" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>9.416010498687663E-2</v>
       </c>
       <c r="AC16" s="4">
-        <f>$AB16*V$35</f>
+        <f t="shared" si="5"/>
         <v>0.35628147832872237</v>
       </c>
       <c r="AD16" s="4">
-        <f>$AB16*W$35</f>
+        <f t="shared" si="5"/>
         <v>0.28502518266297794</v>
       </c>
     </row>
     <row r="17" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B17" s="5">
-        <f>B16/B3*B6</f>
+        <f t="shared" ref="B17:I17" si="9">B16/B3*B6</f>
         <v>108.10810810810811</v>
       </c>
       <c r="C17" s="5">
-        <f>C16/C3*C6</f>
+        <f t="shared" si="9"/>
         <v>81.081081081081066</v>
       </c>
       <c r="D17" s="5">
-        <f>D16/D3*D6</f>
+        <f t="shared" si="9"/>
         <v>72.072072072072075</v>
       </c>
       <c r="E17" s="5">
-        <f>E16/E3*E6</f>
+        <f t="shared" si="9"/>
         <v>81.081081081081066</v>
       </c>
       <c r="F17" s="5">
-        <f>F16/F3*F6</f>
+        <f t="shared" si="9"/>
         <v>81.081081081081066</v>
       </c>
       <c r="G17" s="5">
-        <f>G16/G3*G6</f>
+        <f t="shared" si="9"/>
         <v>72.072072072072075</v>
       </c>
       <c r="H17" s="5">
-        <f>H16/H3*H6</f>
+        <f t="shared" si="9"/>
         <v>81.081081081081066</v>
       </c>
       <c r="I17" s="5">
-        <f>I16/I3*I6</f>
+        <f t="shared" si="9"/>
         <v>108.1081081081081</v>
       </c>
       <c r="J17" t="s">
@@ -7989,15 +8026,15 @@
         <v>3.9E-2</v>
       </c>
       <c r="X17" s="2">
-        <f>R17*25.4</f>
+        <f t="shared" si="3"/>
         <v>0.99059999999999993</v>
       </c>
       <c r="Y17" s="5">
-        <f>V$33/$X17</f>
+        <f t="shared" si="4"/>
         <v>82.456500094220303</v>
       </c>
       <c r="Z17" s="5">
-        <f>W$33/$X17</f>
+        <f t="shared" si="4"/>
         <v>72.942288544887177</v>
       </c>
     </row>
@@ -8017,15 +8054,15 @@
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="X18" s="2">
-        <f>R18*25.4</f>
+        <f t="shared" si="3"/>
         <v>1.0668</v>
       </c>
       <c r="Y18" s="5">
-        <f>V$33/$X18</f>
+        <f t="shared" si="4"/>
         <v>76.566750087490277</v>
       </c>
       <c r="Z18" s="5">
-        <f>W$33/$X18</f>
+        <f t="shared" si="4"/>
         <v>67.732125077395239</v>
       </c>
     </row>
@@ -8039,27 +8076,27 @@
         <v>6.7567567567567561</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" ref="D19:F19" si="3">D11/2</f>
+        <f t="shared" ref="D19:F19" si="10">D11/2</f>
         <v>5.8558558558558564</v>
       </c>
       <c r="E19" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>4.3918918918918921</v>
       </c>
       <c r="F19" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>5.4054054054054053</v>
       </c>
       <c r="G19" s="2">
-        <f t="shared" ref="G19:H19" si="4">G11/2</f>
+        <f t="shared" ref="G19:H19" si="11">G11/2</f>
         <v>9.0090090090090094</v>
       </c>
       <c r="H19" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>6.7567567567567561</v>
       </c>
       <c r="I19" s="2">
-        <f t="shared" ref="I19" si="5">I11/2</f>
+        <f t="shared" ref="I19" si="12">I11/2</f>
         <v>6.7567567567567561</v>
       </c>
       <c r="J19" t="s">
@@ -8082,27 +8119,27 @@
         <v>0.5</v>
       </c>
       <c r="D20">
-        <f t="shared" ref="D20:F20" si="6">D10/D16</f>
+        <f t="shared" ref="D20:F20" si="13">D10/D16</f>
         <v>0.32500000000000001</v>
       </c>
       <c r="E20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0.32500000000000001</v>
       </c>
       <c r="F20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="G20">
-        <f t="shared" ref="G20:H20" si="7">G10/G16</f>
+        <f t="shared" ref="G20:H20" si="14">G10/G16</f>
         <v>0.5</v>
       </c>
       <c r="H20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0.5</v>
       </c>
       <c r="I20">
-        <f t="shared" ref="I20" si="8">I10/I16</f>
+        <f t="shared" ref="I20" si="15">I10/I16</f>
         <v>0.5</v>
       </c>
       <c r="J20" t="s">
@@ -8152,35 +8189,35 @@
     </row>
     <row r="24" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B24">
-        <f>B16*B22</f>
+        <f t="shared" ref="B24:I24" si="16">B16*B22</f>
         <v>80000</v>
       </c>
       <c r="C24">
-        <f>C16*C22</f>
+        <f t="shared" si="16"/>
         <v>80000</v>
       </c>
       <c r="D24">
-        <f>D16*D22</f>
+        <f t="shared" si="16"/>
         <v>80000</v>
       </c>
       <c r="E24">
-        <f>E16*E22</f>
+        <f t="shared" si="16"/>
         <v>80000</v>
       </c>
       <c r="F24">
-        <f>F16*F22</f>
+        <f t="shared" si="16"/>
         <v>80000</v>
       </c>
       <c r="G24">
-        <f>G16*G22</f>
+        <f t="shared" si="16"/>
         <v>80000</v>
       </c>
       <c r="H24">
-        <f>H16*H22</f>
+        <f t="shared" si="16"/>
         <v>80000</v>
       </c>
       <c r="I24">
-        <f>I16*I22</f>
+        <f t="shared" si="16"/>
         <v>80000</v>
       </c>
       <c r="J24" t="s">
@@ -8192,35 +8229,35 @@
     </row>
     <row r="25" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B25">
-        <f>B10/B24</f>
+        <f t="shared" ref="B25:I25" si="17">B10/B24</f>
         <v>1.25E-3</v>
       </c>
       <c r="C25">
-        <f>C10/C24</f>
+        <f t="shared" si="17"/>
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="D25">
-        <f>D10/D24</f>
+        <f t="shared" si="17"/>
         <v>1.6249999999999999E-3</v>
       </c>
       <c r="E25">
-        <f>E10/E24</f>
+        <f t="shared" si="17"/>
         <v>1.6249999999999999E-3</v>
       </c>
       <c r="F25">
-        <f>F10/F24</f>
+        <f t="shared" si="17"/>
         <v>2E-3</v>
       </c>
       <c r="G25">
-        <f>G10/G24</f>
+        <f t="shared" si="17"/>
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="H25">
-        <f>H10/H24</f>
+        <f t="shared" si="17"/>
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="I25">
-        <f>I10/I24</f>
+        <f t="shared" si="17"/>
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="J25" t="s">
@@ -8333,27 +8370,27 @@
         <v>1013.5135135135134</v>
       </c>
       <c r="D29" s="4">
-        <f t="shared" ref="D29" si="9">D27/2*D19</f>
+        <f t="shared" ref="D29" si="18">D27/2*D19</f>
         <v>878.37837837837844</v>
       </c>
       <c r="E29" s="4">
-        <f t="shared" ref="E29:G29" si="10">E27/2*E19</f>
+        <f t="shared" ref="E29:G29" si="19">E27/2*E19</f>
         <v>658.78378378378386</v>
       </c>
       <c r="F29" s="4">
-        <f t="shared" ref="F29" si="11">F27/2*F19</f>
+        <f t="shared" ref="F29" si="20">F27/2*F19</f>
         <v>810.81081081081084</v>
       </c>
       <c r="G29" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>1351.3513513513515</v>
       </c>
       <c r="H29" s="4">
-        <f t="shared" ref="H29:I29" si="12">H27/2*H19</f>
+        <f t="shared" ref="H29:I29" si="21">H27/2*H19</f>
         <v>1013.5135135135134</v>
       </c>
       <c r="I29" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>1013.5135135135134</v>
       </c>
       <c r="J29" t="s">
@@ -8379,19 +8416,19 @@
         <v>150</v>
       </c>
       <c r="D30">
-        <f t="shared" ref="D30:G30" si="13">D28*D20</f>
+        <f t="shared" ref="D30:G30" si="22">D28*D20</f>
         <v>97.5</v>
       </c>
       <c r="E30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>97.5</v>
       </c>
       <c r="F30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>120</v>
       </c>
       <c r="G30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>150</v>
       </c>
       <c r="H30">
@@ -8411,35 +8448,35 @@
     </row>
     <row r="31" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B31" s="2">
-        <f>B27*B25</f>
+        <f t="shared" ref="B31:I31" si="23">B27*B25</f>
         <v>0.375</v>
       </c>
       <c r="C31" s="2">
-        <f>C27*C25</f>
+        <f t="shared" si="23"/>
         <v>0.75</v>
       </c>
       <c r="D31" s="2">
-        <f>D27*D25</f>
+        <f t="shared" si="23"/>
         <v>0.48749999999999999</v>
       </c>
       <c r="E31" s="2">
-        <f>E27*E25</f>
+        <f t="shared" si="23"/>
         <v>0.48749999999999999</v>
       </c>
       <c r="F31" s="2">
-        <f>F27*F25</f>
+        <f t="shared" si="23"/>
         <v>0.6</v>
       </c>
       <c r="G31" s="2">
-        <f>G27*G25</f>
+        <f t="shared" si="23"/>
         <v>0.75</v>
       </c>
       <c r="H31" s="2">
-        <f>H27*H25</f>
+        <f t="shared" si="23"/>
         <v>0.75</v>
       </c>
       <c r="I31" s="2">
-        <f>I27*I25</f>
+        <f t="shared" si="23"/>
         <v>0.75</v>
       </c>
       <c r="J31" t="s">
@@ -8472,35 +8509,35 @@
     </row>
     <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B33" s="4">
-        <f>1630/660</f>
+        <f t="shared" ref="B33:I33" si="24">1630/660</f>
         <v>2.4696969696969697</v>
       </c>
       <c r="C33" s="4">
-        <f>1630/660</f>
+        <f t="shared" si="24"/>
         <v>2.4696969696969697</v>
       </c>
       <c r="D33" s="4">
-        <f>1630/660</f>
+        <f t="shared" si="24"/>
         <v>2.4696969696969697</v>
       </c>
       <c r="E33" s="4">
-        <f>1630/660</f>
+        <f t="shared" si="24"/>
         <v>2.4696969696969697</v>
       </c>
       <c r="F33" s="4">
-        <f>1630/660</f>
+        <f t="shared" si="24"/>
         <v>2.4696969696969697</v>
       </c>
       <c r="G33" s="4">
-        <f>1630/660</f>
+        <f t="shared" si="24"/>
         <v>2.4696969696969697</v>
       </c>
       <c r="H33" s="4">
-        <f>1630/660</f>
+        <f t="shared" si="24"/>
         <v>2.4696969696969697</v>
       </c>
       <c r="I33" s="4">
-        <f>1630/660</f>
+        <f t="shared" si="24"/>
         <v>2.4696969696969697</v>
       </c>
       <c r="J33" t="s">
@@ -8536,35 +8573,35 @@
     </row>
     <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B35" s="5">
-        <f>B29/B33</f>
+        <f t="shared" ref="B35:I35" si="25">B29/B33</f>
         <v>273.58646990548834</v>
       </c>
       <c r="C35" s="5">
-        <f>C29/C33</f>
+        <f t="shared" si="25"/>
         <v>410.3797048582324</v>
       </c>
       <c r="D35" s="5">
-        <f>D29/D33</f>
+        <f t="shared" si="25"/>
         <v>355.66241087713485</v>
       </c>
       <c r="E35" s="5">
-        <f>E29/E33</f>
+        <f t="shared" si="25"/>
         <v>266.74680815785115</v>
       </c>
       <c r="F35" s="5">
-        <f>F29/F33</f>
+        <f t="shared" si="25"/>
         <v>328.30376388658595</v>
       </c>
       <c r="G35" s="5">
-        <f>G29/G33</f>
+        <f t="shared" si="25"/>
         <v>547.17293981097669</v>
       </c>
       <c r="H35" s="5">
-        <f>H29/H33</f>
+        <f t="shared" si="25"/>
         <v>410.3797048582324</v>
       </c>
       <c r="I35" s="5">
-        <f>I29/I33</f>
+        <f t="shared" si="25"/>
         <v>410.3797048582324</v>
       </c>
       <c r="J35" t="s">
@@ -8587,35 +8624,35 @@
     </row>
     <row r="36" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B36" s="5">
-        <f>B30/B33</f>
+        <f t="shared" ref="B36:I36" si="26">B30/B33</f>
         <v>30.368098159509202</v>
       </c>
       <c r="C36" s="5">
-        <f>C30/C33</f>
+        <f t="shared" si="26"/>
         <v>60.736196319018404</v>
       </c>
       <c r="D36" s="5">
-        <f>D30/D33</f>
+        <f t="shared" si="26"/>
         <v>39.478527607361961</v>
       </c>
       <c r="E36" s="5">
-        <f>E30/E33</f>
+        <f t="shared" si="26"/>
         <v>39.478527607361961</v>
       </c>
       <c r="F36" s="5">
-        <f>F30/F33</f>
+        <f t="shared" si="26"/>
         <v>48.588957055214721</v>
       </c>
       <c r="G36" s="5">
-        <f>G30/G33</f>
+        <f t="shared" si="26"/>
         <v>60.736196319018404</v>
       </c>
       <c r="H36" s="5">
-        <f>H30/H33</f>
+        <f t="shared" si="26"/>
         <v>60.736196319018404</v>
       </c>
       <c r="I36" s="5">
-        <f>I30/I33</f>
+        <f t="shared" si="26"/>
         <v>60.736196319018404</v>
       </c>
       <c r="J36" t="s">

--- a/EHD/weight-model.xlsx
+++ b/EHD/weight-model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mickos01/Desktop/MolecularKinetics/EHD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF43B6D-8322-F34C-BC2F-A9C14C279D98}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7B4D98-32CB-3D47-9D59-0411672D8757}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="500" windowWidth="27240" windowHeight="16860" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1100" yWindow="500" windowWidth="27240" windowHeight="16860" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Thrust and Weight" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="329">
   <si>
     <t>Coil form</t>
   </si>
@@ -405,15 +405,9 @@
     <t>Arms</t>
   </si>
   <si>
-    <t>swg</t>
-  </si>
-  <si>
     <t>vsec</t>
   </si>
   <si>
-    <t>turns sec</t>
-  </si>
-  <si>
     <t>Ipri</t>
   </si>
   <si>
@@ -918,9 +912,6 @@
     <t>r40c1 bsat = 400mT</t>
   </si>
   <si>
-    <t>60/46</t>
-  </si>
-  <si>
     <t>660/46</t>
   </si>
   <si>
@@ -981,12 +972,6 @@
     <t>outside bobbin center</t>
   </si>
   <si>
-    <t>330/46</t>
-  </si>
-  <si>
-    <t>270/46</t>
-  </si>
-  <si>
     <t>cm/A pri</t>
   </si>
   <si>
@@ -1005,7 +990,37 @@
     <t>amps</t>
   </si>
   <si>
-    <t>C=it/v</t>
+    <t>volts ripple</t>
+  </si>
+  <si>
+    <t>Secondary capacitance</t>
+  </si>
+  <si>
+    <t>frequency</t>
+  </si>
+  <si>
+    <t>radial frequency</t>
+  </si>
+  <si>
+    <t>watts loss</t>
+  </si>
+  <si>
+    <t>pf capacitance</t>
+  </si>
+  <si>
+    <t>1050/46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2*420/46 </t>
+  </si>
+  <si>
+    <t>66/46</t>
+  </si>
+  <si>
+    <t>min turns sec @ nominal</t>
+  </si>
+  <si>
+    <t>4 cells, 13.8-14.8V</t>
   </si>
 </sst>
 </file>
@@ -4992,8 +5007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:Y119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5010,11 +5025,21 @@
       <c r="A2" s="19" t="s">
         <v>110</v>
       </c>
+      <c r="F2">
+        <f>1.1*10^-11</f>
+        <v>1.1000000000000001E-11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>288</v>
+      </c>
+      <c r="H2" t="s">
+        <v>318</v>
+      </c>
       <c r="S2">
         <v>2</v>
       </c>
       <c r="T2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
@@ -5029,27 +5054,28 @@
       </c>
       <c r="E3" s="12"/>
       <c r="F3">
-        <f>10^3</f>
-        <v>1000</v>
+        <f>1.6*10^-6</f>
+        <v>1.5999999999999999E-6</v>
       </c>
       <c r="G3" t="s">
-        <v>106</v>
-      </c>
-      <c r="H3" t="s">
-        <v>323</v>
+        <v>316</v>
+      </c>
+      <c r="H3" s="5">
+        <f>F4*F3/F2</f>
+        <v>181.81818181818181</v>
       </c>
       <c r="S3">
         <v>37</v>
       </c>
       <c r="T3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="U3" s="2">
         <f>PI()*(S3/2)^2*S4</f>
         <v>7526.4705998377476</v>
       </c>
       <c r="V3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
@@ -5063,15 +5089,11 @@
         <v>67</v>
       </c>
       <c r="F4">
-        <f>1.6*10^-6</f>
-        <v>1.5999999999999999E-6</v>
+        <f>1.25*10^-3</f>
+        <v>1.25E-3</v>
       </c>
       <c r="G4" t="s">
-        <v>321</v>
-      </c>
-      <c r="H4">
-        <f>F5*F4/F3</f>
-        <v>1.6E-12</v>
+        <v>317</v>
       </c>
       <c r="J4">
         <v>2.54</v>
@@ -5080,25 +5102,18 @@
         <v>7</v>
       </c>
       <c r="T4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="U4" s="2">
         <f>S6*S4</f>
         <v>2908.3293990607508</v>
       </c>
       <c r="V4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B5" s="11"/>
-      <c r="F5">
-        <f>10^-3</f>
-        <v>1E-3</v>
-      </c>
-      <c r="G5" t="s">
-        <v>322</v>
-      </c>
       <c r="I5" s="2">
         <f>I6/J4</f>
         <v>0.11023622047244096</v>
@@ -5115,14 +5130,14 @@
         <v>23</v>
       </c>
       <c r="T5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="U5" s="2">
         <f>U3-U4</f>
         <v>4618.1412007769968</v>
       </c>
       <c r="V5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
@@ -5140,20 +5155,20 @@
       </c>
       <c r="O6" s="9"/>
       <c r="P6" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="S6" s="2">
         <f>PI()*(S5/2)^2</f>
         <v>415.47562843725012</v>
       </c>
       <c r="T6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U6">
         <v>5</v>
       </c>
       <c r="V6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
@@ -5176,50 +5191,50 @@
         <v>98</v>
       </c>
       <c r="I7" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="K7" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="N7" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="J7" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="K7" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="N7" s="9" t="s">
+      <c r="O7" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="P7" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q7" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="O7" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="P7" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q7" s="9" t="s">
+      <c r="R7" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="R7" s="9" t="s">
-        <v>144</v>
-      </c>
       <c r="S7" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="U7" s="4">
         <f>U5/1000*U6</f>
         <v>23.090706003884982</v>
       </c>
       <c r="V7" s="12" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W7" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="X7" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="Y7" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
@@ -5249,7 +5264,7 @@
       </c>
       <c r="K8" s="24"/>
       <c r="L8" s="10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="O8" s="7"/>
       <c r="P8" s="23"/>
@@ -5286,40 +5301,40 @@
         <v>15</v>
       </c>
       <c r="L9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="N9" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="O9" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="P9" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q9" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="O9" s="23" t="s">
+      <c r="R9" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="P9" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q9" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="R9" s="9" t="s">
-        <v>143</v>
-      </c>
       <c r="S9" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="U9">
         <v>32</v>
       </c>
       <c r="V9" s="9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W9" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="X9" s="9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="Y9" s="7"/>
     </row>
@@ -5354,14 +5369,14 @@
         <v>2.5</v>
       </c>
       <c r="T10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="U10">
         <f>N15*U9</f>
         <v>6400</v>
       </c>
       <c r="V10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="W10">
         <v>0.75</v>
@@ -5416,14 +5431,14 @@
         <v>9.8425196850393706E-2</v>
       </c>
       <c r="T11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="U11" s="5">
         <f>Q15*U9</f>
         <v>256</v>
       </c>
       <c r="V11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="Y11" s="7">
         <v>0.13</v>
@@ -5478,7 +5493,7 @@
         <v>4200</v>
       </c>
       <c r="T12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="U12" s="5">
         <f>U10/25.4</f>
@@ -5527,7 +5542,7 @@
         <v>8.4</v>
       </c>
       <c r="T13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="U13" s="5">
         <f>U11/25.4</f>
@@ -5595,7 +5610,7 @@
         <v>5.6</v>
       </c>
       <c r="T14" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
@@ -5611,7 +5626,7 @@
         <v>98.8</v>
       </c>
       <c r="L15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M15">
         <v>200</v>
@@ -5638,7 +5653,7 @@
         <v>10</v>
       </c>
       <c r="U15" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
@@ -5672,7 +5687,7 @@
         <v>4.908738521234052</v>
       </c>
       <c r="T16" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
@@ -5718,7 +5733,7 @@
         <v>78.539816339744831</v>
       </c>
       <c r="T17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
@@ -5764,7 +5779,7 @@
         <v>0.18903591682419663</v>
       </c>
       <c r="T18" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
@@ -5942,13 +5957,13 @@
         <v>98</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K32" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.2">
@@ -6010,7 +6025,7 @@
         <v>0.23100000000000001</v>
       </c>
       <c r="L34" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.2">
@@ -6121,7 +6136,7 @@
         <v>9.6835275031775581</v>
       </c>
       <c r="K46" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.2">
@@ -6187,13 +6202,13 @@
         <v>35</v>
       </c>
       <c r="G51" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H51" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I51" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J51">
         <v>8</v>
@@ -6204,19 +6219,19 @@
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.2">
       <c r="G52" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H52" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I52" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J52">
         <v>600</v>
       </c>
       <c r="K52" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.2">
@@ -6255,7 +6270,7 @@
         <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G57" s="2">
         <f>B57</f>
@@ -6296,7 +6311,7 @@
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.2">
       <c r="I62" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.2">
@@ -6353,7 +6368,7 @@
         <v>7</v>
       </c>
       <c r="I66" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="J66">
         <v>1.2</v>
@@ -6371,10 +6386,10 @@
         <v>30</v>
       </c>
       <c r="C67" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D67" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E67">
         <v>4</v>
@@ -6383,7 +6398,7 @@
         <v>0.7</v>
       </c>
       <c r="I67" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="J67">
         <v>0.75</v>
@@ -6405,7 +6420,7 @@
         <v>18</v>
       </c>
       <c r="I68" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="J68">
         <v>1</v>
@@ -6497,7 +6512,7 @@
         <v>26</v>
       </c>
       <c r="D79" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
@@ -6509,18 +6524,18 @@
         <v>48</v>
       </c>
       <c r="G80" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G81" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H81" s="31">
         <v>25</v>
       </c>
       <c r="I81" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
@@ -6535,18 +6550,18 @@
         <v>31</v>
       </c>
       <c r="G82" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H82" s="31">
         <v>100</v>
       </c>
       <c r="I82" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G83" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H83" s="31">
         <v>1.6</v>
@@ -6564,7 +6579,7 @@
         <v>27</v>
       </c>
       <c r="G84" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H84" s="31">
         <v>60</v>
@@ -6575,13 +6590,13 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G85" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H85" s="31">
         <v>0.8</v>
       </c>
       <c r="I85" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
@@ -6596,13 +6611,13 @@
         <v>28</v>
       </c>
       <c r="G86" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H86" s="31">
         <v>75</v>
       </c>
       <c r="I86" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
@@ -6651,7 +6666,7 @@
         <v>0.21296414294569591</v>
       </c>
       <c r="G93" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
@@ -6736,7 +6751,7 @@
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C103" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.2">
@@ -6820,7 +6835,7 @@
         <v>45</v>
       </c>
       <c r="D116" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.2">
@@ -6838,7 +6853,7 @@
         <v>13.360715576296519</v>
       </c>
       <c r="C119" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -6858,7 +6873,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -6868,10 +6883,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -7254,29 +7269,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:AD78"/>
+  <dimension ref="A2:AF89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F38" sqref="E38:F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.5" customWidth="1"/>
-    <col min="2" max="4" width="9" customWidth="1"/>
-    <col min="5" max="6" width="8.5" customWidth="1"/>
-    <col min="7" max="9" width="8.83203125" customWidth="1"/>
-    <col min="10" max="10" width="20.33203125" customWidth="1"/>
-    <col min="11" max="11" width="12.1640625" customWidth="1"/>
-    <col min="16" max="16" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9" customWidth="1"/>
+    <col min="6" max="7" width="8.83203125" customWidth="1"/>
+    <col min="8" max="9" width="8.5" customWidth="1"/>
+    <col min="10" max="11" width="8.83203125" customWidth="1"/>
+    <col min="12" max="12" width="20.33203125" customWidth="1"/>
+    <col min="13" max="13" width="12.1640625" customWidth="1"/>
+    <col min="18" max="18" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>11.1</v>
       </c>
@@ -7284,16 +7300,16 @@
         <v>14.8</v>
       </c>
       <c r="D3">
+        <v>14.8</v>
+      </c>
+      <c r="E3">
         <v>11.1</v>
       </c>
-      <c r="E3">
+      <c r="F3">
+        <v>11.1</v>
+      </c>
+      <c r="G3">
         <v>14.8</v>
-      </c>
-      <c r="F3">
-        <v>14.8</v>
-      </c>
-      <c r="G3">
-        <v>11.1</v>
       </c>
       <c r="H3">
         <v>14.8</v>
@@ -7301,24 +7317,30 @@
       <c r="I3">
         <v>14.8</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3">
+        <v>14.8</v>
+      </c>
+      <c r="K3">
+        <v>14.8</v>
+      </c>
+      <c r="L3" t="s">
         <v>100</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
         <v>106</v>
       </c>
-      <c r="L3">
+      <c r="N3">
         <f>B3*2</f>
         <v>22.2</v>
       </c>
-      <c r="M3" t="s">
-        <v>136</v>
-      </c>
-      <c r="N3" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="O3" t="s">
+        <v>134</v>
+      </c>
+      <c r="P3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>0.49</v>
       </c>
@@ -7326,7 +7348,7 @@
         <v>0.49</v>
       </c>
       <c r="D4">
-        <v>0.626</v>
+        <v>0.49</v>
       </c>
       <c r="E4">
         <v>0.626</v>
@@ -7343,14 +7365,30 @@
       <c r="I4">
         <v>0.626</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4">
+        <v>0.626</v>
+      </c>
+      <c r="K4">
+        <v>0.626</v>
+      </c>
+      <c r="L4" t="s">
         <v>101</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="N4">
+        <f>K3*2</f>
+        <v>29.6</v>
+      </c>
+      <c r="O4" t="s">
+        <v>134</v>
+      </c>
+      <c r="P4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>625000</v>
       </c>
@@ -7375,22 +7413,28 @@
       <c r="I5">
         <v>625000</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5">
+        <v>625000</v>
+      </c>
+      <c r="K5">
+        <v>625000</v>
+      </c>
+      <c r="L5" t="s">
         <v>102</v>
       </c>
-      <c r="K5" t="s">
+      <c r="M5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -7399,25 +7443,31 @@
         <v>3</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H6">
         <v>3</v>
       </c>
       <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6">
         <v>4</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
         <v>103</v>
       </c>
-      <c r="K6" t="s">
+      <c r="M6" t="s">
         <v>120</v>
       </c>
-      <c r="L6" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="N6" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>4</v>
       </c>
@@ -7442,37 +7492,43 @@
       <c r="I7">
         <v>4</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7">
+        <v>4</v>
+      </c>
+      <c r="K7">
+        <v>4</v>
+      </c>
+      <c r="L7" t="s">
         <v>104</v>
       </c>
-      <c r="K7" t="s">
+      <c r="M7" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B8" s="5">
-        <f t="shared" ref="B8:I8" si="0">(B3*10^8)/(B4*B5*B6*B7)</f>
+        <f t="shared" ref="B8:K8" si="0">(B3*10^8)/(B4*B5*B6*B7)</f>
         <v>302.0408163265306</v>
       </c>
       <c r="C8" s="5">
         <f t="shared" si="0"/>
-        <v>402.72108843537416</v>
+        <v>302.0408163265306</v>
       </c>
       <c r="D8" s="5">
         <f t="shared" si="0"/>
-        <v>354.63258785942492</v>
+        <v>302.0408163265306</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" si="0"/>
-        <v>315.22896698615551</v>
+        <v>236.42172523961662</v>
       </c>
       <c r="F8" s="5">
+        <f>(F3*10^8)/(F4*F5*F6*F7)</f>
+        <v>236.42172523961662</v>
+      </c>
+      <c r="G8" s="5">
         <f t="shared" si="0"/>
         <v>315.22896698615551</v>
-      </c>
-      <c r="G8" s="5">
-        <f t="shared" si="0"/>
-        <v>354.63258785942492</v>
       </c>
       <c r="H8" s="5">
         <f t="shared" si="0"/>
@@ -7480,39 +7536,47 @@
       </c>
       <c r="I8" s="5">
         <f t="shared" si="0"/>
+        <v>315.22896698615551</v>
+      </c>
+      <c r="J8" s="5">
+        <f>(J3*10^8)/(J4*J5*J6*J7)</f>
+        <v>315.22896698615551</v>
+      </c>
+      <c r="K8" s="5">
+        <f t="shared" si="0"/>
         <v>236.42172523961662</v>
       </c>
-      <c r="J8" t="s">
+      <c r="L8" t="s">
         <v>99</v>
       </c>
-      <c r="K8" t="s">
+      <c r="M8" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
-        <f t="shared" ref="B9:I9" si="1">B8/10</f>
+        <f t="shared" ref="B9:K9" si="1">B8/10</f>
         <v>30.204081632653061</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="1"/>
-        <v>40.272108843537417</v>
+        <v>30.204081632653061</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" si="1"/>
-        <v>35.463258785942493</v>
+        <v>30.204081632653061</v>
       </c>
       <c r="E9" s="4">
         <f t="shared" si="1"/>
-        <v>31.522896698615551</v>
+        <v>23.642172523961662</v>
       </c>
       <c r="F9" s="4">
+        <f>F8/10</f>
+        <v>23.642172523961662</v>
+      </c>
+      <c r="G9" s="4">
         <f t="shared" si="1"/>
         <v>31.522896698615551</v>
-      </c>
-      <c r="G9" s="4">
-        <f t="shared" si="1"/>
-        <v>35.463258785942493</v>
       </c>
       <c r="H9" s="4">
         <f t="shared" si="1"/>
@@ -7520,2055 +7584,2219 @@
       </c>
       <c r="I9" s="4">
         <f t="shared" si="1"/>
+        <v>31.522896698615551</v>
+      </c>
+      <c r="J9" s="4">
+        <f>J8/10</f>
+        <v>31.522896698615551</v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" si="1"/>
         <v>23.642172523961662</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
+        <v>99</v>
+      </c>
+      <c r="M9" t="s">
+        <v>280</v>
+      </c>
+      <c r="N9" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="N10" s="39" t="s">
+        <v>293</v>
+      </c>
+      <c r="O10" s="40"/>
+      <c r="P10" s="41"/>
+      <c r="S10">
+        <v>660</v>
+      </c>
+      <c r="T10">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B11" s="7">
+        <v>100</v>
+      </c>
+      <c r="C11" s="7">
+        <v>160</v>
+      </c>
+      <c r="D11" s="7">
+        <v>200</v>
+      </c>
+      <c r="E11" s="7">
+        <v>100</v>
+      </c>
+      <c r="F11" s="7">
+        <v>130</v>
+      </c>
+      <c r="G11" s="7">
+        <v>100</v>
+      </c>
+      <c r="H11" s="7">
+        <v>130</v>
+      </c>
+      <c r="I11" s="7">
+        <v>160</v>
+      </c>
+      <c r="J11" s="7">
+        <v>160</v>
+      </c>
+      <c r="K11" s="7">
+        <v>160</v>
+      </c>
+      <c r="L11" t="s">
+        <v>121</v>
+      </c>
+      <c r="N11" s="42" t="s">
+        <v>254</v>
+      </c>
+      <c r="O11" s="37">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="P11" s="43">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="S11">
+        <v>60</v>
+      </c>
+      <c r="T11">
+        <v>1.9E-2</v>
+      </c>
+      <c r="W11" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B12" s="2">
+        <f>B11/B3</f>
+        <v>9.0090090090090094</v>
+      </c>
+      <c r="C12" s="2">
+        <f>C11/C3</f>
+        <v>10.810810810810811</v>
+      </c>
+      <c r="D12" s="2">
+        <f>D11/D3</f>
+        <v>13.513513513513512</v>
+      </c>
+      <c r="E12" s="2">
+        <f>E11/E3</f>
+        <v>9.0090090090090094</v>
+      </c>
+      <c r="F12" s="2">
+        <f>F11/F3</f>
+        <v>11.711711711711713</v>
+      </c>
+      <c r="G12" s="2">
+        <f>G11/G3</f>
+        <v>6.7567567567567561</v>
+      </c>
+      <c r="H12" s="2">
+        <f>H11/H3</f>
+        <v>8.7837837837837842</v>
+      </c>
+      <c r="I12" s="2">
+        <f>I11/I3</f>
+        <v>10.810810810810811</v>
+      </c>
+      <c r="J12" s="2">
+        <f>J11/J3</f>
+        <v>10.810810810810811</v>
+      </c>
+      <c r="K12" s="2">
+        <f>K11/K3</f>
+        <v>10.810810810810811</v>
+      </c>
+      <c r="L12" t="s">
+        <v>122</v>
+      </c>
+      <c r="N12" s="44" t="s">
+        <v>255</v>
+      </c>
+      <c r="O12" s="38">
+        <f>B12/2</f>
+        <v>4.5045045045045047</v>
+      </c>
+      <c r="P12" s="45">
+        <f>H12/2</f>
+        <v>4.3918918918918921</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>263</v>
+      </c>
+      <c r="R12" t="s">
+        <v>131</v>
+      </c>
+      <c r="S12" t="s">
+        <v>264</v>
+      </c>
+      <c r="T12" t="s">
+        <v>265</v>
+      </c>
+      <c r="U12" t="s">
+        <v>271</v>
+      </c>
+      <c r="W12" t="s">
+        <v>161</v>
+      </c>
+      <c r="X12" t="s">
+        <v>269</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>268</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>270</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B13" s="2">
+        <f>B12/2</f>
+        <v>4.5045045045045047</v>
+      </c>
+      <c r="C13" s="2">
+        <f>C12/2</f>
+        <v>5.4054054054054053</v>
+      </c>
+      <c r="D13" s="2">
+        <f>D12/2</f>
+        <v>6.7567567567567561</v>
+      </c>
+      <c r="E13" s="2">
+        <f>E12/2</f>
+        <v>4.5045045045045047</v>
+      </c>
+      <c r="F13" s="2">
+        <f>F12/2</f>
+        <v>5.8558558558558564</v>
+      </c>
+      <c r="G13" s="2">
+        <f>G12/2</f>
+        <v>3.3783783783783781</v>
+      </c>
+      <c r="H13" s="2">
+        <f>H12/2</f>
+        <v>4.3918918918918921</v>
+      </c>
+      <c r="I13" s="2">
+        <f>I12/2</f>
+        <v>5.4054054054054053</v>
+      </c>
+      <c r="J13" s="2">
+        <f>J12/2</f>
+        <v>5.4054054054054053</v>
+      </c>
+      <c r="K13" s="2">
+        <f>K12/2</f>
+        <v>5.4054054054054053</v>
+      </c>
+      <c r="L13" t="s">
+        <v>124</v>
+      </c>
+      <c r="N13" s="44" t="s">
+        <v>256</v>
+      </c>
+      <c r="O13" s="38">
+        <f>O12*O11</f>
+        <v>0.15765765765765768</v>
+      </c>
+      <c r="P13" s="45">
+        <f>P12*P11</f>
+        <v>0.15371621621621623</v>
+      </c>
+      <c r="Q13">
+        <v>30</v>
+      </c>
+      <c r="R13">
+        <v>101</v>
+      </c>
+      <c r="S13">
+        <v>41</v>
+      </c>
+      <c r="T13">
+        <v>1.6E-2</v>
+      </c>
+      <c r="U13">
+        <v>112.5</v>
+      </c>
+      <c r="W13">
+        <f>R13/500</f>
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="X13" s="1">
+        <f>R13/300</f>
+        <v>0.33666666666666667</v>
+      </c>
+      <c r="Z13" s="2">
+        <f t="shared" ref="Z13:Z18" si="2">T13*25.4</f>
+        <v>0.40639999999999998</v>
+      </c>
+      <c r="AA13" s="5">
+        <f t="shared" ref="AA13:AB18" si="3">X$33/$Z13</f>
+        <v>200.98771897966199</v>
+      </c>
+      <c r="AB13" s="5">
+        <f t="shared" si="3"/>
+        <v>177.79682832816249</v>
+      </c>
+      <c r="AD13" s="34">
+        <f>U13/1000 / (2.54 * 12) * 100</f>
+        <v>0.36909448818897639</v>
+      </c>
+      <c r="AE13" s="4">
+        <f t="shared" ref="AE13:AF16" si="4">$AD13*X$35</f>
+        <v>1.0474303043200683</v>
+      </c>
+      <c r="AF13" s="4">
+        <f t="shared" si="4"/>
+        <v>0.83794424345605445</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="N14" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="O14" s="38">
+        <f>O12^2 * O11</f>
+        <v>0.71016962908854819</v>
+      </c>
+      <c r="P14" s="45">
+        <f>P12^2 * P11</f>
+        <v>0.67510500365230108</v>
+      </c>
+      <c r="Q14">
+        <v>28</v>
+      </c>
+      <c r="R14">
+        <v>163</v>
+      </c>
+      <c r="S14">
+        <v>66</v>
+      </c>
+      <c r="T14">
+        <v>1.9E-2</v>
+      </c>
+      <c r="U14">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="W14">
+        <f t="shared" ref="W14:W16" si="5">R14/500</f>
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="X14" s="1">
+        <f t="shared" ref="X14:X16" si="6">R14/300</f>
+        <v>0.54333333333333333</v>
+      </c>
+      <c r="Z14" s="2">
+        <f t="shared" si="2"/>
+        <v>0.48259999999999997</v>
+      </c>
+      <c r="AA14" s="5">
+        <f t="shared" si="3"/>
+        <v>169.25281598287324</v>
+      </c>
+      <c r="AB14" s="5">
+        <f t="shared" si="3"/>
+        <v>149.72364490792631</v>
+      </c>
+      <c r="AD14" s="34">
+        <f t="shared" ref="AD14:AD16" si="7">U14/1000 / (2.54 * 12) * 100</f>
+        <v>0.23490813648293962</v>
+      </c>
+      <c r="AE14" s="4">
+        <f t="shared" si="4"/>
+        <v>0.66663119812726113</v>
+      </c>
+      <c r="AF14" s="4">
+        <f t="shared" si="4"/>
+        <v>0.53330495850180881</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B15" s="7">
+        <v>300</v>
+      </c>
+      <c r="C15" s="7">
+        <v>300</v>
+      </c>
+      <c r="D15" s="7">
+        <v>300</v>
+      </c>
+      <c r="E15" s="7">
+        <v>300</v>
+      </c>
+      <c r="F15" s="7">
+        <v>300</v>
+      </c>
+      <c r="G15" s="7">
+        <v>300</v>
+      </c>
+      <c r="H15" s="7">
+        <v>300</v>
+      </c>
+      <c r="I15" s="7">
+        <v>300</v>
+      </c>
+      <c r="J15" s="7">
+        <v>300</v>
+      </c>
+      <c r="K15" s="7">
+        <v>300</v>
+      </c>
+      <c r="L15" t="s">
+        <v>123</v>
+      </c>
+      <c r="N15" s="44" t="s">
+        <v>294</v>
+      </c>
+      <c r="O15" s="38">
+        <f>2*O14</f>
+        <v>1.4203392581770964</v>
+      </c>
+      <c r="P15" s="45">
+        <f>2*P14</f>
+        <v>1.3502100073046022</v>
+      </c>
+      <c r="Q15">
+        <v>26</v>
+      </c>
+      <c r="R15">
+        <v>259</v>
+      </c>
+      <c r="S15">
+        <v>105</v>
+      </c>
+      <c r="T15">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="U15">
+        <v>45.1</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="5"/>
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="X15" s="1">
+        <f t="shared" si="6"/>
+        <v>0.86333333333333329</v>
+      </c>
+      <c r="Z15" s="2">
+        <f t="shared" si="2"/>
+        <v>0.66039999999999999</v>
+      </c>
+      <c r="AA15" s="5">
+        <f t="shared" si="3"/>
+        <v>123.68475014133045</v>
+      </c>
+      <c r="AB15" s="5">
+        <f t="shared" si="3"/>
+        <v>109.41343281733077</v>
+      </c>
+      <c r="AD15" s="34">
+        <f t="shared" si="7"/>
+        <v>0.14796587926509186</v>
+      </c>
+      <c r="AE15" s="4">
+        <f t="shared" si="4"/>
+        <v>0.41990317088742291</v>
+      </c>
+      <c r="AF15" s="4">
+        <f t="shared" si="4"/>
+        <v>0.33592253670993827</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="5">
+        <f>B15/B3*B6</f>
+        <v>81.081081081081081</v>
+      </c>
+      <c r="C16" s="5">
+        <f>C15/C3*C6</f>
+        <v>81.081081081081081</v>
+      </c>
+      <c r="D16" s="5">
+        <f>D15/D3*D6</f>
+        <v>81.081081081081081</v>
+      </c>
+      <c r="E16" s="5">
+        <f>E15/E3*E6</f>
+        <v>81.081081081081081</v>
+      </c>
+      <c r="F16" s="5">
+        <f>F15/F3*F6</f>
+        <v>81.081081081081081</v>
+      </c>
+      <c r="G16" s="5">
+        <f>G15/G3*G6</f>
+        <v>60.810810810810807</v>
+      </c>
+      <c r="H16" s="5">
+        <f>H15/H3*H6</f>
+        <v>60.810810810810807</v>
+      </c>
+      <c r="I16" s="5">
+        <f>I15/I3*I6</f>
+        <v>60.810810810810807</v>
+      </c>
+      <c r="J16" s="5">
+        <f>J15/J3*J6</f>
+        <v>60.810810810810807</v>
+      </c>
+      <c r="K16" s="5">
+        <f>K15/K3*K6</f>
+        <v>81.081081081081081</v>
+      </c>
+      <c r="L16" t="s">
+        <v>327</v>
+      </c>
+      <c r="N16" s="46"/>
+      <c r="O16" s="47"/>
+      <c r="P16" s="48"/>
+      <c r="Q16">
+        <v>24</v>
+      </c>
+      <c r="R16">
+        <v>408</v>
+      </c>
+      <c r="S16">
+        <v>165</v>
+      </c>
+      <c r="T16">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="U16">
+        <v>28.7</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="5"/>
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="X16" s="1">
+        <f t="shared" si="6"/>
+        <v>1.36</v>
+      </c>
+      <c r="Z16" s="2">
+        <f t="shared" si="2"/>
+        <v>0.81279999999999997</v>
+      </c>
+      <c r="AA16" s="5">
+        <f t="shared" si="3"/>
+        <v>100.493859489831</v>
+      </c>
+      <c r="AB16" s="5">
+        <f t="shared" si="3"/>
+        <v>88.898414164081245</v>
+      </c>
+      <c r="AD16" s="34">
+        <f t="shared" si="7"/>
+        <v>9.416010498687663E-2</v>
+      </c>
+      <c r="AE16" s="4">
+        <f t="shared" si="4"/>
+        <v>0.2672111087465418</v>
+      </c>
+      <c r="AF16" s="4">
+        <f t="shared" si="4"/>
+        <v>0.21376888699723343</v>
+      </c>
+    </row>
+    <row r="17" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B17" s="2">
+        <f>B11/B15</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C17" s="2">
+        <f>C11/C15</f>
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="D17" s="2">
+        <f>D11/D15</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E17" s="2">
+        <f>E11/E15</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F17" s="2">
+        <f>F11/F15</f>
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="G17" s="2">
+        <f>G11/G15</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H17" s="2">
+        <f>H11/H15</f>
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="I17" s="2">
+        <f>I11/I15</f>
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="J17" s="2">
+        <f>J11/J15</f>
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="K17" s="2">
+        <f>K11/K15</f>
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="L17" t="s">
+        <v>125</v>
+      </c>
+      <c r="S17">
+        <v>270</v>
+      </c>
+      <c r="T17">
+        <v>3.9E-2</v>
+      </c>
+      <c r="Z17" s="2">
+        <f t="shared" si="2"/>
+        <v>0.99059999999999993</v>
+      </c>
+      <c r="AA17" s="5">
+        <f t="shared" si="3"/>
+        <v>82.456500094220303</v>
+      </c>
+      <c r="AB17" s="5">
+        <f t="shared" si="3"/>
+        <v>72.942288544887177</v>
+      </c>
+    </row>
+    <row r="18" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="S18">
+        <v>330</v>
+      </c>
+      <c r="T18">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="Z18" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0668</v>
+      </c>
+      <c r="AA18" s="5">
+        <f t="shared" si="3"/>
+        <v>76.566750087490277</v>
+      </c>
+      <c r="AB18" s="5">
+        <f t="shared" si="3"/>
+        <v>67.732125077395239</v>
+      </c>
+    </row>
+    <row r="19" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B19" s="7">
+        <v>267</v>
+      </c>
+      <c r="C19" s="7">
+        <v>267</v>
+      </c>
+      <c r="D19" s="7">
+        <v>267</v>
+      </c>
+      <c r="E19" s="7">
+        <v>267</v>
+      </c>
+      <c r="F19" s="7">
+        <v>267</v>
+      </c>
+      <c r="G19" s="7">
+        <v>267</v>
+      </c>
+      <c r="H19" s="7">
+        <v>267</v>
+      </c>
+      <c r="I19" s="7">
+        <v>267</v>
+      </c>
+      <c r="J19" s="7">
+        <v>267</v>
+      </c>
+      <c r="K19" s="7">
+        <v>267</v>
+      </c>
+      <c r="L19" t="s">
+        <v>315</v>
+      </c>
+      <c r="S19">
+        <v>420</v>
+      </c>
+      <c r="T19">
+        <v>4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="Q20" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="S20">
+        <v>660</v>
+      </c>
+      <c r="T20">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <f>B15*B19</f>
+        <v>80100</v>
+      </c>
+      <c r="C21">
+        <f>C15*C19</f>
+        <v>80100</v>
+      </c>
+      <c r="D21">
+        <f>D15*D19</f>
+        <v>80100</v>
+      </c>
+      <c r="E21">
+        <f>E15*E19</f>
+        <v>80100</v>
+      </c>
+      <c r="F21">
+        <f>F15*F19</f>
+        <v>80100</v>
+      </c>
+      <c r="G21">
+        <f>G15*G19</f>
+        <v>80100</v>
+      </c>
+      <c r="H21">
+        <f>H15*H19</f>
+        <v>80100</v>
+      </c>
+      <c r="I21">
+        <f>I15*I19</f>
+        <v>80100</v>
+      </c>
+      <c r="J21">
+        <f>J15*J19</f>
+        <v>80100</v>
+      </c>
+      <c r="K21">
+        <f>K15*K19</f>
+        <v>80100</v>
+      </c>
+      <c r="L21" t="s">
+        <v>126</v>
+      </c>
+      <c r="M21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B22" s="2">
+        <f>B11/B21*1000</f>
+        <v>1.2484394506866416</v>
+      </c>
+      <c r="C22" s="2">
+        <f t="shared" ref="C22:K22" si="8">C11/C21*1000</f>
+        <v>1.9975031210986267</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" si="8"/>
+        <v>2.4968789013732833</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="8"/>
+        <v>1.2484394506866416</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="8"/>
+        <v>1.6229712858926342</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="8"/>
+        <v>1.2484394506866416</v>
+      </c>
+      <c r="H22" s="2">
+        <f t="shared" si="8"/>
+        <v>1.6229712858926342</v>
+      </c>
+      <c r="I22" s="2">
+        <f t="shared" si="8"/>
+        <v>1.9975031210986267</v>
+      </c>
+      <c r="J22" s="2">
+        <f t="shared" si="8"/>
+        <v>1.9975031210986267</v>
+      </c>
+      <c r="K22" s="2">
+        <f t="shared" si="8"/>
+        <v>1.9975031210986267</v>
+      </c>
+      <c r="L22" t="s">
+        <v>130</v>
+      </c>
+      <c r="M22" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q22" s="33" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="24" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>300</v>
+      </c>
+      <c r="C24">
+        <v>300</v>
+      </c>
+      <c r="D24">
+        <v>300</v>
+      </c>
+      <c r="E24">
+        <v>300</v>
+      </c>
+      <c r="F24">
+        <v>300</v>
+      </c>
+      <c r="G24">
+        <v>300</v>
+      </c>
+      <c r="H24">
+        <v>300</v>
+      </c>
+      <c r="I24">
+        <v>300</v>
+      </c>
+      <c r="J24">
+        <v>300</v>
+      </c>
+      <c r="K24">
+        <v>300</v>
+      </c>
+      <c r="L24" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q24" s="33" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="25" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <v>300</v>
+      </c>
+      <c r="C25">
+        <v>300</v>
+      </c>
+      <c r="D25">
+        <v>300</v>
+      </c>
+      <c r="E25">
+        <v>300</v>
+      </c>
+      <c r="F25">
+        <v>300</v>
+      </c>
+      <c r="G25">
+        <v>300</v>
+      </c>
+      <c r="H25">
+        <v>300</v>
+      </c>
+      <c r="I25">
+        <v>300</v>
+      </c>
+      <c r="J25">
+        <v>300</v>
+      </c>
+      <c r="K25">
+        <v>300</v>
+      </c>
+      <c r="L25" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="26" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B26" s="4">
+        <f>B24*B13</f>
+        <v>1351.3513513513515</v>
+      </c>
+      <c r="C26" s="4">
+        <f>C24*C13</f>
+        <v>1621.6216216216217</v>
+      </c>
+      <c r="D26" s="4">
+        <f>D24*D13</f>
+        <v>2027.0270270270269</v>
+      </c>
+      <c r="E26" s="4">
+        <f>E24*E13</f>
+        <v>1351.3513513513515</v>
+      </c>
+      <c r="F26" s="4">
+        <f>F24*F13</f>
+        <v>1756.7567567567569</v>
+      </c>
+      <c r="G26" s="4">
+        <f>G24*G13</f>
+        <v>1013.5135135135134</v>
+      </c>
+      <c r="H26" s="4">
+        <f>H24*H13</f>
+        <v>1317.5675675675677</v>
+      </c>
+      <c r="I26" s="4">
+        <f>I24*I13</f>
+        <v>1621.6216216216217</v>
+      </c>
+      <c r="J26" s="4">
+        <f>J24*J13</f>
+        <v>1621.6216216216217</v>
+      </c>
+      <c r="K26" s="4">
+        <f>K24*K13</f>
+        <v>1621.6216216216217</v>
+      </c>
+      <c r="L26" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q26" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="W26" t="s">
+        <v>154</v>
+      </c>
+      <c r="X26">
+        <v>26</v>
+      </c>
+      <c r="Y26">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <f>B25*B17</f>
+        <v>100</v>
+      </c>
+      <c r="C27">
+        <f>C25*C17</f>
+        <v>160</v>
+      </c>
+      <c r="D27">
+        <f>D25*D17</f>
+        <v>200</v>
+      </c>
+      <c r="E27">
+        <f>E25*E17</f>
+        <v>100</v>
+      </c>
+      <c r="F27">
+        <f>F25*F17</f>
+        <v>130</v>
+      </c>
+      <c r="G27">
+        <f>G25*G17</f>
+        <v>100</v>
+      </c>
+      <c r="H27">
+        <f>H25*H17</f>
+        <v>130</v>
+      </c>
+      <c r="I27">
+        <f>I25*I17</f>
+        <v>160</v>
+      </c>
+      <c r="J27">
+        <f>J24*J17</f>
+        <v>160</v>
+      </c>
+      <c r="K27">
+        <f>K24*K17</f>
+        <v>160</v>
+      </c>
+      <c r="L27" t="s">
+        <v>128</v>
+      </c>
+      <c r="O27" t="s">
+        <v>290</v>
+      </c>
+      <c r="W27" t="s">
+        <v>152</v>
+      </c>
+      <c r="X27">
+        <v>45</v>
+      </c>
+      <c r="Y27">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B28" s="2">
+        <f>B24*(B22/1000)</f>
+        <v>0.37453183520599254</v>
+      </c>
+      <c r="C28" s="2">
+        <f t="shared" ref="C28:K28" si="9">C24*(C22/1000)</f>
+        <v>0.59925093632958804</v>
+      </c>
+      <c r="D28" s="2">
+        <f t="shared" si="9"/>
+        <v>0.74906367041198507</v>
+      </c>
+      <c r="E28" s="2">
+        <f t="shared" si="9"/>
+        <v>0.37453183520599254</v>
+      </c>
+      <c r="F28" s="2">
+        <f t="shared" si="9"/>
+        <v>0.48689138576779023</v>
+      </c>
+      <c r="G28" s="2">
+        <f t="shared" si="9"/>
+        <v>0.37453183520599254</v>
+      </c>
+      <c r="H28" s="2">
+        <f t="shared" si="9"/>
+        <v>0.48689138576779023</v>
+      </c>
+      <c r="I28" s="2">
+        <f t="shared" si="9"/>
+        <v>0.59925093632958804</v>
+      </c>
+      <c r="J28" s="2">
+        <f t="shared" si="9"/>
+        <v>0.59925093632958804</v>
+      </c>
+      <c r="K28" s="2">
+        <f t="shared" si="9"/>
+        <v>0.59925093632958804</v>
+      </c>
+      <c r="L28" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q28" s="33" t="s">
+        <v>261</v>
+      </c>
+      <c r="W28" t="s">
+        <v>153</v>
+      </c>
+      <c r="X28">
+        <v>8</v>
+      </c>
+      <c r="Y28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="W29" t="s">
+        <v>244</v>
+      </c>
+      <c r="X29">
+        <v>1</v>
+      </c>
+      <c r="Y29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B30" s="4">
+        <f t="shared" ref="B30:K30" si="10">1630/660</f>
+        <v>2.4696969696969697</v>
+      </c>
+      <c r="C30" s="4">
+        <f t="shared" si="10"/>
+        <v>2.4696969696969697</v>
+      </c>
+      <c r="D30" s="4">
+        <f t="shared" si="10"/>
+        <v>2.4696969696969697</v>
+      </c>
+      <c r="E30" s="4">
+        <f t="shared" si="10"/>
+        <v>2.4696969696969697</v>
+      </c>
+      <c r="F30" s="4">
+        <f t="shared" si="10"/>
+        <v>2.4696969696969697</v>
+      </c>
+      <c r="G30" s="4">
+        <f t="shared" si="10"/>
+        <v>2.4696969696969697</v>
+      </c>
+      <c r="H30" s="4">
+        <f t="shared" si="10"/>
+        <v>2.4696969696969697</v>
+      </c>
+      <c r="I30" s="4">
+        <f t="shared" si="10"/>
+        <v>2.4696969696969697</v>
+      </c>
+      <c r="J30" s="4">
+        <f t="shared" si="10"/>
+        <v>2.4696969696969697</v>
+      </c>
+      <c r="K30" s="4">
+        <f t="shared" si="10"/>
+        <v>2.4696969696969697</v>
+      </c>
+      <c r="L30" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q30" s="33" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="31" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="W31" t="s">
+        <v>276</v>
+      </c>
+      <c r="X31">
+        <f>(X27-X26)/2*X28/100</f>
+        <v>0.76</v>
+      </c>
+      <c r="Y31">
+        <f>(Y27-Y26)/2*Y28/100</f>
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="32" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B32" s="5">
+        <f t="shared" ref="B32:K32" si="11">B26/B30</f>
+        <v>547.17293981097669</v>
+      </c>
+      <c r="C32" s="5">
+        <f t="shared" si="11"/>
+        <v>656.60752777317191</v>
+      </c>
+      <c r="D32" s="5">
+        <f t="shared" ref="D32" si="12">D26/D30</f>
+        <v>820.7594097164648</v>
+      </c>
+      <c r="E32" s="5">
+        <f t="shared" si="11"/>
+        <v>547.17293981097669</v>
+      </c>
+      <c r="F32" s="5">
+        <f>F26/F30</f>
+        <v>711.32482175426969</v>
+      </c>
+      <c r="G32" s="5">
+        <f t="shared" ref="G32" si="13">G26/G30</f>
+        <v>410.3797048582324</v>
+      </c>
+      <c r="H32" s="5">
+        <f t="shared" si="11"/>
+        <v>533.4936163157023</v>
+      </c>
+      <c r="I32" s="5">
+        <f t="shared" si="11"/>
+        <v>656.60752777317191</v>
+      </c>
+      <c r="J32" s="5">
+        <f>J26/J30</f>
+        <v>656.60752777317191</v>
+      </c>
+      <c r="K32" s="5">
+        <f t="shared" si="11"/>
+        <v>656.60752777317191</v>
+      </c>
+      <c r="L32" t="s">
+        <v>132</v>
+      </c>
+      <c r="W32" t="s">
+        <v>266</v>
+      </c>
+      <c r="X32">
+        <f>((X27-X26) + (2*X28) )/10 * X29</f>
+        <v>3.5</v>
+      </c>
+      <c r="Y32">
+        <f>((Y27-Y26) + (2*Y28) )/10</f>
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B33" s="5">
+        <f t="shared" ref="B33:K33" si="14">B27/B30</f>
+        <v>40.490797546012267</v>
+      </c>
+      <c r="C33" s="5">
+        <f t="shared" si="14"/>
+        <v>64.785276073619627</v>
+      </c>
+      <c r="D33" s="5">
+        <f t="shared" ref="D33" si="15">D27/D30</f>
+        <v>80.981595092024534</v>
+      </c>
+      <c r="E33" s="5">
+        <f t="shared" si="14"/>
+        <v>40.490797546012267</v>
+      </c>
+      <c r="F33" s="5">
+        <f>F27/F30</f>
+        <v>52.638036809815951</v>
+      </c>
+      <c r="G33" s="5">
+        <f t="shared" ref="G33" si="16">G27/G30</f>
+        <v>40.490797546012267</v>
+      </c>
+      <c r="H33" s="5">
+        <f t="shared" si="14"/>
+        <v>52.638036809815951</v>
+      </c>
+      <c r="I33" s="5">
+        <f t="shared" si="14"/>
+        <v>64.785276073619627</v>
+      </c>
+      <c r="J33" s="5">
+        <f>J27/J30</f>
+        <v>64.785276073619627</v>
+      </c>
+      <c r="K33" s="5">
+        <f t="shared" si="14"/>
+        <v>64.785276073619627</v>
+      </c>
+      <c r="L33" t="s">
+        <v>133</v>
+      </c>
+      <c r="M33" t="s">
+        <v>252</v>
+      </c>
+      <c r="W33" t="s">
+        <v>267</v>
+      </c>
+      <c r="X33" s="5">
+        <f xml:space="preserve"> PI() * X26</f>
+        <v>81.681408993334628</v>
+      </c>
+      <c r="Y33" s="5">
+        <f xml:space="preserve"> PI() * Y26</f>
+        <v>72.256631032565238</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="W34" t="s">
+        <v>277</v>
+      </c>
+      <c r="X34" s="4">
+        <f>PI() * (X27-((X27-X26)/2)) /10 * X31</f>
+        <v>8.4760169793852622</v>
+      </c>
+      <c r="Y34" s="4">
+        <f>PI() * (Y27-((Y27-Y26)/2)) /10 * Y31</f>
+        <v>4.6181412007769955</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>292</v>
+      </c>
+      <c r="C35" t="s">
+        <v>292</v>
+      </c>
+      <c r="D35" t="s">
+        <v>324</v>
+      </c>
+      <c r="E35" t="s">
+        <v>292</v>
+      </c>
+      <c r="F35" t="s">
+        <v>292</v>
+      </c>
+      <c r="G35" t="s">
+        <v>295</v>
+      </c>
+      <c r="H35" t="s">
+        <v>292</v>
+      </c>
+      <c r="I35" t="s">
+        <v>292</v>
+      </c>
+      <c r="J35" t="s">
+        <v>292</v>
+      </c>
+      <c r="K35" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>284</v>
+      </c>
+      <c r="W35" t="s">
+        <v>272</v>
+      </c>
+      <c r="X35">
+        <f>$B16*X32 /100</f>
+        <v>2.8378378378378382</v>
+      </c>
+      <c r="Y35">
+        <f>$B16*Y32 /100</f>
+        <v>2.2702702702702702</v>
+      </c>
+    </row>
+    <row r="36" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>165</v>
+      </c>
+      <c r="C36" t="s">
+        <v>326</v>
+      </c>
+      <c r="D36" t="s">
+        <v>163</v>
+      </c>
+      <c r="E36" t="s">
+        <v>165</v>
+      </c>
+      <c r="F36" t="s">
+        <v>326</v>
+      </c>
+      <c r="G36" t="s">
+        <v>165</v>
+      </c>
+      <c r="H36" t="s">
+        <v>326</v>
+      </c>
+      <c r="I36" t="s">
+        <v>326</v>
+      </c>
+      <c r="J36" t="s">
+        <v>326</v>
+      </c>
+      <c r="K36" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>102</v>
+      </c>
+      <c r="R36" s="20">
+        <v>1250000</v>
+      </c>
+      <c r="W36" t="s">
+        <v>273</v>
+      </c>
+      <c r="X36" s="5">
+        <f>X35*100 / (2.54 * 12)</f>
+        <v>9.3104915939561614</v>
+      </c>
+      <c r="Y36" s="5">
+        <f>Y35*100 / (2.54 * 12)</f>
+        <v>7.4483932751649284</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="Q37" t="s">
+        <v>285</v>
+      </c>
+      <c r="R37">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="D38" t="s">
+        <v>325</v>
+      </c>
+      <c r="M38" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="O38" s="2">
+        <v>14.8</v>
+      </c>
+      <c r="W38" t="s">
+        <v>274</v>
+      </c>
+      <c r="X38" s="5">
+        <f>X36*3</f>
+        <v>27.931474781868484</v>
+      </c>
+      <c r="Y38" s="5">
+        <f>Y36*3</f>
+        <v>22.345179825494785</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="L39" s="36"/>
+      <c r="M39">
+        <v>6</v>
+      </c>
+      <c r="N39" t="s">
+        <v>302</v>
+      </c>
+      <c r="O39" s="2"/>
+      <c r="Q39" t="s">
+        <v>286</v>
+      </c>
+      <c r="R39" s="5">
+        <f>3/(0.01*(1-R37))</f>
+        <v>3000.0000000000005</v>
+      </c>
+      <c r="S39" t="s">
+        <v>275</v>
+      </c>
+      <c r="V39">
+        <v>1.5</v>
+      </c>
+      <c r="W39" t="s">
         <v>282</v>
       </c>
-      <c r="L9" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B10" s="7">
+      <c r="X39" s="5">
+        <f>X35*100/(PI() * $V39)</f>
+        <v>60.220789278014458</v>
+      </c>
+      <c r="Y39" s="5">
+        <f>Y35*100/(PI() * $V39)</f>
+        <v>48.176631422411567</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="M40">
+        <v>24</v>
+      </c>
+      <c r="N40" t="s">
+        <v>303</v>
+      </c>
+      <c r="O40" s="2">
+        <f>(M40*M41)/(M39/2)</f>
+        <v>32</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>287</v>
+      </c>
+      <c r="R40" s="35">
+        <f>(1.6*R37)/(R39*R36)</f>
+        <v>3.8400000000000002E-10</v>
+      </c>
+      <c r="S40" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="M41">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>298</v>
+      </c>
+      <c r="O41" s="2"/>
+      <c r="Y41" s="4">
+        <f>Y39*T15</f>
+        <v>1.2525924169827007</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="M42">
+        <v>1</v>
+      </c>
+      <c r="N42" t="s">
+        <v>299</v>
+      </c>
+      <c r="O42" s="2"/>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="M43" t="s">
+        <v>300</v>
+      </c>
+      <c r="N43" t="s">
+        <v>301</v>
+      </c>
+      <c r="O43" s="2">
+        <f>O38*O40</f>
+        <v>473.6</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="L44">
+        <f>MAX(M47,N47)</f>
+        <v>0.45599999999999996</v>
+      </c>
+      <c r="M44">
+        <v>6.2E-2</v>
+      </c>
+      <c r="N44">
+        <v>1.9E-2</v>
+      </c>
+      <c r="O44" s="2"/>
+      <c r="Q44" t="s">
+        <v>102</v>
+      </c>
+      <c r="R44" s="20">
+        <v>1200000</v>
+      </c>
+      <c r="U44" t="s">
+        <v>286</v>
+      </c>
+      <c r="V44">
+        <v>5000</v>
+      </c>
+      <c r="W44" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="L45">
+        <f>M48+N48</f>
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="M45">
+        <f>M44*25.4</f>
+        <v>1.5748</v>
+      </c>
+      <c r="N45">
+        <f>N44*25.4</f>
+        <v>0.48259999999999997</v>
+      </c>
+      <c r="O45" s="2"/>
+      <c r="Q45" t="s">
+        <v>285</v>
+      </c>
+      <c r="R45">
+        <v>0.88</v>
+      </c>
+      <c r="U45" t="s">
+        <v>287</v>
+      </c>
+      <c r="V45" s="20">
+        <v>3.9E-10</v>
+      </c>
+      <c r="W45" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="M46">
+        <f>M45*M42</f>
+        <v>1.5748</v>
+      </c>
+      <c r="N46">
+        <f>N45*M41</f>
+        <v>1.9303999999999999</v>
+      </c>
+      <c r="O46" s="2"/>
+      <c r="U46" t="s">
+        <v>285</v>
+      </c>
+      <c r="V46" s="2">
+        <f>1-(300/V44)</f>
+        <v>0.94</v>
+      </c>
+      <c r="W46" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="L47">
+        <f>M50/25.4</f>
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="M47">
+        <f>M39*M44</f>
+        <v>0.372</v>
+      </c>
+      <c r="N47">
+        <f>M40*N44</f>
+        <v>0.45599999999999996</v>
+      </c>
+      <c r="O47" s="2"/>
+      <c r="Q47" t="s">
+        <v>286</v>
+      </c>
+      <c r="R47" s="5">
+        <f>3/(0.01*(1-R45))</f>
+        <v>2500</v>
+      </c>
+      <c r="S47" t="s">
+        <v>275</v>
+      </c>
+      <c r="U47" t="s">
+        <v>102</v>
+      </c>
+      <c r="V47" s="20">
+        <f xml:space="preserve"> (1.6*V46)/(V44*V45)</f>
+        <v>771282.05128205125</v>
+      </c>
+      <c r="W47" t="s">
+        <v>63</v>
+      </c>
+      <c r="X47" s="5">
+        <f>1/V47*(1-V46)*1000000000</f>
+        <v>77.792553191489432</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="L48">
+        <f>M51/25.4</f>
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="M48">
+        <f>M42*M44</f>
+        <v>6.2E-2</v>
+      </c>
+      <c r="N48">
+        <f>M41*N44</f>
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="O48" s="2"/>
+      <c r="Q48" t="s">
+        <v>287</v>
+      </c>
+      <c r="R48" s="35">
+        <f>(1.6*R45)/(R47*R44)</f>
+        <v>4.6933333333333337E-10</v>
+      </c>
+      <c r="S48" t="s">
+        <v>288</v>
+      </c>
+      <c r="V48" s="5">
+        <f>1/V47*1000000000</f>
+        <v>1296.5425531914896</v>
+      </c>
+      <c r="W48" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="49" spans="12:25" x14ac:dyDescent="0.2">
+      <c r="O49" s="2"/>
+    </row>
+    <row r="50" spans="12:25" x14ac:dyDescent="0.2">
+      <c r="M50">
+        <f>MAX(M39*M45,M40*N45)</f>
+        <v>11.5824</v>
+      </c>
+      <c r="N50" t="s">
+        <v>296</v>
+      </c>
+      <c r="O50" s="2"/>
+    </row>
+    <row r="51" spans="12:25" x14ac:dyDescent="0.2">
+      <c r="M51">
+        <f>M46+N46</f>
+        <v>3.5051999999999999</v>
+      </c>
+      <c r="N51" t="s">
+        <v>297</v>
+      </c>
+      <c r="O51" s="2"/>
+      <c r="Q51" t="s">
+        <v>286</v>
+      </c>
+      <c r="R51">
+        <v>2500</v>
+      </c>
+      <c r="S51" t="s">
+        <v>275</v>
+      </c>
+      <c r="U51" t="s">
+        <v>286</v>
+      </c>
+      <c r="V51">
+        <v>3500</v>
+      </c>
+      <c r="W51" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="52" spans="12:25" x14ac:dyDescent="0.2">
+      <c r="O52" s="2"/>
+      <c r="Q52" t="s">
+        <v>287</v>
+      </c>
+      <c r="R52" s="20">
+        <v>4.7000000000000003E-10</v>
+      </c>
+      <c r="S52" t="s">
+        <v>288</v>
+      </c>
+      <c r="U52" t="s">
+        <v>287</v>
+      </c>
+      <c r="V52" s="20">
+        <v>3.9E-10</v>
+      </c>
+      <c r="W52" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="53" spans="12:25" x14ac:dyDescent="0.2">
+      <c r="O53" s="2"/>
+      <c r="Q53" t="s">
+        <v>285</v>
+      </c>
+      <c r="R53" s="2">
+        <f>1-(300/R51)</f>
+        <v>0.88</v>
+      </c>
+      <c r="S53" t="s">
+        <v>289</v>
+      </c>
+      <c r="U53" t="s">
+        <v>285</v>
+      </c>
+      <c r="V53" s="2">
+        <f>1-(300/V51)</f>
+        <v>0.91428571428571426</v>
+      </c>
+      <c r="W53" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="54" spans="12:25" x14ac:dyDescent="0.2">
+      <c r="M54">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="O54" s="2"/>
+      <c r="Q54" t="s">
+        <v>102</v>
+      </c>
+      <c r="R54" s="20">
+        <f xml:space="preserve"> (1.6*R53)/(R51*R52)</f>
+        <v>1198297.8723404256</v>
+      </c>
+      <c r="S54" t="s">
+        <v>63</v>
+      </c>
+      <c r="U54" t="s">
+        <v>102</v>
+      </c>
+      <c r="V54" s="20">
+        <f xml:space="preserve"> (1.6*V53)/(V51*V52)</f>
+        <v>1071690.2145473573</v>
+      </c>
+      <c r="W54" t="s">
+        <v>63</v>
+      </c>
+      <c r="X54" s="5">
+        <f>1/V54*(1-V53)*1000000000</f>
+        <v>79.980468750000043</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="55" spans="12:25" x14ac:dyDescent="0.2">
+      <c r="M55">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="O55" s="2"/>
+      <c r="V55" s="5">
+        <f>1/V54*1000000000</f>
+        <v>933.10546875000011</v>
+      </c>
+      <c r="W55" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="56" spans="12:25" x14ac:dyDescent="0.2">
+      <c r="M56">
+        <f>M54-M55</f>
+        <v>0.27999999999999997</v>
+      </c>
+      <c r="O56" s="2"/>
+    </row>
+    <row r="57" spans="12:25" x14ac:dyDescent="0.2">
+      <c r="M57">
+        <f>M56/2</f>
+        <v>0.13999999999999999</v>
+      </c>
+      <c r="O57" s="2"/>
+      <c r="Q57" t="s">
+        <v>286</v>
+      </c>
+      <c r="R57">
+        <v>2700</v>
+      </c>
+      <c r="S57" t="s">
+        <v>275</v>
+      </c>
+      <c r="U57" t="s">
+        <v>286</v>
+      </c>
+      <c r="V57">
+        <v>3000</v>
+      </c>
+      <c r="W57" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="58" spans="12:25" x14ac:dyDescent="0.2">
+      <c r="O58" s="2"/>
+      <c r="Q58" t="s">
+        <v>287</v>
+      </c>
+      <c r="R58" s="20">
+        <v>4.7000000000000003E-10</v>
+      </c>
+      <c r="S58" t="s">
+        <v>288</v>
+      </c>
+      <c r="U58" t="s">
+        <v>287</v>
+      </c>
+      <c r="V58" s="20">
+        <v>3.9E-10</v>
+      </c>
+      <c r="W58" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="59" spans="12:25" x14ac:dyDescent="0.2">
+      <c r="M59" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="O59" s="2">
+        <v>14.8</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>285</v>
+      </c>
+      <c r="R59" s="2">
+        <f>1-(300/R57)</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="S59" t="s">
+        <v>289</v>
+      </c>
+      <c r="U59" t="s">
+        <v>285</v>
+      </c>
+      <c r="V59" s="2">
+        <f>1-(300/V57)</f>
+        <v>0.9</v>
+      </c>
+      <c r="W59" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="60" spans="12:25" x14ac:dyDescent="0.2">
+      <c r="L60" s="36"/>
+      <c r="M60">
+        <v>6</v>
+      </c>
+      <c r="N60" t="s">
+        <v>302</v>
+      </c>
+      <c r="O60" s="2"/>
+      <c r="Q60" t="s">
+        <v>102</v>
+      </c>
+      <c r="R60" s="20">
+        <f xml:space="preserve"> (1.6*R59)/(R57*R58)</f>
+        <v>1120742.4919008843</v>
+      </c>
+      <c r="S60" t="s">
+        <v>63</v>
+      </c>
+      <c r="U60" t="s">
+        <v>102</v>
+      </c>
+      <c r="V60" s="20">
+        <f xml:space="preserve"> (1.6*V59)/(V57*V58)</f>
+        <v>1230769.230769231</v>
+      </c>
+      <c r="W60" t="s">
+        <v>63</v>
+      </c>
+      <c r="X60" s="5">
+        <f>1/V60*(1-V59)*1000000000</f>
+        <v>81.249999999999957</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="61" spans="12:25" x14ac:dyDescent="0.2">
+      <c r="M61">
+        <v>16</v>
+      </c>
+      <c r="N61" t="s">
+        <v>303</v>
+      </c>
+      <c r="O61" s="2">
+        <f>(M61*M62)/(M60/2)</f>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="V61" s="5">
+        <f>1/V60*1000000000</f>
+        <v>812.49999999999989</v>
+      </c>
+      <c r="W61" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="62" spans="12:25" x14ac:dyDescent="0.2">
+      <c r="M62">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>298</v>
+      </c>
+      <c r="O62" s="2"/>
+    </row>
+    <row r="63" spans="12:25" x14ac:dyDescent="0.2">
+      <c r="M63">
+        <v>1</v>
+      </c>
+      <c r="N63" t="s">
+        <v>299</v>
+      </c>
+      <c r="O63" s="2"/>
+      <c r="Q63" t="s">
+        <v>286</v>
+      </c>
+      <c r="R63">
+        <v>3000</v>
+      </c>
+      <c r="S63" t="s">
+        <v>275</v>
+      </c>
+      <c r="U63" t="s">
+        <v>286</v>
+      </c>
+      <c r="V63">
+        <v>2500</v>
+      </c>
+      <c r="W63" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="64" spans="12:25" x14ac:dyDescent="0.2">
+      <c r="M64" t="s">
+        <v>300</v>
+      </c>
+      <c r="N64" t="s">
+        <v>301</v>
+      </c>
+      <c r="O64" s="2">
+        <f>O59*O61</f>
+        <v>394.66666666666669</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>287</v>
+      </c>
+      <c r="R64" s="20">
+        <v>4.7000000000000003E-10</v>
+      </c>
+      <c r="S64" t="s">
+        <v>288</v>
+      </c>
+      <c r="U64" t="s">
+        <v>287</v>
+      </c>
+      <c r="V64" s="20">
+        <v>3.9E-10</v>
+      </c>
+      <c r="W64" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="65" spans="12:25" x14ac:dyDescent="0.2">
+      <c r="L65">
+        <f>MAX(M68,N68)</f>
+        <v>0.28800000000000003</v>
+      </c>
+      <c r="M65">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="N65">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="O65" s="2"/>
+      <c r="Q65" t="s">
+        <v>285</v>
+      </c>
+      <c r="R65" s="2">
+        <f>1-(300/R63)</f>
+        <v>0.9</v>
+      </c>
+      <c r="S65" t="s">
+        <v>289</v>
+      </c>
+      <c r="U65" t="s">
+        <v>285</v>
+      </c>
+      <c r="V65" s="2">
+        <f>1-(300/V63)</f>
+        <v>0.88</v>
+      </c>
+      <c r="W65" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="66" spans="12:25" x14ac:dyDescent="0.2">
+      <c r="L66">
+        <f>M69+N69</f>
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="M66">
+        <f>M65*25.4</f>
+        <v>1.2192000000000001</v>
+      </c>
+      <c r="N66">
+        <f>N65*25.4</f>
+        <v>0.43180000000000002</v>
+      </c>
+      <c r="O66" s="2"/>
+      <c r="Q66" t="s">
+        <v>102</v>
+      </c>
+      <c r="R66" s="20">
+        <f xml:space="preserve"> (1.6*R65)/(R63*R64)</f>
+        <v>1021276.595744681</v>
+      </c>
+      <c r="S66" t="s">
+        <v>63</v>
+      </c>
+      <c r="U66" t="s">
+        <v>102</v>
+      </c>
+      <c r="V66" s="20">
+        <f xml:space="preserve"> (1.6*V65)/(V63*V64)</f>
+        <v>1444102.5641025642</v>
+      </c>
+      <c r="W66" t="s">
+        <v>63</v>
+      </c>
+      <c r="X66" s="5">
+        <f>1/V66*(1-V65)*1000000000</f>
+        <v>83.096590909090892</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="67" spans="12:25" x14ac:dyDescent="0.2">
+      <c r="M67">
+        <f>M66*M63</f>
+        <v>1.2192000000000001</v>
+      </c>
+      <c r="N67">
+        <f>N66*M62</f>
+        <v>2.1590000000000003</v>
+      </c>
+      <c r="O67" s="2"/>
+      <c r="V67" s="5">
+        <f>1/V66*1000000000</f>
+        <v>692.47159090909076</v>
+      </c>
+      <c r="W67" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="68" spans="12:25" x14ac:dyDescent="0.2">
+      <c r="L68">
+        <f>M71/25.4</f>
+        <v>0.28800000000000003</v>
+      </c>
+      <c r="M68">
+        <f>M60*M65</f>
+        <v>0.28800000000000003</v>
+      </c>
+      <c r="N68">
+        <f>M61*N65</f>
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="O68" s="2"/>
+    </row>
+    <row r="69" spans="12:25" x14ac:dyDescent="0.2">
+      <c r="L69">
+        <f>M72/25.4</f>
+        <v>0.13300000000000003</v>
+      </c>
+      <c r="M69">
+        <f>M63*M65</f>
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="N69">
+        <f>M62*N65</f>
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="O69" s="2"/>
+      <c r="Q69" t="s">
+        <v>286</v>
+      </c>
+      <c r="R69">
+        <v>2200</v>
+      </c>
+      <c r="S69" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="70" spans="12:25" x14ac:dyDescent="0.2">
+      <c r="O70" s="2"/>
+      <c r="Q70" t="s">
+        <v>287</v>
+      </c>
+      <c r="R70" s="20">
+        <v>4.7000000000000003E-10</v>
+      </c>
+      <c r="S70" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="71" spans="12:25" x14ac:dyDescent="0.2">
+      <c r="M71">
+        <f>MAX(M60*M66,M61*N66)</f>
+        <v>7.3152000000000008</v>
+      </c>
+      <c r="N71" t="s">
+        <v>296</v>
+      </c>
+      <c r="O71" s="2"/>
+      <c r="Q71" t="s">
+        <v>285</v>
+      </c>
+      <c r="R71" s="2">
+        <f>1-(300/R69)</f>
+        <v>0.86363636363636365</v>
+      </c>
+      <c r="S71" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="72" spans="12:25" x14ac:dyDescent="0.2">
+      <c r="M72">
+        <f>M67+N67</f>
+        <v>3.3782000000000005</v>
+      </c>
+      <c r="N72" t="s">
+        <v>297</v>
+      </c>
+      <c r="O72" s="2"/>
+      <c r="Q72" t="s">
+        <v>102</v>
+      </c>
+      <c r="R72" s="20">
+        <f xml:space="preserve"> (1.6*R71)/(R69*R70)</f>
+        <v>1336381.2203270618</v>
+      </c>
+      <c r="S72" t="s">
+        <v>63</v>
+      </c>
+      <c r="T72" s="5">
+        <f>1/R72*(1-R71)*1000000000</f>
+        <v>102.03947368421052</v>
+      </c>
+      <c r="U72" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="74" spans="12:25" x14ac:dyDescent="0.2">
+      <c r="R74" s="20">
+        <f>R71/R72</f>
+        <v>6.4624999999999995E-7</v>
+      </c>
+    </row>
+    <row r="75" spans="12:25" x14ac:dyDescent="0.2">
+      <c r="M75">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="N75" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="76" spans="12:25" x14ac:dyDescent="0.2">
+      <c r="M76">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="N76" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="77" spans="12:25" x14ac:dyDescent="0.2">
+      <c r="M77">
+        <f>M75-M76</f>
+        <v>0.27999999999999997</v>
+      </c>
+      <c r="N77" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="78" spans="12:25" x14ac:dyDescent="0.2">
+      <c r="M78">
+        <f>M77/2</f>
+        <v>0.13999999999999999</v>
+      </c>
+      <c r="N78" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="81" spans="13:14" x14ac:dyDescent="0.2">
+      <c r="M81" s="18" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="83" spans="13:14" x14ac:dyDescent="0.2">
+      <c r="M83">
+        <f xml:space="preserve"> 6.25 * 10^5</f>
+        <v>625000</v>
+      </c>
+      <c r="N83" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="84" spans="13:14" x14ac:dyDescent="0.2">
+      <c r="M84">
+        <v>15</v>
+      </c>
+      <c r="N84" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="85" spans="13:14" x14ac:dyDescent="0.2">
+      <c r="M85">
+        <v>360</v>
+      </c>
+      <c r="N85" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="7">
-        <v>200</v>
-      </c>
-      <c r="D10" s="7">
-        <v>130</v>
-      </c>
-      <c r="E10" s="7">
-        <v>130</v>
-      </c>
-      <c r="F10" s="7">
-        <v>160</v>
-      </c>
-      <c r="G10" s="7">
-        <v>200</v>
-      </c>
-      <c r="H10" s="7">
-        <v>200</v>
-      </c>
-      <c r="I10" s="7">
-        <v>200</v>
-      </c>
-      <c r="J10" t="s">
-        <v>121</v>
-      </c>
-      <c r="L10" s="39" t="s">
-        <v>296</v>
-      </c>
-      <c r="M10" s="40"/>
-      <c r="N10" s="41"/>
-      <c r="Q10">
-        <v>660</v>
-      </c>
-      <c r="R10">
-        <v>6.2E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B11" s="2">
-        <f t="shared" ref="B11:I11" si="2">B10/B3</f>
-        <v>9.0090090090090094</v>
-      </c>
-      <c r="C11" s="2">
-        <f t="shared" si="2"/>
-        <v>13.513513513513512</v>
-      </c>
-      <c r="D11" s="2">
-        <f t="shared" si="2"/>
-        <v>11.711711711711713</v>
-      </c>
-      <c r="E11" s="2">
-        <f t="shared" si="2"/>
-        <v>8.7837837837837842</v>
-      </c>
-      <c r="F11" s="2">
-        <f t="shared" si="2"/>
-        <v>10.810810810810811</v>
-      </c>
-      <c r="G11" s="2">
-        <f t="shared" si="2"/>
-        <v>18.018018018018019</v>
-      </c>
-      <c r="H11" s="2">
-        <f t="shared" si="2"/>
-        <v>13.513513513513512</v>
-      </c>
-      <c r="I11" s="2">
-        <f t="shared" si="2"/>
-        <v>13.513513513513512</v>
-      </c>
-      <c r="J11" t="s">
-        <v>122</v>
-      </c>
-      <c r="L11" s="42" t="s">
-        <v>256</v>
-      </c>
-      <c r="M11" s="37">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="N11" s="43">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="Q11">
-        <v>60</v>
-      </c>
-      <c r="R11">
-        <v>1.9E-2</v>
-      </c>
-      <c r="U11" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="L12" s="44" t="s">
-        <v>257</v>
-      </c>
-      <c r="M12" s="38">
-        <f>B11/2</f>
-        <v>4.5045045045045047</v>
-      </c>
-      <c r="N12" s="45">
-        <f>E11/2</f>
-        <v>4.3918918918918921</v>
-      </c>
-      <c r="O12" t="s">
-        <v>265</v>
-      </c>
-      <c r="P12" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>266</v>
-      </c>
-      <c r="R12" t="s">
-        <v>267</v>
-      </c>
-      <c r="S12" t="s">
-        <v>273</v>
-      </c>
-      <c r="U12" t="s">
-        <v>163</v>
-      </c>
-      <c r="V12" t="s">
-        <v>271</v>
-      </c>
-      <c r="X12" t="s">
-        <v>270</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>272</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B13">
-        <v>14</v>
-      </c>
-      <c r="C13">
-        <v>14</v>
-      </c>
-      <c r="D13">
-        <v>14</v>
-      </c>
-      <c r="E13">
-        <v>14</v>
-      </c>
-      <c r="F13">
-        <v>14</v>
-      </c>
-      <c r="G13">
-        <v>14</v>
-      </c>
-      <c r="H13">
-        <v>14</v>
-      </c>
-      <c r="I13">
-        <v>14</v>
-      </c>
-      <c r="J13" t="s">
-        <v>123</v>
-      </c>
-      <c r="L13" s="44" t="s">
-        <v>258</v>
-      </c>
-      <c r="M13" s="38">
-        <f>M12*M11</f>
-        <v>0.15765765765765768</v>
-      </c>
-      <c r="N13" s="45">
-        <f>N12*N11</f>
-        <v>0.15371621621621623</v>
-      </c>
-      <c r="O13">
-        <v>30</v>
-      </c>
-      <c r="P13">
-        <v>101</v>
-      </c>
-      <c r="Q13">
-        <v>41</v>
-      </c>
-      <c r="R13">
-        <v>1.6E-2</v>
-      </c>
-      <c r="S13">
-        <v>112.5</v>
-      </c>
-      <c r="U13">
-        <f>P13/500</f>
-        <v>0.20200000000000001</v>
-      </c>
-      <c r="V13" s="1">
-        <f>P13/300</f>
-        <v>0.33666666666666667</v>
-      </c>
-      <c r="X13" s="2">
-        <f t="shared" ref="X13:X18" si="3">R13*25.4</f>
-        <v>0.40639999999999998</v>
-      </c>
-      <c r="Y13" s="5">
-        <f t="shared" ref="Y13:Z18" si="4">V$33/$X13</f>
-        <v>200.98771897966199</v>
-      </c>
-      <c r="Z13" s="5">
-        <f t="shared" si="4"/>
-        <v>177.79682832816249</v>
-      </c>
-      <c r="AB13" s="34">
-        <f>S13/1000 / (2.54 * 12) * 100</f>
-        <v>0.36909448818897639</v>
-      </c>
-      <c r="AC13" s="4">
-        <f t="shared" ref="AC13:AD16" si="5">$AB13*V$35</f>
-        <v>1.3965737390934241</v>
-      </c>
-      <c r="AD13" s="4">
-        <f t="shared" si="5"/>
-        <v>1.1172589912747395</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B14">
-        <v>16</v>
-      </c>
-      <c r="C14">
-        <v>16</v>
-      </c>
-      <c r="D14">
-        <v>16</v>
-      </c>
-      <c r="E14">
-        <v>16</v>
-      </c>
-      <c r="F14">
-        <v>16</v>
-      </c>
-      <c r="G14">
-        <v>16</v>
-      </c>
-      <c r="H14">
-        <v>16</v>
-      </c>
-      <c r="I14">
-        <v>16</v>
-      </c>
-      <c r="J14" t="s">
-        <v>123</v>
-      </c>
-      <c r="L14" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="M14" s="38">
-        <f>M12^2 * M11</f>
-        <v>0.71016962908854819</v>
-      </c>
-      <c r="N14" s="45">
-        <f>N12^2 * N11</f>
-        <v>0.67510500365230108</v>
-      </c>
-      <c r="O14">
-        <v>28</v>
-      </c>
-      <c r="P14">
-        <v>163</v>
-      </c>
-      <c r="Q14">
-        <v>66</v>
-      </c>
-      <c r="R14">
-        <v>1.9E-2</v>
-      </c>
-      <c r="S14">
-        <v>71.599999999999994</v>
-      </c>
-      <c r="U14">
-        <f t="shared" ref="U14:U16" si="6">P14/500</f>
-        <v>0.32600000000000001</v>
-      </c>
-      <c r="V14" s="1">
-        <f t="shared" ref="V14:V16" si="7">P14/300</f>
-        <v>0.54333333333333333</v>
-      </c>
-      <c r="X14" s="2">
-        <f t="shared" si="3"/>
-        <v>0.48259999999999997</v>
-      </c>
-      <c r="Y14" s="5">
-        <f t="shared" si="4"/>
-        <v>169.25281598287324</v>
-      </c>
-      <c r="Z14" s="5">
-        <f t="shared" si="4"/>
-        <v>149.72364490792631</v>
-      </c>
-      <c r="AB14" s="34">
-        <f t="shared" ref="AB14:AB16" si="8">S14/1000 / (2.54 * 12) * 100</f>
-        <v>0.23490813648293962</v>
-      </c>
-      <c r="AC14" s="4">
-        <f t="shared" si="5"/>
-        <v>0.88884159750301484</v>
-      </c>
-      <c r="AD14" s="4">
-        <f t="shared" si="5"/>
-        <v>0.71107327800241182</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="L15" s="44" t="s">
-        <v>297</v>
-      </c>
-      <c r="M15" s="38">
-        <f>2*M14</f>
-        <v>1.4203392581770964</v>
-      </c>
-      <c r="N15" s="45">
-        <f>2*N14</f>
-        <v>1.3502100073046022</v>
-      </c>
-      <c r="O15">
-        <v>26</v>
-      </c>
-      <c r="P15">
-        <v>259</v>
-      </c>
-      <c r="Q15">
-        <v>105</v>
-      </c>
-      <c r="R15">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="S15">
-        <v>45.1</v>
-      </c>
-      <c r="U15">
-        <f t="shared" si="6"/>
-        <v>0.51800000000000002</v>
-      </c>
-      <c r="V15" s="1">
-        <f t="shared" si="7"/>
-        <v>0.86333333333333329</v>
-      </c>
-      <c r="X15" s="2">
-        <f t="shared" si="3"/>
-        <v>0.66039999999999999</v>
-      </c>
-      <c r="Y15" s="5">
-        <f t="shared" si="4"/>
-        <v>123.68475014133045</v>
-      </c>
-      <c r="Z15" s="5">
-        <f t="shared" si="4"/>
-        <v>109.41343281733077</v>
-      </c>
-      <c r="AB15" s="34">
-        <f t="shared" si="8"/>
-        <v>0.14796587926509186</v>
-      </c>
-      <c r="AC15" s="4">
-        <f t="shared" si="5"/>
-        <v>0.5598708945165638</v>
-      </c>
-      <c r="AD15" s="4">
-        <f t="shared" si="5"/>
-        <v>0.44789671561325106</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="7">
-        <v>400</v>
-      </c>
-      <c r="C16" s="7">
-        <v>400</v>
-      </c>
-      <c r="D16" s="7">
-        <v>400</v>
-      </c>
-      <c r="E16" s="7">
-        <v>400</v>
-      </c>
-      <c r="F16" s="7">
-        <v>400</v>
-      </c>
-      <c r="G16" s="7">
-        <v>400</v>
-      </c>
-      <c r="H16" s="7">
-        <v>400</v>
-      </c>
-      <c r="I16" s="7">
-        <v>400</v>
-      </c>
-      <c r="J16" t="s">
-        <v>124</v>
-      </c>
-      <c r="L16" s="46"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="48"/>
-      <c r="O16">
-        <v>24</v>
-      </c>
-      <c r="P16">
-        <v>408</v>
-      </c>
-      <c r="Q16">
-        <v>165</v>
-      </c>
-      <c r="R16">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="S16">
-        <v>28.7</v>
-      </c>
-      <c r="U16">
-        <f t="shared" si="6"/>
-        <v>0.81599999999999995</v>
-      </c>
-      <c r="V16" s="1">
-        <f t="shared" si="7"/>
-        <v>1.36</v>
-      </c>
-      <c r="X16" s="2">
-        <f t="shared" si="3"/>
-        <v>0.81279999999999997</v>
-      </c>
-      <c r="Y16" s="5">
-        <f t="shared" si="4"/>
-        <v>100.493859489831</v>
-      </c>
-      <c r="Z16" s="5">
-        <f t="shared" si="4"/>
-        <v>88.898414164081245</v>
-      </c>
-      <c r="AB16" s="34">
-        <f t="shared" si="8"/>
-        <v>9.416010498687663E-2</v>
-      </c>
-      <c r="AC16" s="4">
-        <f t="shared" si="5"/>
-        <v>0.35628147832872237</v>
-      </c>
-      <c r="AD16" s="4">
-        <f t="shared" si="5"/>
-        <v>0.28502518266297794</v>
-      </c>
-    </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B17" s="5">
-        <f t="shared" ref="B17:I17" si="9">B16/B3*B6</f>
-        <v>108.10810810810811</v>
-      </c>
-      <c r="C17" s="5">
-        <f t="shared" si="9"/>
-        <v>81.081081081081066</v>
-      </c>
-      <c r="D17" s="5">
-        <f t="shared" si="9"/>
-        <v>72.072072072072075</v>
-      </c>
-      <c r="E17" s="5">
-        <f t="shared" si="9"/>
-        <v>81.081081081081066</v>
-      </c>
-      <c r="F17" s="5">
-        <f t="shared" si="9"/>
-        <v>81.081081081081066</v>
-      </c>
-      <c r="G17" s="5">
-        <f t="shared" si="9"/>
-        <v>72.072072072072075</v>
-      </c>
-      <c r="H17" s="5">
-        <f t="shared" si="9"/>
-        <v>81.081081081081066</v>
-      </c>
-      <c r="I17" s="5">
-        <f t="shared" si="9"/>
-        <v>108.1081081081081</v>
-      </c>
-      <c r="J17" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q17">
-        <v>270</v>
-      </c>
-      <c r="R17">
-        <v>3.9E-2</v>
-      </c>
-      <c r="X17" s="2">
-        <f t="shared" si="3"/>
-        <v>0.99059999999999993</v>
-      </c>
-      <c r="Y17" s="5">
-        <f t="shared" si="4"/>
-        <v>82.456500094220303</v>
-      </c>
-      <c r="Z17" s="5">
-        <f t="shared" si="4"/>
-        <v>72.942288544887177</v>
-      </c>
-    </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="Q18">
-        <v>330</v>
-      </c>
-      <c r="R18">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="X18" s="2">
-        <f t="shared" si="3"/>
-        <v>1.0668</v>
-      </c>
-      <c r="Y18" s="5">
-        <f t="shared" si="4"/>
-        <v>76.566750087490277</v>
-      </c>
-      <c r="Z18" s="5">
-        <f t="shared" si="4"/>
-        <v>67.732125077395239</v>
-      </c>
-    </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B19" s="2">
-        <f>B11/2</f>
-        <v>4.5045045045045047</v>
-      </c>
-      <c r="C19" s="2">
-        <f>C11/2</f>
-        <v>6.7567567567567561</v>
-      </c>
-      <c r="D19" s="2">
-        <f t="shared" ref="D19:F19" si="10">D11/2</f>
-        <v>5.8558558558558564</v>
-      </c>
-      <c r="E19" s="2">
-        <f t="shared" si="10"/>
-        <v>4.3918918918918921</v>
-      </c>
-      <c r="F19" s="2">
-        <f t="shared" si="10"/>
-        <v>5.4054054054054053</v>
-      </c>
-      <c r="G19" s="2">
-        <f t="shared" ref="G19:H19" si="11">G11/2</f>
-        <v>9.0090090090090094</v>
-      </c>
-      <c r="H19" s="2">
-        <f t="shared" si="11"/>
-        <v>6.7567567567567561</v>
-      </c>
-      <c r="I19" s="2">
-        <f t="shared" ref="I19" si="12">I11/2</f>
-        <v>6.7567567567567561</v>
-      </c>
-      <c r="J19" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q19">
-        <v>420</v>
-      </c>
-      <c r="R19">
-        <v>4.8000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B20">
-        <f>B10/B16</f>
-        <v>0.25</v>
-      </c>
-      <c r="C20">
-        <f>C10/C16</f>
-        <v>0.5</v>
-      </c>
-      <c r="D20">
-        <f t="shared" ref="D20:F20" si="13">D10/D16</f>
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="13"/>
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="13"/>
-        <v>0.4</v>
-      </c>
-      <c r="G20">
-        <f t="shared" ref="G20:H20" si="14">G10/G16</f>
-        <v>0.5</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="14"/>
-        <v>0.5</v>
-      </c>
-      <c r="I20">
-        <f t="shared" ref="I20" si="15">I10/I16</f>
-        <v>0.5</v>
-      </c>
-      <c r="J20" t="s">
-        <v>127</v>
-      </c>
-      <c r="O20" s="33" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q20">
-        <v>660</v>
-      </c>
-      <c r="R20">
-        <v>6.2E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B22" s="7">
-        <v>200</v>
-      </c>
-      <c r="C22" s="7">
-        <v>200</v>
-      </c>
-      <c r="D22" s="7">
-        <v>200</v>
-      </c>
-      <c r="E22" s="7">
-        <v>200</v>
-      </c>
-      <c r="F22" s="7">
-        <v>200</v>
-      </c>
-      <c r="G22" s="7">
-        <v>200</v>
-      </c>
-      <c r="H22" s="7">
-        <v>200</v>
-      </c>
-      <c r="I22" s="7">
-        <v>200</v>
-      </c>
-      <c r="J22" t="s">
-        <v>320</v>
-      </c>
-      <c r="O22" s="33" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B24">
-        <f t="shared" ref="B24:I24" si="16">B16*B22</f>
-        <v>80000</v>
-      </c>
-      <c r="C24">
-        <f t="shared" si="16"/>
-        <v>80000</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="16"/>
-        <v>80000</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="16"/>
-        <v>80000</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="16"/>
-        <v>80000</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="16"/>
-        <v>80000</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="16"/>
-        <v>80000</v>
-      </c>
-      <c r="I24">
-        <f t="shared" si="16"/>
-        <v>80000</v>
-      </c>
-      <c r="J24" t="s">
-        <v>128</v>
-      </c>
-      <c r="O24" s="33" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="25" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B25">
-        <f t="shared" ref="B25:I25" si="17">B10/B24</f>
-        <v>1.25E-3</v>
-      </c>
-      <c r="C25">
-        <f t="shared" si="17"/>
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="17"/>
-        <v>1.6249999999999999E-3</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="17"/>
-        <v>1.6249999999999999E-3</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="17"/>
-        <v>2E-3</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="17"/>
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="17"/>
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="I25">
-        <f t="shared" si="17"/>
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="J25" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="26" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="O26" s="33" t="s">
-        <v>262</v>
-      </c>
-      <c r="U26" t="s">
-        <v>156</v>
-      </c>
-      <c r="V26">
-        <v>26</v>
-      </c>
-      <c r="W26">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B27">
-        <v>300</v>
-      </c>
-      <c r="C27">
-        <v>300</v>
-      </c>
-      <c r="D27">
-        <v>300</v>
-      </c>
-      <c r="E27">
-        <v>300</v>
-      </c>
-      <c r="F27">
-        <v>300</v>
-      </c>
-      <c r="G27">
-        <v>300</v>
-      </c>
-      <c r="H27">
-        <v>300</v>
-      </c>
-      <c r="I27">
-        <v>300</v>
-      </c>
-      <c r="J27" t="s">
+    </row>
+    <row r="86" spans="13:14" x14ac:dyDescent="0.2">
+      <c r="M86" s="5">
+        <f>2*PI()*M83</f>
+        <v>3926990.8169872416</v>
+      </c>
+      <c r="N86" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="87" spans="13:14" x14ac:dyDescent="0.2">
+      <c r="M87" s="5">
+        <f>1/(M86*(M84* 10^-12))</f>
+        <v>16976.5272631355</v>
+      </c>
+      <c r="N87" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="88" spans="13:14" x14ac:dyDescent="0.2">
+      <c r="M88" s="1">
+        <f>M85/M87</f>
+        <v>2.1205750411731106E-2</v>
+      </c>
+      <c r="N88" t="s">
         <v>317</v>
       </c>
-      <c r="M27" t="s">
-        <v>292</v>
-      </c>
-      <c r="U27" t="s">
-        <v>154</v>
-      </c>
-      <c r="V27">
-        <v>45</v>
-      </c>
-      <c r="W27">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B28">
-        <v>300</v>
-      </c>
-      <c r="C28">
-        <v>300</v>
-      </c>
-      <c r="D28">
-        <v>300</v>
-      </c>
-      <c r="E28">
-        <v>300</v>
-      </c>
-      <c r="F28">
-        <v>300</v>
-      </c>
-      <c r="G28">
-        <v>300</v>
-      </c>
-      <c r="H28">
-        <v>300</v>
-      </c>
-      <c r="I28">
-        <v>300</v>
-      </c>
-      <c r="J28" t="s">
-        <v>318</v>
-      </c>
-      <c r="O28" s="33" t="s">
-        <v>263</v>
-      </c>
-      <c r="U28" t="s">
-        <v>155</v>
-      </c>
-      <c r="V28">
-        <v>8</v>
-      </c>
-      <c r="W28">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B29" s="4">
-        <f>B27/2*B19</f>
-        <v>675.67567567567573</v>
-      </c>
-      <c r="C29" s="4">
-        <f>C27/2*C19</f>
-        <v>1013.5135135135134</v>
-      </c>
-      <c r="D29" s="4">
-        <f t="shared" ref="D29" si="18">D27/2*D19</f>
-        <v>878.37837837837844</v>
-      </c>
-      <c r="E29" s="4">
-        <f t="shared" ref="E29:G29" si="19">E27/2*E19</f>
-        <v>658.78378378378386</v>
-      </c>
-      <c r="F29" s="4">
-        <f t="shared" ref="F29" si="20">F27/2*F19</f>
-        <v>810.81081081081084</v>
-      </c>
-      <c r="G29" s="4">
-        <f t="shared" si="19"/>
-        <v>1351.3513513513515</v>
-      </c>
-      <c r="H29" s="4">
-        <f t="shared" ref="H29:I29" si="21">H27/2*H19</f>
-        <v>1013.5135135135134</v>
-      </c>
-      <c r="I29" s="4">
-        <f t="shared" si="21"/>
-        <v>1013.5135135135134</v>
-      </c>
-      <c r="J29" t="s">
-        <v>129</v>
-      </c>
-      <c r="U29" t="s">
-        <v>246</v>
-      </c>
-      <c r="V29">
-        <v>1</v>
-      </c>
-      <c r="W29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B30">
-        <f>B28*B20</f>
-        <v>75</v>
-      </c>
-      <c r="C30">
-        <f>C28*C20</f>
-        <v>150</v>
-      </c>
-      <c r="D30">
-        <f t="shared" ref="D30:G30" si="22">D28*D20</f>
-        <v>97.5</v>
-      </c>
-      <c r="E30">
-        <f t="shared" si="22"/>
-        <v>97.5</v>
-      </c>
-      <c r="F30">
-        <f t="shared" si="22"/>
-        <v>120</v>
-      </c>
-      <c r="G30">
-        <f t="shared" si="22"/>
-        <v>150</v>
-      </c>
-      <c r="H30">
-        <f>H27*H20</f>
-        <v>150</v>
-      </c>
-      <c r="I30">
-        <f>I27*I20</f>
-        <v>150</v>
-      </c>
-      <c r="J30" t="s">
-        <v>130</v>
-      </c>
-      <c r="O30" s="33" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="31" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B31" s="2">
-        <f t="shared" ref="B31:I31" si="23">B27*B25</f>
-        <v>0.375</v>
-      </c>
-      <c r="C31" s="2">
-        <f t="shared" si="23"/>
-        <v>0.75</v>
-      </c>
-      <c r="D31" s="2">
-        <f t="shared" si="23"/>
-        <v>0.48749999999999999</v>
-      </c>
-      <c r="E31" s="2">
-        <f t="shared" si="23"/>
-        <v>0.48749999999999999</v>
-      </c>
-      <c r="F31" s="2">
-        <f t="shared" si="23"/>
-        <v>0.6</v>
-      </c>
-      <c r="G31" s="2">
-        <f t="shared" si="23"/>
-        <v>0.75</v>
-      </c>
-      <c r="H31" s="2">
-        <f t="shared" si="23"/>
-        <v>0.75</v>
-      </c>
-      <c r="I31" s="2">
-        <f t="shared" si="23"/>
-        <v>0.75</v>
-      </c>
-      <c r="J31" t="s">
-        <v>131</v>
-      </c>
-      <c r="U31" t="s">
-        <v>278</v>
-      </c>
-      <c r="V31">
-        <f>(V27-V26)/2*V28/100</f>
-        <v>0.76</v>
-      </c>
-      <c r="W31">
-        <f>(W27-W26)/2*W28/100</f>
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="32" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="U32" t="s">
-        <v>268</v>
-      </c>
-      <c r="V32">
-        <f>((V27-V26) + (2*V28) )/10 * V29</f>
-        <v>3.5</v>
-      </c>
-      <c r="W32">
-        <f>((W27-W26) + (2*W28) )/10</f>
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B33" s="4">
-        <f t="shared" ref="B33:I33" si="24">1630/660</f>
-        <v>2.4696969696969697</v>
-      </c>
-      <c r="C33" s="4">
-        <f t="shared" si="24"/>
-        <v>2.4696969696969697</v>
-      </c>
-      <c r="D33" s="4">
-        <f t="shared" si="24"/>
-        <v>2.4696969696969697</v>
-      </c>
-      <c r="E33" s="4">
-        <f t="shared" si="24"/>
-        <v>2.4696969696969697</v>
-      </c>
-      <c r="F33" s="4">
-        <f t="shared" si="24"/>
-        <v>2.4696969696969697</v>
-      </c>
-      <c r="G33" s="4">
-        <f t="shared" si="24"/>
-        <v>2.4696969696969697</v>
-      </c>
-      <c r="H33" s="4">
-        <f t="shared" si="24"/>
-        <v>2.4696969696969697</v>
-      </c>
-      <c r="I33" s="4">
-        <f t="shared" si="24"/>
-        <v>2.4696969696969697</v>
-      </c>
-      <c r="J33" t="s">
-        <v>319</v>
-      </c>
-      <c r="K33" t="s">
-        <v>254</v>
-      </c>
-      <c r="U33" t="s">
-        <v>269</v>
-      </c>
-      <c r="V33" s="5">
-        <f xml:space="preserve"> PI() * V26</f>
-        <v>81.681408993334628</v>
-      </c>
-      <c r="W33" s="5">
-        <f xml:space="preserve"> PI() * W26</f>
-        <v>72.256631032565238</v>
-      </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="U34" t="s">
-        <v>279</v>
-      </c>
-      <c r="V34" s="4">
-        <f>PI() * (V27-((V27-V26)/2)) /10 * V31</f>
-        <v>8.4760169793852622</v>
-      </c>
-      <c r="W34" s="4">
-        <f>PI() * (W27-((W27-W26)/2)) /10 * W31</f>
-        <v>4.6181412007769955</v>
-      </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B35" s="5">
-        <f t="shared" ref="B35:I35" si="25">B29/B33</f>
-        <v>273.58646990548834</v>
-      </c>
-      <c r="C35" s="5">
-        <f t="shared" si="25"/>
-        <v>410.3797048582324</v>
-      </c>
-      <c r="D35" s="5">
-        <f t="shared" si="25"/>
-        <v>355.66241087713485</v>
-      </c>
-      <c r="E35" s="5">
-        <f t="shared" si="25"/>
-        <v>266.74680815785115</v>
-      </c>
-      <c r="F35" s="5">
-        <f t="shared" si="25"/>
-        <v>328.30376388658595</v>
-      </c>
-      <c r="G35" s="5">
-        <f t="shared" si="25"/>
-        <v>547.17293981097669</v>
-      </c>
-      <c r="H35" s="5">
-        <f t="shared" si="25"/>
-        <v>410.3797048582324</v>
-      </c>
-      <c r="I35" s="5">
-        <f t="shared" si="25"/>
-        <v>410.3797048582324</v>
-      </c>
-      <c r="J35" t="s">
-        <v>134</v>
-      </c>
-      <c r="O35" t="s">
-        <v>286</v>
-      </c>
-      <c r="U35" t="s">
-        <v>274</v>
-      </c>
-      <c r="V35">
-        <f>$B17*V32 /100</f>
-        <v>3.7837837837837838</v>
-      </c>
-      <c r="W35">
-        <f>$B17*W32 /100</f>
-        <v>3.0270270270270272</v>
-      </c>
-    </row>
-    <row r="36" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B36" s="5">
-        <f t="shared" ref="B36:I36" si="26">B30/B33</f>
-        <v>30.368098159509202</v>
-      </c>
-      <c r="C36" s="5">
-        <f t="shared" si="26"/>
-        <v>60.736196319018404</v>
-      </c>
-      <c r="D36" s="5">
-        <f t="shared" si="26"/>
-        <v>39.478527607361961</v>
-      </c>
-      <c r="E36" s="5">
-        <f t="shared" si="26"/>
-        <v>39.478527607361961</v>
-      </c>
-      <c r="F36" s="5">
-        <f t="shared" si="26"/>
-        <v>48.588957055214721</v>
-      </c>
-      <c r="G36" s="5">
-        <f t="shared" si="26"/>
-        <v>60.736196319018404</v>
-      </c>
-      <c r="H36" s="5">
-        <f t="shared" si="26"/>
-        <v>60.736196319018404</v>
-      </c>
-      <c r="I36" s="5">
-        <f t="shared" si="26"/>
-        <v>60.736196319018404</v>
-      </c>
-      <c r="J36" t="s">
-        <v>135</v>
-      </c>
-      <c r="O36" t="s">
-        <v>102</v>
-      </c>
-      <c r="P36" s="20">
-        <v>1250000</v>
-      </c>
-      <c r="U36" t="s">
-        <v>275</v>
-      </c>
-      <c r="V36" s="5">
-        <f>V35*100 / (2.54 * 12)</f>
-        <v>12.413988791941549</v>
-      </c>
-      <c r="W36" s="5">
-        <f>W35*100 / (2.54 * 12)</f>
-        <v>9.9311910335532385</v>
-      </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="O37" t="s">
-        <v>287</v>
-      </c>
-      <c r="P37">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
-        <v>316</v>
-      </c>
-      <c r="C38" t="s">
-        <v>298</v>
-      </c>
-      <c r="D38" t="s">
-        <v>315</v>
-      </c>
-      <c r="E38" t="s">
-        <v>316</v>
-      </c>
-      <c r="F38" t="s">
-        <v>315</v>
-      </c>
-      <c r="G38" t="s">
-        <v>295</v>
-      </c>
-      <c r="H38" t="s">
-        <v>298</v>
-      </c>
-      <c r="I38" t="s">
-        <v>298</v>
-      </c>
-      <c r="K38" s="18" t="s">
-        <v>309</v>
-      </c>
-      <c r="M38" s="2">
-        <v>14.8</v>
-      </c>
-      <c r="U38" t="s">
-        <v>276</v>
-      </c>
-      <c r="V38" s="5">
-        <f>V36*3</f>
-        <v>37.241966375824646</v>
-      </c>
-      <c r="W38" s="5">
-        <f>W36*3</f>
-        <v>29.793573100659714</v>
-      </c>
-      <c r="X38" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
-        <v>294</v>
-      </c>
-      <c r="C39" t="s">
-        <v>294</v>
-      </c>
-      <c r="D39" t="s">
-        <v>294</v>
-      </c>
-      <c r="E39" t="s">
-        <v>294</v>
-      </c>
-      <c r="F39" t="s">
-        <v>294</v>
-      </c>
-      <c r="G39" t="s">
-        <v>294</v>
-      </c>
-      <c r="H39" t="s">
-        <v>294</v>
-      </c>
-      <c r="I39" t="s">
-        <v>294</v>
-      </c>
-      <c r="K39">
-        <v>6</v>
-      </c>
-      <c r="L39" t="s">
-        <v>305</v>
-      </c>
-      <c r="M39" s="2"/>
-      <c r="O39" t="s">
-        <v>288</v>
-      </c>
-      <c r="P39" s="5">
-        <f>3/(0.01*(1-P37))</f>
-        <v>3000.0000000000005</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>277</v>
-      </c>
-      <c r="T39">
-        <v>1.5</v>
-      </c>
-      <c r="U39" t="s">
-        <v>284</v>
-      </c>
-      <c r="V39" s="5">
-        <f>V35*100/(PI() * $T39)</f>
-        <v>80.294385704019277</v>
-      </c>
-      <c r="W39" s="5">
-        <f>W35*100/(PI() * $T39)</f>
-        <v>64.235508563215419</v>
-      </c>
-      <c r="X39" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="K40">
-        <v>24</v>
-      </c>
-      <c r="L40" t="s">
-        <v>306</v>
-      </c>
-      <c r="M40" s="2">
-        <f>(K40*K41)/(K39/2)</f>
-        <v>32</v>
-      </c>
-      <c r="O40" t="s">
-        <v>289</v>
-      </c>
-      <c r="P40" s="35">
-        <f>(1.6*P37)/(P39*P36)</f>
-        <v>3.8400000000000002E-10</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="K41">
-        <v>4</v>
-      </c>
-      <c r="L41" t="s">
-        <v>301</v>
-      </c>
-      <c r="M41" s="2"/>
-      <c r="W41" s="4">
-        <f>W39*R15</f>
-        <v>1.6701232226436009</v>
-      </c>
-      <c r="X41" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="J42" s="36"/>
-      <c r="K42">
-        <v>1</v>
-      </c>
-      <c r="L42" t="s">
-        <v>302</v>
-      </c>
-      <c r="M42" s="2"/>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="K43" t="s">
-        <v>303</v>
-      </c>
-      <c r="L43" t="s">
-        <v>304</v>
-      </c>
-      <c r="M43" s="2">
-        <f>M38*M40</f>
-        <v>473.6</v>
-      </c>
-      <c r="O43" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="K44">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="L44">
-        <v>1.9E-2</v>
-      </c>
-      <c r="M44" s="2"/>
-      <c r="O44" t="s">
-        <v>102</v>
-      </c>
-      <c r="P44" s="20">
-        <v>1200000</v>
-      </c>
-      <c r="S44" t="s">
-        <v>288</v>
-      </c>
-      <c r="T44">
-        <v>5000</v>
-      </c>
-      <c r="U44" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="K45">
-        <f>K44*25.4</f>
-        <v>1.2192000000000001</v>
-      </c>
-      <c r="L45">
-        <f>L44*25.4</f>
-        <v>0.48259999999999997</v>
-      </c>
-      <c r="M45" s="2"/>
-      <c r="O45" t="s">
-        <v>287</v>
-      </c>
-      <c r="P45">
-        <v>0.88</v>
-      </c>
-      <c r="S45" t="s">
-        <v>289</v>
-      </c>
-      <c r="T45" s="20">
-        <v>3.9E-10</v>
-      </c>
-      <c r="U45" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="K46">
-        <f>K45*K42</f>
-        <v>1.2192000000000001</v>
-      </c>
-      <c r="L46">
-        <f>L45*K41</f>
-        <v>1.9303999999999999</v>
-      </c>
-      <c r="M46" s="2"/>
-      <c r="S46" t="s">
-        <v>287</v>
-      </c>
-      <c r="T46" s="2">
-        <f>1-(300/T44)</f>
-        <v>0.94</v>
-      </c>
-      <c r="U46" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="J47">
-        <f>MAX(K47,L47)</f>
-        <v>0.45599999999999996</v>
-      </c>
-      <c r="K47">
-        <f>K39*K44</f>
-        <v>0.28800000000000003</v>
-      </c>
-      <c r="L47">
-        <f>K40*L44</f>
-        <v>0.45599999999999996</v>
-      </c>
-      <c r="M47" s="2"/>
-      <c r="O47" t="s">
-        <v>288</v>
-      </c>
-      <c r="P47" s="5">
-        <f>3/(0.01*(1-P45))</f>
-        <v>2500</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>277</v>
-      </c>
-      <c r="S47" t="s">
-        <v>102</v>
-      </c>
-      <c r="T47" s="20">
-        <f xml:space="preserve"> (1.6*T46)/(T44*T45)</f>
-        <v>771282.05128205125</v>
-      </c>
-      <c r="U47" t="s">
-        <v>63</v>
-      </c>
-      <c r="V47" s="5">
-        <f>1/T47*(1-T46)*1000000000</f>
-        <v>77.792553191489432</v>
-      </c>
-      <c r="W47" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="J48">
-        <f>K48+L48</f>
-        <v>0.124</v>
-      </c>
-      <c r="K48">
-        <f>K42*K44</f>
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="L48">
-        <f>K41*L44</f>
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="M48" s="2"/>
-      <c r="O48" t="s">
-        <v>289</v>
-      </c>
-      <c r="P48" s="35">
-        <f>(1.6*P45)/(P47*P44)</f>
-        <v>4.6933333333333337E-10</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>290</v>
-      </c>
-      <c r="T48" s="5">
-        <f>1/T47*1000000000</f>
-        <v>1296.5425531914896</v>
-      </c>
-      <c r="U48" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="49" spans="10:23" x14ac:dyDescent="0.2">
-      <c r="M49" s="2"/>
-    </row>
-    <row r="50" spans="10:23" x14ac:dyDescent="0.2">
-      <c r="J50">
-        <f>K50/25.4</f>
-        <v>0.45600000000000002</v>
-      </c>
-      <c r="K50">
-        <f>MAX(K39*K45,K40*L45)</f>
-        <v>11.5824</v>
-      </c>
-      <c r="L50" t="s">
-        <v>299</v>
-      </c>
-      <c r="M50" s="2"/>
-    </row>
-    <row r="51" spans="10:23" x14ac:dyDescent="0.2">
-      <c r="J51">
-        <f>K51/25.4</f>
-        <v>0.124</v>
-      </c>
-      <c r="K51">
-        <f>K46+L46</f>
-        <v>3.1496</v>
-      </c>
-      <c r="L51" t="s">
-        <v>300</v>
-      </c>
-      <c r="M51" s="2"/>
-      <c r="O51" t="s">
-        <v>288</v>
-      </c>
-      <c r="P51">
-        <v>2500</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>277</v>
-      </c>
-      <c r="S51" t="s">
-        <v>288</v>
-      </c>
-      <c r="T51">
-        <v>3500</v>
-      </c>
-      <c r="U51" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="52" spans="10:23" x14ac:dyDescent="0.2">
-      <c r="M52" s="2"/>
-      <c r="O52" t="s">
-        <v>289</v>
-      </c>
-      <c r="P52" s="20">
-        <v>4.7000000000000003E-10</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>290</v>
-      </c>
-      <c r="S52" t="s">
-        <v>289</v>
-      </c>
-      <c r="T52" s="20">
-        <v>3.9E-10</v>
-      </c>
-      <c r="U52" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="53" spans="10:23" x14ac:dyDescent="0.2">
-      <c r="M53" s="2"/>
-      <c r="O53" t="s">
-        <v>287</v>
-      </c>
-      <c r="P53" s="2">
-        <f>1-(300/P51)</f>
-        <v>0.88</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>291</v>
-      </c>
-      <c r="S53" t="s">
-        <v>287</v>
-      </c>
-      <c r="T53" s="2">
-        <f>1-(300/T51)</f>
-        <v>0.91428571428571426</v>
-      </c>
-      <c r="U53" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="54" spans="10:23" x14ac:dyDescent="0.2">
-      <c r="K54">
-        <v>0.70699999999999996</v>
-      </c>
-      <c r="M54" s="2"/>
-      <c r="O54" t="s">
-        <v>102</v>
-      </c>
-      <c r="P54" s="20">
-        <f xml:space="preserve"> (1.6*P53)/(P51*P52)</f>
-        <v>1198297.8723404256</v>
-      </c>
-      <c r="Q54" t="s">
-        <v>63</v>
-      </c>
-      <c r="S54" t="s">
-        <v>102</v>
-      </c>
-      <c r="T54" s="20">
-        <f xml:space="preserve"> (1.6*T53)/(T51*T52)</f>
-        <v>1071690.2145473573</v>
-      </c>
-      <c r="U54" t="s">
-        <v>63</v>
-      </c>
-      <c r="V54" s="5">
-        <f>1/T54*(1-T53)*1000000000</f>
-        <v>79.980468750000043</v>
-      </c>
-      <c r="W54" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="55" spans="10:23" x14ac:dyDescent="0.2">
-      <c r="K55">
-        <v>0.42699999999999999</v>
-      </c>
-      <c r="M55" s="2"/>
-      <c r="T55" s="5">
-        <f>1/T54*1000000000</f>
-        <v>933.10546875000011</v>
-      </c>
-      <c r="U55" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="56" spans="10:23" x14ac:dyDescent="0.2">
-      <c r="K56">
-        <f>K54-K55</f>
-        <v>0.27999999999999997</v>
-      </c>
-      <c r="M56" s="2"/>
-    </row>
-    <row r="57" spans="10:23" x14ac:dyDescent="0.2">
-      <c r="K57">
-        <f>K56/2</f>
-        <v>0.13999999999999999</v>
-      </c>
-      <c r="M57" s="2"/>
-      <c r="O57" t="s">
-        <v>288</v>
-      </c>
-      <c r="P57">
-        <v>2700</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>277</v>
-      </c>
-      <c r="S57" t="s">
-        <v>288</v>
-      </c>
-      <c r="T57">
-        <v>3000</v>
-      </c>
-      <c r="U57" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="58" spans="10:23" x14ac:dyDescent="0.2">
-      <c r="M58" s="2"/>
-      <c r="O58" t="s">
-        <v>289</v>
-      </c>
-      <c r="P58" s="20">
-        <v>4.7000000000000003E-10</v>
-      </c>
-      <c r="Q58" t="s">
-        <v>290</v>
-      </c>
-      <c r="S58" t="s">
-        <v>289</v>
-      </c>
-      <c r="T58" s="20">
-        <v>3.9E-10</v>
-      </c>
-      <c r="U58" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="59" spans="10:23" x14ac:dyDescent="0.2">
-      <c r="K59" s="18" t="s">
-        <v>310</v>
-      </c>
-      <c r="M59" s="2">
-        <v>14.8</v>
-      </c>
-      <c r="O59" t="s">
-        <v>287</v>
-      </c>
-      <c r="P59" s="2">
-        <f>1-(300/P57)</f>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>291</v>
-      </c>
-      <c r="S59" t="s">
-        <v>287</v>
-      </c>
-      <c r="T59" s="2">
-        <f>1-(300/T57)</f>
-        <v>0.9</v>
-      </c>
-      <c r="U59" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="60" spans="10:23" x14ac:dyDescent="0.2">
-      <c r="K60">
-        <v>6</v>
-      </c>
-      <c r="L60" t="s">
-        <v>305</v>
-      </c>
-      <c r="M60" s="2"/>
-      <c r="O60" t="s">
-        <v>102</v>
-      </c>
-      <c r="P60" s="20">
-        <f xml:space="preserve"> (1.6*P59)/(P57*P58)</f>
-        <v>1120742.4919008843</v>
-      </c>
-      <c r="Q60" t="s">
-        <v>63</v>
-      </c>
-      <c r="S60" t="s">
-        <v>102</v>
-      </c>
-      <c r="T60" s="20">
-        <f xml:space="preserve"> (1.6*T59)/(T57*T58)</f>
-        <v>1230769.230769231</v>
-      </c>
-      <c r="U60" t="s">
-        <v>63</v>
-      </c>
-      <c r="V60" s="5">
-        <f>1/T60*(1-T59)*1000000000</f>
-        <v>81.249999999999957</v>
-      </c>
-      <c r="W60" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="61" spans="10:23" x14ac:dyDescent="0.2">
-      <c r="K61">
-        <v>18</v>
-      </c>
-      <c r="L61" t="s">
-        <v>306</v>
-      </c>
-      <c r="M61" s="2">
-        <f>(K61*K62)/(K60/2)</f>
-        <v>30</v>
-      </c>
-      <c r="T61" s="5">
-        <f>1/T60*1000000000</f>
-        <v>812.49999999999989</v>
-      </c>
-      <c r="U61" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="62" spans="10:23" x14ac:dyDescent="0.2">
-      <c r="K62">
-        <v>5</v>
-      </c>
-      <c r="L62" t="s">
-        <v>301</v>
-      </c>
-      <c r="M62" s="2"/>
-    </row>
-    <row r="63" spans="10:23" x14ac:dyDescent="0.2">
-      <c r="J63" s="36"/>
-      <c r="K63">
-        <v>1</v>
-      </c>
-      <c r="L63" t="s">
-        <v>302</v>
-      </c>
-      <c r="M63" s="2"/>
-      <c r="O63" t="s">
-        <v>288</v>
-      </c>
-      <c r="P63">
-        <v>3000</v>
-      </c>
-      <c r="Q63" t="s">
-        <v>277</v>
-      </c>
-      <c r="S63" t="s">
-        <v>288</v>
-      </c>
-      <c r="T63">
-        <v>2500</v>
-      </c>
-      <c r="U63" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="64" spans="10:23" x14ac:dyDescent="0.2">
-      <c r="K64" t="s">
-        <v>303</v>
-      </c>
-      <c r="L64" t="s">
-        <v>304</v>
-      </c>
-      <c r="M64" s="2">
-        <f>M59*M61</f>
-        <v>444</v>
-      </c>
-      <c r="O64" t="s">
-        <v>289</v>
-      </c>
-      <c r="P64" s="20">
-        <v>4.7000000000000003E-10</v>
-      </c>
-      <c r="Q64" t="s">
-        <v>290</v>
-      </c>
-      <c r="S64" t="s">
-        <v>289</v>
-      </c>
-      <c r="T64" s="20">
-        <v>3.9E-10</v>
-      </c>
-      <c r="U64" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="65" spans="10:23" x14ac:dyDescent="0.2">
-      <c r="K65">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="L65">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="M65" s="2"/>
-      <c r="O65" t="s">
-        <v>287</v>
-      </c>
-      <c r="P65" s="2">
-        <f>1-(300/P63)</f>
-        <v>0.9</v>
-      </c>
-      <c r="Q65" t="s">
-        <v>291</v>
-      </c>
-      <c r="S65" t="s">
-        <v>287</v>
-      </c>
-      <c r="T65" s="2">
-        <f>1-(300/T63)</f>
-        <v>0.88</v>
-      </c>
-      <c r="U65" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="66" spans="10:23" x14ac:dyDescent="0.2">
-      <c r="K66">
-        <f>K65*25.4</f>
-        <v>1.0668</v>
-      </c>
-      <c r="L66">
-        <f>L65*25.4</f>
-        <v>0.43180000000000002</v>
-      </c>
-      <c r="M66" s="2"/>
-      <c r="O66" t="s">
-        <v>102</v>
-      </c>
-      <c r="P66" s="20">
-        <f xml:space="preserve"> (1.6*P65)/(P63*P64)</f>
-        <v>1021276.595744681</v>
-      </c>
-      <c r="Q66" t="s">
-        <v>63</v>
-      </c>
-      <c r="S66" t="s">
-        <v>102</v>
-      </c>
-      <c r="T66" s="20">
-        <f xml:space="preserve"> (1.6*T65)/(T63*T64)</f>
-        <v>1444102.5641025642</v>
-      </c>
-      <c r="U66" t="s">
-        <v>63</v>
-      </c>
-      <c r="V66" s="5">
-        <f>1/T66*(1-T65)*1000000000</f>
-        <v>83.096590909090892</v>
-      </c>
-      <c r="W66" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="67" spans="10:23" x14ac:dyDescent="0.2">
-      <c r="K67">
-        <f>K66*K63</f>
-        <v>1.0668</v>
-      </c>
-      <c r="L67">
-        <f>L66*K62</f>
-        <v>2.1590000000000003</v>
-      </c>
-      <c r="M67" s="2"/>
-      <c r="T67" s="5">
-        <f>1/T66*1000000000</f>
-        <v>692.47159090909076</v>
-      </c>
-      <c r="U67" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="68" spans="10:23" x14ac:dyDescent="0.2">
-      <c r="J68">
-        <f>MAX(K68,L68)</f>
-        <v>0.30600000000000005</v>
-      </c>
-      <c r="K68">
-        <f>K60*K65</f>
-        <v>0.252</v>
-      </c>
-      <c r="L68">
-        <f>K61*L65</f>
-        <v>0.30600000000000005</v>
-      </c>
-      <c r="M68" s="2"/>
-    </row>
-    <row r="69" spans="10:23" x14ac:dyDescent="0.2">
-      <c r="J69">
-        <f>K69+L69</f>
-        <v>0.127</v>
-      </c>
-      <c r="K69">
-        <f>K63*K65</f>
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="L69">
-        <f>K62*L65</f>
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="M69" s="2"/>
-      <c r="O69" t="s">
-        <v>288</v>
-      </c>
-      <c r="P69">
-        <v>2200</v>
-      </c>
-      <c r="Q69" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="70" spans="10:23" x14ac:dyDescent="0.2">
-      <c r="M70" s="2"/>
-      <c r="O70" t="s">
-        <v>289</v>
-      </c>
-      <c r="P70" s="20">
-        <v>4.7000000000000003E-10</v>
-      </c>
-      <c r="Q70" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="71" spans="10:23" x14ac:dyDescent="0.2">
-      <c r="J71">
-        <f>K71/25.4</f>
-        <v>0.30600000000000005</v>
-      </c>
-      <c r="K71">
-        <f>MAX(K60*K66,K61*L66)</f>
-        <v>7.7724000000000002</v>
-      </c>
-      <c r="L71" t="s">
-        <v>299</v>
-      </c>
-      <c r="M71" s="2"/>
-      <c r="O71" t="s">
-        <v>287</v>
-      </c>
-      <c r="P71" s="2">
-        <f>1-(300/P69)</f>
-        <v>0.86363636363636365</v>
-      </c>
-      <c r="Q71" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="72" spans="10:23" x14ac:dyDescent="0.2">
-      <c r="J72">
-        <f>K72/25.4</f>
-        <v>0.12700000000000003</v>
-      </c>
-      <c r="K72">
-        <f>K67+L67</f>
-        <v>3.2258000000000004</v>
-      </c>
-      <c r="L72" t="s">
-        <v>300</v>
-      </c>
-      <c r="M72" s="2"/>
-      <c r="O72" t="s">
-        <v>102</v>
-      </c>
-      <c r="P72" s="20">
-        <f xml:space="preserve"> (1.6*P71)/(P69*P70)</f>
-        <v>1336381.2203270618</v>
-      </c>
-      <c r="Q72" t="s">
-        <v>63</v>
-      </c>
-      <c r="R72" s="5">
-        <f>1/P72*(1-P71)*1000000000</f>
-        <v>102.03947368421052</v>
-      </c>
-      <c r="S72" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="74" spans="10:23" x14ac:dyDescent="0.2">
-      <c r="P74" s="20">
-        <f>P71/P72</f>
-        <v>6.4624999999999995E-7</v>
-      </c>
-    </row>
-    <row r="75" spans="10:23" x14ac:dyDescent="0.2">
-      <c r="K75">
-        <v>0.70699999999999996</v>
-      </c>
-      <c r="L75" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="76" spans="10:23" x14ac:dyDescent="0.2">
-      <c r="K76">
-        <v>0.42699999999999999</v>
-      </c>
-      <c r="L76" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="77" spans="10:23" x14ac:dyDescent="0.2">
-      <c r="K77">
-        <f>K75-K76</f>
-        <v>0.27999999999999997</v>
-      </c>
-      <c r="L77" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="78" spans="10:23" x14ac:dyDescent="0.2">
-      <c r="K78">
-        <f>K77/2</f>
-        <v>0.13999999999999999</v>
-      </c>
-      <c r="L78" t="s">
-        <v>312</v>
+    </row>
+    <row r="89" spans="13:14" x14ac:dyDescent="0.2">
+      <c r="M89" s="4">
+        <f>M85*M88</f>
+        <v>7.6340701482231985</v>
+      </c>
+      <c r="N89" t="s">
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -9603,29 +9831,29 @@
     </row>
     <row r="5" spans="3:11" x14ac:dyDescent="0.2">
       <c r="H5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="3:11" ht="19" x14ac:dyDescent="0.25">
       <c r="C7" s="26" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D7" s="26">
         <v>30</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H7">
         <v>30</v>
@@ -9636,13 +9864,13 @@
     </row>
     <row r="8" spans="3:11" ht="19" x14ac:dyDescent="0.25">
       <c r="C8" s="26" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D8" s="26">
         <v>0.30099999999999999</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H8">
         <v>40</v>
@@ -9653,13 +9881,13 @@
     </row>
     <row r="9" spans="3:11" ht="19" x14ac:dyDescent="0.25">
       <c r="C9" s="28" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D9" s="28">
         <v>21</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H9">
         <v>50</v>
@@ -9671,13 +9899,13 @@
     </row>
     <row r="10" spans="3:11" ht="19" x14ac:dyDescent="0.25">
       <c r="C10" s="28" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D10" s="28">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H10">
         <v>60</v>
@@ -9690,7 +9918,7 @@
         <v>4</v>
       </c>
       <c r="K10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="3:11" ht="19" x14ac:dyDescent="0.25">
@@ -9702,25 +9930,25 @@
         <v>87.110734542640927</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H11" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I11" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="3:11" ht="19" x14ac:dyDescent="0.25">
       <c r="C12" s="29" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D12" s="30">
         <f>D11*D10*LOG(D9/D10,2.718)</f>
         <v>14.665310181214844</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H12">
         <v>0.1</v>
@@ -9733,12 +9961,12 @@
         <v>2000</v>
       </c>
       <c r="K12" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H14" t="s">
         <v>121</v>
@@ -9746,13 +9974,13 @@
     </row>
     <row r="15" spans="3:11" ht="19" x14ac:dyDescent="0.25">
       <c r="C15" s="26" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D15" s="26">
         <v>30</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H15">
         <f>H12*H9</f>
@@ -9766,40 +9994,40 @@
         <v>40</v>
       </c>
       <c r="K15" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="3:11" ht="19" x14ac:dyDescent="0.25">
       <c r="C16" s="26" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D16" s="26">
         <v>0.30099999999999999</v>
       </c>
       <c r="E16" s="27" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="3:10" ht="19" x14ac:dyDescent="0.25">
       <c r="C17" s="28" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D17" s="28">
         <v>21</v>
       </c>
       <c r="E17" s="27" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="3:10" ht="19" x14ac:dyDescent="0.25">
       <c r="C18" s="28" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D18" s="28">
         <v>0.6</v>
       </c>
       <c r="E18" s="27" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="3:10" ht="19" x14ac:dyDescent="0.25">
@@ -9811,108 +10039,108 @@
         <v>41.657679872084323</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20" spans="3:10" ht="19" x14ac:dyDescent="0.25">
       <c r="C20" s="29" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D20" s="30">
         <f>D19*D18*LOG(D17/D18,2.718)</f>
         <v>88.87374563714863</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H20" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I20" s="4">
         <f>D12*2</f>
         <v>29.330620362429688</v>
       </c>
       <c r="J20" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="3:10" x14ac:dyDescent="0.2">
       <c r="H21" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I21" s="4">
         <f>D28</f>
         <v>205.59078000666895</v>
       </c>
       <c r="J21" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H22" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I22">
         <v>4</v>
       </c>
       <c r="J22" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23" spans="3:10" ht="19" x14ac:dyDescent="0.25">
       <c r="C23" s="26" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D23" s="26">
         <v>30</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24" spans="3:10" ht="19" x14ac:dyDescent="0.25">
       <c r="C24" s="26" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D24" s="26">
         <v>0.30099999999999999</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="3:10" ht="19" x14ac:dyDescent="0.25">
       <c r="C25" s="28" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D25" s="28">
         <v>25</v>
       </c>
       <c r="E25" s="27" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H25" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I25" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="3:10" ht="19" x14ac:dyDescent="0.25">
       <c r="C26" s="28" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D26" s="28">
         <v>2.5</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H26" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I26">
         <v>0.127</v>
@@ -9927,10 +10155,10 @@
         <v>35.711073454264096</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H27" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I27">
         <v>0.25459999999999999</v>
@@ -9938,17 +10166,17 @@
     </row>
     <row r="28" spans="3:10" ht="19" x14ac:dyDescent="0.25">
       <c r="C28" s="29" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D28" s="30">
         <f>D27*D26*LOG(D25/D26,2.718)</f>
         <v>205.59078000666895</v>
       </c>
       <c r="E28" s="27" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H28" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I28">
         <v>0.3211</v>
@@ -9956,7 +10184,7 @@
     </row>
     <row r="29" spans="3:10" x14ac:dyDescent="0.2">
       <c r="H29" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I29">
         <v>0.40400000000000003</v>
@@ -9964,10 +10192,10 @@
     </row>
     <row r="30" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H30" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I30">
         <v>0.51</v>
@@ -9975,16 +10203,16 @@
     </row>
     <row r="31" spans="3:10" ht="19" x14ac:dyDescent="0.25">
       <c r="C31" s="26" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D31" s="26">
         <v>30</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H31" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I31">
         <v>0.64380000000000004</v>
@@ -9992,27 +10220,27 @@
     </row>
     <row r="32" spans="3:10" ht="19" x14ac:dyDescent="0.25">
       <c r="C32" s="26" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D32" s="26">
         <v>0.30099999999999999</v>
       </c>
       <c r="E32" s="27" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="3:22" ht="19" x14ac:dyDescent="0.25">
       <c r="C33" s="28" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D33" s="28">
         <v>25</v>
       </c>
       <c r="E33" s="27" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J33" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K33">
         <v>10</v>
@@ -10053,16 +10281,16 @@
     </row>
     <row r="34" spans="3:22" ht="19" x14ac:dyDescent="0.25">
       <c r="C34" s="28" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D34" s="28">
         <v>5</v>
       </c>
       <c r="E34" s="27" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J34" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K34">
         <f t="shared" ref="K34:V34" si="0">K39-K40</f>
@@ -10122,10 +10350,10 @@
         <v>34.038338767364621</v>
       </c>
       <c r="E35" s="27" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J35" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K35" s="4">
         <f t="shared" ref="K35:V35" si="1">$D$12</f>
@@ -10178,17 +10406,17 @@
     </row>
     <row r="36" spans="3:22" ht="19" x14ac:dyDescent="0.25">
       <c r="C36" s="29" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D36" s="30">
         <f>D35*D34*LOG(D33/D34,2.718)</f>
         <v>273.94136785339589</v>
       </c>
       <c r="E36" s="27" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J36" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K36" s="4">
         <f t="shared" ref="K36:V36" si="2">$D$20</f>
@@ -10241,7 +10469,7 @@
     </row>
     <row r="37" spans="3:22" x14ac:dyDescent="0.2">
       <c r="J37" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K37">
         <v>21</v>
@@ -10282,10 +10510,10 @@
     </row>
     <row r="38" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J38" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K38">
         <v>1</v>
@@ -10326,16 +10554,16 @@
     </row>
     <row r="39" spans="3:22" ht="19" x14ac:dyDescent="0.25">
       <c r="C39" s="26" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D39" s="26">
         <v>30</v>
       </c>
       <c r="E39" s="27" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J39" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K39">
         <f t="shared" ref="K39:V39" si="3">MAX(0, (K$38*K$33*(K$33-K35))/K$37)</f>
@@ -10388,16 +10616,16 @@
     </row>
     <row r="40" spans="3:22" ht="19" x14ac:dyDescent="0.25">
       <c r="C40" s="26" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D40" s="26">
         <v>0.30099999999999999</v>
       </c>
       <c r="E40" s="27" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J40" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K40">
         <f t="shared" ref="K40:V40" si="4">MAX(0, (K$38*K$33*(K$33-K36))/K$37)</f>
@@ -10450,27 +10678,27 @@
     </row>
     <row r="41" spans="3:22" ht="19" x14ac:dyDescent="0.25">
       <c r="C41" s="28" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D41" s="28">
         <v>25</v>
       </c>
       <c r="E41" s="27" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="42" spans="3:22" ht="19" x14ac:dyDescent="0.25">
       <c r="C42" s="28" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D42" s="28">
         <v>1</v>
       </c>
       <c r="E42" s="27" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J42" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="43" spans="3:22" ht="19" x14ac:dyDescent="0.25">
@@ -10482,13 +10710,13 @@
         <v>39.03</v>
       </c>
       <c r="E43" s="27" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I43" s="31" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J43" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K43">
         <v>10</v>
@@ -10529,17 +10757,17 @@
     </row>
     <row r="44" spans="3:22" ht="19" x14ac:dyDescent="0.25">
       <c r="C44" s="29" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D44" s="30">
         <f>D43*D42*LOG(D41/D42,2.718)</f>
         <v>125.64575093270162</v>
       </c>
       <c r="E44" s="27" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J44" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K44" s="2">
         <f>K45/K43*K47</f>
@@ -10589,7 +10817,7 @@
         <v>1.4</v>
       </c>
       <c r="J45" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K45" s="2">
         <f t="shared" ref="K45:V45" si="6">K46*$I45</f>
@@ -10642,7 +10870,7 @@
     </row>
     <row r="46" spans="3:22" x14ac:dyDescent="0.2">
       <c r="J46" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K46">
         <v>0</v>
@@ -10683,10 +10911,10 @@
     </row>
     <row r="47" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C47" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="J47" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K47">
         <v>0</v>
@@ -10727,13 +10955,13 @@
     </row>
     <row r="48" spans="3:22" ht="19" x14ac:dyDescent="0.25">
       <c r="C48" s="26" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D48" s="26">
         <v>30</v>
       </c>
       <c r="E48" s="27" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K48" s="4">
         <f>K43*10/12</f>
@@ -10786,35 +11014,35 @@
     </row>
     <row r="49" spans="3:5" ht="19" x14ac:dyDescent="0.25">
       <c r="C49" s="26" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D49" s="26">
         <v>0.30099999999999999</v>
       </c>
       <c r="E49" s="27" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="50" spans="3:5" ht="19" x14ac:dyDescent="0.25">
       <c r="C50" s="28" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D50" s="28">
         <v>3.7</v>
       </c>
       <c r="E50" s="27" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="51" spans="3:5" ht="19" x14ac:dyDescent="0.25">
       <c r="C51" s="28" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D51" s="28">
         <v>0.6</v>
       </c>
       <c r="E51" s="27" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="52" spans="3:5" ht="19" x14ac:dyDescent="0.25">
@@ -10826,19 +11054,19 @@
         <v>41.657679872084323</v>
       </c>
       <c r="E52" s="27" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="53" spans="3:5" ht="19" x14ac:dyDescent="0.25">
       <c r="C53" s="29" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D53" s="30">
         <f>D52*D51*LOG(D50/D51,2.718)</f>
         <v>45.473866968206337</v>
       </c>
       <c r="E53" s="27" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="67" spans="10:14" x14ac:dyDescent="0.2">
@@ -10853,7 +11081,7 @@
         <v>85.333333333333329</v>
       </c>
       <c r="N67" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="70" spans="10:14" x14ac:dyDescent="0.2">
@@ -10882,22 +11110,22 @@
     </row>
     <row r="75" spans="10:14" x14ac:dyDescent="0.2">
       <c r="J75" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="76" spans="10:14" x14ac:dyDescent="0.2">
       <c r="J76" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="78" spans="10:14" x14ac:dyDescent="0.2">
       <c r="J78" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="79" spans="10:14" x14ac:dyDescent="0.2">
       <c r="J79" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -11153,7 +11381,7 @@
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C25" s="5">
         <f>-C19</f>
@@ -11168,7 +11396,7 @@
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C26" s="5">
         <f>C23</f>
@@ -11254,10 +11482,10 @@
   <sheetData>
     <row r="6" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E6">
         <v>139439</v>
@@ -11265,10 +11493,10 @@
     </row>
     <row r="7" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E7">
         <v>139471</v>
@@ -11276,10 +11504,10 @@
     </row>
     <row r="8" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E8">
         <v>139341</v>
@@ -11287,10 +11515,10 @@
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D9" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E9">
         <v>139430</v>
@@ -11298,10 +11526,10 @@
     </row>
     <row r="10" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D10" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E10">
         <v>139415</v>
@@ -11309,10 +11537,10 @@
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D11" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E11">
         <v>139436</v>
@@ -11320,10 +11548,10 @@
     </row>
     <row r="12" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D12" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E12">
         <v>139456</v>
@@ -11331,10 +11559,10 @@
     </row>
     <row r="13" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D13" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E13">
         <v>139436</v>
@@ -11342,10 +11570,10 @@
     </row>
     <row r="14" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D14" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E14">
         <v>139461</v>
@@ -11353,10 +11581,10 @@
     </row>
     <row r="15" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D15" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E15">
         <v>139455</v>
@@ -11364,10 +11592,10 @@
     </row>
     <row r="16" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D16" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E16">
         <v>139435</v>
@@ -11375,10 +11603,10 @@
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D17" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E17">
         <v>139454</v>
@@ -11386,10 +11614,10 @@
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D18" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E18">
         <v>139432</v>
@@ -11397,10 +11625,10 @@
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D19" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E19">
         <v>139452</v>
@@ -11408,10 +11636,10 @@
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D20" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E20">
         <v>139444</v>
@@ -11419,10 +11647,10 @@
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D21" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E21">
         <v>139409</v>
@@ -11430,10 +11658,10 @@
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D22" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E22">
         <v>139463</v>
@@ -11441,10 +11669,10 @@
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D23" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E23">
         <v>139417</v>
@@ -11452,10 +11680,10 @@
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D24" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E24">
         <v>139439</v>
@@ -11463,10 +11691,10 @@
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D25" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E25">
         <v>139369</v>
@@ -11481,10 +11709,10 @@
     </row>
     <row r="28" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D28" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E28">
         <v>502546</v>
@@ -11492,10 +11720,10 @@
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D29" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E29">
         <v>502494</v>
@@ -11503,10 +11731,10 @@
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D30" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E30">
         <v>502548</v>
@@ -11514,10 +11742,10 @@
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D31" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E31">
         <v>502442</v>
@@ -11525,10 +11753,10 @@
     </row>
     <row r="32" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D32" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E32">
         <v>502516</v>
@@ -11536,10 +11764,10 @@
     </row>
     <row r="33" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D33" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E33">
         <v>502508</v>
@@ -11547,10 +11775,10 @@
     </row>
     <row r="34" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D34" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E34">
         <v>502500</v>
@@ -11558,10 +11786,10 @@
     </row>
     <row r="35" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D35" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E35">
         <v>502542</v>
@@ -11569,10 +11797,10 @@
     </row>
     <row r="36" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D36" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E36">
         <v>502523</v>
@@ -11580,10 +11808,10 @@
     </row>
     <row r="37" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D37" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E37">
         <v>502559</v>
@@ -11591,10 +11819,10 @@
     </row>
     <row r="38" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D38" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E38">
         <v>502555</v>
@@ -11602,10 +11830,10 @@
     </row>
     <row r="39" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D39" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E39">
         <v>502494</v>
@@ -11613,10 +11841,10 @@
     </row>
     <row r="40" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C40" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D40" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E40">
         <v>502541</v>
@@ -11624,10 +11852,10 @@
     </row>
     <row r="41" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D41" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E41">
         <v>502520</v>
@@ -11635,10 +11863,10 @@
     </row>
     <row r="42" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C42" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D42" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E42">
         <v>502450</v>
@@ -11646,10 +11874,10 @@
     </row>
     <row r="43" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C43" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D43" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E43">
         <v>502461</v>
@@ -11657,10 +11885,10 @@
     </row>
     <row r="44" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D44" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E44">
         <v>502502</v>
@@ -11668,10 +11896,10 @@
     </row>
     <row r="45" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C45" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D45" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E45">
         <v>502492</v>
@@ -11679,10 +11907,10 @@
     </row>
     <row r="46" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D46" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E46">
         <v>502460</v>
@@ -11690,10 +11918,10 @@
     </row>
     <row r="47" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C47" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D47" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E47">
         <v>502500</v>
@@ -11701,10 +11929,10 @@
     </row>
     <row r="48" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C48" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D48" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E48">
         <v>502515</v>
@@ -11714,15 +11942,15 @@
         <v>139432.70000000001</v>
       </c>
       <c r="I48" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="49" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C49" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D49" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E49">
         <v>502523</v>
@@ -11739,7 +11967,7 @@
         <v>191.79925082841086</v>
       </c>
       <c r="I49" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="50" spans="3:9" x14ac:dyDescent="0.2">

--- a/EHD/weight-model.xlsx
+++ b/EHD/weight-model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mickos01/Desktop/MolecularKinetics/EHD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7B4D98-32CB-3D47-9D59-0411672D8757}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ADF3A3D-395F-164C-8265-E304A3D1FB88}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="500" windowWidth="27240" windowHeight="16860" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7271,8 +7271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:AF89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F38" sqref="E38:F38"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="O91" sqref="O91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7625,7 +7625,7 @@
         <v>160</v>
       </c>
       <c r="D11" s="7">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="E11" s="7">
         <v>100</v>
@@ -7681,7 +7681,7 @@
       </c>
       <c r="D12" s="2">
         <f>D11/D3</f>
-        <v>13.513513513513512</v>
+        <v>16.891891891891891</v>
       </c>
       <c r="E12" s="2">
         <f>E11/E3</f>
@@ -7770,7 +7770,7 @@
       </c>
       <c r="D13" s="2">
         <f>D12/2</f>
-        <v>6.7567567567567561</v>
+        <v>8.4459459459459456</v>
       </c>
       <c r="E13" s="2">
         <f>E12/2</f>
@@ -8121,7 +8121,7 @@
       </c>
       <c r="D17" s="2">
         <f>D11/D15</f>
-        <v>0.66666666666666663</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="E17" s="2">
         <f>E11/E15</f>
@@ -8304,7 +8304,7 @@
       </c>
       <c r="D22" s="2">
         <f t="shared" si="8"/>
-        <v>2.4968789013732833</v>
+        <v>3.1210986267166039</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="8"/>
@@ -8428,7 +8428,7 @@
       </c>
       <c r="D26" s="4">
         <f>D24*D13</f>
-        <v>2027.0270270270269</v>
+        <v>2533.7837837837837</v>
       </c>
       <c r="E26" s="4">
         <f>E24*E13</f>
@@ -8485,7 +8485,7 @@
       </c>
       <c r="D27">
         <f>D25*D17</f>
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="E27">
         <f>E25*E17</f>
@@ -8542,7 +8542,7 @@
       </c>
       <c r="D28" s="2">
         <f t="shared" si="9"/>
-        <v>0.74906367041198507</v>
+        <v>0.93632958801498123</v>
       </c>
       <c r="E28" s="2">
         <f t="shared" si="9"/>
@@ -8671,7 +8671,7 @@
       </c>
       <c r="D32" s="5">
         <f t="shared" ref="D32" si="12">D26/D30</f>
-        <v>820.7594097164648</v>
+        <v>1025.9492621455811</v>
       </c>
       <c r="E32" s="5">
         <f t="shared" si="11"/>
@@ -8727,7 +8727,7 @@
       </c>
       <c r="D33" s="5">
         <f t="shared" ref="D33" si="15">D27/D30</f>
-        <v>80.981595092024534</v>
+        <v>101.22699386503068</v>
       </c>
       <c r="E33" s="5">
         <f t="shared" si="14"/>
@@ -9757,7 +9757,7 @@
     </row>
     <row r="85" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M85">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="N85" t="s">
         <v>100</v>
@@ -9784,7 +9784,7 @@
     <row r="88" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M88" s="1">
         <f>M85/M87</f>
-        <v>2.1205750411731106E-2</v>
+        <v>1.767145867644259E-2</v>
       </c>
       <c r="N88" t="s">
         <v>317</v>
@@ -9793,7 +9793,7 @@
     <row r="89" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M89" s="4">
         <f>M85*M88</f>
-        <v>7.6340701482231985</v>
+        <v>5.3014376029327774</v>
       </c>
       <c r="N89" t="s">
         <v>322</v>

--- a/EHD/weight-model.xlsx
+++ b/EHD/weight-model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mickos01/Desktop/MolecularKinetics/EHD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ADF3A3D-395F-164C-8265-E304A3D1FB88}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AEC9687-786E-7044-A424-3E6D6C7B1FD8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="500" windowWidth="27240" windowHeight="16860" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="325">
   <si>
     <t>Coil form</t>
   </si>
@@ -807,24 +807,6 @@
     <t>Vrms</t>
   </si>
   <si>
-    <t xml:space="preserve">30 101. 28 163. 26 259. 24 408. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">41 46 S 1 SN .016 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">66 46 S 2 SN .021 105 46 S 2 SN .026 165 46 S 2 SN .032 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">.348 112.5 .567 71.6 .889 45.1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38 28.7 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">41/46 3/22/46 3/35/46 5/33/46 </t>
-  </si>
-  <si>
     <t>eq. ga.</t>
   </si>
   <si>
@@ -1021,6 +1003,12 @@
   </si>
   <si>
     <t>4 cells, 13.8-14.8V</t>
+  </si>
+  <si>
+    <t>Toroids</t>
+  </si>
+  <si>
+    <t>Measurements on actual sizes</t>
   </si>
 </sst>
 </file>
@@ -1034,7 +1022,7 @@
     <numFmt numFmtId="167" formatCode="0.0E+00"/>
     <numFmt numFmtId="168" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1122,6 +1110,14 @@
       <color theme="1"/>
       <name val="Helvetica"/>
       <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1280,7 +1276,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1352,6 +1348,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -5030,10 +5028,10 @@
         <v>1.1000000000000001E-11</v>
       </c>
       <c r="G2" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="H2" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="S2">
         <v>2</v>
@@ -5058,7 +5056,7 @@
         <v>1.5999999999999999E-6</v>
       </c>
       <c r="G3" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="H3" s="5">
         <f>F4*F3/F2</f>
@@ -5093,7 +5091,7 @@
         <v>1.25E-3</v>
       </c>
       <c r="G4" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="J4">
         <v>2.54</v>
@@ -7269,10 +7267,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:AF89"/>
+  <dimension ref="A2:AG89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="O91" sqref="O91"/>
+    <sheetView tabSelected="1" topLeftCell="P7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W37" sqref="W37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7284,15 +7282,15 @@
     <col min="10" max="11" width="8.83203125" customWidth="1"/>
     <col min="12" max="12" width="20.33203125" customWidth="1"/>
     <col min="13" max="13" width="12.1640625" customWidth="1"/>
-    <col min="18" max="18" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>11.1</v>
       </c>
@@ -7340,7 +7338,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>0.49</v>
       </c>
@@ -7385,10 +7383,10 @@
         <v>134</v>
       </c>
       <c r="P4" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>625000</v>
       </c>
@@ -7426,7 +7424,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>3</v>
       </c>
@@ -7464,10 +7462,10 @@
         <v>120</v>
       </c>
       <c r="N6" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>4</v>
       </c>
@@ -7505,7 +7503,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B8" s="5">
         <f t="shared" ref="B8:K8" si="0">(B3*10^8)/(B4*B5*B6*B7)</f>
         <v>302.0408163265306</v>
@@ -7553,7 +7551,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
         <f t="shared" ref="B9:K9" si="1">B8/10</f>
         <v>30.204081632653061</v>
@@ -7598,26 +7596,27 @@
         <v>99</v>
       </c>
       <c r="M9" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="N9" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="N10" s="39" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="O10" s="40"/>
       <c r="P10" s="41"/>
-      <c r="S10">
+      <c r="Q10" s="49"/>
+      <c r="T10">
         <v>660</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B11" s="7">
         <v>100</v>
       </c>
@@ -7660,17 +7659,18 @@
       <c r="P11" s="43">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="S11">
+      <c r="Q11" s="49"/>
+      <c r="T11">
         <v>60</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>1.9E-2</v>
       </c>
-      <c r="W11" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="X11" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B12" s="2">
         <f>B11/B3</f>
         <v>9.0090090090090094</v>
@@ -7725,41 +7725,42 @@
         <f>H12/2</f>
         <v>4.3918918918918921</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="Q12" s="38"/>
+      <c r="R12" t="s">
+        <v>257</v>
+      </c>
+      <c r="S12" t="s">
+        <v>131</v>
+      </c>
+      <c r="T12" t="s">
+        <v>258</v>
+      </c>
+      <c r="U12" t="s">
+        <v>259</v>
+      </c>
+      <c r="V12" t="s">
+        <v>265</v>
+      </c>
+      <c r="X12" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y12" t="s">
         <v>263</v>
       </c>
-      <c r="R12" t="s">
-        <v>131</v>
-      </c>
-      <c r="S12" t="s">
+      <c r="AA12" t="s">
+        <v>262</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE12" t="s">
         <v>264</v>
       </c>
-      <c r="T12" t="s">
-        <v>265</v>
-      </c>
-      <c r="U12" t="s">
-        <v>271</v>
-      </c>
-      <c r="W12" t="s">
-        <v>161</v>
-      </c>
-      <c r="X12" t="s">
+      <c r="AF12" t="s">
         <v>269</v>
       </c>
-      <c r="Z12" t="s">
-        <v>268</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>270</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B13" s="2">
         <f>B12/2</f>
         <v>4.5045045045045047</v>
@@ -7814,55 +7815,56 @@
         <f>P12*P11</f>
         <v>0.15371621621621623</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" s="38"/>
+      <c r="R13">
         <v>30</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>101</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>41</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>1.6E-2</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>112.5</v>
       </c>
-      <c r="W13">
-        <f>R13/500</f>
+      <c r="X13">
+        <f>S13/500</f>
         <v>0.20200000000000001</v>
       </c>
-      <c r="X13" s="1">
-        <f>R13/300</f>
+      <c r="Y13" s="1">
+        <f>S13/300</f>
         <v>0.33666666666666667</v>
       </c>
-      <c r="Z13" s="2">
-        <f t="shared" ref="Z13:Z18" si="2">T13*25.4</f>
+      <c r="AA13" s="2">
+        <f>U13*25.4</f>
         <v>0.40639999999999998</v>
       </c>
-      <c r="AA13" s="5">
-        <f t="shared" ref="AA13:AB18" si="3">X$33/$Z13</f>
+      <c r="AB13" s="5">
+        <f>AD$30/$AA13</f>
         <v>200.98771897966199</v>
       </c>
-      <c r="AB13" s="5">
-        <f t="shared" si="3"/>
+      <c r="AC13" s="5">
+        <f>AE$30/$AA13</f>
         <v>177.79682832816249</v>
       </c>
-      <c r="AD13" s="34">
-        <f>U13/1000 / (2.54 * 12) * 100</f>
+      <c r="AE13" s="34">
+        <f>V13/1000 / (2.54 * 12) * 100</f>
         <v>0.36909448818897639</v>
       </c>
-      <c r="AE13" s="4">
-        <f t="shared" ref="AE13:AF16" si="4">$AD13*X$35</f>
+      <c r="AF13" s="4">
+        <f>$AE13*AD$32</f>
         <v>1.0474303043200683</v>
       </c>
-      <c r="AF13" s="4">
-        <f t="shared" si="4"/>
+      <c r="AG13" s="4">
+        <f>$AE13*AE$32</f>
         <v>0.83794424345605445</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="N14" s="44" t="s">
         <v>121</v>
       </c>
@@ -7874,55 +7876,56 @@
         <f>P12^2 * P11</f>
         <v>0.67510500365230108</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" s="38"/>
+      <c r="R14">
         <v>28</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>163</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>66</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>1.9E-2</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>71.599999999999994</v>
       </c>
-      <c r="W14">
-        <f t="shared" ref="W14:W16" si="5">R14/500</f>
+      <c r="X14">
+        <f>S14/500</f>
         <v>0.32600000000000001</v>
       </c>
-      <c r="X14" s="1">
-        <f t="shared" ref="X14:X16" si="6">R14/300</f>
+      <c r="Y14" s="1">
+        <f>S14/300</f>
         <v>0.54333333333333333</v>
       </c>
-      <c r="Z14" s="2">
-        <f t="shared" si="2"/>
+      <c r="AA14" s="2">
+        <f>U14*25.4</f>
         <v>0.48259999999999997</v>
       </c>
-      <c r="AA14" s="5">
-        <f t="shared" si="3"/>
+      <c r="AB14" s="5">
+        <f>AD$30/$AA14</f>
         <v>169.25281598287324</v>
       </c>
-      <c r="AB14" s="5">
-        <f t="shared" si="3"/>
+      <c r="AC14" s="5">
+        <f>AE$30/$AA14</f>
         <v>149.72364490792631</v>
       </c>
-      <c r="AD14" s="34">
-        <f t="shared" ref="AD14:AD16" si="7">U14/1000 / (2.54 * 12) * 100</f>
+      <c r="AE14" s="34">
+        <f t="shared" ref="AE14:AE16" si="2">V14/1000 / (2.54 * 12) * 100</f>
         <v>0.23490813648293962</v>
       </c>
-      <c r="AE14" s="4">
-        <f t="shared" si="4"/>
+      <c r="AF14" s="4">
+        <f>$AE14*AD$32</f>
         <v>0.66663119812726113</v>
       </c>
-      <c r="AF14" s="4">
-        <f t="shared" si="4"/>
+      <c r="AG14" s="4">
+        <f>$AE14*AE$32</f>
         <v>0.53330495850180881</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B15" s="7">
         <v>300</v>
       </c>
@@ -7957,7 +7960,7 @@
         <v>123</v>
       </c>
       <c r="N15" s="44" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="O15" s="38">
         <f>2*O14</f>
@@ -7967,55 +7970,56 @@
         <f>2*P14</f>
         <v>1.3502100073046022</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" s="38"/>
+      <c r="R15">
         <v>26</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>259</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>105</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>45.1</v>
       </c>
-      <c r="W15">
-        <f t="shared" si="5"/>
+      <c r="X15">
+        <f>S15/500</f>
         <v>0.51800000000000002</v>
       </c>
-      <c r="X15" s="1">
-        <f t="shared" si="6"/>
+      <c r="Y15" s="1">
+        <f>S15/300</f>
         <v>0.86333333333333329</v>
       </c>
-      <c r="Z15" s="2">
+      <c r="AA15" s="2">
+        <f>U15*25.4</f>
+        <v>0.66039999999999999</v>
+      </c>
+      <c r="AB15" s="5">
+        <f>AD$30/$AA15</f>
+        <v>123.68475014133045</v>
+      </c>
+      <c r="AC15" s="5">
+        <f>AE$30/$AA15</f>
+        <v>109.41343281733077</v>
+      </c>
+      <c r="AE15" s="34">
         <f t="shared" si="2"/>
-        <v>0.66039999999999999</v>
-      </c>
-      <c r="AA15" s="5">
-        <f t="shared" si="3"/>
-        <v>123.68475014133045</v>
-      </c>
-      <c r="AB15" s="5">
-        <f t="shared" si="3"/>
-        <v>109.41343281733077</v>
-      </c>
-      <c r="AD15" s="34">
-        <f t="shared" si="7"/>
         <v>0.14796587926509186</v>
       </c>
-      <c r="AE15" s="4">
-        <f t="shared" si="4"/>
+      <c r="AF15" s="4">
+        <f>$AE15*AD$32</f>
         <v>0.41990317088742291</v>
       </c>
-      <c r="AF15" s="4">
-        <f t="shared" si="4"/>
+      <c r="AG15" s="4">
+        <f>$AE15*AE$32</f>
         <v>0.33592253670993827</v>
       </c>
     </row>
-    <row r="16" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="5">
         <f>B15/B3*B6</f>
         <v>81.081081081081081</v>
@@ -8057,60 +8061,61 @@
         <v>81.081081081081081</v>
       </c>
       <c r="L16" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="N16" s="46"/>
       <c r="O16" s="47"/>
       <c r="P16" s="48"/>
-      <c r="Q16">
+      <c r="Q16" s="49"/>
+      <c r="R16">
         <v>24</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>408</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>165</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>28.7</v>
       </c>
-      <c r="W16">
-        <f t="shared" si="5"/>
+      <c r="X16">
+        <f>S16/500</f>
         <v>0.81599999999999995</v>
       </c>
-      <c r="X16" s="1">
-        <f t="shared" si="6"/>
+      <c r="Y16" s="1">
+        <f>S16/300</f>
         <v>1.36</v>
       </c>
-      <c r="Z16" s="2">
+      <c r="AA16" s="2">
+        <f>U16*25.4</f>
+        <v>0.81279999999999997</v>
+      </c>
+      <c r="AB16" s="5">
+        <f>AD$30/$AA16</f>
+        <v>100.493859489831</v>
+      </c>
+      <c r="AC16" s="5">
+        <f>AE$30/$AA16</f>
+        <v>88.898414164081245</v>
+      </c>
+      <c r="AE16" s="34">
         <f t="shared" si="2"/>
-        <v>0.81279999999999997</v>
-      </c>
-      <c r="AA16" s="5">
-        <f t="shared" si="3"/>
-        <v>100.493859489831</v>
-      </c>
-      <c r="AB16" s="5">
-        <f t="shared" si="3"/>
-        <v>88.898414164081245</v>
-      </c>
-      <c r="AD16" s="34">
-        <f t="shared" si="7"/>
         <v>9.416010498687663E-2</v>
       </c>
-      <c r="AE16" s="4">
-        <f t="shared" si="4"/>
+      <c r="AF16" s="4">
+        <f>$AE16*AD$32</f>
         <v>0.2672111087465418</v>
       </c>
-      <c r="AF16" s="4">
-        <f t="shared" si="4"/>
+      <c r="AG16" s="4">
+        <f>$AE16*AE$32</f>
         <v>0.21376888699723343</v>
       </c>
     </row>
-    <row r="17" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B17" s="2">
         <f>B11/B15</f>
         <v>0.33333333333333331</v>
@@ -8154,46 +8159,46 @@
       <c r="L17" t="s">
         <v>125</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>270</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>3.9E-2</v>
       </c>
-      <c r="Z17" s="2">
-        <f t="shared" si="2"/>
+      <c r="AA17" s="2">
+        <f>U17*25.4</f>
         <v>0.99059999999999993</v>
       </c>
-      <c r="AA17" s="5">
-        <f t="shared" si="3"/>
+      <c r="AB17" s="5">
+        <f>AD$30/$AA17</f>
         <v>82.456500094220303</v>
       </c>
-      <c r="AB17" s="5">
-        <f t="shared" si="3"/>
+      <c r="AC17" s="5">
+        <f>AE$30/$AA17</f>
         <v>72.942288544887177</v>
       </c>
     </row>
-    <row r="18" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="S18">
+    <row r="18" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="T18">
         <v>330</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="Z18" s="2">
-        <f t="shared" si="2"/>
+      <c r="AA18" s="2">
+        <f>U18*25.4</f>
         <v>1.0668</v>
       </c>
-      <c r="AA18" s="5">
-        <f t="shared" si="3"/>
+      <c r="AB18" s="5">
+        <f>AD$30/$AA18</f>
         <v>76.566750087490277</v>
       </c>
-      <c r="AB18" s="5">
-        <f t="shared" si="3"/>
+      <c r="AC18" s="5">
+        <f>AE$30/$AA18</f>
         <v>67.732125077395239</v>
       </c>
     </row>
-    <row r="19" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B19" s="7">
         <v>267</v>
       </c>
@@ -8225,27 +8230,25 @@
         <v>267</v>
       </c>
       <c r="L19" t="s">
-        <v>315</v>
-      </c>
-      <c r="S19">
+        <v>309</v>
+      </c>
+      <c r="T19">
         <v>420</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="Q20" s="33" t="s">
-        <v>257</v>
-      </c>
-      <c r="S20">
+    <row r="20" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="R20" s="33"/>
+      <c r="T20">
         <v>660</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B21">
         <f>B15*B19</f>
         <v>80100</v>
@@ -8293,45 +8296,45 @@
         <v>106</v>
       </c>
     </row>
-    <row r="22" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B22" s="2">
         <f>B11/B21*1000</f>
         <v>1.2484394506866416</v>
       </c>
       <c r="C22" s="2">
-        <f t="shared" ref="C22:K22" si="8">C11/C21*1000</f>
+        <f t="shared" ref="C22:K22" si="3">C11/C21*1000</f>
         <v>1.9975031210986267</v>
       </c>
       <c r="D22" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>3.1210986267166039</v>
       </c>
       <c r="E22" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>1.2484394506866416</v>
       </c>
       <c r="F22" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>1.6229712858926342</v>
       </c>
       <c r="G22" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>1.2484394506866416</v>
       </c>
       <c r="H22" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>1.6229712858926342</v>
       </c>
       <c r="I22" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>1.9975031210986267</v>
       </c>
       <c r="J22" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>1.9975031210986267</v>
       </c>
       <c r="K22" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>1.9975031210986267</v>
       </c>
       <c r="L22" t="s">
@@ -8340,11 +8343,32 @@
       <c r="M22" t="s">
         <v>182</v>
       </c>
-      <c r="Q22" s="33" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="24" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="R22" s="33"/>
+      <c r="T22" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="AC22" s="18" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="23" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="T23">
+        <v>40</v>
+      </c>
+      <c r="U23">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>154</v>
+      </c>
+      <c r="AD23">
+        <v>26</v>
+      </c>
+      <c r="AE23">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>300</v>
       </c>
@@ -8376,13 +8400,26 @@
         <v>300</v>
       </c>
       <c r="L24" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q24" s="33" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="25" spans="2:28" x14ac:dyDescent="0.2">
+        <v>306</v>
+      </c>
+      <c r="R24" s="33"/>
+      <c r="T24">
+        <v>66</v>
+      </c>
+      <c r="U24">
+        <v>1.9E-2</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD24">
+        <v>45</v>
+      </c>
+      <c r="AE24">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>300</v>
       </c>
@@ -8414,10 +8451,28 @@
         <v>300</v>
       </c>
       <c r="L25" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="26" spans="2:28" x14ac:dyDescent="0.2">
+        <v>307</v>
+      </c>
+      <c r="T25">
+        <v>100</v>
+      </c>
+      <c r="U25">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="V25">
+        <v>2.7E-2</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>153</v>
+      </c>
+      <c r="AD25">
+        <v>8</v>
+      </c>
+      <c r="AE25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B26" s="4">
         <f>B24*B13</f>
         <v>1351.3513513513515</v>
@@ -8461,20 +8516,27 @@
       <c r="L26" t="s">
         <v>127</v>
       </c>
-      <c r="Q26" s="33" t="s">
-        <v>260</v>
-      </c>
-      <c r="W26" t="s">
-        <v>154</v>
-      </c>
-      <c r="X26">
-        <v>26</v>
-      </c>
-      <c r="Y26">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="R26" s="33"/>
+      <c r="T26">
+        <v>175</v>
+      </c>
+      <c r="U26">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="V26">
+        <v>0.03</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>244</v>
+      </c>
+      <c r="AD26">
+        <v>1</v>
+      </c>
+      <c r="AE26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B27">
         <f>B25*B17</f>
         <v>100</v>
@@ -8519,162 +8581,194 @@
         <v>128</v>
       </c>
       <c r="O27" t="s">
-        <v>290</v>
-      </c>
-      <c r="W27" t="s">
-        <v>152</v>
-      </c>
-      <c r="X27">
-        <v>45</v>
-      </c>
-      <c r="Y27">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="2:28" x14ac:dyDescent="0.2">
+        <v>284</v>
+      </c>
+      <c r="T27">
+        <v>270</v>
+      </c>
+      <c r="U27" s="50">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B28" s="2">
         <f>B24*(B22/1000)</f>
         <v>0.37453183520599254</v>
       </c>
       <c r="C28" s="2">
-        <f t="shared" ref="C28:K28" si="9">C24*(C22/1000)</f>
+        <f t="shared" ref="C28:K28" si="4">C24*(C22/1000)</f>
         <v>0.59925093632958804</v>
       </c>
       <c r="D28" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0.93632958801498123</v>
       </c>
       <c r="E28" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0.37453183520599254</v>
       </c>
       <c r="F28" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0.48689138576779023</v>
       </c>
       <c r="G28" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0.37453183520599254</v>
       </c>
       <c r="H28" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0.48689138576779023</v>
       </c>
       <c r="I28" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0.59925093632958804</v>
       </c>
       <c r="J28" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0.59925093632958804</v>
       </c>
       <c r="K28" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0.59925093632958804</v>
       </c>
       <c r="L28" t="s">
         <v>129</v>
       </c>
-      <c r="Q28" s="33" t="s">
+      <c r="R28" s="33"/>
+      <c r="T28">
+        <v>330</v>
+      </c>
+      <c r="U28" s="50">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>270</v>
+      </c>
+      <c r="AD28">
+        <f>(AD24-AD23)/2*AD25/100</f>
+        <v>0.76</v>
+      </c>
+      <c r="AE28">
+        <f>(AE24-AE23)/2*AE25/100</f>
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="29" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="T29">
+        <v>420</v>
+      </c>
+      <c r="U29">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>260</v>
+      </c>
+      <c r="AD29">
+        <f>((AD24-AD23) + (2*AD25) )/10 * AD26</f>
+        <v>3.5</v>
+      </c>
+      <c r="AE29">
+        <f>((AE24-AE23) + (2*AE25) )/10</f>
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="30" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B30" s="4">
+        <f t="shared" ref="B30:K30" si="5">1630/660</f>
+        <v>2.4696969696969697</v>
+      </c>
+      <c r="C30" s="4">
+        <f t="shared" si="5"/>
+        <v>2.4696969696969697</v>
+      </c>
+      <c r="D30" s="4">
+        <f t="shared" si="5"/>
+        <v>2.4696969696969697</v>
+      </c>
+      <c r="E30" s="4">
+        <f t="shared" si="5"/>
+        <v>2.4696969696969697</v>
+      </c>
+      <c r="F30" s="4">
+        <f t="shared" si="5"/>
+        <v>2.4696969696969697</v>
+      </c>
+      <c r="G30" s="4">
+        <f t="shared" si="5"/>
+        <v>2.4696969696969697</v>
+      </c>
+      <c r="H30" s="4">
+        <f t="shared" si="5"/>
+        <v>2.4696969696969697</v>
+      </c>
+      <c r="I30" s="4">
+        <f t="shared" si="5"/>
+        <v>2.4696969696969697</v>
+      </c>
+      <c r="J30" s="4">
+        <f t="shared" si="5"/>
+        <v>2.4696969696969697</v>
+      </c>
+      <c r="K30" s="4">
+        <f t="shared" si="5"/>
+        <v>2.4696969696969697</v>
+      </c>
+      <c r="L30" t="s">
+        <v>308</v>
+      </c>
+      <c r="R30" s="33"/>
+      <c r="T30">
+        <v>660</v>
+      </c>
+      <c r="U30">
+        <v>6.2E-2</v>
+      </c>
+      <c r="AC30" t="s">
         <v>261</v>
       </c>
-      <c r="W28" t="s">
-        <v>153</v>
-      </c>
-      <c r="X28">
-        <v>8</v>
-      </c>
-      <c r="Y28">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="W29" t="s">
-        <v>244</v>
-      </c>
-      <c r="X29">
-        <v>1</v>
-      </c>
-      <c r="Y29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B30" s="4">
-        <f t="shared" ref="B30:K30" si="10">1630/660</f>
-        <v>2.4696969696969697</v>
-      </c>
-      <c r="C30" s="4">
-        <f t="shared" si="10"/>
-        <v>2.4696969696969697</v>
-      </c>
-      <c r="D30" s="4">
-        <f t="shared" si="10"/>
-        <v>2.4696969696969697</v>
-      </c>
-      <c r="E30" s="4">
-        <f t="shared" si="10"/>
-        <v>2.4696969696969697</v>
-      </c>
-      <c r="F30" s="4">
-        <f t="shared" si="10"/>
-        <v>2.4696969696969697</v>
-      </c>
-      <c r="G30" s="4">
-        <f t="shared" si="10"/>
-        <v>2.4696969696969697</v>
-      </c>
-      <c r="H30" s="4">
-        <f t="shared" si="10"/>
-        <v>2.4696969696969697</v>
-      </c>
-      <c r="I30" s="4">
-        <f t="shared" si="10"/>
-        <v>2.4696969696969697</v>
-      </c>
-      <c r="J30" s="4">
-        <f t="shared" si="10"/>
-        <v>2.4696969696969697</v>
-      </c>
-      <c r="K30" s="4">
-        <f t="shared" si="10"/>
-        <v>2.4696969696969697</v>
-      </c>
-      <c r="L30" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q30" s="33" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="31" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="W31" t="s">
-        <v>276</v>
-      </c>
-      <c r="X31">
-        <f>(X27-X26)/2*X28/100</f>
-        <v>0.76</v>
-      </c>
-      <c r="Y31">
-        <f>(Y27-Y26)/2*Y28/100</f>
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="32" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AD30" s="5">
+        <f xml:space="preserve"> PI() * AD23</f>
+        <v>81.681408993334628</v>
+      </c>
+      <c r="AE30" s="5">
+        <f xml:space="preserve"> PI() * AE23</f>
+        <v>72.256631032565238</v>
+      </c>
+    </row>
+    <row r="31" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="T31">
+        <v>1162</v>
+      </c>
+      <c r="U31">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>271</v>
+      </c>
+      <c r="AD31" s="4">
+        <f>PI() * (AD24-((AD24-AD23)/2)) /10 * AD28</f>
+        <v>8.4760169793852622</v>
+      </c>
+      <c r="AE31" s="4">
+        <f>PI() * (AE24-((AE24-AE23)/2)) /10 * AE28</f>
+        <v>4.6181412007769955</v>
+      </c>
+    </row>
+    <row r="32" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B32" s="5">
-        <f t="shared" ref="B32:K32" si="11">B26/B30</f>
+        <f t="shared" ref="B32:K32" si="6">B26/B30</f>
         <v>547.17293981097669</v>
       </c>
       <c r="C32" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>656.60752777317191</v>
       </c>
       <c r="D32" s="5">
-        <f t="shared" ref="D32" si="12">D26/D30</f>
+        <f t="shared" ref="D32" si="7">D26/D30</f>
         <v>1025.9492621455811</v>
       </c>
       <c r="E32" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>547.17293981097669</v>
       </c>
       <c r="F32" s="5">
@@ -8682,15 +8776,15 @@
         <v>711.32482175426969</v>
       </c>
       <c r="G32" s="5">
-        <f t="shared" ref="G32" si="13">G26/G30</f>
+        <f t="shared" ref="G32" si="8">G26/G30</f>
         <v>410.3797048582324</v>
       </c>
       <c r="H32" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>533.4936163157023</v>
       </c>
       <c r="I32" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>656.60752777317191</v>
       </c>
       <c r="J32" s="5">
@@ -8698,39 +8792,45 @@
         <v>656.60752777317191</v>
       </c>
       <c r="K32" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>656.60752777317191</v>
       </c>
       <c r="L32" t="s">
         <v>132</v>
       </c>
-      <c r="W32" t="s">
+      <c r="T32">
+        <v>3000</v>
+      </c>
+      <c r="U32">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AC32" t="s">
         <v>266</v>
       </c>
-      <c r="X32">
-        <f>((X27-X26) + (2*X28) )/10 * X29</f>
-        <v>3.5</v>
-      </c>
-      <c r="Y32">
-        <f>((Y27-Y26) + (2*Y28) )/10</f>
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AD32" s="2">
+        <f>$B16*AD29 /100</f>
+        <v>2.8378378378378382</v>
+      </c>
+      <c r="AE32" s="2">
+        <f>$B16*AE29 /100</f>
+        <v>2.2702702702702702</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B33" s="5">
-        <f t="shared" ref="B33:K33" si="14">B27/B30</f>
+        <f t="shared" ref="B33:K33" si="9">B27/B30</f>
         <v>40.490797546012267</v>
       </c>
       <c r="C33" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>64.785276073619627</v>
       </c>
       <c r="D33" s="5">
-        <f t="shared" ref="D33" si="15">D27/D30</f>
+        <f t="shared" ref="D33" si="10">D27/D30</f>
         <v>101.22699386503068</v>
       </c>
       <c r="E33" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>40.490797546012267</v>
       </c>
       <c r="F33" s="5">
@@ -8738,15 +8838,15 @@
         <v>52.638036809815951</v>
       </c>
       <c r="G33" s="5">
-        <f t="shared" ref="G33" si="16">G27/G30</f>
+        <f t="shared" ref="G33" si="11">G27/G30</f>
         <v>40.490797546012267</v>
       </c>
       <c r="H33" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>52.638036809815951</v>
       </c>
       <c r="I33" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>64.785276073619627</v>
       </c>
       <c r="J33" s="5">
@@ -8754,7 +8854,7 @@
         <v>64.785276073619627</v>
       </c>
       <c r="K33" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>64.785276073619627</v>
       </c>
       <c r="L33" t="s">
@@ -8763,83 +8863,84 @@
       <c r="M33" t="s">
         <v>252</v>
       </c>
-      <c r="W33" t="s">
+      <c r="AC33" t="s">
         <v>267</v>
       </c>
-      <c r="X33" s="5">
-        <f xml:space="preserve"> PI() * X26</f>
-        <v>81.681408993334628</v>
-      </c>
-      <c r="Y33" s="5">
-        <f xml:space="preserve"> PI() * Y26</f>
-        <v>72.256631032565238</v>
-      </c>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="W34" t="s">
-        <v>277</v>
-      </c>
-      <c r="X34" s="4">
-        <f>PI() * (X27-((X27-X26)/2)) /10 * X31</f>
-        <v>8.4760169793852622</v>
-      </c>
-      <c r="Y34" s="4">
-        <f>PI() * (Y27-((Y27-Y26)/2)) /10 * Y31</f>
-        <v>4.6181412007769955</v>
-      </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AD33" s="5">
+        <f>AD32*100 / (2.54 * 12)</f>
+        <v>9.3104915939561614</v>
+      </c>
+      <c r="AE33" s="5">
+        <f>AE32*100 / (2.54 * 12)</f>
+        <v>7.4483932751649284</v>
+      </c>
+    </row>
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AC34" t="s">
+        <v>276</v>
+      </c>
+      <c r="AD34">
+        <v>1.5</v>
+      </c>
+      <c r="AE34">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C35" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D35" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="E35" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="F35" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="G35" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="H35" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="I35" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="J35" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="K35" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>284</v>
-      </c>
-      <c r="W35" t="s">
+        <v>286</v>
+      </c>
+      <c r="R35" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>268</v>
+      </c>
+      <c r="AD35" s="5">
+        <f>AD33*3</f>
+        <v>27.931474781868484</v>
+      </c>
+      <c r="AE35" s="5">
+        <f>AE33*3</f>
+        <v>22.345179825494785</v>
+      </c>
+      <c r="AF35" t="s">
         <v>272</v>
       </c>
-      <c r="X35">
-        <f>$B16*X32 /100</f>
-        <v>2.8378378378378382</v>
-      </c>
-      <c r="Y35">
-        <f>$B16*Y32 /100</f>
-        <v>2.2702702702702702</v>
-      </c>
-    </row>
-    <row r="36" spans="2:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>165</v>
       </c>
       <c r="C36" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="D36" t="s">
         <v>163</v>
@@ -8848,174 +8949,143 @@
         <v>165</v>
       </c>
       <c r="F36" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="G36" t="s">
         <v>165</v>
       </c>
       <c r="H36" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="I36" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="J36" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="K36" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q36" t="s">
+        <v>320</v>
+      </c>
+      <c r="R36" t="s">
         <v>102</v>
       </c>
-      <c r="R36" s="20">
+      <c r="S36" s="20">
         <v>1250000</v>
       </c>
-      <c r="W36" t="s">
-        <v>273</v>
-      </c>
-      <c r="X36" s="5">
-        <f>X35*100 / (2.54 * 12)</f>
-        <v>9.3104915939561614</v>
-      </c>
-      <c r="Y36" s="5">
-        <f>Y35*100 / (2.54 * 12)</f>
-        <v>7.4483932751649284</v>
-      </c>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="Q37" t="s">
-        <v>285</v>
-      </c>
-      <c r="R37">
+      <c r="AD36" s="5">
+        <f>AD32*100/(PI() * $AD34)</f>
+        <v>60.220789278014458</v>
+      </c>
+      <c r="AE36" s="5">
+        <f>AE32*100/(PI() * $AD34)</f>
+        <v>48.176631422411567</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="R37" t="s">
+        <v>279</v>
+      </c>
+      <c r="S37">
         <v>0.9</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="D38" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="M38" s="18" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="O38" s="2">
         <v>14.8</v>
       </c>
-      <c r="W38" t="s">
-        <v>274</v>
-      </c>
-      <c r="X38" s="5">
-        <f>X36*3</f>
-        <v>27.931474781868484</v>
-      </c>
-      <c r="Y38" s="5">
-        <f>Y36*3</f>
-        <v>22.345179825494785</v>
-      </c>
-      <c r="Z38" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AE38" s="4">
+        <f>AE36*U15</f>
+        <v>1.2525924169827007</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="L39" s="36"/>
       <c r="M39">
         <v>6</v>
       </c>
       <c r="N39" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="O39" s="2"/>
-      <c r="Q39" t="s">
-        <v>286</v>
-      </c>
-      <c r="R39" s="5">
-        <f>3/(0.01*(1-R37))</f>
+      <c r="R39" t="s">
+        <v>280</v>
+      </c>
+      <c r="S39" s="5">
+        <f>3/(0.01*(1-S37))</f>
         <v>3000.0000000000005</v>
       </c>
-      <c r="S39" t="s">
-        <v>275</v>
-      </c>
-      <c r="V39">
-        <v>1.5</v>
-      </c>
-      <c r="W39" t="s">
-        <v>282</v>
-      </c>
-      <c r="X39" s="5">
-        <f>X35*100/(PI() * $V39)</f>
-        <v>60.220789278014458</v>
-      </c>
-      <c r="Y39" s="5">
-        <f>Y35*100/(PI() * $V39)</f>
-        <v>48.176631422411567</v>
-      </c>
-      <c r="Z39" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="T39" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="M40">
         <v>24</v>
       </c>
       <c r="N40" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="O40" s="2">
         <f>(M40*M41)/(M39/2)</f>
         <v>32</v>
       </c>
-      <c r="Q40" t="s">
-        <v>287</v>
-      </c>
-      <c r="R40" s="35">
-        <f>(1.6*R37)/(R39*R36)</f>
+      <c r="R40" t="s">
+        <v>281</v>
+      </c>
+      <c r="S40" s="35">
+        <f>(1.6*S37)/(S39*S36)</f>
         <v>3.8400000000000002E-10</v>
       </c>
-      <c r="S40" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="T40" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="M41">
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="O41" s="2"/>
-      <c r="Y41" s="4">
-        <f>Y39*T15</f>
-        <v>1.2525924169827007</v>
-      </c>
-      <c r="Z41" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="M42">
         <v>1</v>
       </c>
       <c r="N42" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="O42" s="2"/>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="M43" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="N43" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="O43" s="2">
         <f>O38*O40</f>
         <v>473.6</v>
       </c>
-      <c r="Q43" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="R43" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="L44">
         <f>MAX(M47,N47)</f>
         <v>0.45599999999999996</v>
@@ -9027,23 +9097,23 @@
         <v>1.9E-2</v>
       </c>
       <c r="O44" s="2"/>
-      <c r="Q44" t="s">
+      <c r="R44" t="s">
         <v>102</v>
       </c>
-      <c r="R44" s="20">
+      <c r="S44" s="20">
         <v>1200000</v>
       </c>
-      <c r="U44" t="s">
-        <v>286</v>
-      </c>
-      <c r="V44">
+      <c r="V44" t="s">
+        <v>280</v>
+      </c>
+      <c r="W44">
         <v>5000</v>
       </c>
-      <c r="W44" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="X44" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="L45">
         <f>M48+N48</f>
         <v>0.13800000000000001</v>
@@ -9057,23 +9127,23 @@
         <v>0.48259999999999997</v>
       </c>
       <c r="O45" s="2"/>
-      <c r="Q45" t="s">
-        <v>285</v>
-      </c>
-      <c r="R45">
+      <c r="R45" t="s">
+        <v>279</v>
+      </c>
+      <c r="S45">
         <v>0.88</v>
       </c>
-      <c r="U45" t="s">
-        <v>287</v>
-      </c>
-      <c r="V45" s="20">
+      <c r="V45" t="s">
+        <v>281</v>
+      </c>
+      <c r="W45" s="20">
         <v>3.9E-10</v>
       </c>
-      <c r="W45" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="X45" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="M46">
         <f>M45*M42</f>
         <v>1.5748</v>
@@ -9083,18 +9153,18 @@
         <v>1.9303999999999999</v>
       </c>
       <c r="O46" s="2"/>
-      <c r="U46" t="s">
-        <v>285</v>
-      </c>
-      <c r="V46" s="2">
-        <f>1-(300/V44)</f>
+      <c r="V46" t="s">
+        <v>279</v>
+      </c>
+      <c r="W46" s="2">
+        <f>1-(300/W44)</f>
         <v>0.94</v>
       </c>
-      <c r="W46" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="X46" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="L47">
         <f>M50/25.4</f>
         <v>0.45600000000000002</v>
@@ -9108,35 +9178,35 @@
         <v>0.45599999999999996</v>
       </c>
       <c r="O47" s="2"/>
-      <c r="Q47" t="s">
-        <v>286</v>
-      </c>
-      <c r="R47" s="5">
-        <f>3/(0.01*(1-R45))</f>
+      <c r="R47" t="s">
+        <v>280</v>
+      </c>
+      <c r="S47" s="5">
+        <f>3/(0.01*(1-S45))</f>
         <v>2500</v>
       </c>
-      <c r="S47" t="s">
-        <v>275</v>
-      </c>
-      <c r="U47" t="s">
+      <c r="T47" t="s">
+        <v>269</v>
+      </c>
+      <c r="V47" t="s">
         <v>102</v>
       </c>
-      <c r="V47" s="20">
-        <f xml:space="preserve"> (1.6*V46)/(V44*V45)</f>
+      <c r="W47" s="20">
+        <f xml:space="preserve"> (1.6*W46)/(W44*W45)</f>
         <v>771282.05128205125</v>
       </c>
-      <c r="W47" t="s">
+      <c r="X47" t="s">
         <v>63</v>
       </c>
-      <c r="X47" s="5">
-        <f>1/V47*(1-V46)*1000000000</f>
+      <c r="Y47" s="5">
+        <f>1/W47*(1-W46)*1000000000</f>
         <v>77.792553191489432</v>
       </c>
-      <c r="Y47" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="Z47" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="L48">
         <f>M51/25.4</f>
         <v>0.13800000000000001</v>
@@ -9150,359 +9220,359 @@
         <v>7.5999999999999998E-2</v>
       </c>
       <c r="O48" s="2"/>
-      <c r="Q48" t="s">
-        <v>287</v>
-      </c>
-      <c r="R48" s="35">
-        <f>(1.6*R45)/(R47*R44)</f>
+      <c r="R48" t="s">
+        <v>281</v>
+      </c>
+      <c r="S48" s="35">
+        <f>(1.6*S45)/(S47*S44)</f>
         <v>4.6933333333333337E-10</v>
       </c>
-      <c r="S48" t="s">
-        <v>288</v>
-      </c>
-      <c r="V48" s="5">
-        <f>1/V47*1000000000</f>
+      <c r="T48" t="s">
+        <v>282</v>
+      </c>
+      <c r="W48" s="5">
+        <f>1/W47*1000000000</f>
         <v>1296.5425531914896</v>
       </c>
-      <c r="W48" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="49" spans="12:25" x14ac:dyDescent="0.2">
+      <c r="X48" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="49" spans="12:26" x14ac:dyDescent="0.2">
       <c r="O49" s="2"/>
     </row>
-    <row r="50" spans="12:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="12:26" x14ac:dyDescent="0.2">
       <c r="M50">
         <f>MAX(M39*M45,M40*N45)</f>
         <v>11.5824</v>
       </c>
       <c r="N50" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="O50" s="2"/>
     </row>
-    <row r="51" spans="12:25" x14ac:dyDescent="0.2">
+    <row r="51" spans="12:26" x14ac:dyDescent="0.2">
       <c r="M51">
         <f>M46+N46</f>
         <v>3.5051999999999999</v>
       </c>
       <c r="N51" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="O51" s="2"/>
-      <c r="Q51" t="s">
-        <v>286</v>
-      </c>
-      <c r="R51">
+      <c r="R51" t="s">
+        <v>280</v>
+      </c>
+      <c r="S51">
         <v>2500</v>
       </c>
-      <c r="S51" t="s">
-        <v>275</v>
-      </c>
-      <c r="U51" t="s">
-        <v>286</v>
-      </c>
-      <c r="V51">
+      <c r="T51" t="s">
+        <v>269</v>
+      </c>
+      <c r="V51" t="s">
+        <v>280</v>
+      </c>
+      <c r="W51">
         <v>3500</v>
       </c>
-      <c r="W51" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="52" spans="12:25" x14ac:dyDescent="0.2">
+      <c r="X51" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="52" spans="12:26" x14ac:dyDescent="0.2">
       <c r="O52" s="2"/>
-      <c r="Q52" t="s">
-        <v>287</v>
-      </c>
-      <c r="R52" s="20">
+      <c r="R52" t="s">
+        <v>281</v>
+      </c>
+      <c r="S52" s="20">
         <v>4.7000000000000003E-10</v>
       </c>
-      <c r="S52" t="s">
-        <v>288</v>
-      </c>
-      <c r="U52" t="s">
-        <v>287</v>
-      </c>
-      <c r="V52" s="20">
+      <c r="T52" t="s">
+        <v>282</v>
+      </c>
+      <c r="V52" t="s">
+        <v>281</v>
+      </c>
+      <c r="W52" s="20">
         <v>3.9E-10</v>
       </c>
-      <c r="W52" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="53" spans="12:25" x14ac:dyDescent="0.2">
+      <c r="X52" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="53" spans="12:26" x14ac:dyDescent="0.2">
       <c r="O53" s="2"/>
-      <c r="Q53" t="s">
-        <v>285</v>
-      </c>
-      <c r="R53" s="2">
-        <f>1-(300/R51)</f>
+      <c r="R53" t="s">
+        <v>279</v>
+      </c>
+      <c r="S53" s="2">
+        <f>1-(300/S51)</f>
         <v>0.88</v>
       </c>
-      <c r="S53" t="s">
-        <v>289</v>
-      </c>
-      <c r="U53" t="s">
-        <v>285</v>
-      </c>
-      <c r="V53" s="2">
-        <f>1-(300/V51)</f>
+      <c r="T53" t="s">
+        <v>283</v>
+      </c>
+      <c r="V53" t="s">
+        <v>279</v>
+      </c>
+      <c r="W53" s="2">
+        <f>1-(300/W51)</f>
         <v>0.91428571428571426</v>
       </c>
-      <c r="W53" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="54" spans="12:25" x14ac:dyDescent="0.2">
+      <c r="X53" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="54" spans="12:26" x14ac:dyDescent="0.2">
       <c r="M54">
         <v>0.70699999999999996</v>
       </c>
       <c r="O54" s="2"/>
-      <c r="Q54" t="s">
+      <c r="R54" t="s">
         <v>102</v>
       </c>
-      <c r="R54" s="20">
-        <f xml:space="preserve"> (1.6*R53)/(R51*R52)</f>
+      <c r="S54" s="20">
+        <f xml:space="preserve"> (1.6*S53)/(S51*S52)</f>
         <v>1198297.8723404256</v>
       </c>
-      <c r="S54" t="s">
+      <c r="T54" t="s">
         <v>63</v>
       </c>
-      <c r="U54" t="s">
+      <c r="V54" t="s">
         <v>102</v>
       </c>
-      <c r="V54" s="20">
-        <f xml:space="preserve"> (1.6*V53)/(V51*V52)</f>
+      <c r="W54" s="20">
+        <f xml:space="preserve"> (1.6*W53)/(W51*W52)</f>
         <v>1071690.2145473573</v>
       </c>
-      <c r="W54" t="s">
+      <c r="X54" t="s">
         <v>63</v>
       </c>
-      <c r="X54" s="5">
-        <f>1/V54*(1-V53)*1000000000</f>
+      <c r="Y54" s="5">
+        <f>1/W54*(1-W53)*1000000000</f>
         <v>79.980468750000043</v>
       </c>
-      <c r="Y54" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="55" spans="12:25" x14ac:dyDescent="0.2">
+      <c r="Z54" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="55" spans="12:26" x14ac:dyDescent="0.2">
       <c r="M55">
         <v>0.42699999999999999</v>
       </c>
       <c r="O55" s="2"/>
-      <c r="V55" s="5">
-        <f>1/V54*1000000000</f>
+      <c r="W55" s="5">
+        <f>1/W54*1000000000</f>
         <v>933.10546875000011</v>
       </c>
-      <c r="W55" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="56" spans="12:25" x14ac:dyDescent="0.2">
+      <c r="X55" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="56" spans="12:26" x14ac:dyDescent="0.2">
       <c r="M56">
         <f>M54-M55</f>
         <v>0.27999999999999997</v>
       </c>
       <c r="O56" s="2"/>
     </row>
-    <row r="57" spans="12:25" x14ac:dyDescent="0.2">
+    <row r="57" spans="12:26" x14ac:dyDescent="0.2">
       <c r="M57">
         <f>M56/2</f>
         <v>0.13999999999999999</v>
       </c>
       <c r="O57" s="2"/>
-      <c r="Q57" t="s">
-        <v>286</v>
-      </c>
-      <c r="R57">
+      <c r="R57" t="s">
+        <v>280</v>
+      </c>
+      <c r="S57">
         <v>2700</v>
       </c>
-      <c r="S57" t="s">
-        <v>275</v>
-      </c>
-      <c r="U57" t="s">
-        <v>286</v>
-      </c>
-      <c r="V57">
+      <c r="T57" t="s">
+        <v>269</v>
+      </c>
+      <c r="V57" t="s">
+        <v>280</v>
+      </c>
+      <c r="W57">
         <v>3000</v>
       </c>
-      <c r="W57" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="58" spans="12:25" x14ac:dyDescent="0.2">
+      <c r="X57" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="58" spans="12:26" x14ac:dyDescent="0.2">
       <c r="O58" s="2"/>
-      <c r="Q58" t="s">
-        <v>287</v>
-      </c>
-      <c r="R58" s="20">
+      <c r="R58" t="s">
+        <v>281</v>
+      </c>
+      <c r="S58" s="20">
         <v>4.7000000000000003E-10</v>
       </c>
-      <c r="S58" t="s">
-        <v>288</v>
-      </c>
-      <c r="U58" t="s">
-        <v>287</v>
-      </c>
-      <c r="V58" s="20">
+      <c r="T58" t="s">
+        <v>282</v>
+      </c>
+      <c r="V58" t="s">
+        <v>281</v>
+      </c>
+      <c r="W58" s="20">
         <v>3.9E-10</v>
       </c>
-      <c r="W58" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="59" spans="12:25" x14ac:dyDescent="0.2">
+      <c r="X58" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="59" spans="12:26" x14ac:dyDescent="0.2">
       <c r="M59" s="18" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="O59" s="2">
         <v>14.8</v>
       </c>
-      <c r="Q59" t="s">
-        <v>285</v>
-      </c>
-      <c r="R59" s="2">
-        <f>1-(300/R57)</f>
+      <c r="R59" t="s">
+        <v>279</v>
+      </c>
+      <c r="S59" s="2">
+        <f>1-(300/S57)</f>
         <v>0.88888888888888884</v>
       </c>
-      <c r="S59" t="s">
-        <v>289</v>
-      </c>
-      <c r="U59" t="s">
-        <v>285</v>
-      </c>
-      <c r="V59" s="2">
-        <f>1-(300/V57)</f>
+      <c r="T59" t="s">
+        <v>283</v>
+      </c>
+      <c r="V59" t="s">
+        <v>279</v>
+      </c>
+      <c r="W59" s="2">
+        <f>1-(300/W57)</f>
         <v>0.9</v>
       </c>
-      <c r="W59" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="60" spans="12:25" x14ac:dyDescent="0.2">
+      <c r="X59" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="60" spans="12:26" x14ac:dyDescent="0.2">
       <c r="L60" s="36"/>
       <c r="M60">
         <v>6</v>
       </c>
       <c r="N60" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="O60" s="2"/>
-      <c r="Q60" t="s">
+      <c r="R60" t="s">
         <v>102</v>
       </c>
-      <c r="R60" s="20">
-        <f xml:space="preserve"> (1.6*R59)/(R57*R58)</f>
+      <c r="S60" s="20">
+        <f xml:space="preserve"> (1.6*S59)/(S57*S58)</f>
         <v>1120742.4919008843</v>
       </c>
-      <c r="S60" t="s">
+      <c r="T60" t="s">
         <v>63</v>
       </c>
-      <c r="U60" t="s">
+      <c r="V60" t="s">
         <v>102</v>
       </c>
-      <c r="V60" s="20">
-        <f xml:space="preserve"> (1.6*V59)/(V57*V58)</f>
+      <c r="W60" s="20">
+        <f xml:space="preserve"> (1.6*W59)/(W57*W58)</f>
         <v>1230769.230769231</v>
       </c>
-      <c r="W60" t="s">
+      <c r="X60" t="s">
         <v>63</v>
       </c>
-      <c r="X60" s="5">
-        <f>1/V60*(1-V59)*1000000000</f>
+      <c r="Y60" s="5">
+        <f>1/W60*(1-W59)*1000000000</f>
         <v>81.249999999999957</v>
       </c>
-      <c r="Y60" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="61" spans="12:25" x14ac:dyDescent="0.2">
+      <c r="Z60" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="61" spans="12:26" x14ac:dyDescent="0.2">
       <c r="M61">
         <v>16</v>
       </c>
       <c r="N61" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="O61" s="2">
         <f>(M61*M62)/(M60/2)</f>
         <v>26.666666666666668</v>
       </c>
-      <c r="V61" s="5">
-        <f>1/V60*1000000000</f>
+      <c r="W61" s="5">
+        <f>1/W60*1000000000</f>
         <v>812.49999999999989</v>
       </c>
-      <c r="W61" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="62" spans="12:25" x14ac:dyDescent="0.2">
+      <c r="X61" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="62" spans="12:26" x14ac:dyDescent="0.2">
       <c r="M62">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="O62" s="2"/>
     </row>
-    <row r="63" spans="12:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="12:26" x14ac:dyDescent="0.2">
       <c r="M63">
         <v>1</v>
       </c>
       <c r="N63" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="O63" s="2"/>
-      <c r="Q63" t="s">
-        <v>286</v>
-      </c>
-      <c r="R63">
+      <c r="R63" t="s">
+        <v>280</v>
+      </c>
+      <c r="S63">
         <v>3000</v>
       </c>
-      <c r="S63" t="s">
-        <v>275</v>
-      </c>
-      <c r="U63" t="s">
-        <v>286</v>
-      </c>
-      <c r="V63">
+      <c r="T63" t="s">
+        <v>269</v>
+      </c>
+      <c r="V63" t="s">
+        <v>280</v>
+      </c>
+      <c r="W63">
         <v>2500</v>
       </c>
-      <c r="W63" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="64" spans="12:25" x14ac:dyDescent="0.2">
+      <c r="X63" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="64" spans="12:26" x14ac:dyDescent="0.2">
       <c r="M64" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="N64" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="O64" s="2">
         <f>O59*O61</f>
         <v>394.66666666666669</v>
       </c>
-      <c r="Q64" t="s">
-        <v>287</v>
-      </c>
-      <c r="R64" s="20">
+      <c r="R64" t="s">
+        <v>281</v>
+      </c>
+      <c r="S64" s="20">
         <v>4.7000000000000003E-10</v>
       </c>
-      <c r="S64" t="s">
-        <v>288</v>
-      </c>
-      <c r="U64" t="s">
-        <v>287</v>
-      </c>
-      <c r="V64" s="20">
+      <c r="T64" t="s">
+        <v>282</v>
+      </c>
+      <c r="V64" t="s">
+        <v>281</v>
+      </c>
+      <c r="W64" s="20">
         <v>3.9E-10</v>
       </c>
-      <c r="W64" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="65" spans="12:25" x14ac:dyDescent="0.2">
+      <c r="X64" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="65" spans="12:26" x14ac:dyDescent="0.2">
       <c r="L65">
         <f>MAX(M68,N68)</f>
         <v>0.28800000000000003</v>
@@ -9514,28 +9584,28 @@
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="O65" s="2"/>
-      <c r="Q65" t="s">
-        <v>285</v>
-      </c>
-      <c r="R65" s="2">
-        <f>1-(300/R63)</f>
+      <c r="R65" t="s">
+        <v>279</v>
+      </c>
+      <c r="S65" s="2">
+        <f>1-(300/S63)</f>
         <v>0.9</v>
       </c>
-      <c r="S65" t="s">
-        <v>289</v>
-      </c>
-      <c r="U65" t="s">
-        <v>285</v>
-      </c>
-      <c r="V65" s="2">
-        <f>1-(300/V63)</f>
+      <c r="T65" t="s">
+        <v>283</v>
+      </c>
+      <c r="V65" t="s">
+        <v>279</v>
+      </c>
+      <c r="W65" s="2">
+        <f>1-(300/W63)</f>
         <v>0.88</v>
       </c>
-      <c r="W65" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="66" spans="12:25" x14ac:dyDescent="0.2">
+      <c r="X65" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="66" spans="12:26" x14ac:dyDescent="0.2">
       <c r="L66">
         <f>M69+N69</f>
         <v>0.13300000000000001</v>
@@ -9549,35 +9619,35 @@
         <v>0.43180000000000002</v>
       </c>
       <c r="O66" s="2"/>
-      <c r="Q66" t="s">
+      <c r="R66" t="s">
         <v>102</v>
       </c>
-      <c r="R66" s="20">
-        <f xml:space="preserve"> (1.6*R65)/(R63*R64)</f>
+      <c r="S66" s="20">
+        <f xml:space="preserve"> (1.6*S65)/(S63*S64)</f>
         <v>1021276.595744681</v>
       </c>
-      <c r="S66" t="s">
+      <c r="T66" t="s">
         <v>63</v>
       </c>
-      <c r="U66" t="s">
+      <c r="V66" t="s">
         <v>102</v>
       </c>
-      <c r="V66" s="20">
-        <f xml:space="preserve"> (1.6*V65)/(V63*V64)</f>
+      <c r="W66" s="20">
+        <f xml:space="preserve"> (1.6*W65)/(W63*W64)</f>
         <v>1444102.5641025642</v>
       </c>
-      <c r="W66" t="s">
+      <c r="X66" t="s">
         <v>63</v>
       </c>
-      <c r="X66" s="5">
-        <f>1/V66*(1-V65)*1000000000</f>
+      <c r="Y66" s="5">
+        <f>1/W66*(1-W65)*1000000000</f>
         <v>83.096590909090892</v>
       </c>
-      <c r="Y66" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="67" spans="12:25" x14ac:dyDescent="0.2">
+      <c r="Z66" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="67" spans="12:26" x14ac:dyDescent="0.2">
       <c r="M67">
         <f>M66*M63</f>
         <v>1.2192000000000001</v>
@@ -9587,15 +9657,15 @@
         <v>2.1590000000000003</v>
       </c>
       <c r="O67" s="2"/>
-      <c r="V67" s="5">
-        <f>1/V66*1000000000</f>
+      <c r="W67" s="5">
+        <f>1/W66*1000000000</f>
         <v>692.47159090909076</v>
       </c>
-      <c r="W67" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="68" spans="12:25" x14ac:dyDescent="0.2">
+      <c r="X67" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="68" spans="12:26" x14ac:dyDescent="0.2">
       <c r="L68">
         <f>M71/25.4</f>
         <v>0.28800000000000003</v>
@@ -9610,7 +9680,7 @@
       </c>
       <c r="O68" s="2"/>
     </row>
-    <row r="69" spans="12:25" x14ac:dyDescent="0.2">
+    <row r="69" spans="12:26" x14ac:dyDescent="0.2">
       <c r="L69">
         <f>M72/25.4</f>
         <v>0.13300000000000003</v>
@@ -9624,118 +9694,118 @@
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="O69" s="2"/>
-      <c r="Q69" t="s">
-        <v>286</v>
-      </c>
-      <c r="R69">
+      <c r="R69" t="s">
+        <v>280</v>
+      </c>
+      <c r="S69">
         <v>2200</v>
       </c>
-      <c r="S69" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="70" spans="12:25" x14ac:dyDescent="0.2">
+      <c r="T69" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="70" spans="12:26" x14ac:dyDescent="0.2">
       <c r="O70" s="2"/>
-      <c r="Q70" t="s">
-        <v>287</v>
-      </c>
-      <c r="R70" s="20">
+      <c r="R70" t="s">
+        <v>281</v>
+      </c>
+      <c r="S70" s="20">
         <v>4.7000000000000003E-10</v>
       </c>
-      <c r="S70" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="71" spans="12:25" x14ac:dyDescent="0.2">
+      <c r="T70" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="71" spans="12:26" x14ac:dyDescent="0.2">
       <c r="M71">
         <f>MAX(M60*M66,M61*N66)</f>
         <v>7.3152000000000008</v>
       </c>
       <c r="N71" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="O71" s="2"/>
-      <c r="Q71" t="s">
-        <v>285</v>
-      </c>
-      <c r="R71" s="2">
-        <f>1-(300/R69)</f>
+      <c r="R71" t="s">
+        <v>279</v>
+      </c>
+      <c r="S71" s="2">
+        <f>1-(300/S69)</f>
         <v>0.86363636363636365</v>
       </c>
-      <c r="S71" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="72" spans="12:25" x14ac:dyDescent="0.2">
+      <c r="T71" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="72" spans="12:26" x14ac:dyDescent="0.2">
       <c r="M72">
         <f>M67+N67</f>
         <v>3.3782000000000005</v>
       </c>
       <c r="N72" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="O72" s="2"/>
-      <c r="Q72" t="s">
+      <c r="R72" t="s">
         <v>102</v>
       </c>
-      <c r="R72" s="20">
-        <f xml:space="preserve"> (1.6*R71)/(R69*R70)</f>
+      <c r="S72" s="20">
+        <f xml:space="preserve"> (1.6*S71)/(S69*S70)</f>
         <v>1336381.2203270618</v>
       </c>
-      <c r="S72" t="s">
+      <c r="T72" t="s">
         <v>63</v>
       </c>
-      <c r="T72" s="5">
-        <f>1/R72*(1-R71)*1000000000</f>
+      <c r="U72" s="5">
+        <f>1/S72*(1-S71)*1000000000</f>
         <v>102.03947368421052</v>
       </c>
-      <c r="U72" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="74" spans="12:25" x14ac:dyDescent="0.2">
-      <c r="R74" s="20">
-        <f>R71/R72</f>
+      <c r="V72" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="74" spans="12:26" x14ac:dyDescent="0.2">
+      <c r="S74" s="20">
+        <f>S71/S72</f>
         <v>6.4624999999999995E-7</v>
       </c>
     </row>
-    <row r="75" spans="12:25" x14ac:dyDescent="0.2">
+    <row r="75" spans="12:26" x14ac:dyDescent="0.2">
       <c r="M75">
         <v>0.70699999999999996</v>
       </c>
       <c r="N75" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="76" spans="12:25" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="76" spans="12:26" x14ac:dyDescent="0.2">
       <c r="M76">
         <v>0.42699999999999999</v>
       </c>
       <c r="N76" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="77" spans="12:25" x14ac:dyDescent="0.2">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="77" spans="12:26" x14ac:dyDescent="0.2">
       <c r="M77">
         <f>M75-M76</f>
         <v>0.27999999999999997</v>
       </c>
       <c r="N77" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="78" spans="12:25" x14ac:dyDescent="0.2">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="78" spans="12:26" x14ac:dyDescent="0.2">
       <c r="M78">
         <f>M77/2</f>
         <v>0.13999999999999999</v>
       </c>
       <c r="N78" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="81" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M81" s="18" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="83" spans="13:14" x14ac:dyDescent="0.2">
@@ -9744,7 +9814,7 @@
         <v>625000</v>
       </c>
       <c r="N83" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="84" spans="13:14" x14ac:dyDescent="0.2">
@@ -9752,7 +9822,7 @@
         <v>15</v>
       </c>
       <c r="N84" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="85" spans="13:14" x14ac:dyDescent="0.2">
@@ -9769,7 +9839,7 @@
         <v>3926990.8169872416</v>
       </c>
       <c r="N86" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="87" spans="13:14" x14ac:dyDescent="0.2">
@@ -9787,7 +9857,7 @@
         <v>1.767145867644259E-2</v>
       </c>
       <c r="N88" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="89" spans="13:14" x14ac:dyDescent="0.2">
@@ -9796,7 +9866,7 @@
         <v>5.3014376029327774</v>
       </c>
       <c r="N89" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>

--- a/EHD/weight-model.xlsx
+++ b/EHD/weight-model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mickos01/Desktop/MolecularKinetics/EHD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AEC9687-786E-7044-A424-3E6D6C7B1FD8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92033E8C-7E76-2344-9D2B-48DA65DBFB7B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="500" windowWidth="27240" windowHeight="16860" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="330">
   <si>
     <t>Coil form</t>
   </si>
@@ -846,9 +846,6 @@
     <t>ohms</t>
   </si>
   <si>
-    <t>area cm^2</t>
-  </si>
-  <si>
     <t>vol cm^3</t>
   </si>
   <si>
@@ -864,9 +861,6 @@
     <t>(push-pull each coil)</t>
   </si>
   <si>
-    <t>cm bobbin</t>
-  </si>
-  <si>
     <t>100/46 inches on bobbin</t>
   </si>
   <si>
@@ -1009,6 +1003,27 @@
   </si>
   <si>
     <t>Measurements on actual sizes</t>
+  </si>
+  <si>
+    <t>Ae cm^2</t>
+  </si>
+  <si>
+    <t>odin</t>
+  </si>
+  <si>
+    <t>sec fill</t>
+  </si>
+  <si>
+    <t>1=rectangular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m </t>
+  </si>
+  <si>
+    <t>ft</t>
+  </si>
+  <si>
+    <t>dia bobbin</t>
   </si>
 </sst>
 </file>
@@ -5028,10 +5043,10 @@
         <v>1.1000000000000001E-11</v>
       </c>
       <c r="G2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="S2">
         <v>2</v>
@@ -5056,7 +5071,7 @@
         <v>1.5999999999999999E-6</v>
       </c>
       <c r="G3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H3" s="5">
         <f>F4*F3/F2</f>
@@ -5091,7 +5106,7 @@
         <v>1.25E-3</v>
       </c>
       <c r="G4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J4">
         <v>2.54</v>
@@ -7267,10 +7282,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:AG89"/>
+  <dimension ref="A2:AG125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W37" sqref="W37"/>
+    <sheetView tabSelected="1" topLeftCell="O17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD51" sqref="AD51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7383,7 +7398,7 @@
         <v>134</v>
       </c>
       <c r="P4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.2">
@@ -7462,7 +7477,7 @@
         <v>120</v>
       </c>
       <c r="N6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.2">
@@ -7596,15 +7611,15 @@
         <v>99</v>
       </c>
       <c r="M9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="N9" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="N10" s="39" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="O10" s="40"/>
       <c r="P10" s="41"/>
@@ -7666,8 +7681,8 @@
       <c r="U11">
         <v>1.9E-2</v>
       </c>
-      <c r="X11" t="s">
-        <v>273</v>
+      <c r="W11" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.2">
@@ -7741,13 +7756,13 @@
       <c r="V12" t="s">
         <v>265</v>
       </c>
+      <c r="W12" t="s">
+        <v>161</v>
+      </c>
       <c r="X12" t="s">
-        <v>161</v>
+        <v>263</v>
       </c>
       <c r="Y12" t="s">
-        <v>263</v>
-      </c>
-      <c r="AA12" t="s">
         <v>262</v>
       </c>
       <c r="AB12" t="s">
@@ -7831,37 +7846,37 @@
       <c r="V13">
         <v>112.5</v>
       </c>
-      <c r="X13">
+      <c r="W13">
         <f>S13/500</f>
         <v>0.20200000000000001</v>
       </c>
-      <c r="Y13" s="1">
+      <c r="X13" s="1">
         <f>S13/300</f>
         <v>0.33666666666666667</v>
       </c>
-      <c r="AA13" s="2">
+      <c r="Y13" s="2">
         <f>U13*25.4</f>
         <v>0.40639999999999998</v>
       </c>
       <c r="AB13" s="5">
-        <f>AD$30/$AA13</f>
-        <v>200.98771897966199</v>
+        <f>AB$36/$Y13</f>
+        <v>194.70453367248237</v>
       </c>
       <c r="AC13" s="5">
-        <f>AE$30/$AA13</f>
-        <v>177.79682832816249</v>
+        <f>AC$36/$Y13</f>
+        <v>172.69174026607908</v>
       </c>
       <c r="AE13" s="34">
         <f>V13/1000 / (2.54 * 12) * 100</f>
         <v>0.36909448818897639</v>
       </c>
       <c r="AF13" s="4">
-        <f>$AE13*AD$32</f>
-        <v>1.0474303043200683</v>
+        <f>$AE13*AB$38</f>
+        <v>1.2166476377952757</v>
       </c>
       <c r="AG13" s="4">
-        <f>$AE13*AE$32</f>
-        <v>0.83794424345605445</v>
+        <f>$AE13*AC$38</f>
+        <v>1.0822145669291341</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.2">
@@ -7887,42 +7902,42 @@
         <v>66</v>
       </c>
       <c r="U14">
-        <v>1.9E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="V14">
         <v>71.599999999999994</v>
       </c>
-      <c r="X14">
+      <c r="W14">
         <f>S14/500</f>
         <v>0.32600000000000001</v>
       </c>
-      <c r="Y14" s="1">
+      <c r="X14" s="1">
         <f>S14/300</f>
         <v>0.54333333333333333</v>
       </c>
-      <c r="AA14" s="2">
+      <c r="Y14" s="2">
         <f>U14*25.4</f>
-        <v>0.48259999999999997</v>
+        <v>0.53339999999999999</v>
       </c>
       <c r="AB14" s="5">
-        <f>AD$30/$AA14</f>
-        <v>169.25281598287324</v>
+        <f>AB$36/$Y14</f>
+        <v>148.34631136951037</v>
       </c>
       <c r="AC14" s="5">
-        <f>AE$30/$AA14</f>
-        <v>149.72364490792631</v>
+        <f>AC$36/$Y14</f>
+        <v>131.57465925034597</v>
       </c>
       <c r="AE14" s="34">
         <f t="shared" ref="AE14:AE16" si="2">V14/1000 / (2.54 * 12) * 100</f>
         <v>0.23490813648293962</v>
       </c>
       <c r="AF14" s="4">
-        <f>$AE14*AD$32</f>
-        <v>0.66663119812726113</v>
+        <f>$AE14*AB$38</f>
+        <v>0.77432862992125984</v>
       </c>
       <c r="AG14" s="4">
-        <f>$AE14*AE$32</f>
-        <v>0.53330495850180881</v>
+        <f>$AE14*AC$38</f>
+        <v>0.68876944881889768</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.2">
@@ -7960,7 +7975,7 @@
         <v>123</v>
       </c>
       <c r="N15" s="44" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="O15" s="38">
         <f>2*O14</f>
@@ -7986,37 +8001,37 @@
       <c r="V15">
         <v>45.1</v>
       </c>
-      <c r="X15">
+      <c r="W15">
         <f>S15/500</f>
         <v>0.51800000000000002</v>
       </c>
-      <c r="Y15" s="1">
+      <c r="X15" s="1">
         <f>S15/300</f>
         <v>0.86333333333333329</v>
       </c>
-      <c r="AA15" s="2">
+      <c r="Y15" s="2">
         <f>U15*25.4</f>
         <v>0.66039999999999999</v>
       </c>
       <c r="AB15" s="5">
-        <f>AD$30/$AA15</f>
-        <v>123.68475014133045</v>
+        <f>AB$36/$Y15</f>
+        <v>119.81817456768147</v>
       </c>
       <c r="AC15" s="5">
-        <f>AE$30/$AA15</f>
-        <v>109.41343281733077</v>
+        <f>AC$36/$Y15</f>
+        <v>106.27184016374098</v>
       </c>
       <c r="AE15" s="34">
         <f t="shared" si="2"/>
         <v>0.14796587926509186</v>
       </c>
       <c r="AF15" s="4">
-        <f>$AE15*AD$32</f>
-        <v>0.41990317088742291</v>
+        <f>$AE15*AB$38</f>
+        <v>0.4877405196850394</v>
       </c>
       <c r="AG15" s="4">
-        <f>$AE15*AE$32</f>
-        <v>0.33592253670993827</v>
+        <f>$AE15*AC$38</f>
+        <v>0.43384779527559059</v>
       </c>
     </row>
     <row r="16" spans="1:33" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -8061,7 +8076,7 @@
         <v>81.081081081081081</v>
       </c>
       <c r="L16" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="N16" s="46"/>
       <c r="O16" s="47"/>
@@ -8082,40 +8097,40 @@
       <c r="V16">
         <v>28.7</v>
       </c>
-      <c r="X16">
+      <c r="W16">
         <f>S16/500</f>
         <v>0.81599999999999995</v>
       </c>
-      <c r="Y16" s="1">
+      <c r="X16" s="1">
         <f>S16/300</f>
         <v>1.36</v>
       </c>
-      <c r="AA16" s="2">
+      <c r="Y16" s="2">
         <f>U16*25.4</f>
         <v>0.81279999999999997</v>
       </c>
       <c r="AB16" s="5">
-        <f>AD$30/$AA16</f>
-        <v>100.493859489831</v>
+        <f>AB$36/$Y16</f>
+        <v>97.352266836241185</v>
       </c>
       <c r="AC16" s="5">
-        <f>AE$30/$AA16</f>
-        <v>88.898414164081245</v>
+        <f>AC$36/$Y16</f>
+        <v>86.34587013303954</v>
       </c>
       <c r="AE16" s="34">
         <f t="shared" si="2"/>
         <v>9.416010498687663E-2</v>
       </c>
       <c r="AF16" s="4">
-        <f>$AE16*AD$32</f>
-        <v>0.2672111087465418</v>
+        <f>$AE16*AB$38</f>
+        <v>0.31038033070866139</v>
       </c>
       <c r="AG16" s="4">
-        <f>$AE16*AE$32</f>
-        <v>0.21376888699723343</v>
-      </c>
-    </row>
-    <row r="17" spans="2:31" x14ac:dyDescent="0.2">
+        <f>$AE16*AC$38</f>
+        <v>0.27608496062992127</v>
+      </c>
+    </row>
+    <row r="17" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B17" s="2">
         <f>B11/B15</f>
         <v>0.33333333333333331</v>
@@ -8165,40 +8180,40 @@
       <c r="U17">
         <v>3.9E-2</v>
       </c>
-      <c r="AA17" s="2">
+      <c r="Y17" s="2">
         <f>U17*25.4</f>
         <v>0.99059999999999993</v>
       </c>
       <c r="AB17" s="5">
-        <f>AD$30/$AA17</f>
-        <v>82.456500094220303</v>
+        <f>AB$36/$Y17</f>
+        <v>79.878783045120983</v>
       </c>
       <c r="AC17" s="5">
-        <f>AE$30/$AA17</f>
-        <v>72.942288544887177</v>
-      </c>
-    </row>
-    <row r="18" spans="2:31" x14ac:dyDescent="0.2">
+        <f>AC$36/$Y17</f>
+        <v>70.847893442493984</v>
+      </c>
+    </row>
+    <row r="18" spans="2:30" x14ac:dyDescent="0.2">
       <c r="T18">
         <v>330</v>
       </c>
       <c r="U18">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="AA18" s="2">
+      <c r="Y18" s="2">
         <f>U18*25.4</f>
         <v>1.0668</v>
       </c>
       <c r="AB18" s="5">
-        <f>AD$30/$AA18</f>
-        <v>76.566750087490277</v>
+        <f>AB$36/$Y18</f>
+        <v>74.173155684755187</v>
       </c>
       <c r="AC18" s="5">
-        <f>AE$30/$AA18</f>
-        <v>67.732125077395239</v>
-      </c>
-    </row>
-    <row r="19" spans="2:31" x14ac:dyDescent="0.2">
+        <f>AC$36/$Y18</f>
+        <v>65.787329625172987</v>
+      </c>
+    </row>
+    <row r="19" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B19" s="7">
         <v>267</v>
       </c>
@@ -8230,7 +8245,7 @@
         <v>267</v>
       </c>
       <c r="L19" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="T19">
         <v>420</v>
@@ -8238,8 +8253,20 @@
       <c r="U19">
         <v>4.8000000000000001E-2</v>
       </c>
-    </row>
-    <row r="20" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="Y19" s="2">
+        <f t="shared" ref="Y19:Y20" si="3">U19*25.4</f>
+        <v>1.2192000000000001</v>
+      </c>
+      <c r="AB19" s="5">
+        <f>AB$36/$Y19</f>
+        <v>64.901511224160785</v>
+      </c>
+      <c r="AC19" s="5">
+        <f>AC$36/$Y19</f>
+        <v>57.56391342202636</v>
+      </c>
+    </row>
+    <row r="20" spans="2:30" x14ac:dyDescent="0.2">
       <c r="R20" s="33"/>
       <c r="T20">
         <v>660</v>
@@ -8247,8 +8274,20 @@
       <c r="U20">
         <v>6.2E-2</v>
       </c>
-    </row>
-    <row r="21" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="Y20" s="2">
+        <f t="shared" si="3"/>
+        <v>1.5748</v>
+      </c>
+      <c r="AB20" s="5">
+        <f>AB$36/$Y20</f>
+        <v>50.246331270318031</v>
+      </c>
+      <c r="AC20" s="5">
+        <f>AC$36/$Y20</f>
+        <v>44.565610391246217</v>
+      </c>
+    </row>
+    <row r="21" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B21">
         <f>B15*B19</f>
         <v>80100</v>
@@ -8296,45 +8335,45 @@
         <v>106</v>
       </c>
     </row>
-    <row r="22" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B22" s="2">
         <f>B11/B21*1000</f>
         <v>1.2484394506866416</v>
       </c>
       <c r="C22" s="2">
-        <f t="shared" ref="C22:K22" si="3">C11/C21*1000</f>
+        <f t="shared" ref="C22:K22" si="4">C11/C21*1000</f>
         <v>1.9975031210986267</v>
       </c>
       <c r="D22" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.1210986267166039</v>
       </c>
       <c r="E22" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2484394506866416</v>
       </c>
       <c r="F22" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.6229712858926342</v>
       </c>
       <c r="G22" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2484394506866416</v>
       </c>
       <c r="H22" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.6229712858926342</v>
       </c>
       <c r="I22" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.9975031210986267</v>
       </c>
       <c r="J22" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.9975031210986267</v>
       </c>
       <c r="K22" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.9975031210986267</v>
       </c>
       <c r="L22" t="s">
@@ -8345,30 +8384,30 @@
       </c>
       <c r="R22" s="33"/>
       <c r="T22" s="18" t="s">
-        <v>324</v>
-      </c>
-      <c r="AC22" s="18" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="23" spans="2:31" x14ac:dyDescent="0.2">
+        <v>322</v>
+      </c>
+      <c r="AA22" s="18" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="23" spans="2:30" x14ac:dyDescent="0.2">
       <c r="T23">
         <v>40</v>
       </c>
       <c r="U23">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="AC23" t="s">
+      <c r="AA23" t="s">
         <v>154</v>
       </c>
-      <c r="AD23">
+      <c r="AB23">
         <v>26</v>
       </c>
-      <c r="AE23">
+      <c r="AC23">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>300</v>
       </c>
@@ -8400,7 +8439,7 @@
         <v>300</v>
       </c>
       <c r="L24" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="R24" s="33"/>
       <c r="T24">
@@ -8409,17 +8448,17 @@
       <c r="U24">
         <v>1.9E-2</v>
       </c>
-      <c r="AC24" t="s">
+      <c r="AA24" t="s">
         <v>152</v>
       </c>
-      <c r="AD24">
+      <c r="AB24">
         <v>45</v>
       </c>
-      <c r="AE24">
+      <c r="AC24">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>300</v>
       </c>
@@ -8451,7 +8490,7 @@
         <v>300</v>
       </c>
       <c r="L25" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="T25">
         <v>100</v>
@@ -8462,17 +8501,17 @@
       <c r="V25">
         <v>2.7E-2</v>
       </c>
-      <c r="AC25" t="s">
+      <c r="AA25" t="s">
         <v>153</v>
       </c>
-      <c r="AD25">
+      <c r="AB25">
         <v>8</v>
       </c>
-      <c r="AE25">
+      <c r="AC25">
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B26" s="4">
         <f>B24*B13</f>
         <v>1351.3513513513515</v>
@@ -8526,17 +8565,20 @@
       <c r="V26">
         <v>0.03</v>
       </c>
-      <c r="AC26" t="s">
+      <c r="AA26" t="s">
         <v>244</v>
       </c>
-      <c r="AD26">
+      <c r="AB26">
         <v>1</v>
       </c>
-      <c r="AE26">
+      <c r="AC26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AD26" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="27" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B27">
         <f>B25*B17</f>
         <v>100</v>
@@ -8581,7 +8623,7 @@
         <v>128</v>
       </c>
       <c r="O27" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T27">
         <v>270</v>
@@ -8590,45 +8632,45 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="28" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B28" s="2">
         <f>B24*(B22/1000)</f>
         <v>0.37453183520599254</v>
       </c>
       <c r="C28" s="2">
-        <f t="shared" ref="C28:K28" si="4">C24*(C22/1000)</f>
+        <f t="shared" ref="C28:K28" si="5">C24*(C22/1000)</f>
         <v>0.59925093632958804</v>
       </c>
       <c r="D28" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.93632958801498123</v>
       </c>
       <c r="E28" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.37453183520599254</v>
       </c>
       <c r="F28" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.48689138576779023</v>
       </c>
       <c r="G28" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.37453183520599254</v>
       </c>
       <c r="H28" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.48689138576779023</v>
       </c>
       <c r="I28" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.59925093632958804</v>
       </c>
       <c r="J28" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.59925093632958804</v>
       </c>
       <c r="K28" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.59925093632958804</v>
       </c>
       <c r="L28" t="s">
@@ -8641,80 +8683,84 @@
       <c r="U28" s="50">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="AC28" t="s">
-        <v>270</v>
-      </c>
-      <c r="AD28">
-        <f>(AD24-AD23)/2*AD25/100</f>
-        <v>0.76</v>
-      </c>
-      <c r="AE28">
-        <f>(AE24-AE23)/2*AE25/100</f>
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="29" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AA28" t="s">
+        <v>324</v>
+      </c>
+      <c r="AB28">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="AC28">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:30" x14ac:dyDescent="0.2">
       <c r="T29">
         <v>420</v>
       </c>
       <c r="U29">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="AC29" t="s">
-        <v>260</v>
-      </c>
-      <c r="AD29">
-        <f>((AD24-AD23) + (2*AD25) )/10 * AD26</f>
-        <v>3.5</v>
-      </c>
-      <c r="AE29">
-        <f>((AE24-AE23) + (2*AE25) )/10</f>
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="30" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AA29" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB29" s="1">
+        <f>AB28*25.4</f>
+        <v>0.81279999999999997</v>
+      </c>
+      <c r="AC29" s="1">
+        <f>AC28*25.4</f>
+        <v>0.66039999999999999</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B30" s="4">
-        <f t="shared" ref="B30:K30" si="5">1630/660</f>
+        <f t="shared" ref="B30:K30" si="6">1630/660</f>
         <v>2.4696969696969697</v>
       </c>
       <c r="C30" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.4696969696969697</v>
       </c>
       <c r="D30" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.4696969696969697</v>
       </c>
       <c r="E30" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.4696969696969697</v>
       </c>
       <c r="F30" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.4696969696969697</v>
       </c>
       <c r="G30" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.4696969696969697</v>
       </c>
       <c r="H30" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.4696969696969697</v>
       </c>
       <c r="I30" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.4696969696969697</v>
       </c>
       <c r="J30" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.4696969696969697</v>
       </c>
       <c r="K30" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.4696969696969697</v>
       </c>
       <c r="L30" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="R30" s="33"/>
       <c r="T30">
@@ -8723,52 +8769,53 @@
       <c r="U30">
         <v>6.2E-2</v>
       </c>
-      <c r="AC30" t="s">
-        <v>261</v>
-      </c>
-      <c r="AD30" s="5">
-        <f xml:space="preserve"> PI() * AD23</f>
-        <v>81.681408993334628</v>
-      </c>
-      <c r="AE30" s="5">
-        <f xml:space="preserve"> PI() * AE23</f>
-        <v>72.256631032565238</v>
-      </c>
-    </row>
-    <row r="31" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AA30" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB30">
+        <v>90</v>
+      </c>
+      <c r="AC30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="2:30" x14ac:dyDescent="0.2">
       <c r="T31">
         <v>1162</v>
       </c>
       <c r="U31">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="AC31" t="s">
-        <v>271</v>
-      </c>
-      <c r="AD31" s="4">
-        <f>PI() * (AD24-((AD24-AD23)/2)) /10 * AD28</f>
-        <v>8.4760169793852622</v>
-      </c>
-      <c r="AE31" s="4">
-        <f>PI() * (AE24-((AE24-AE23)/2)) /10 * AE28</f>
-        <v>4.6181412007769955</v>
-      </c>
-    </row>
-    <row r="32" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AA31" t="s">
+        <v>323</v>
+      </c>
+      <c r="AB31">
+        <f>(AB24-AB23)/2*AB25/100</f>
+        <v>0.76</v>
+      </c>
+      <c r="AC31">
+        <f>(AC24-AC23)/2*AC25/100</f>
+        <v>0.49</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B32" s="5">
-        <f t="shared" ref="B32:K32" si="6">B26/B30</f>
+        <f t="shared" ref="B32:K32" si="7">B26/B30</f>
         <v>547.17293981097669</v>
       </c>
       <c r="C32" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>656.60752777317191</v>
       </c>
       <c r="D32" s="5">
-        <f t="shared" ref="D32" si="7">D26/D30</f>
+        <f t="shared" ref="D32" si="8">D26/D30</f>
         <v>1025.9492621455811</v>
       </c>
       <c r="E32" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>547.17293981097669</v>
       </c>
       <c r="F32" s="5">
@@ -8776,15 +8823,15 @@
         <v>711.32482175426969</v>
       </c>
       <c r="G32" s="5">
-        <f t="shared" ref="G32" si="8">G26/G30</f>
+        <f t="shared" ref="G32" si="9">G26/G30</f>
         <v>410.3797048582324</v>
       </c>
       <c r="H32" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>533.4936163157023</v>
       </c>
       <c r="I32" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>656.60752777317191</v>
       </c>
       <c r="J32" s="5">
@@ -8792,7 +8839,7 @@
         <v>656.60752777317191</v>
       </c>
       <c r="K32" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>656.60752777317191</v>
       </c>
       <c r="L32" t="s">
@@ -8804,33 +8851,36 @@
       <c r="U32">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AC32" t="s">
-        <v>266</v>
-      </c>
-      <c r="AD32" s="2">
-        <f>$B16*AD29 /100</f>
-        <v>2.8378378378378382</v>
-      </c>
-      <c r="AE32" s="2">
-        <f>$B16*AE29 /100</f>
-        <v>2.2702702702702702</v>
-      </c>
-    </row>
-    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AA32" t="s">
+        <v>270</v>
+      </c>
+      <c r="AB32" s="4">
+        <f>PI() * (AB24-((AB24-AB23)/2)) /10 * AB31</f>
+        <v>8.4760169793852622</v>
+      </c>
+      <c r="AC32" s="4">
+        <f>PI() * (AC24-((AC24-AC23)/2)) /10 * AC31</f>
+        <v>4.6181412007769955</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B33" s="5">
-        <f t="shared" ref="B33:K33" si="9">B27/B30</f>
+        <f t="shared" ref="B33:K33" si="10">B27/B30</f>
         <v>40.490797546012267</v>
       </c>
       <c r="C33" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>64.785276073619627</v>
       </c>
       <c r="D33" s="5">
-        <f t="shared" ref="D33" si="10">D27/D30</f>
+        <f t="shared" ref="D33" si="11">D27/D30</f>
         <v>101.22699386503068</v>
       </c>
       <c r="E33" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>40.490797546012267</v>
       </c>
       <c r="F33" s="5">
@@ -8838,15 +8888,15 @@
         <v>52.638036809815951</v>
       </c>
       <c r="G33" s="5">
-        <f t="shared" ref="G33" si="11">G27/G30</f>
+        <f t="shared" ref="G33" si="12">G27/G30</f>
         <v>40.490797546012267</v>
       </c>
       <c r="H33" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>52.638036809815951</v>
       </c>
       <c r="I33" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>64.785276073619627</v>
       </c>
       <c r="J33" s="5">
@@ -8854,7 +8904,7 @@
         <v>64.785276073619627</v>
       </c>
       <c r="K33" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>64.785276073619627</v>
       </c>
       <c r="L33" t="s">
@@ -8863,84 +8913,90 @@
       <c r="M33" t="s">
         <v>252</v>
       </c>
-      <c r="AC33" t="s">
-        <v>267</v>
-      </c>
-      <c r="AD33" s="5">
-        <f>AD32*100 / (2.54 * 12)</f>
-        <v>9.3104915939561614</v>
-      </c>
-      <c r="AE33" s="5">
-        <f>AE32*100 / (2.54 * 12)</f>
-        <v>7.4483932751649284</v>
-      </c>
-    </row>
-    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="AC34" t="s">
+      <c r="AA33" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB33">
+        <v>31.5</v>
+      </c>
+      <c r="AC33">
+        <v>17</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AA34" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB34" s="2">
+        <f>AB33/AB32</f>
+        <v>3.7163682041472965</v>
+      </c>
+      <c r="AC34" s="2">
+        <f>AC33/AC32</f>
+        <v>3.6811347381798925</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>284</v>
+      </c>
+      <c r="C35" t="s">
+        <v>284</v>
+      </c>
+      <c r="D35" t="s">
+        <v>316</v>
+      </c>
+      <c r="E35" t="s">
+        <v>284</v>
+      </c>
+      <c r="F35" t="s">
+        <v>284</v>
+      </c>
+      <c r="G35" t="s">
+        <v>287</v>
+      </c>
+      <c r="H35" t="s">
+        <v>284</v>
+      </c>
+      <c r="I35" t="s">
+        <v>284</v>
+      </c>
+      <c r="J35" t="s">
+        <v>284</v>
+      </c>
+      <c r="K35" t="s">
+        <v>284</v>
+      </c>
+      <c r="R35" t="s">
         <v>276</v>
       </c>
-      <c r="AD34">
-        <v>1.5</v>
-      </c>
-      <c r="AE34">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
-        <v>286</v>
-      </c>
-      <c r="C35" t="s">
-        <v>286</v>
-      </c>
-      <c r="D35" t="s">
-        <v>318</v>
-      </c>
-      <c r="E35" t="s">
-        <v>286</v>
-      </c>
-      <c r="F35" t="s">
-        <v>286</v>
-      </c>
-      <c r="G35" t="s">
-        <v>289</v>
-      </c>
-      <c r="H35" t="s">
-        <v>286</v>
-      </c>
-      <c r="I35" t="s">
-        <v>286</v>
-      </c>
-      <c r="J35" t="s">
-        <v>286</v>
-      </c>
-      <c r="K35" t="s">
-        <v>286</v>
-      </c>
-      <c r="R35" t="s">
-        <v>278</v>
-      </c>
-      <c r="AC35" t="s">
-        <v>268</v>
-      </c>
-      <c r="AD35" s="5">
-        <f>AD33*3</f>
-        <v>27.931474781868484</v>
-      </c>
-      <c r="AE35" s="5">
-        <f>AE33*3</f>
-        <v>22.345179825494785</v>
-      </c>
-      <c r="AF35" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="36" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AA35" t="s">
+        <v>260</v>
+      </c>
+      <c r="AB35" s="2">
+        <f>((AB24-AB23) + (2*AB25)  + (2*AB29))/10* AB26</f>
+        <v>3.66256</v>
+      </c>
+      <c r="AC35" s="2">
+        <f>((AC24-AC23) + (2*AC25)  + (2*AC29))/10* AC26</f>
+        <v>2.93208</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="36" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>165</v>
       </c>
       <c r="C36" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D36" t="s">
         <v>163</v>
@@ -8949,22 +9005,22 @@
         <v>165</v>
       </c>
       <c r="F36" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G36" t="s">
         <v>165</v>
       </c>
       <c r="H36" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="I36" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J36" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="K36" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="R36" t="s">
         <v>102</v>
@@ -8972,55 +9028,76 @@
       <c r="S36" s="20">
         <v>1250000</v>
       </c>
-      <c r="AD36" s="5">
-        <f>AD32*100/(PI() * $AD34)</f>
-        <v>60.220789278014458</v>
-      </c>
-      <c r="AE36" s="5">
-        <f>AE32*100/(PI() * $AD34)</f>
-        <v>48.176631422411567</v>
-      </c>
-      <c r="AF36" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AA36" t="s">
+        <v>261</v>
+      </c>
+      <c r="AB36" s="5">
+        <f xml:space="preserve"> PI() * (AB23-AB29)</f>
+        <v>79.127922484496835</v>
+      </c>
+      <c r="AC36" s="5">
+        <f xml:space="preserve"> PI() * (AC23-AC29)</f>
+        <v>70.181923244134538</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="R37" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="S37">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AA37" t="s">
+        <v>325</v>
+      </c>
+      <c r="AB37" s="21">
+        <f>(AB29*AB30)/AB36</f>
+        <v>0.92447770272664909</v>
+      </c>
+      <c r="AC37" s="21">
+        <f>(AC29*AC30)/AC36</f>
+        <v>0.94098304730512339</v>
+      </c>
+    </row>
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="D38" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M38" s="18" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="O38" s="2">
         <v>14.8</v>
       </c>
-      <c r="AE38" s="4">
-        <f>AE36*U15</f>
-        <v>1.2525924169827007</v>
-      </c>
-      <c r="AF38" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AA38" t="s">
+        <v>266</v>
+      </c>
+      <c r="AB38" s="2">
+        <f>AB30*AB35 /100</f>
+        <v>3.2963040000000001</v>
+      </c>
+      <c r="AC38" s="2">
+        <f>AC30*AC35 /100</f>
+        <v>2.9320800000000005</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="L39" s="36"/>
       <c r="M39">
         <v>6</v>
       </c>
       <c r="N39" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="O39" s="2"/>
       <c r="R39" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="S39" s="5">
         <f>3/(0.01*(1-S37))</f>
@@ -9029,63 +9106,114 @@
       <c r="T39" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AA39" t="s">
+        <v>267</v>
+      </c>
+      <c r="AB39" s="5">
+        <f>AB38*100 / (2.54 * 12)</f>
+        <v>10.814645669291339</v>
+      </c>
+      <c r="AC39" s="5">
+        <f>AC38*100 / (2.54 * 12)</f>
+        <v>9.6196850393700792</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="M40">
         <v>24</v>
       </c>
       <c r="N40" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="O40" s="2">
         <f>(M40*M41)/(M39/2)</f>
         <v>32</v>
       </c>
       <c r="R40" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="S40" s="35">
         <f>(1.6*S37)/(S39*S36)</f>
         <v>3.8400000000000002E-10</v>
       </c>
       <c r="T40" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
+        <v>280</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>329</v>
+      </c>
+      <c r="AB40">
+        <v>1.5</v>
+      </c>
+      <c r="AC40">
+        <v>1.5</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="M41">
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="O41" s="2"/>
-    </row>
-    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AB41" s="5">
+        <f>AB38*100/(PI() * $AB40)</f>
+        <v>69.949743404478269</v>
+      </c>
+      <c r="AC41" s="5">
+        <f>AC38*100/(PI() * $AB40)</f>
+        <v>62.22067007211794</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="M42">
         <v>1</v>
       </c>
       <c r="N42" t="s">
+        <v>291</v>
+      </c>
+      <c r="O42" s="2"/>
+      <c r="AA42" t="s">
+        <v>268</v>
+      </c>
+      <c r="AB42" s="5">
+        <f>AB39*3</f>
+        <v>32.44393700787402</v>
+      </c>
+      <c r="AC42" s="5">
+        <f>AC39*3</f>
+        <v>28.859055118110238</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="M43" t="s">
+        <v>292</v>
+      </c>
+      <c r="N43" t="s">
         <v>293</v>
-      </c>
-      <c r="O42" s="2"/>
-    </row>
-    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="M43" t="s">
-        <v>294</v>
-      </c>
-      <c r="N43" t="s">
-        <v>295</v>
       </c>
       <c r="O43" s="2">
         <f>O38*O40</f>
         <v>473.6</v>
       </c>
       <c r="R43" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="L44">
         <f>MAX(M47,N47)</f>
         <v>0.45599999999999996</v>
@@ -9104,7 +9232,7 @@
         <v>1200000</v>
       </c>
       <c r="V44" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="W44">
         <v>5000</v>
@@ -9112,8 +9240,19 @@
       <c r="X44" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AB44" s="4">
+        <f>AB41*AB28</f>
+        <v>2.2383917889433045</v>
+      </c>
+      <c r="AC44" s="4">
+        <f>AC41*AC28</f>
+        <v>1.6177374218750664</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="L45">
         <f>M48+N48</f>
         <v>0.13800000000000001</v>
@@ -9128,22 +9267,22 @@
       </c>
       <c r="O45" s="2"/>
       <c r="R45" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="S45">
         <v>0.88</v>
       </c>
       <c r="V45" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="W45" s="20">
         <v>3.9E-10</v>
       </c>
       <c r="X45" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="M46">
         <f>M45*M42</f>
         <v>1.5748</v>
@@ -9154,17 +9293,17 @@
       </c>
       <c r="O46" s="2"/>
       <c r="V46" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="W46" s="2">
         <f>1-(300/W44)</f>
         <v>0.94</v>
       </c>
       <c r="X46" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="L47">
         <f>M50/25.4</f>
         <v>0.45600000000000002</v>
@@ -9179,7 +9318,7 @@
       </c>
       <c r="O47" s="2"/>
       <c r="R47" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="S47" s="5">
         <f>3/(0.01*(1-S45))</f>
@@ -9203,10 +9342,10 @@
         <v>77.792553191489432</v>
       </c>
       <c r="Z47" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="L48">
         <f>M51/25.4</f>
         <v>0.13800000000000001</v>
@@ -9221,21 +9360,21 @@
       </c>
       <c r="O48" s="2"/>
       <c r="R48" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="S48" s="35">
         <f>(1.6*S45)/(S47*S44)</f>
         <v>4.6933333333333337E-10</v>
       </c>
       <c r="T48" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="W48" s="5">
         <f>1/W47*1000000000</f>
         <v>1296.5425531914896</v>
       </c>
       <c r="X48" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="49" spans="12:26" x14ac:dyDescent="0.2">
@@ -9247,7 +9386,7 @@
         <v>11.5824</v>
       </c>
       <c r="N50" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="O50" s="2"/>
     </row>
@@ -9257,11 +9396,11 @@
         <v>3.5051999999999999</v>
       </c>
       <c r="N51" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="O51" s="2"/>
       <c r="R51" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="S51">
         <v>2500</v>
@@ -9270,7 +9409,7 @@
         <v>269</v>
       </c>
       <c r="V51" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="W51">
         <v>3500</v>
@@ -9282,45 +9421,45 @@
     <row r="52" spans="12:26" x14ac:dyDescent="0.2">
       <c r="O52" s="2"/>
       <c r="R52" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="S52" s="20">
         <v>4.7000000000000003E-10</v>
       </c>
       <c r="T52" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="V52" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="W52" s="20">
         <v>3.9E-10</v>
       </c>
       <c r="X52" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="53" spans="12:26" x14ac:dyDescent="0.2">
       <c r="O53" s="2"/>
       <c r="R53" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="S53" s="2">
         <f>1-(300/S51)</f>
         <v>0.88</v>
       </c>
       <c r="T53" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="V53" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="W53" s="2">
         <f>1-(300/W51)</f>
         <v>0.91428571428571426</v>
       </c>
       <c r="X53" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="54" spans="12:26" x14ac:dyDescent="0.2">
@@ -9353,7 +9492,7 @@
         <v>79.980468750000043</v>
       </c>
       <c r="Z54" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="55" spans="12:26" x14ac:dyDescent="0.2">
@@ -9366,7 +9505,7 @@
         <v>933.10546875000011</v>
       </c>
       <c r="X55" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="56" spans="12:26" x14ac:dyDescent="0.2">
@@ -9383,7 +9522,7 @@
       </c>
       <c r="O57" s="2"/>
       <c r="R57" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="S57">
         <v>2700</v>
@@ -9392,7 +9531,7 @@
         <v>269</v>
       </c>
       <c r="V57" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="W57">
         <v>3000</v>
@@ -9404,50 +9543,50 @@
     <row r="58" spans="12:26" x14ac:dyDescent="0.2">
       <c r="O58" s="2"/>
       <c r="R58" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="S58" s="20">
         <v>4.7000000000000003E-10</v>
       </c>
       <c r="T58" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="V58" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="W58" s="20">
         <v>3.9E-10</v>
       </c>
       <c r="X58" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="59" spans="12:26" x14ac:dyDescent="0.2">
       <c r="M59" s="18" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="O59" s="2">
         <v>14.8</v>
       </c>
       <c r="R59" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="S59" s="2">
         <f>1-(300/S57)</f>
         <v>0.88888888888888884</v>
       </c>
       <c r="T59" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="V59" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="W59" s="2">
         <f>1-(300/W57)</f>
         <v>0.9</v>
       </c>
       <c r="X59" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="60" spans="12:26" x14ac:dyDescent="0.2">
@@ -9456,7 +9595,7 @@
         <v>6</v>
       </c>
       <c r="N60" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="O60" s="2"/>
       <c r="R60" t="s">
@@ -9484,7 +9623,7 @@
         <v>81.249999999999957</v>
       </c>
       <c r="Z60" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="61" spans="12:26" x14ac:dyDescent="0.2">
@@ -9492,7 +9631,7 @@
         <v>16</v>
       </c>
       <c r="N61" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="O61" s="2">
         <f>(M61*M62)/(M60/2)</f>
@@ -9503,7 +9642,7 @@
         <v>812.49999999999989</v>
       </c>
       <c r="X61" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="62" spans="12:26" x14ac:dyDescent="0.2">
@@ -9511,7 +9650,7 @@
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="O62" s="2"/>
     </row>
@@ -9520,11 +9659,11 @@
         <v>1</v>
       </c>
       <c r="N63" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="O63" s="2"/>
       <c r="R63" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="S63">
         <v>3000</v>
@@ -9533,7 +9672,7 @@
         <v>269</v>
       </c>
       <c r="V63" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="W63">
         <v>2500</v>
@@ -9544,32 +9683,32 @@
     </row>
     <row r="64" spans="12:26" x14ac:dyDescent="0.2">
       <c r="M64" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="N64" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="O64" s="2">
         <f>O59*O61</f>
         <v>394.66666666666669</v>
       </c>
       <c r="R64" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="S64" s="20">
         <v>4.7000000000000003E-10</v>
       </c>
       <c r="T64" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="V64" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="W64" s="20">
         <v>3.9E-10</v>
       </c>
       <c r="X64" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="65" spans="12:26" x14ac:dyDescent="0.2">
@@ -9585,24 +9724,24 @@
       </c>
       <c r="O65" s="2"/>
       <c r="R65" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="S65" s="2">
         <f>1-(300/S63)</f>
         <v>0.9</v>
       </c>
       <c r="T65" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="V65" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="W65" s="2">
         <f>1-(300/W63)</f>
         <v>0.88</v>
       </c>
       <c r="X65" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="66" spans="12:26" x14ac:dyDescent="0.2">
@@ -9644,7 +9783,7 @@
         <v>83.096590909090892</v>
       </c>
       <c r="Z66" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="67" spans="12:26" x14ac:dyDescent="0.2">
@@ -9662,7 +9801,7 @@
         <v>692.47159090909076</v>
       </c>
       <c r="X67" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="68" spans="12:26" x14ac:dyDescent="0.2">
@@ -9695,7 +9834,7 @@
       </c>
       <c r="O69" s="2"/>
       <c r="R69" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="S69">
         <v>2200</v>
@@ -9707,13 +9846,13 @@
     <row r="70" spans="12:26" x14ac:dyDescent="0.2">
       <c r="O70" s="2"/>
       <c r="R70" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="S70" s="20">
         <v>4.7000000000000003E-10</v>
       </c>
       <c r="T70" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="71" spans="12:26" x14ac:dyDescent="0.2">
@@ -9722,18 +9861,18 @@
         <v>7.3152000000000008</v>
       </c>
       <c r="N71" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="O71" s="2"/>
       <c r="R71" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="S71" s="2">
         <f>1-(300/S69)</f>
         <v>0.86363636363636365</v>
       </c>
       <c r="T71" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="72" spans="12:26" x14ac:dyDescent="0.2">
@@ -9742,7 +9881,7 @@
         <v>3.3782000000000005</v>
       </c>
       <c r="N72" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="O72" s="2"/>
       <c r="R72" t="s">
@@ -9760,7 +9899,7 @@
         <v>102.03947368421052</v>
       </c>
       <c r="V72" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="74" spans="12:26" x14ac:dyDescent="0.2">
@@ -9774,7 +9913,7 @@
         <v>0.70699999999999996</v>
       </c>
       <c r="N75" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="76" spans="12:26" x14ac:dyDescent="0.2">
@@ -9782,7 +9921,7 @@
         <v>0.42699999999999999</v>
       </c>
       <c r="N76" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="77" spans="12:26" x14ac:dyDescent="0.2">
@@ -9791,7 +9930,7 @@
         <v>0.27999999999999997</v>
       </c>
       <c r="N77" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="78" spans="12:26" x14ac:dyDescent="0.2">
@@ -9800,32 +9939,32 @@
         <v>0.13999999999999999</v>
       </c>
       <c r="N78" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="81" spans="13:14" x14ac:dyDescent="0.2">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="81" spans="11:14" x14ac:dyDescent="0.2">
       <c r="M81" s="18" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="83" spans="13:14" x14ac:dyDescent="0.2">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="83" spans="11:14" x14ac:dyDescent="0.2">
       <c r="M83">
         <f xml:space="preserve"> 6.25 * 10^5</f>
         <v>625000</v>
       </c>
       <c r="N83" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="84" spans="13:14" x14ac:dyDescent="0.2">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="84" spans="11:14" x14ac:dyDescent="0.2">
       <c r="M84">
         <v>15</v>
       </c>
       <c r="N84" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="85" spans="13:14" x14ac:dyDescent="0.2">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="85" spans="11:14" x14ac:dyDescent="0.2">
       <c r="M85">
         <v>300</v>
       </c>
@@ -9833,16 +9972,16 @@
         <v>100</v>
       </c>
     </row>
-    <row r="86" spans="13:14" x14ac:dyDescent="0.2">
+    <row r="86" spans="11:14" x14ac:dyDescent="0.2">
       <c r="M86" s="5">
         <f>2*PI()*M83</f>
         <v>3926990.8169872416</v>
       </c>
       <c r="N86" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="87" spans="13:14" x14ac:dyDescent="0.2">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="87" spans="11:14" x14ac:dyDescent="0.2">
       <c r="M87" s="5">
         <f>1/(M86*(M84* 10^-12))</f>
         <v>16976.5272631355</v>
@@ -9851,22 +9990,238 @@
         <v>83</v>
       </c>
     </row>
-    <row r="88" spans="13:14" x14ac:dyDescent="0.2">
+    <row r="88" spans="11:14" x14ac:dyDescent="0.2">
       <c r="M88" s="1">
         <f>M85/M87</f>
         <v>1.767145867644259E-2</v>
       </c>
       <c r="N88" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="89" spans="13:14" x14ac:dyDescent="0.2">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="89" spans="11:14" x14ac:dyDescent="0.2">
       <c r="M89" s="4">
         <f>M85*M88</f>
         <v>5.3014376029327774</v>
       </c>
       <c r="N89" t="s">
-        <v>316</v>
+        <v>314</v>
+      </c>
+    </row>
+    <row r="92" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K92">
+        <v>13.33</v>
+      </c>
+      <c r="L92" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="93" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K93">
+        <v>0.76</v>
+      </c>
+      <c r="L93" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="94" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K94">
+        <v>625000</v>
+      </c>
+      <c r="L94" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="95" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K95">
+        <v>3</v>
+      </c>
+      <c r="L95" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="96" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K96">
+        <v>4</v>
+      </c>
+      <c r="L96" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="97" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K97" s="5">
+        <f t="shared" ref="K97" si="13">(K92*10^8)/(K93*K94*K95*K96)</f>
+        <v>233.85964912280701</v>
+      </c>
+      <c r="L97" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="98" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K98" s="4">
+        <f t="shared" ref="K98" si="14">K97/10</f>
+        <v>23.385964912280702</v>
+      </c>
+      <c r="L98" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="100" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K100" s="7">
+        <v>400</v>
+      </c>
+      <c r="L100" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="101" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K101" s="2">
+        <f>K100/K92</f>
+        <v>30.007501875468868</v>
+      </c>
+      <c r="L101" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="102" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K102" s="2">
+        <f>K101/2</f>
+        <v>15.003750937734434</v>
+      </c>
+      <c r="L102" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="104" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K104" s="7">
+        <v>400</v>
+      </c>
+      <c r="L104" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="105" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K105" s="5">
+        <f>K104/K92*K95</f>
+        <v>90.022505626406598</v>
+      </c>
+      <c r="L105" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="106" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K106" s="2">
+        <f>K100/K104</f>
+        <v>1</v>
+      </c>
+      <c r="L106" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="108" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K108" s="7">
+        <v>250</v>
+      </c>
+      <c r="L108" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="110" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K110">
+        <f>K104*K108</f>
+        <v>100000</v>
+      </c>
+      <c r="L110" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="111" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K111" s="2">
+        <f t="shared" ref="K111" si="15">K100/K110*1000</f>
+        <v>4</v>
+      </c>
+      <c r="L111" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="113" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K113">
+        <v>300</v>
+      </c>
+      <c r="L113" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="114" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K114">
+        <v>300</v>
+      </c>
+      <c r="L114" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="115" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K115" s="4">
+        <f>K113*K102</f>
+        <v>4501.12528132033</v>
+      </c>
+      <c r="L115" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="116" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K116">
+        <f>K113*K106</f>
+        <v>300</v>
+      </c>
+      <c r="L116" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="117" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K117" s="2">
+        <f t="shared" ref="K117:L117" si="16">K113*(K111/1000)</f>
+        <v>1.2</v>
+      </c>
+      <c r="L117" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="119" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K119" s="4">
+        <f t="shared" ref="K119:L119" si="17">1630/660</f>
+        <v>2.4696969696969697</v>
+      </c>
+      <c r="L119" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="121" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K121" s="5">
+        <f t="shared" ref="K121:L121" si="18">K115/K119</f>
+        <v>1822.5415249517901</v>
+      </c>
+      <c r="L121" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="122" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K122" s="5">
+        <f t="shared" ref="K122:L122" si="19">K116/K119</f>
+        <v>121.47239263803681</v>
+      </c>
+      <c r="L122" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="124" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K124" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="125" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K125" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/EHD/weight-model.xlsx
+++ b/EHD/weight-model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mickos01/Desktop/MolecularKinetics/EHD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92033E8C-7E76-2344-9D2B-48DA65DBFB7B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC70F6C7-E2A6-0843-94C6-F10ECFCB9BB1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="500" windowWidth="27240" windowHeight="16860" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7284,8 +7284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:AG125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD51" sqref="AD51"/>
+    <sheetView tabSelected="1" topLeftCell="B89" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M117" sqref="M117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/EHD/weight-model.xlsx
+++ b/EHD/weight-model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mickos01/Desktop/MolecularKinetics/EHD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC70F6C7-E2A6-0843-94C6-F10ECFCB9BB1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3136BE27-B2DF-B641-9916-F8B897B3EEC9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="500" windowWidth="27240" windowHeight="16860" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1100" yWindow="500" windowWidth="27240" windowHeight="16860" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Thrust and Weight" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="329">
   <si>
     <t>Coil form</t>
   </si>
@@ -550,9 +550,6 @@
   </si>
   <si>
     <t>2X parallel</t>
-  </si>
-  <si>
-    <t>(double)</t>
   </si>
   <si>
     <t>3000/46</t>
@@ -1275,7 +1272,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="14">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1290,8 +1287,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1311,7 +1309,6 @@
     </xf>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1324,7 +1321,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1365,8 +1361,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="14"/>
   </cellXfs>
-  <cellStyles count="14">
+  <cellStyles count="15">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1379,6 +1376,7 @@
     <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="14" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="7" builtinId="5"/>
   </cellStyles>
@@ -5020,8 +5018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:Y119"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5035,7 +5033,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>110</v>
       </c>
       <c r="F2">
@@ -5043,10 +5041,10 @@
         <v>1.1000000000000001E-11</v>
       </c>
       <c r="G2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="S2">
         <v>2</v>
@@ -5071,7 +5069,7 @@
         <v>1.5999999999999999E-6</v>
       </c>
       <c r="G3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H3" s="5">
         <f>F4*F3/F2</f>
@@ -5106,7 +5104,7 @@
         <v>1.25E-3</v>
       </c>
       <c r="G4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J4">
         <v>2.54</v>
@@ -5154,7 +5152,7 @@
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="18" t="s">
         <v>94</v>
       </c>
       <c r="I6">
@@ -5209,8 +5207,11 @@
       <c r="J7" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="K7" s="23" t="s">
+      <c r="K7" s="22" t="s">
         <v>165</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>317</v>
       </c>
       <c r="M7" s="9" t="s">
         <v>166</v>
@@ -5218,10 +5219,10 @@
       <c r="N7" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="O7" s="23" t="s">
+      <c r="O7" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="P7" s="23" t="s">
+      <c r="P7" s="22" t="s">
         <v>164</v>
       </c>
       <c r="Q7" s="9" t="s">
@@ -5247,12 +5248,12 @@
         <v>170</v>
       </c>
       <c r="Y7" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B8" s="7">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
         <v>112</v>
@@ -5275,12 +5276,14 @@
       <c r="J8">
         <v>13</v>
       </c>
-      <c r="K8" s="24"/>
-      <c r="L8" s="10" t="s">
-        <v>172</v>
+      <c r="K8" s="7">
+        <v>17</v>
+      </c>
+      <c r="L8">
+        <v>19</v>
       </c>
       <c r="O8" s="7"/>
-      <c r="P8" s="23"/>
+      <c r="P8" s="22"/>
       <c r="W8" s="9"/>
       <c r="X8" s="9"/>
       <c r="Y8" s="7"/>
@@ -5310,22 +5313,17 @@
       <c r="J9">
         <v>11</v>
       </c>
-      <c r="K9" s="7">
-        <v>15</v>
-      </c>
-      <c r="L9" t="s">
-        <v>135</v>
-      </c>
+      <c r="K9" s="7"/>
       <c r="M9" s="9" t="s">
         <v>169</v>
       </c>
       <c r="N9" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="O9" s="23" t="s">
+      <c r="O9" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="P9" s="23" t="s">
+      <c r="P9" s="22" t="s">
         <v>168</v>
       </c>
       <c r="Q9" s="9" t="s">
@@ -5354,7 +5352,7 @@
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B10" s="2">
         <f>B35*B50* B9</f>
-        <v>11.8125</v>
+        <v>13.387500000000003</v>
       </c>
       <c r="C10" t="s">
         <v>96</v>
@@ -5426,11 +5424,11 @@
         <f>N10/25.4</f>
         <v>2.677165354330709E-2</v>
       </c>
-      <c r="O11" s="25">
+      <c r="O11" s="23">
         <f>O10/25.4</f>
         <v>2.598425196850394E-2</v>
       </c>
-      <c r="P11" s="25"/>
+      <c r="P11" s="23"/>
       <c r="Q11" s="1">
         <f>Q10/25.4</f>
         <v>0.12992125984251968</v>
@@ -5477,7 +5475,7 @@
         <f>J11/25.4</f>
         <v>1.4960629921259844E-2</v>
       </c>
-      <c r="K12" s="22">
+      <c r="K12" s="21">
         <f>K11/J4</f>
         <v>0.15354330708661418</v>
       </c>
@@ -5568,7 +5566,7 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B14">
-        <v>105</v>
+        <v>121.5</v>
       </c>
       <c r="C14" t="s">
         <v>85</v>
@@ -5629,7 +5627,7 @@
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B15" s="5">
         <f>(B12/12000)*B14</f>
-        <v>39.790234453123219</v>
+        <v>46.042985581471157</v>
       </c>
       <c r="C15" t="s">
         <v>86</v>
@@ -5671,6 +5669,9 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="E16" s="1"/>
+      <c r="K16" s="7">
+        <v>121.5</v>
+      </c>
       <c r="M16" s="2">
         <f>PI()*(M10/2)^2</f>
         <v>0.63617251235193317</v>
@@ -5705,8 +5706,8 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B17" s="2">
-        <f>(0.29*B10+(0.41*(F44/2))+(1.94*SQRT(((F44/2)^3)/B10)))</f>
-        <v>3.4256249999999997</v>
+        <f>(0.29*B10+(0.41*(B45/2))+(1.94*SQRT(((B45/2)^3)/B10)))</f>
+        <v>4.7806486944273656</v>
       </c>
       <c r="C17" t="s">
         <v>54</v>
@@ -5714,7 +5715,7 @@
       <c r="D17" t="s">
         <v>55</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="49" t="s">
         <v>61</v>
       </c>
       <c r="M17" s="4">
@@ -5763,31 +5764,31 @@
       <c r="E18" t="s">
         <v>60</v>
       </c>
-      <c r="M18" s="21">
+      <c r="M18" s="20">
         <f>M17/$S6</f>
         <v>0.61247637051039705</v>
       </c>
-      <c r="N18" s="21">
+      <c r="N18" s="20">
         <f>N17/$S6</f>
         <v>0.34964083175803412</v>
       </c>
-      <c r="O18" s="21">
+      <c r="O18" s="20">
         <f t="shared" ref="O18:P18" si="8">O17/$S6</f>
         <v>0.32937618147448022</v>
       </c>
-      <c r="P18" s="21">
+      <c r="P18" s="20">
         <f t="shared" si="8"/>
         <v>0.30623818525519847</v>
       </c>
-      <c r="Q18" s="21">
+      <c r="Q18" s="20">
         <f t="shared" ref="Q18:S18" si="9">Q17/$S6</f>
         <v>0.32937618147448011</v>
       </c>
-      <c r="R18" s="21">
+      <c r="R18" s="20">
         <f t="shared" si="9"/>
         <v>0.32937618147448011</v>
       </c>
-      <c r="S18" s="21">
+      <c r="S18" s="20">
         <f t="shared" si="9"/>
         <v>0.18903591682419663</v>
       </c>
@@ -5810,9 +5811,9 @@
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B20" s="16">
+      <c r="B20" s="15">
         <f>((((B7^2) * ((B11/2)^2)) /(( 9 * (B11/2)) + ( 10 * B10))))</f>
-        <v>4130.6999645138394</v>
+        <v>3674.3410669191912</v>
       </c>
       <c r="C20" t="s">
         <v>57</v>
@@ -5823,10 +5824,10 @@
       <c r="E20" t="s">
         <v>61</v>
       </c>
-      <c r="K20" s="18" t="s">
+      <c r="K20" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="L20" s="18"/>
+      <c r="L20" s="17"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B21" s="8">
@@ -5841,7 +5842,7 @@
       <c r="E21" t="s">
         <v>59</v>
       </c>
-      <c r="K21" s="20">
+      <c r="K21" s="19">
         <f>B51/299800000</f>
         <v>3.8527473748568757E-7</v>
       </c>
@@ -5858,9 +5859,9 @@
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B23" s="17">
+      <c r="B23" s="16">
         <f>1/(2*PI() * SQRT( (B20*0.000001) * ((B18+B4)*0.000000000001) ) )</f>
-        <v>602681.86881501274</v>
+        <v>639013.77227889106</v>
       </c>
       <c r="C23" t="s">
         <v>63</v>
@@ -5871,7 +5872,7 @@
       <c r="E23" t="s">
         <v>68</v>
       </c>
-      <c r="K23" s="20">
+      <c r="K23" s="19">
         <f>K21*SQRT(K22)</f>
         <v>7.7054947497137513E-7</v>
       </c>
@@ -5882,7 +5883,7 @@
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B24" s="2">
         <f>2000000*PI() * SQRT( (B20*0.000001) * ((B18+B4)*0.000000000001) )</f>
-        <v>1.6592501811381688</v>
+        <v>1.5649114985953076</v>
       </c>
       <c r="C24" t="s">
         <v>69</v>
@@ -5904,7 +5905,7 @@
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B25" s="5">
         <f xml:space="preserve"> 2*PI()*B23</f>
-        <v>3786761.863042023</v>
+        <v>4015041.9450681303</v>
       </c>
       <c r="C25" t="s">
         <v>81</v>
@@ -5918,18 +5919,18 @@
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B27" s="17">
+      <c r="B27" s="16">
         <f>B25*(B20/1000000)</f>
-        <v>15641.977093290045</v>
+        <v>14752.633504166939</v>
       </c>
       <c r="C27" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B28" s="17">
+      <c r="B28" s="16">
         <f>1/(B25*((B18+B4)/1000000000000))</f>
-        <v>15641.977093290046</v>
+        <v>14752.633504166934</v>
       </c>
       <c r="C28" t="s">
         <v>83</v>
@@ -5938,7 +5939,7 @@
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B30" s="14">
         <f>B27/B15</f>
-        <v>393.11095569737898</v>
+        <v>320.4100107292731</v>
       </c>
       <c r="C30" t="s">
         <v>87</v>
@@ -5951,7 +5952,7 @@
       <c r="B31" s="4"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="18" t="s">
         <v>95</v>
       </c>
       <c r="C32" t="s">
@@ -6044,7 +6045,7 @@
     <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B35">
         <f>B8/1000</f>
-        <v>1.4999999999999999E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="C35" t="s">
         <v>3</v>
@@ -6083,7 +6084,7 @@
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B42">
-        <v>1.4E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="C42" t="s">
         <v>3</v>
@@ -6095,7 +6096,7 @@
     <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B43">
         <f>B42*25.4</f>
-        <v>0.35559999999999997</v>
+        <v>0.43180000000000002</v>
       </c>
       <c r="C43" t="s">
         <v>2</v>
@@ -6115,21 +6116,31 @@
       <c r="F44" s="2"/>
       <c r="J44" s="2">
         <f>(B44/20)^2 * PI() * (B46/10)</f>
-        <v>603.97910044488617</v>
+        <v>660.60214111159428</v>
       </c>
       <c r="K44" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B45">
+        <f>B11</f>
+        <v>1.93</v>
+      </c>
+      <c r="C45" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" t="s">
+        <v>4</v>
+      </c>
       <c r="J45" s="1">
         <f>J44/1000</f>
-        <v>0.60397910044488612</v>
+        <v>0.66060214111159432</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B46">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="C46" t="s">
         <v>2</v>
@@ -6139,23 +6150,23 @@
       </c>
       <c r="E46" s="2">
         <f>B46/25.4</f>
-        <v>12.598425196850394</v>
+        <v>13.779527559055119</v>
       </c>
       <c r="F46" t="s">
         <v>7</v>
       </c>
       <c r="J46" s="4">
         <f>B65*J45</f>
-        <v>9.6835275031775581</v>
+        <v>10.591358206600455</v>
       </c>
       <c r="K46" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B47" s="2">
         <f>PI() * B44*B43*B46/1000</f>
-        <v>17.524782189074415</v>
+        <v>23.275101344864463</v>
       </c>
       <c r="C47" t="s">
         <v>21</v>
@@ -6167,7 +6178,7 @@
     <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B48" s="2">
         <f>B47*B40</f>
-        <v>22.256473380124508</v>
+        <v>29.559378707977871</v>
       </c>
       <c r="C48" t="s">
         <v>9</v>
@@ -6215,13 +6226,13 @@
         <v>35</v>
       </c>
       <c r="G51" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H51" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I51" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J51">
         <v>8</v>
@@ -6232,19 +6243,19 @@
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.2">
       <c r="G52" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H52" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I52" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J52">
         <v>600</v>
       </c>
       <c r="K52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.2">
@@ -6262,7 +6273,7 @@
     <row r="55" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B55" s="2">
         <f>B53+B48</f>
-        <v>82.128270729818254</v>
+        <v>89.431176057671621</v>
       </c>
       <c r="C55" t="s">
         <v>9</v>
@@ -6272,7 +6283,7 @@
       </c>
       <c r="G55" s="2">
         <f>B55</f>
-        <v>82.128270729818254</v>
+        <v>89.431176057671621</v>
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.2">
@@ -6283,7 +6294,7 @@
         <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G57" s="2">
         <f>B57</f>
@@ -6324,7 +6335,7 @@
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.2">
       <c r="I62" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.2">
@@ -6381,7 +6392,7 @@
         <v>7</v>
       </c>
       <c r="I66" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J66">
         <v>1.2</v>
@@ -6402,7 +6413,7 @@
         <v>131</v>
       </c>
       <c r="D67" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E67">
         <v>4</v>
@@ -6411,7 +6422,7 @@
         <v>0.7</v>
       </c>
       <c r="I67" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J67">
         <v>0.75</v>
@@ -6433,7 +6444,7 @@
         <v>18</v>
       </c>
       <c r="I68" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J68">
         <v>1</v>
@@ -6512,7 +6523,7 @@
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A78" s="18" t="s">
+      <c r="A78" s="17" t="s">
         <v>109</v>
       </c>
     </row>
@@ -6525,7 +6536,7 @@
         <v>26</v>
       </c>
       <c r="D79" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
@@ -6537,14 +6548,14 @@
         <v>48</v>
       </c>
       <c r="G80" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G81" t="s">
-        <v>184</v>
-      </c>
-      <c r="H81" s="31">
+        <v>183</v>
+      </c>
+      <c r="H81" s="29">
         <v>25</v>
       </c>
       <c r="I81" t="s">
@@ -6554,7 +6565,7 @@
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B82" s="2">
         <f>SUM(G55:G76)</f>
-        <v>495.1426226339882</v>
+        <v>502.44552796184155</v>
       </c>
       <c r="C82" t="s">
         <v>9</v>
@@ -6563,9 +6574,9 @@
         <v>31</v>
       </c>
       <c r="G82" t="s">
-        <v>185</v>
-      </c>
-      <c r="H82" s="31">
+        <v>184</v>
+      </c>
+      <c r="H82" s="29">
         <v>100</v>
       </c>
       <c r="I82" t="s">
@@ -6574,9 +6585,9 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G83" t="s">
-        <v>186</v>
-      </c>
-      <c r="H83" s="31">
+        <v>185</v>
+      </c>
+      <c r="H83" s="29">
         <v>1.6</v>
       </c>
       <c r="I83" t="s">
@@ -6586,15 +6597,15 @@
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B84" s="2">
         <f>B80/B82</f>
-        <v>0.32973389617305371</v>
+        <v>0.32494130614462996</v>
       </c>
       <c r="D84" t="s">
         <v>27</v>
       </c>
       <c r="G84" t="s">
-        <v>187</v>
-      </c>
-      <c r="H84" s="31">
+        <v>186</v>
+      </c>
+      <c r="H84" s="29">
         <v>60</v>
       </c>
       <c r="I84" t="s">
@@ -6603,13 +6614,13 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G85" t="s">
-        <v>188</v>
-      </c>
-      <c r="H85" s="31">
+        <v>187</v>
+      </c>
+      <c r="H85" s="29">
         <v>0.8</v>
       </c>
       <c r="I85" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
@@ -6624,19 +6635,19 @@
         <v>28</v>
       </c>
       <c r="G86" t="s">
-        <v>189</v>
-      </c>
-      <c r="H86" s="31">
+        <v>188</v>
+      </c>
+      <c r="H86" s="29">
         <v>75</v>
       </c>
       <c r="I86" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B88" s="1">
         <f>B82/B86</f>
-        <v>0.11003169391866405</v>
+        <v>0.11165456176929812</v>
       </c>
       <c r="C88" t="s">
         <v>29</v>
@@ -6648,7 +6659,7 @@
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B90" s="2">
         <f>B82/30</f>
-        <v>16.504754087799608</v>
+        <v>16.74818426539472</v>
       </c>
       <c r="C90" t="s">
         <v>49</v>
@@ -6666,7 +6677,7 @@
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B93" s="2">
         <f>B90/(B91/144)</f>
-        <v>3.4074262871311345</v>
+        <v>3.4576827394118581</v>
       </c>
       <c r="C93" t="s">
         <v>51</v>
@@ -6676,16 +6687,16 @@
       </c>
       <c r="F93" s="2">
         <f>B93/16</f>
-        <v>0.21296414294569591</v>
+        <v>0.21610517121324113</v>
       </c>
       <c r="G93" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B94" s="4">
         <f>B90/(B91/144)^1.5</f>
-        <v>1.5482289190492906</v>
+        <v>1.5710638936703698</v>
       </c>
       <c r="C94" t="s">
         <v>52</v>
@@ -6695,7 +6706,7 @@
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96" s="18" t="s">
+      <c r="A96" s="17" t="s">
         <v>108</v>
       </c>
     </row>
@@ -6764,7 +6775,7 @@
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C103" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.2">
@@ -6848,7 +6859,7 @@
         <v>45</v>
       </c>
       <c r="D116" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.2">
@@ -6861,15 +6872,18 @@
       </c>
     </row>
     <row r="119" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B119" s="32">
+      <c r="B119" s="30">
         <f>1/B117</f>
         <v>13.360715576296519</v>
       </c>
       <c r="C119" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E17" r:id="rId1" xr:uid="{982F6BD9-0C86-C144-8943-34BF5C65EA30}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6886,7 +6900,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -6899,7 +6913,7 @@
         <v>131</v>
       </c>
       <c r="B3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -7284,7 +7298,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:AG125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B89" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M117" sqref="M117"/>
     </sheetView>
   </sheetViews>
@@ -7301,7 +7315,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>111</v>
       </c>
     </row>
@@ -7350,7 +7364,7 @@
         <v>134</v>
       </c>
       <c r="P3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.2">
@@ -7398,7 +7412,7 @@
         <v>134</v>
       </c>
       <c r="P4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.2">
@@ -7477,7 +7491,7 @@
         <v>120</v>
       </c>
       <c r="N6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.2">
@@ -7611,19 +7625,19 @@
         <v>99</v>
       </c>
       <c r="M9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="N9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="N10" s="39" t="s">
-        <v>285</v>
-      </c>
-      <c r="O10" s="40"/>
-      <c r="P10" s="41"/>
-      <c r="Q10" s="49"/>
+      <c r="N10" s="37" t="s">
+        <v>284</v>
+      </c>
+      <c r="O10" s="38"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="47"/>
       <c r="T10">
         <v>660</v>
       </c>
@@ -7665,16 +7679,16 @@
       <c r="L11" t="s">
         <v>121</v>
       </c>
-      <c r="N11" s="42" t="s">
-        <v>254</v>
-      </c>
-      <c r="O11" s="37">
+      <c r="N11" s="40" t="s">
+        <v>253</v>
+      </c>
+      <c r="O11" s="35">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="P11" s="43">
+      <c r="P11" s="41">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Q11" s="49"/>
+      <c r="Q11" s="47"/>
       <c r="T11">
         <v>60</v>
       </c>
@@ -7682,7 +7696,7 @@
         <v>1.9E-2</v>
       </c>
       <c r="W11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.2">
@@ -7729,50 +7743,50 @@
       <c r="L12" t="s">
         <v>122</v>
       </c>
-      <c r="N12" s="44" t="s">
-        <v>255</v>
-      </c>
-      <c r="O12" s="38">
+      <c r="N12" s="42" t="s">
+        <v>254</v>
+      </c>
+      <c r="O12" s="36">
         <f>B12/2</f>
         <v>4.5045045045045047</v>
       </c>
-      <c r="P12" s="45">
+      <c r="P12" s="43">
         <f>H12/2</f>
         <v>4.3918918918918921</v>
       </c>
-      <c r="Q12" s="38"/>
+      <c r="Q12" s="36"/>
       <c r="R12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="S12" t="s">
         <v>131</v>
       </c>
       <c r="T12" t="s">
+        <v>257</v>
+      </c>
+      <c r="U12" t="s">
         <v>258</v>
       </c>
-      <c r="U12" t="s">
-        <v>259</v>
-      </c>
       <c r="V12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="W12" t="s">
         <v>161</v>
       </c>
       <c r="X12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Y12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AB12" t="s">
         <v>84</v>
       </c>
       <c r="AE12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AF12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.2">
@@ -7819,18 +7833,18 @@
       <c r="L13" t="s">
         <v>124</v>
       </c>
-      <c r="N13" s="44" t="s">
-        <v>256</v>
-      </c>
-      <c r="O13" s="38">
+      <c r="N13" s="42" t="s">
+        <v>255</v>
+      </c>
+      <c r="O13" s="36">
         <f>O12*O11</f>
         <v>0.15765765765765768</v>
       </c>
-      <c r="P13" s="45">
+      <c r="P13" s="43">
         <f>P12*P11</f>
         <v>0.15371621621621623</v>
       </c>
-      <c r="Q13" s="38"/>
+      <c r="Q13" s="36"/>
       <c r="R13">
         <v>30</v>
       </c>
@@ -7866,7 +7880,7 @@
         <f>AC$36/$Y13</f>
         <v>172.69174026607908</v>
       </c>
-      <c r="AE13" s="34">
+      <c r="AE13" s="32">
         <f>V13/1000 / (2.54 * 12) * 100</f>
         <v>0.36909448818897639</v>
       </c>
@@ -7880,18 +7894,18 @@
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="N14" s="44" t="s">
+      <c r="N14" s="42" t="s">
         <v>121</v>
       </c>
-      <c r="O14" s="38">
+      <c r="O14" s="36">
         <f>O12^2 * O11</f>
         <v>0.71016962908854819</v>
       </c>
-      <c r="P14" s="45">
+      <c r="P14" s="43">
         <f>P12^2 * P11</f>
         <v>0.67510500365230108</v>
       </c>
-      <c r="Q14" s="38"/>
+      <c r="Q14" s="36"/>
       <c r="R14">
         <v>28</v>
       </c>
@@ -7927,7 +7941,7 @@
         <f>AC$36/$Y14</f>
         <v>131.57465925034597</v>
       </c>
-      <c r="AE14" s="34">
+      <c r="AE14" s="32">
         <f t="shared" ref="AE14:AE16" si="2">V14/1000 / (2.54 * 12) * 100</f>
         <v>0.23490813648293962</v>
       </c>
@@ -7974,18 +7988,18 @@
       <c r="L15" t="s">
         <v>123</v>
       </c>
-      <c r="N15" s="44" t="s">
-        <v>286</v>
-      </c>
-      <c r="O15" s="38">
+      <c r="N15" s="42" t="s">
+        <v>285</v>
+      </c>
+      <c r="O15" s="36">
         <f>2*O14</f>
         <v>1.4203392581770964</v>
       </c>
-      <c r="P15" s="45">
+      <c r="P15" s="43">
         <f>2*P14</f>
         <v>1.3502100073046022</v>
       </c>
-      <c r="Q15" s="38"/>
+      <c r="Q15" s="36"/>
       <c r="R15">
         <v>26</v>
       </c>
@@ -8021,7 +8035,7 @@
         <f>AC$36/$Y15</f>
         <v>106.27184016374098</v>
       </c>
-      <c r="AE15" s="34">
+      <c r="AE15" s="32">
         <f t="shared" si="2"/>
         <v>0.14796587926509186</v>
       </c>
@@ -8076,12 +8090,12 @@
         <v>81.081081081081081</v>
       </c>
       <c r="L16" t="s">
-        <v>319</v>
-      </c>
-      <c r="N16" s="46"/>
-      <c r="O16" s="47"/>
-      <c r="P16" s="48"/>
-      <c r="Q16" s="49"/>
+        <v>318</v>
+      </c>
+      <c r="N16" s="44"/>
+      <c r="O16" s="45"/>
+      <c r="P16" s="46"/>
+      <c r="Q16" s="47"/>
       <c r="R16">
         <v>24</v>
       </c>
@@ -8117,7 +8131,7 @@
         <f>AC$36/$Y16</f>
         <v>86.34587013303954</v>
       </c>
-      <c r="AE16" s="34">
+      <c r="AE16" s="32">
         <f t="shared" si="2"/>
         <v>9.416010498687663E-2</v>
       </c>
@@ -8245,7 +8259,7 @@
         <v>267</v>
       </c>
       <c r="L19" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="T19">
         <v>420</v>
@@ -8267,7 +8281,7 @@
       </c>
     </row>
     <row r="20" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="R20" s="33"/>
+      <c r="R20" s="31"/>
       <c r="T20">
         <v>660</v>
       </c>
@@ -8380,14 +8394,14 @@
         <v>130</v>
       </c>
       <c r="M22" t="s">
-        <v>182</v>
-      </c>
-      <c r="R22" s="33"/>
-      <c r="T22" s="18" t="s">
-        <v>322</v>
-      </c>
-      <c r="AA22" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="R22" s="31"/>
+      <c r="T22" s="17" t="s">
         <v>321</v>
+      </c>
+      <c r="AA22" s="17" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="23" spans="2:30" x14ac:dyDescent="0.2">
@@ -8439,9 +8453,9 @@
         <v>300</v>
       </c>
       <c r="L24" t="s">
-        <v>304</v>
-      </c>
-      <c r="R24" s="33"/>
+        <v>303</v>
+      </c>
+      <c r="R24" s="31"/>
       <c r="T24">
         <v>66</v>
       </c>
@@ -8490,7 +8504,7 @@
         <v>300</v>
       </c>
       <c r="L25" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="T25">
         <v>100</v>
@@ -8555,7 +8569,7 @@
       <c r="L26" t="s">
         <v>127</v>
       </c>
-      <c r="R26" s="33"/>
+      <c r="R26" s="31"/>
       <c r="T26">
         <v>175</v>
       </c>
@@ -8566,7 +8580,7 @@
         <v>0.03</v>
       </c>
       <c r="AA26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AB26">
         <v>1</v>
@@ -8575,7 +8589,7 @@
         <v>1</v>
       </c>
       <c r="AD26" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="27" spans="2:30" x14ac:dyDescent="0.2">
@@ -8623,12 +8637,12 @@
         <v>128</v>
       </c>
       <c r="O27" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="T27">
         <v>270</v>
       </c>
-      <c r="U27" s="50">
+      <c r="U27" s="48">
         <v>3.9E-2</v>
       </c>
     </row>
@@ -8676,15 +8690,15 @@
       <c r="L28" t="s">
         <v>129</v>
       </c>
-      <c r="R28" s="33"/>
+      <c r="R28" s="31"/>
       <c r="T28">
         <v>330</v>
       </c>
-      <c r="U28" s="50">
+      <c r="U28" s="48">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="AA28" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AB28">
         <v>3.2000000000000001E-2</v>
@@ -8760,9 +8774,9 @@
         <v>2.4696969696969697</v>
       </c>
       <c r="L30" t="s">
-        <v>306</v>
-      </c>
-      <c r="R30" s="33"/>
+        <v>305</v>
+      </c>
+      <c r="R30" s="31"/>
       <c r="T30">
         <v>660</v>
       </c>
@@ -8787,7 +8801,7 @@
         <v>8.2000000000000003E-2</v>
       </c>
       <c r="AA31" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AB31">
         <f>(AB24-AB23)/2*AB25/100</f>
@@ -8852,7 +8866,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="AA32" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AB32" s="4">
         <f>PI() * (AB24-((AB24-AB23)/2)) /10 * AB31</f>
@@ -8911,7 +8925,7 @@
         <v>133</v>
       </c>
       <c r="M33" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AA33" t="s">
         <v>8</v>
@@ -8944,40 +8958,40 @@
     </row>
     <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C35" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D35" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E35" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F35" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G35" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H35" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I35" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J35" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K35" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R35" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AA35" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AB35" s="2">
         <f>((AB24-AB23) + (2*AB25)  + (2*AB29))/10* AB26</f>
@@ -8996,7 +9010,7 @@
         <v>165</v>
       </c>
       <c r="C36" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D36" t="s">
         <v>163</v>
@@ -9005,31 +9019,31 @@
         <v>165</v>
       </c>
       <c r="F36" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G36" t="s">
         <v>165</v>
       </c>
       <c r="H36" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I36" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J36" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K36" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="R36" t="s">
         <v>102</v>
       </c>
-      <c r="S36" s="20">
+      <c r="S36" s="19">
         <v>1250000</v>
       </c>
       <c r="AA36" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AB36" s="5">
         <f xml:space="preserve"> PI() * (AB23-AB29)</f>
@@ -9045,35 +9059,35 @@
     </row>
     <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="R37" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="S37">
         <v>0.9</v>
       </c>
       <c r="AA37" t="s">
-        <v>325</v>
-      </c>
-      <c r="AB37" s="21">
+        <v>324</v>
+      </c>
+      <c r="AB37" s="20">
         <f>(AB29*AB30)/AB36</f>
         <v>0.92447770272664909</v>
       </c>
-      <c r="AC37" s="21">
+      <c r="AC37" s="20">
         <f>(AC29*AC30)/AC36</f>
         <v>0.94098304730512339</v>
       </c>
     </row>
     <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="D38" t="s">
-        <v>317</v>
-      </c>
-      <c r="M38" s="18" t="s">
-        <v>298</v>
+        <v>316</v>
+      </c>
+      <c r="M38" s="17" t="s">
+        <v>297</v>
       </c>
       <c r="O38" s="2">
         <v>14.8</v>
       </c>
       <c r="AA38" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB38" s="2">
         <f>AB30*AB35 /100</f>
@@ -9084,30 +9098,30 @@
         <v>2.9320800000000005</v>
       </c>
       <c r="AD38" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="39" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="L39" s="36"/>
+      <c r="L39" s="34"/>
       <c r="M39">
         <v>6</v>
       </c>
       <c r="N39" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O39" s="2"/>
       <c r="R39" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="S39" s="5">
         <f>3/(0.01*(1-S37))</f>
         <v>3000.0000000000005</v>
       </c>
       <c r="T39" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA39" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AB39" s="5">
         <f>AB38*100 / (2.54 * 12)</f>
@@ -9118,7 +9132,7 @@
         <v>9.6196850393700792</v>
       </c>
       <c r="AD39" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="40" spans="2:30" x14ac:dyDescent="0.2">
@@ -9126,24 +9140,24 @@
         <v>24</v>
       </c>
       <c r="N40" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O40" s="2">
         <f>(M40*M41)/(M39/2)</f>
         <v>32</v>
       </c>
       <c r="R40" t="s">
-        <v>279</v>
-      </c>
-      <c r="S40" s="35">
+        <v>278</v>
+      </c>
+      <c r="S40" s="33">
         <f>(1.6*S37)/(S39*S36)</f>
         <v>3.8400000000000002E-10</v>
       </c>
       <c r="T40" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AA40" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AB40">
         <v>1.5</v>
@@ -9160,7 +9174,7 @@
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O41" s="2"/>
       <c r="AB41" s="5">
@@ -9180,11 +9194,11 @@
         <v>1</v>
       </c>
       <c r="N42" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O42" s="2"/>
       <c r="AA42" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AB42" s="5">
         <f>AB39*3</f>
@@ -9195,22 +9209,22 @@
         <v>28.859055118110238</v>
       </c>
       <c r="AD42" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="M43" t="s">
+        <v>291</v>
+      </c>
+      <c r="N43" t="s">
         <v>292</v>
-      </c>
-      <c r="N43" t="s">
-        <v>293</v>
       </c>
       <c r="O43" s="2">
         <f>O38*O40</f>
         <v>473.6</v>
       </c>
       <c r="R43" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="44" spans="2:30" x14ac:dyDescent="0.2">
@@ -9228,17 +9242,17 @@
       <c r="R44" t="s">
         <v>102</v>
       </c>
-      <c r="S44" s="20">
+      <c r="S44" s="19">
         <v>1200000</v>
       </c>
       <c r="V44" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="W44">
         <v>5000</v>
       </c>
       <c r="X44" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AB44" s="4">
         <f>AB41*AB28</f>
@@ -9249,7 +9263,7 @@
         <v>1.6177374218750664</v>
       </c>
       <c r="AD44" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="45" spans="2:30" x14ac:dyDescent="0.2">
@@ -9267,19 +9281,19 @@
       </c>
       <c r="O45" s="2"/>
       <c r="R45" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="S45">
         <v>0.88</v>
       </c>
       <c r="V45" t="s">
+        <v>278</v>
+      </c>
+      <c r="W45" s="19">
+        <v>3.9E-10</v>
+      </c>
+      <c r="X45" t="s">
         <v>279</v>
-      </c>
-      <c r="W45" s="20">
-        <v>3.9E-10</v>
-      </c>
-      <c r="X45" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="46" spans="2:30" x14ac:dyDescent="0.2">
@@ -9293,14 +9307,14 @@
       </c>
       <c r="O46" s="2"/>
       <c r="V46" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="W46" s="2">
         <f>1-(300/W44)</f>
         <v>0.94</v>
       </c>
       <c r="X46" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="47" spans="2:30" x14ac:dyDescent="0.2">
@@ -9318,19 +9332,19 @@
       </c>
       <c r="O47" s="2"/>
       <c r="R47" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="S47" s="5">
         <f>3/(0.01*(1-S45))</f>
         <v>2500</v>
       </c>
       <c r="T47" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="V47" t="s">
         <v>102</v>
       </c>
-      <c r="W47" s="20">
+      <c r="W47" s="19">
         <f xml:space="preserve"> (1.6*W46)/(W44*W45)</f>
         <v>771282.05128205125</v>
       </c>
@@ -9342,7 +9356,7 @@
         <v>77.792553191489432</v>
       </c>
       <c r="Z47" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="48" spans="2:30" x14ac:dyDescent="0.2">
@@ -9360,21 +9374,21 @@
       </c>
       <c r="O48" s="2"/>
       <c r="R48" t="s">
-        <v>279</v>
-      </c>
-      <c r="S48" s="35">
+        <v>278</v>
+      </c>
+      <c r="S48" s="33">
         <f>(1.6*S45)/(S47*S44)</f>
         <v>4.6933333333333337E-10</v>
       </c>
       <c r="T48" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="W48" s="5">
         <f>1/W47*1000000000</f>
         <v>1296.5425531914896</v>
       </c>
       <c r="X48" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="49" spans="12:26" x14ac:dyDescent="0.2">
@@ -9386,7 +9400,7 @@
         <v>11.5824</v>
       </c>
       <c r="N50" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O50" s="2"/>
     </row>
@@ -9396,70 +9410,70 @@
         <v>3.5051999999999999</v>
       </c>
       <c r="N51" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O51" s="2"/>
       <c r="R51" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="S51">
         <v>2500</v>
       </c>
       <c r="T51" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="V51" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="W51">
         <v>3500</v>
       </c>
       <c r="X51" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="52" spans="12:26" x14ac:dyDescent="0.2">
       <c r="O52" s="2"/>
       <c r="R52" t="s">
+        <v>278</v>
+      </c>
+      <c r="S52" s="19">
+        <v>4.7000000000000003E-10</v>
+      </c>
+      <c r="T52" t="s">
         <v>279</v>
       </c>
-      <c r="S52" s="20">
-        <v>4.7000000000000003E-10</v>
-      </c>
-      <c r="T52" t="s">
-        <v>280</v>
-      </c>
       <c r="V52" t="s">
+        <v>278</v>
+      </c>
+      <c r="W52" s="19">
+        <v>3.9E-10</v>
+      </c>
+      <c r="X52" t="s">
         <v>279</v>
-      </c>
-      <c r="W52" s="20">
-        <v>3.9E-10</v>
-      </c>
-      <c r="X52" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="53" spans="12:26" x14ac:dyDescent="0.2">
       <c r="O53" s="2"/>
       <c r="R53" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="S53" s="2">
         <f>1-(300/S51)</f>
         <v>0.88</v>
       </c>
       <c r="T53" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="V53" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="W53" s="2">
         <f>1-(300/W51)</f>
         <v>0.91428571428571426</v>
       </c>
       <c r="X53" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="54" spans="12:26" x14ac:dyDescent="0.2">
@@ -9470,7 +9484,7 @@
       <c r="R54" t="s">
         <v>102</v>
       </c>
-      <c r="S54" s="20">
+      <c r="S54" s="19">
         <f xml:space="preserve"> (1.6*S53)/(S51*S52)</f>
         <v>1198297.8723404256</v>
       </c>
@@ -9480,7 +9494,7 @@
       <c r="V54" t="s">
         <v>102</v>
       </c>
-      <c r="W54" s="20">
+      <c r="W54" s="19">
         <f xml:space="preserve"> (1.6*W53)/(W51*W52)</f>
         <v>1071690.2145473573</v>
       </c>
@@ -9492,7 +9506,7 @@
         <v>79.980468750000043</v>
       </c>
       <c r="Z54" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="55" spans="12:26" x14ac:dyDescent="0.2">
@@ -9505,7 +9519,7 @@
         <v>933.10546875000011</v>
       </c>
       <c r="X55" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="56" spans="12:26" x14ac:dyDescent="0.2">
@@ -9522,86 +9536,86 @@
       </c>
       <c r="O57" s="2"/>
       <c r="R57" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="S57">
         <v>2700</v>
       </c>
       <c r="T57" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="V57" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="W57">
         <v>3000</v>
       </c>
       <c r="X57" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="58" spans="12:26" x14ac:dyDescent="0.2">
       <c r="O58" s="2"/>
       <c r="R58" t="s">
+        <v>278</v>
+      </c>
+      <c r="S58" s="19">
+        <v>4.7000000000000003E-10</v>
+      </c>
+      <c r="T58" t="s">
         <v>279</v>
       </c>
-      <c r="S58" s="20">
-        <v>4.7000000000000003E-10</v>
-      </c>
-      <c r="T58" t="s">
-        <v>280</v>
-      </c>
       <c r="V58" t="s">
+        <v>278</v>
+      </c>
+      <c r="W58" s="19">
+        <v>3.9E-10</v>
+      </c>
+      <c r="X58" t="s">
         <v>279</v>
       </c>
-      <c r="W58" s="20">
-        <v>3.9E-10</v>
-      </c>
-      <c r="X58" t="s">
-        <v>280</v>
-      </c>
     </row>
     <row r="59" spans="12:26" x14ac:dyDescent="0.2">
-      <c r="M59" s="18" t="s">
-        <v>299</v>
+      <c r="M59" s="17" t="s">
+        <v>298</v>
       </c>
       <c r="O59" s="2">
         <v>14.8</v>
       </c>
       <c r="R59" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="S59" s="2">
         <f>1-(300/S57)</f>
         <v>0.88888888888888884</v>
       </c>
       <c r="T59" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="V59" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="W59" s="2">
         <f>1-(300/W57)</f>
         <v>0.9</v>
       </c>
       <c r="X59" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="60" spans="12:26" x14ac:dyDescent="0.2">
-      <c r="L60" s="36"/>
+      <c r="L60" s="34"/>
       <c r="M60">
         <v>6</v>
       </c>
       <c r="N60" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O60" s="2"/>
       <c r="R60" t="s">
         <v>102</v>
       </c>
-      <c r="S60" s="20">
+      <c r="S60" s="19">
         <f xml:space="preserve"> (1.6*S59)/(S57*S58)</f>
         <v>1120742.4919008843</v>
       </c>
@@ -9611,7 +9625,7 @@
       <c r="V60" t="s">
         <v>102</v>
       </c>
-      <c r="W60" s="20">
+      <c r="W60" s="19">
         <f xml:space="preserve"> (1.6*W59)/(W57*W58)</f>
         <v>1230769.230769231</v>
       </c>
@@ -9623,7 +9637,7 @@
         <v>81.249999999999957</v>
       </c>
       <c r="Z60" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="61" spans="12:26" x14ac:dyDescent="0.2">
@@ -9631,7 +9645,7 @@
         <v>16</v>
       </c>
       <c r="N61" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O61" s="2">
         <f>(M61*M62)/(M60/2)</f>
@@ -9642,7 +9656,7 @@
         <v>812.49999999999989</v>
       </c>
       <c r="X61" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="62" spans="12:26" x14ac:dyDescent="0.2">
@@ -9650,7 +9664,7 @@
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O62" s="2"/>
     </row>
@@ -9659,56 +9673,56 @@
         <v>1</v>
       </c>
       <c r="N63" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O63" s="2"/>
       <c r="R63" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="S63">
         <v>3000</v>
       </c>
       <c r="T63" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="V63" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="W63">
         <v>2500</v>
       </c>
       <c r="X63" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="64" spans="12:26" x14ac:dyDescent="0.2">
       <c r="M64" t="s">
+        <v>291</v>
+      </c>
+      <c r="N64" t="s">
         <v>292</v>
-      </c>
-      <c r="N64" t="s">
-        <v>293</v>
       </c>
       <c r="O64" s="2">
         <f>O59*O61</f>
         <v>394.66666666666669</v>
       </c>
       <c r="R64" t="s">
+        <v>278</v>
+      </c>
+      <c r="S64" s="19">
+        <v>4.7000000000000003E-10</v>
+      </c>
+      <c r="T64" t="s">
         <v>279</v>
       </c>
-      <c r="S64" s="20">
-        <v>4.7000000000000003E-10</v>
-      </c>
-      <c r="T64" t="s">
-        <v>280</v>
-      </c>
       <c r="V64" t="s">
+        <v>278</v>
+      </c>
+      <c r="W64" s="19">
+        <v>3.9E-10</v>
+      </c>
+      <c r="X64" t="s">
         <v>279</v>
-      </c>
-      <c r="W64" s="20">
-        <v>3.9E-10</v>
-      </c>
-      <c r="X64" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="65" spans="12:26" x14ac:dyDescent="0.2">
@@ -9724,24 +9738,24 @@
       </c>
       <c r="O65" s="2"/>
       <c r="R65" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="S65" s="2">
         <f>1-(300/S63)</f>
         <v>0.9</v>
       </c>
       <c r="T65" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="V65" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="W65" s="2">
         <f>1-(300/W63)</f>
         <v>0.88</v>
       </c>
       <c r="X65" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="66" spans="12:26" x14ac:dyDescent="0.2">
@@ -9761,7 +9775,7 @@
       <c r="R66" t="s">
         <v>102</v>
       </c>
-      <c r="S66" s="20">
+      <c r="S66" s="19">
         <f xml:space="preserve"> (1.6*S65)/(S63*S64)</f>
         <v>1021276.595744681</v>
       </c>
@@ -9771,7 +9785,7 @@
       <c r="V66" t="s">
         <v>102</v>
       </c>
-      <c r="W66" s="20">
+      <c r="W66" s="19">
         <f xml:space="preserve"> (1.6*W65)/(W63*W64)</f>
         <v>1444102.5641025642</v>
       </c>
@@ -9783,7 +9797,7 @@
         <v>83.096590909090892</v>
       </c>
       <c r="Z66" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="67" spans="12:26" x14ac:dyDescent="0.2">
@@ -9801,7 +9815,7 @@
         <v>692.47159090909076</v>
       </c>
       <c r="X67" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="68" spans="12:26" x14ac:dyDescent="0.2">
@@ -9834,25 +9848,25 @@
       </c>
       <c r="O69" s="2"/>
       <c r="R69" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="S69">
         <v>2200</v>
       </c>
       <c r="T69" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="70" spans="12:26" x14ac:dyDescent="0.2">
       <c r="O70" s="2"/>
       <c r="R70" t="s">
+        <v>278</v>
+      </c>
+      <c r="S70" s="19">
+        <v>4.7000000000000003E-10</v>
+      </c>
+      <c r="T70" t="s">
         <v>279</v>
-      </c>
-      <c r="S70" s="20">
-        <v>4.7000000000000003E-10</v>
-      </c>
-      <c r="T70" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="71" spans="12:26" x14ac:dyDescent="0.2">
@@ -9861,18 +9875,18 @@
         <v>7.3152000000000008</v>
       </c>
       <c r="N71" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O71" s="2"/>
       <c r="R71" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="S71" s="2">
         <f>1-(300/S69)</f>
         <v>0.86363636363636365</v>
       </c>
       <c r="T71" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="72" spans="12:26" x14ac:dyDescent="0.2">
@@ -9881,13 +9895,13 @@
         <v>3.3782000000000005</v>
       </c>
       <c r="N72" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O72" s="2"/>
       <c r="R72" t="s">
         <v>102</v>
       </c>
-      <c r="S72" s="20">
+      <c r="S72" s="19">
         <f xml:space="preserve"> (1.6*S71)/(S69*S70)</f>
         <v>1336381.2203270618</v>
       </c>
@@ -9899,11 +9913,11 @@
         <v>102.03947368421052</v>
       </c>
       <c r="V72" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="74" spans="12:26" x14ac:dyDescent="0.2">
-      <c r="S74" s="20">
+      <c r="S74" s="19">
         <f>S71/S72</f>
         <v>6.4624999999999995E-7</v>
       </c>
@@ -9913,7 +9927,7 @@
         <v>0.70699999999999996</v>
       </c>
       <c r="N75" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="76" spans="12:26" x14ac:dyDescent="0.2">
@@ -9921,7 +9935,7 @@
         <v>0.42699999999999999</v>
       </c>
       <c r="N76" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="77" spans="12:26" x14ac:dyDescent="0.2">
@@ -9930,7 +9944,7 @@
         <v>0.27999999999999997</v>
       </c>
       <c r="N77" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="78" spans="12:26" x14ac:dyDescent="0.2">
@@ -9939,12 +9953,12 @@
         <v>0.13999999999999999</v>
       </c>
       <c r="N78" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="81" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="M81" s="18" t="s">
-        <v>311</v>
+      <c r="M81" s="17" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="83" spans="11:14" x14ac:dyDescent="0.2">
@@ -9953,7 +9967,7 @@
         <v>625000</v>
       </c>
       <c r="N83" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="84" spans="11:14" x14ac:dyDescent="0.2">
@@ -9961,7 +9975,7 @@
         <v>15</v>
       </c>
       <c r="N84" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="85" spans="11:14" x14ac:dyDescent="0.2">
@@ -9978,7 +9992,7 @@
         <v>3926990.8169872416</v>
       </c>
       <c r="N86" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="87" spans="11:14" x14ac:dyDescent="0.2">
@@ -9996,7 +10010,7 @@
         <v>1.767145867644259E-2</v>
       </c>
       <c r="N88" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="89" spans="11:14" x14ac:dyDescent="0.2">
@@ -10005,7 +10019,7 @@
         <v>5.3014376029327774</v>
       </c>
       <c r="N89" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="92" spans="11:14" x14ac:dyDescent="0.2">
@@ -10106,7 +10120,7 @@
         <v>90.022505626406598</v>
       </c>
       <c r="L105" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="106" spans="11:12" x14ac:dyDescent="0.2">
@@ -10123,7 +10137,7 @@
         <v>250</v>
       </c>
       <c r="L108" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="110" spans="11:12" x14ac:dyDescent="0.2">
@@ -10149,7 +10163,7 @@
         <v>300</v>
       </c>
       <c r="L113" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="114" spans="11:12" x14ac:dyDescent="0.2">
@@ -10157,7 +10171,7 @@
         <v>300</v>
       </c>
       <c r="L114" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="115" spans="11:12" x14ac:dyDescent="0.2">
@@ -10193,7 +10207,7 @@
         <v>2.4696969696969697</v>
       </c>
       <c r="L119" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="121" spans="11:12" x14ac:dyDescent="0.2">
@@ -10216,7 +10230,7 @@
     </row>
     <row r="124" spans="11:12" x14ac:dyDescent="0.2">
       <c r="K124" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="125" spans="11:12" x14ac:dyDescent="0.2">
@@ -10256,29 +10270,29 @@
     </row>
     <row r="5" spans="3:11" x14ac:dyDescent="0.2">
       <c r="H5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="3:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="D7" s="24">
+        <v>30</v>
+      </c>
+      <c r="E7" s="25" t="s">
         <v>190</v>
-      </c>
-      <c r="D7" s="26">
-        <v>30</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>191</v>
       </c>
       <c r="H7">
         <v>30</v>
@@ -10288,13 +10302,13 @@
       </c>
     </row>
     <row r="8" spans="3:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="C8" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="D8" s="26">
+      <c r="C8" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="D8" s="24">
         <v>0.30099999999999999</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="25" t="s">
         <v>131</v>
       </c>
       <c r="H8">
@@ -10305,13 +10319,13 @@
       </c>
     </row>
     <row r="9" spans="3:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="C9" s="28" t="s">
-        <v>193</v>
-      </c>
-      <c r="D9" s="28">
+      <c r="C9" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="D9" s="26">
         <v>21</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="25" t="s">
         <v>131</v>
       </c>
       <c r="H9">
@@ -10323,13 +10337,13 @@
       </c>
     </row>
     <row r="10" spans="3:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="C10" s="28" t="s">
-        <v>194</v>
-      </c>
-      <c r="D10" s="28">
+      <c r="C10" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="D10" s="26">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="25" t="s">
         <v>131</v>
       </c>
       <c r="H10">
@@ -10343,37 +10357,37 @@
         <v>4</v>
       </c>
       <c r="K10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="3:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="30">
+      <c r="D11" s="28">
         <f>D7*(1+(D8/SQRT(D10)))</f>
         <v>87.110734542640927</v>
       </c>
-      <c r="E11" s="27" t="s">
-        <v>191</v>
+      <c r="E11" s="25" t="s">
+        <v>190</v>
       </c>
       <c r="H11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="3:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="C12" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="D12" s="30">
+      <c r="C12" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="D12" s="28">
         <f>D11*D10*LOG(D9/D10,2.718)</f>
         <v>14.665310181214844</v>
       </c>
-      <c r="E12" s="27" t="s">
-        <v>196</v>
+      <c r="E12" s="25" t="s">
+        <v>195</v>
       </c>
       <c r="H12">
         <v>0.1</v>
@@ -10386,26 +10400,26 @@
         <v>2000</v>
       </c>
       <c r="K12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H14" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="15" spans="3:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="D15" s="24">
+        <v>30</v>
+      </c>
+      <c r="E15" s="25" t="s">
         <v>190</v>
-      </c>
-      <c r="D15" s="26">
-        <v>30</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>191</v>
       </c>
       <c r="H15">
         <f>H12*H9</f>
@@ -10419,189 +10433,189 @@
         <v>40</v>
       </c>
       <c r="K15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="3:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="D16" s="24">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="C17" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="D16" s="26">
-        <v>0.30099999999999999</v>
-      </c>
-      <c r="E16" s="27" t="s">
+      <c r="D17" s="26">
+        <v>21</v>
+      </c>
+      <c r="E17" s="25" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="17" spans="3:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="C17" s="28" t="s">
+    <row r="18" spans="3:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="C18" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="D17" s="28">
-        <v>21</v>
-      </c>
-      <c r="E17" s="27" t="s">
+      <c r="D18" s="26">
+        <v>0.6</v>
+      </c>
+      <c r="E18" s="25" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="18" spans="3:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="C18" s="28" t="s">
-        <v>194</v>
-      </c>
-      <c r="D18" s="28">
-        <v>0.6</v>
-      </c>
-      <c r="E18" s="27" t="s">
-        <v>131</v>
-      </c>
-    </row>
     <row r="19" spans="3:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="30">
+      <c r="D19" s="28">
         <f>D15*(1+(D16/SQRT(D18)))</f>
         <v>41.657679872084323</v>
       </c>
-      <c r="E19" s="27" t="s">
-        <v>191</v>
+      <c r="E19" s="25" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="20" spans="3:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="C20" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="D20" s="30">
+      <c r="C20" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="D20" s="28">
         <f>D19*D18*LOG(D17/D18,2.718)</f>
         <v>88.87374563714863</v>
       </c>
-      <c r="E20" s="27" t="s">
-        <v>196</v>
+      <c r="E20" s="25" t="s">
+        <v>195</v>
       </c>
       <c r="H20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I20" s="4">
         <f>D12*2</f>
         <v>29.330620362429688</v>
       </c>
       <c r="J20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="3:10" x14ac:dyDescent="0.2">
       <c r="H21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I21" s="4">
         <f>D28</f>
         <v>205.59078000666895</v>
       </c>
       <c r="J21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I22">
         <v>4</v>
       </c>
       <c r="J22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23" spans="3:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="D23" s="24">
+        <v>30</v>
+      </c>
+      <c r="E23" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="D23" s="26">
-        <v>30</v>
-      </c>
-      <c r="E23" s="27" t="s">
+    </row>
+    <row r="24" spans="3:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="C24" s="24" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="24" spans="3:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="C24" s="26" t="s">
+      <c r="D24" s="24">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="C25" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="D24" s="26">
-        <v>0.30099999999999999</v>
-      </c>
-      <c r="E24" s="27" t="s">
+      <c r="D25" s="26">
+        <v>25</v>
+      </c>
+      <c r="E25" s="25" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="25" spans="3:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="C25" s="28" t="s">
-        <v>193</v>
-      </c>
-      <c r="D25" s="28">
-        <v>25</v>
-      </c>
-      <c r="E25" s="27" t="s">
-        <v>131</v>
-      </c>
       <c r="H25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I25" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="26" spans="3:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="C26" s="28" t="s">
-        <v>194</v>
-      </c>
-      <c r="D26" s="28">
+      <c r="C26" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="D26" s="26">
         <v>2.5</v>
       </c>
-      <c r="E26" s="27" t="s">
+      <c r="E26" s="25" t="s">
         <v>131</v>
       </c>
       <c r="H26" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I26">
         <v>0.127</v>
       </c>
     </row>
     <row r="27" spans="3:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="C27" s="29" t="s">
+      <c r="C27" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="30">
+      <c r="D27" s="28">
         <f>D23*(1+(D24/SQRT(D26)))</f>
         <v>35.711073454264096</v>
       </c>
-      <c r="E27" s="27" t="s">
-        <v>191</v>
+      <c r="E27" s="25" t="s">
+        <v>190</v>
       </c>
       <c r="H27" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I27">
         <v>0.25459999999999999</v>
       </c>
     </row>
     <row r="28" spans="3:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="C28" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="D28" s="30">
+      <c r="C28" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="D28" s="28">
         <f>D27*D26*LOG(D25/D26,2.718)</f>
         <v>205.59078000666895</v>
       </c>
-      <c r="E28" s="27" t="s">
-        <v>196</v>
+      <c r="E28" s="25" t="s">
+        <v>195</v>
       </c>
       <c r="H28" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I28">
         <v>0.3211</v>
@@ -10617,7 +10631,7 @@
     </row>
     <row r="30" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H30" t="s">
         <v>169</v>
@@ -10627,45 +10641,45 @@
       </c>
     </row>
     <row r="31" spans="3:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="C31" s="26" t="s">
+      <c r="C31" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="D31" s="24">
+        <v>30</v>
+      </c>
+      <c r="E31" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="D31" s="26">
-        <v>30</v>
-      </c>
-      <c r="E31" s="27" t="s">
-        <v>191</v>
-      </c>
       <c r="H31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I31">
         <v>0.64380000000000004</v>
       </c>
     </row>
     <row r="32" spans="3:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="C32" s="26" t="s">
+      <c r="C32" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="D32" s="24">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="E32" s="25" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" spans="3:22" ht="19" x14ac:dyDescent="0.25">
+      <c r="C33" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="D32" s="26">
-        <v>0.30099999999999999</v>
-      </c>
-      <c r="E32" s="27" t="s">
+      <c r="D33" s="26">
+        <v>25</v>
+      </c>
+      <c r="E33" s="25" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="33" spans="3:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="C33" s="28" t="s">
-        <v>193</v>
-      </c>
-      <c r="D33" s="28">
-        <v>25</v>
-      </c>
-      <c r="E33" s="27" t="s">
-        <v>131</v>
-      </c>
       <c r="J33" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K33">
         <v>10</v>
@@ -10705,17 +10719,17 @@
       </c>
     </row>
     <row r="34" spans="3:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="C34" s="28" t="s">
-        <v>194</v>
-      </c>
-      <c r="D34" s="28">
+      <c r="C34" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="D34" s="26">
         <v>5</v>
       </c>
-      <c r="E34" s="27" t="s">
+      <c r="E34" s="25" t="s">
         <v>131</v>
       </c>
       <c r="J34" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K34">
         <f t="shared" ref="K34:V34" si="0">K39-K40</f>
@@ -10767,18 +10781,18 @@
       </c>
     </row>
     <row r="35" spans="3:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="C35" s="29" t="s">
+      <c r="C35" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D35" s="30">
+      <c r="D35" s="28">
         <f>D31*(1+(D32/SQRT(D34)))</f>
         <v>34.038338767364621</v>
       </c>
-      <c r="E35" s="27" t="s">
-        <v>191</v>
+      <c r="E35" s="25" t="s">
+        <v>190</v>
       </c>
       <c r="J35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K35" s="4">
         <f t="shared" ref="K35:V35" si="1">$D$12</f>
@@ -10830,18 +10844,18 @@
       </c>
     </row>
     <row r="36" spans="3:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="C36" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="D36" s="30">
+      <c r="C36" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="D36" s="28">
         <f>D35*D34*LOG(D33/D34,2.718)</f>
         <v>273.94136785339589</v>
       </c>
-      <c r="E36" s="27" t="s">
-        <v>196</v>
+      <c r="E36" s="25" t="s">
+        <v>195</v>
       </c>
       <c r="J36" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K36" s="4">
         <f t="shared" ref="K36:V36" si="2">$D$20</f>
@@ -10894,7 +10908,7 @@
     </row>
     <row r="37" spans="3:22" x14ac:dyDescent="0.2">
       <c r="J37" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K37">
         <v>21</v>
@@ -10935,10 +10949,10 @@
     </row>
     <row r="38" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J38" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K38">
         <v>1</v>
@@ -10978,17 +10992,17 @@
       </c>
     </row>
     <row r="39" spans="3:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="C39" s="26" t="s">
+      <c r="C39" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="D39" s="24">
+        <v>30</v>
+      </c>
+      <c r="E39" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="D39" s="26">
-        <v>30</v>
-      </c>
-      <c r="E39" s="27" t="s">
-        <v>191</v>
-      </c>
       <c r="J39" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K39">
         <f t="shared" ref="K39:V39" si="3">MAX(0, (K$38*K$33*(K$33-K35))/K$37)</f>
@@ -11040,17 +11054,17 @@
       </c>
     </row>
     <row r="40" spans="3:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="C40" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="D40" s="26">
+      <c r="C40" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="D40" s="24">
         <v>0.30099999999999999</v>
       </c>
-      <c r="E40" s="27" t="s">
+      <c r="E40" s="25" t="s">
         <v>131</v>
       </c>
       <c r="J40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K40">
         <f t="shared" ref="K40:V40" si="4">MAX(0, (K$38*K$33*(K$33-K36))/K$37)</f>
@@ -11102,46 +11116,46 @@
       </c>
     </row>
     <row r="41" spans="3:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="C41" s="28" t="s">
+      <c r="C41" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="D41" s="26">
+        <v>25</v>
+      </c>
+      <c r="E41" s="25" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="42" spans="3:22" ht="19" x14ac:dyDescent="0.25">
+      <c r="C42" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="D41" s="28">
-        <v>25</v>
-      </c>
-      <c r="E41" s="27" t="s">
+      <c r="D42" s="26">
+        <v>1</v>
+      </c>
+      <c r="E42" s="25" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="42" spans="3:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="C42" s="28" t="s">
-        <v>194</v>
-      </c>
-      <c r="D42" s="28">
-        <v>1</v>
-      </c>
-      <c r="E42" s="27" t="s">
-        <v>131</v>
-      </c>
       <c r="J42" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="43" spans="3:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="C43" s="29" t="s">
+      <c r="C43" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D43" s="30">
+      <c r="D43" s="28">
         <f>D39*(1+(D40/SQRT(D42)))</f>
         <v>39.03</v>
       </c>
-      <c r="E43" s="27" t="s">
-        <v>191</v>
-      </c>
-      <c r="I43" s="31" t="s">
-        <v>244</v>
+      <c r="E43" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="I43" s="29" t="s">
+        <v>243</v>
       </c>
       <c r="J43" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K43">
         <v>10</v>
@@ -11181,18 +11195,18 @@
       </c>
     </row>
     <row r="44" spans="3:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="C44" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="D44" s="30">
+      <c r="C44" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="D44" s="28">
         <f>D43*D42*LOG(D41/D42,2.718)</f>
         <v>125.64575093270162</v>
       </c>
-      <c r="E44" s="27" t="s">
-        <v>196</v>
+      <c r="E44" s="25" t="s">
+        <v>195</v>
       </c>
       <c r="J44" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K44" s="2">
         <f>K45/K43*K47</f>
@@ -11238,11 +11252,11 @@
       </c>
     </row>
     <row r="45" spans="3:22" x14ac:dyDescent="0.2">
-      <c r="I45" s="31">
+      <c r="I45" s="29">
         <v>1.4</v>
       </c>
       <c r="J45" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K45" s="2">
         <f t="shared" ref="K45:V45" si="6">K46*$I45</f>
@@ -11295,7 +11309,7 @@
     </row>
     <row r="46" spans="3:22" x14ac:dyDescent="0.2">
       <c r="J46" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K46">
         <v>0</v>
@@ -11336,10 +11350,10 @@
     </row>
     <row r="47" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C47" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J47" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K47">
         <v>0</v>
@@ -11379,14 +11393,14 @@
       </c>
     </row>
     <row r="48" spans="3:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="C48" s="26" t="s">
+      <c r="C48" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="D48" s="24">
+        <v>30</v>
+      </c>
+      <c r="E48" s="25" t="s">
         <v>190</v>
-      </c>
-      <c r="D48" s="26">
-        <v>30</v>
-      </c>
-      <c r="E48" s="27" t="s">
-        <v>191</v>
       </c>
       <c r="K48" s="4">
         <f>K43*10/12</f>
@@ -11438,60 +11452,60 @@
       </c>
     </row>
     <row r="49" spans="3:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="C49" s="26" t="s">
+      <c r="C49" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="D49" s="24">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="E49" s="25" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="C50" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="D49" s="26">
-        <v>0.30099999999999999</v>
-      </c>
-      <c r="E49" s="27" t="s">
+      <c r="D50" s="26">
+        <v>3.7</v>
+      </c>
+      <c r="E50" s="25" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="50" spans="3:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="C50" s="28" t="s">
+    <row r="51" spans="3:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="C51" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="D50" s="28">
-        <v>3.7</v>
-      </c>
-      <c r="E50" s="27" t="s">
+      <c r="D51" s="26">
+        <v>0.6</v>
+      </c>
+      <c r="E51" s="25" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="51" spans="3:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="C51" s="28" t="s">
-        <v>194</v>
-      </c>
-      <c r="D51" s="28">
-        <v>0.6</v>
-      </c>
-      <c r="E51" s="27" t="s">
-        <v>131</v>
-      </c>
-    </row>
     <row r="52" spans="3:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="C52" s="29" t="s">
+      <c r="C52" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D52" s="30">
+      <c r="D52" s="28">
         <f>D48*(1+(D49/SQRT(D51)))</f>
         <v>41.657679872084323</v>
       </c>
-      <c r="E52" s="27" t="s">
-        <v>191</v>
+      <c r="E52" s="25" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="53" spans="3:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="C53" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="D53" s="30">
+      <c r="C53" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="D53" s="28">
         <f>D52*D51*LOG(D50/D51,2.718)</f>
         <v>45.473866968206337</v>
       </c>
-      <c r="E53" s="27" t="s">
-        <v>196</v>
+      <c r="E53" s="25" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="67" spans="10:14" x14ac:dyDescent="0.2">
@@ -11506,7 +11520,7 @@
         <v>85.333333333333329</v>
       </c>
       <c r="N67" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="70" spans="10:14" x14ac:dyDescent="0.2">
@@ -11535,22 +11549,22 @@
     </row>
     <row r="75" spans="10:14" x14ac:dyDescent="0.2">
       <c r="J75" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="76" spans="10:14" x14ac:dyDescent="0.2">
       <c r="J76" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="78" spans="10:14" x14ac:dyDescent="0.2">
       <c r="J78" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="79" spans="10:14" x14ac:dyDescent="0.2">
       <c r="J79" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -11806,7 +11820,7 @@
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C25" s="5">
         <f>-C19</f>
@@ -11821,7 +11835,7 @@
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C26" s="5">
         <f>C23</f>
@@ -11907,10 +11921,10 @@
   <sheetData>
     <row r="6" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
+        <v>226</v>
+      </c>
+      <c r="D6" t="s">
         <v>227</v>
-      </c>
-      <c r="D6" t="s">
-        <v>228</v>
       </c>
       <c r="E6">
         <v>139439</v>
@@ -11918,10 +11932,10 @@
     </row>
     <row r="7" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D7" t="s">
         <v>227</v>
-      </c>
-      <c r="D7" t="s">
-        <v>228</v>
       </c>
       <c r="E7">
         <v>139471</v>
@@ -11929,10 +11943,10 @@
     </row>
     <row r="8" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
+        <v>226</v>
+      </c>
+      <c r="D8" t="s">
         <v>227</v>
-      </c>
-      <c r="D8" t="s">
-        <v>228</v>
       </c>
       <c r="E8">
         <v>139341</v>
@@ -11940,10 +11954,10 @@
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
+        <v>226</v>
+      </c>
+      <c r="D9" t="s">
         <v>227</v>
-      </c>
-      <c r="D9" t="s">
-        <v>228</v>
       </c>
       <c r="E9">
         <v>139430</v>
@@ -11951,10 +11965,10 @@
     </row>
     <row r="10" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
+        <v>226</v>
+      </c>
+      <c r="D10" t="s">
         <v>227</v>
-      </c>
-      <c r="D10" t="s">
-        <v>228</v>
       </c>
       <c r="E10">
         <v>139415</v>
@@ -11962,10 +11976,10 @@
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
+        <v>226</v>
+      </c>
+      <c r="D11" t="s">
         <v>227</v>
-      </c>
-      <c r="D11" t="s">
-        <v>228</v>
       </c>
       <c r="E11">
         <v>139436</v>
@@ -11973,10 +11987,10 @@
     </row>
     <row r="12" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
+        <v>226</v>
+      </c>
+      <c r="D12" t="s">
         <v>227</v>
-      </c>
-      <c r="D12" t="s">
-        <v>228</v>
       </c>
       <c r="E12">
         <v>139456</v>
@@ -11984,10 +11998,10 @@
     </row>
     <row r="13" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
+        <v>226</v>
+      </c>
+      <c r="D13" t="s">
         <v>227</v>
-      </c>
-      <c r="D13" t="s">
-        <v>228</v>
       </c>
       <c r="E13">
         <v>139436</v>
@@ -11995,10 +12009,10 @@
     </row>
     <row r="14" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
+        <v>226</v>
+      </c>
+      <c r="D14" t="s">
         <v>227</v>
-      </c>
-      <c r="D14" t="s">
-        <v>228</v>
       </c>
       <c r="E14">
         <v>139461</v>
@@ -12006,10 +12020,10 @@
     </row>
     <row r="15" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
+        <v>226</v>
+      </c>
+      <c r="D15" t="s">
         <v>227</v>
-      </c>
-      <c r="D15" t="s">
-        <v>228</v>
       </c>
       <c r="E15">
         <v>139455</v>
@@ -12017,10 +12031,10 @@
     </row>
     <row r="16" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
+        <v>226</v>
+      </c>
+      <c r="D16" t="s">
         <v>227</v>
-      </c>
-      <c r="D16" t="s">
-        <v>228</v>
       </c>
       <c r="E16">
         <v>139435</v>
@@ -12028,10 +12042,10 @@
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
+        <v>226</v>
+      </c>
+      <c r="D17" t="s">
         <v>227</v>
-      </c>
-      <c r="D17" t="s">
-        <v>228</v>
       </c>
       <c r="E17">
         <v>139454</v>
@@ -12039,10 +12053,10 @@
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
+        <v>226</v>
+      </c>
+      <c r="D18" t="s">
         <v>227</v>
-      </c>
-      <c r="D18" t="s">
-        <v>228</v>
       </c>
       <c r="E18">
         <v>139432</v>
@@ -12050,10 +12064,10 @@
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
+        <v>226</v>
+      </c>
+      <c r="D19" t="s">
         <v>227</v>
-      </c>
-      <c r="D19" t="s">
-        <v>228</v>
       </c>
       <c r="E19">
         <v>139452</v>
@@ -12061,10 +12075,10 @@
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
+        <v>226</v>
+      </c>
+      <c r="D20" t="s">
         <v>227</v>
-      </c>
-      <c r="D20" t="s">
-        <v>228</v>
       </c>
       <c r="E20">
         <v>139444</v>
@@ -12072,10 +12086,10 @@
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
+        <v>226</v>
+      </c>
+      <c r="D21" t="s">
         <v>227</v>
-      </c>
-      <c r="D21" t="s">
-        <v>228</v>
       </c>
       <c r="E21">
         <v>139409</v>
@@ -12083,10 +12097,10 @@
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
+        <v>226</v>
+      </c>
+      <c r="D22" t="s">
         <v>227</v>
-      </c>
-      <c r="D22" t="s">
-        <v>228</v>
       </c>
       <c r="E22">
         <v>139463</v>
@@ -12094,10 +12108,10 @@
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
+        <v>226</v>
+      </c>
+      <c r="D23" t="s">
         <v>227</v>
-      </c>
-      <c r="D23" t="s">
-        <v>228</v>
       </c>
       <c r="E23">
         <v>139417</v>
@@ -12105,10 +12119,10 @@
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
+        <v>226</v>
+      </c>
+      <c r="D24" t="s">
         <v>227</v>
-      </c>
-      <c r="D24" t="s">
-        <v>228</v>
       </c>
       <c r="E24">
         <v>139439</v>
@@ -12116,10 +12130,10 @@
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
+        <v>226</v>
+      </c>
+      <c r="D25" t="s">
         <v>227</v>
-      </c>
-      <c r="D25" t="s">
-        <v>228</v>
       </c>
       <c r="E25">
         <v>139369</v>
@@ -12134,10 +12148,10 @@
     </row>
     <row r="28" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
+        <v>226</v>
+      </c>
+      <c r="D28" t="s">
         <v>227</v>
-      </c>
-      <c r="D28" t="s">
-        <v>228</v>
       </c>
       <c r="E28">
         <v>502546</v>
@@ -12145,10 +12159,10 @@
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
+        <v>226</v>
+      </c>
+      <c r="D29" t="s">
         <v>227</v>
-      </c>
-      <c r="D29" t="s">
-        <v>228</v>
       </c>
       <c r="E29">
         <v>502494</v>
@@ -12156,10 +12170,10 @@
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
+        <v>226</v>
+      </c>
+      <c r="D30" t="s">
         <v>227</v>
-      </c>
-      <c r="D30" t="s">
-        <v>228</v>
       </c>
       <c r="E30">
         <v>502548</v>
@@ -12167,10 +12181,10 @@
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
+        <v>226</v>
+      </c>
+      <c r="D31" t="s">
         <v>227</v>
-      </c>
-      <c r="D31" t="s">
-        <v>228</v>
       </c>
       <c r="E31">
         <v>502442</v>
@@ -12178,10 +12192,10 @@
     </row>
     <row r="32" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
+        <v>226</v>
+      </c>
+      <c r="D32" t="s">
         <v>227</v>
-      </c>
-      <c r="D32" t="s">
-        <v>228</v>
       </c>
       <c r="E32">
         <v>502516</v>
@@ -12189,10 +12203,10 @@
     </row>
     <row r="33" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
+        <v>226</v>
+      </c>
+      <c r="D33" t="s">
         <v>227</v>
-      </c>
-      <c r="D33" t="s">
-        <v>228</v>
       </c>
       <c r="E33">
         <v>502508</v>
@@ -12200,10 +12214,10 @@
     </row>
     <row r="34" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
+        <v>226</v>
+      </c>
+      <c r="D34" t="s">
         <v>227</v>
-      </c>
-      <c r="D34" t="s">
-        <v>228</v>
       </c>
       <c r="E34">
         <v>502500</v>
@@ -12211,10 +12225,10 @@
     </row>
     <row r="35" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
+        <v>226</v>
+      </c>
+      <c r="D35" t="s">
         <v>227</v>
-      </c>
-      <c r="D35" t="s">
-        <v>228</v>
       </c>
       <c r="E35">
         <v>502542</v>
@@ -12222,10 +12236,10 @@
     </row>
     <row r="36" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
+        <v>226</v>
+      </c>
+      <c r="D36" t="s">
         <v>227</v>
-      </c>
-      <c r="D36" t="s">
-        <v>228</v>
       </c>
       <c r="E36">
         <v>502523</v>
@@ -12233,10 +12247,10 @@
     </row>
     <row r="37" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
+        <v>226</v>
+      </c>
+      <c r="D37" t="s">
         <v>227</v>
-      </c>
-      <c r="D37" t="s">
-        <v>228</v>
       </c>
       <c r="E37">
         <v>502559</v>
@@ -12244,10 +12258,10 @@
     </row>
     <row r="38" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
+        <v>226</v>
+      </c>
+      <c r="D38" t="s">
         <v>227</v>
-      </c>
-      <c r="D38" t="s">
-        <v>228</v>
       </c>
       <c r="E38">
         <v>502555</v>
@@ -12255,10 +12269,10 @@
     </row>
     <row r="39" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
+        <v>226</v>
+      </c>
+      <c r="D39" t="s">
         <v>227</v>
-      </c>
-      <c r="D39" t="s">
-        <v>228</v>
       </c>
       <c r="E39">
         <v>502494</v>
@@ -12266,10 +12280,10 @@
     </row>
     <row r="40" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C40" t="s">
+        <v>226</v>
+      </c>
+      <c r="D40" t="s">
         <v>227</v>
-      </c>
-      <c r="D40" t="s">
-        <v>228</v>
       </c>
       <c r="E40">
         <v>502541</v>
@@ -12277,10 +12291,10 @@
     </row>
     <row r="41" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
+        <v>226</v>
+      </c>
+      <c r="D41" t="s">
         <v>227</v>
-      </c>
-      <c r="D41" t="s">
-        <v>228</v>
       </c>
       <c r="E41">
         <v>502520</v>
@@ -12288,10 +12302,10 @@
     </row>
     <row r="42" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C42" t="s">
+        <v>226</v>
+      </c>
+      <c r="D42" t="s">
         <v>227</v>
-      </c>
-      <c r="D42" t="s">
-        <v>228</v>
       </c>
       <c r="E42">
         <v>502450</v>
@@ -12299,10 +12313,10 @@
     </row>
     <row r="43" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C43" t="s">
+        <v>226</v>
+      </c>
+      <c r="D43" t="s">
         <v>227</v>
-      </c>
-      <c r="D43" t="s">
-        <v>228</v>
       </c>
       <c r="E43">
         <v>502461</v>
@@ -12310,10 +12324,10 @@
     </row>
     <row r="44" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
+        <v>226</v>
+      </c>
+      <c r="D44" t="s">
         <v>227</v>
-      </c>
-      <c r="D44" t="s">
-        <v>228</v>
       </c>
       <c r="E44">
         <v>502502</v>
@@ -12321,10 +12335,10 @@
     </row>
     <row r="45" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C45" t="s">
+        <v>226</v>
+      </c>
+      <c r="D45" t="s">
         <v>227</v>
-      </c>
-      <c r="D45" t="s">
-        <v>228</v>
       </c>
       <c r="E45">
         <v>502492</v>
@@ -12332,10 +12346,10 @@
     </row>
     <row r="46" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
+        <v>226</v>
+      </c>
+      <c r="D46" t="s">
         <v>227</v>
-      </c>
-      <c r="D46" t="s">
-        <v>228</v>
       </c>
       <c r="E46">
         <v>502460</v>
@@ -12343,10 +12357,10 @@
     </row>
     <row r="47" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C47" t="s">
+        <v>226</v>
+      </c>
+      <c r="D47" t="s">
         <v>227</v>
-      </c>
-      <c r="D47" t="s">
-        <v>228</v>
       </c>
       <c r="E47">
         <v>502500</v>
@@ -12354,10 +12368,10 @@
     </row>
     <row r="48" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C48" t="s">
+        <v>226</v>
+      </c>
+      <c r="D48" t="s">
         <v>227</v>
-      </c>
-      <c r="D48" t="s">
-        <v>228</v>
       </c>
       <c r="E48">
         <v>502515</v>
@@ -12367,15 +12381,15 @@
         <v>139432.70000000001</v>
       </c>
       <c r="I48" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="49" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C49" t="s">
+        <v>226</v>
+      </c>
+      <c r="D49" t="s">
         <v>227</v>
-      </c>
-      <c r="D49" t="s">
-        <v>228</v>
       </c>
       <c r="E49">
         <v>502523</v>
@@ -12392,7 +12406,7 @@
         <v>191.79925082841086</v>
       </c>
       <c r="I49" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="50" spans="3:9" x14ac:dyDescent="0.2">

--- a/EHD/weight-model.xlsx
+++ b/EHD/weight-model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mickos01/Desktop/MolecularKinetics/EHD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3136BE27-B2DF-B641-9916-F8B897B3EEC9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B88F9D6E-5050-5D4A-BF6C-EB91832E8F00}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="500" windowWidth="27240" windowHeight="16860" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="329">
   <si>
     <t>Coil form</t>
   </si>
@@ -576,9 +576,6 @@
     <t>2500mAh</t>
   </si>
   <si>
-    <t>battery 2X 16500</t>
-  </si>
-  <si>
     <t>mA</t>
   </si>
   <si>
@@ -1021,6 +1018,9 @@
   </si>
   <si>
     <t>dia bobbin</t>
+  </si>
+  <si>
+    <t>battery 4X 16350</t>
   </si>
 </sst>
 </file>
@@ -5019,7 +5019,7 @@
   <dimension ref="A2:Y119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5041,10 +5041,10 @@
         <v>1.1000000000000001E-11</v>
       </c>
       <c r="G2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="S2">
         <v>2</v>
@@ -5069,7 +5069,7 @@
         <v>1.5999999999999999E-6</v>
       </c>
       <c r="G3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H3" s="5">
         <f>F4*F3/F2</f>
@@ -5104,7 +5104,7 @@
         <v>1.25E-3</v>
       </c>
       <c r="G4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J4">
         <v>2.54</v>
@@ -5211,7 +5211,7 @@
         <v>165</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M7" s="9" t="s">
         <v>166</v>
@@ -5592,6 +5592,9 @@
       <c r="K14" s="7">
         <v>105</v>
       </c>
+      <c r="L14">
+        <v>71.599999999999994</v>
+      </c>
       <c r="M14">
         <f>M12/750</f>
         <v>0.54400000000000004</v>
@@ -5979,6 +5982,9 @@
       <c r="K32" s="9" t="s">
         <v>165</v>
       </c>
+      <c r="L32" s="9" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B33">
@@ -6007,6 +6013,9 @@
       </c>
       <c r="K33">
         <v>0.34799999999999998</v>
+      </c>
+      <c r="L33">
+        <v>0.56699999999999995</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.2">
@@ -6160,7 +6169,7 @@
         <v>10.591358206600455</v>
       </c>
       <c r="K46" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.2">
@@ -6288,17 +6297,17 @@
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B57">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="C57" t="s">
         <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>180</v>
+        <v>328</v>
       </c>
       <c r="G57" s="2">
         <f>B57</f>
-        <v>64</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.2">
@@ -6335,7 +6344,7 @@
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.2">
       <c r="I62" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.2">
@@ -6392,7 +6401,7 @@
         <v>7</v>
       </c>
       <c r="I66" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J66">
         <v>1.2</v>
@@ -6413,7 +6422,7 @@
         <v>131</v>
       </c>
       <c r="D67" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E67">
         <v>4</v>
@@ -6422,7 +6431,7 @@
         <v>0.7</v>
       </c>
       <c r="I67" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J67">
         <v>0.75</v>
@@ -6444,7 +6453,7 @@
         <v>18</v>
       </c>
       <c r="I68" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J68">
         <v>1</v>
@@ -6536,7 +6545,7 @@
         <v>26</v>
       </c>
       <c r="D79" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
@@ -6548,12 +6557,12 @@
         <v>48</v>
       </c>
       <c r="G80" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G81" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H81" s="29">
         <v>25</v>
@@ -6565,7 +6574,7 @@
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B82" s="2">
         <f>SUM(G55:G76)</f>
-        <v>502.44552796184155</v>
+        <v>529.44552796184155</v>
       </c>
       <c r="C82" t="s">
         <v>9</v>
@@ -6574,7 +6583,7 @@
         <v>31</v>
       </c>
       <c r="G82" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H82" s="29">
         <v>100</v>
@@ -6585,7 +6594,7 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G83" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H83" s="29">
         <v>1.6</v>
@@ -6597,13 +6606,13 @@
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B84" s="2">
         <f>B80/B82</f>
-        <v>0.32494130614462996</v>
+        <v>0.30837035634422416</v>
       </c>
       <c r="D84" t="s">
         <v>27</v>
       </c>
       <c r="G84" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H84" s="29">
         <v>60</v>
@@ -6614,13 +6623,13 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G85" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H85" s="29">
         <v>0.8</v>
       </c>
       <c r="I85" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
@@ -6635,19 +6644,19 @@
         <v>28</v>
       </c>
       <c r="G86" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H86" s="29">
         <v>75</v>
       </c>
       <c r="I86" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B88" s="1">
         <f>B82/B86</f>
-        <v>0.11165456176929812</v>
+        <v>0.11765456176929812</v>
       </c>
       <c r="C88" t="s">
         <v>29</v>
@@ -6659,7 +6668,7 @@
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B90" s="2">
         <f>B82/30</f>
-        <v>16.74818426539472</v>
+        <v>17.648184265394718</v>
       </c>
       <c r="C90" t="s">
         <v>49</v>
@@ -6677,7 +6686,7 @@
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B93" s="2">
         <f>B90/(B91/144)</f>
-        <v>3.4576827394118581</v>
+        <v>3.643488819411858</v>
       </c>
       <c r="C93" t="s">
         <v>51</v>
@@ -6687,16 +6696,16 @@
       </c>
       <c r="F93" s="2">
         <f>B93/16</f>
-        <v>0.21610517121324113</v>
+        <v>0.22771805121324112</v>
       </c>
       <c r="G93" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B94" s="4">
         <f>B90/(B91/144)^1.5</f>
-        <v>1.5710638936703698</v>
+        <v>1.6554884188545633</v>
       </c>
       <c r="C94" t="s">
         <v>52</v>
@@ -6775,7 +6784,7 @@
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C103" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.2">
@@ -6859,7 +6868,7 @@
         <v>45</v>
       </c>
       <c r="D116" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.2">
@@ -6877,7 +6886,7 @@
         <v>13.360715576296519</v>
       </c>
       <c r="C119" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -6900,7 +6909,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -6913,7 +6922,7 @@
         <v>131</v>
       </c>
       <c r="B3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -7364,7 +7373,7 @@
         <v>134</v>
       </c>
       <c r="P3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.2">
@@ -7412,7 +7421,7 @@
         <v>134</v>
       </c>
       <c r="P4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.2">
@@ -7491,7 +7500,7 @@
         <v>120</v>
       </c>
       <c r="N6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.2">
@@ -7625,15 +7634,15 @@
         <v>99</v>
       </c>
       <c r="M9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="N9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="N10" s="37" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O10" s="38"/>
       <c r="P10" s="39"/>
@@ -7680,7 +7689,7 @@
         <v>121</v>
       </c>
       <c r="N11" s="40" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O11" s="35">
         <v>3.5000000000000003E-2</v>
@@ -7696,7 +7705,7 @@
         <v>1.9E-2</v>
       </c>
       <c r="W11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.2">
@@ -7744,7 +7753,7 @@
         <v>122</v>
       </c>
       <c r="N12" s="42" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O12" s="36">
         <f>B12/2</f>
@@ -7756,37 +7765,37 @@
       </c>
       <c r="Q12" s="36"/>
       <c r="R12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="S12" t="s">
         <v>131</v>
       </c>
       <c r="T12" t="s">
+        <v>256</v>
+      </c>
+      <c r="U12" t="s">
         <v>257</v>
       </c>
-      <c r="U12" t="s">
-        <v>258</v>
-      </c>
       <c r="V12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="W12" t="s">
         <v>161</v>
       </c>
       <c r="X12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Y12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AB12" t="s">
         <v>84</v>
       </c>
       <c r="AE12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AF12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.2">
@@ -7834,7 +7843,7 @@
         <v>124</v>
       </c>
       <c r="N13" s="42" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O13" s="36">
         <f>O12*O11</f>
@@ -7989,7 +7998,7 @@
         <v>123</v>
       </c>
       <c r="N15" s="42" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O15" s="36">
         <f>2*O14</f>
@@ -8090,7 +8099,7 @@
         <v>81.081081081081081</v>
       </c>
       <c r="L16" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="N16" s="44"/>
       <c r="O16" s="45"/>
@@ -8259,7 +8268,7 @@
         <v>267</v>
       </c>
       <c r="L19" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="T19">
         <v>420</v>
@@ -8394,14 +8403,14 @@
         <v>130</v>
       </c>
       <c r="M22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R22" s="31"/>
       <c r="T22" s="17" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AA22" s="17" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="23" spans="2:30" x14ac:dyDescent="0.2">
@@ -8453,7 +8462,7 @@
         <v>300</v>
       </c>
       <c r="L24" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="R24" s="31"/>
       <c r="T24">
@@ -8504,7 +8513,7 @@
         <v>300</v>
       </c>
       <c r="L25" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="T25">
         <v>100</v>
@@ -8580,7 +8589,7 @@
         <v>0.03</v>
       </c>
       <c r="AA26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AB26">
         <v>1</v>
@@ -8589,7 +8598,7 @@
         <v>1</v>
       </c>
       <c r="AD26" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="27" spans="2:30" x14ac:dyDescent="0.2">
@@ -8637,7 +8646,7 @@
         <v>128</v>
       </c>
       <c r="O27" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="T27">
         <v>270</v>
@@ -8698,7 +8707,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="AA28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AB28">
         <v>3.2000000000000001E-2</v>
@@ -8774,7 +8783,7 @@
         <v>2.4696969696969697</v>
       </c>
       <c r="L30" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="R30" s="31"/>
       <c r="T30">
@@ -8801,7 +8810,7 @@
         <v>8.2000000000000003E-2</v>
       </c>
       <c r="AA31" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AB31">
         <f>(AB24-AB23)/2*AB25/100</f>
@@ -8866,7 +8875,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="AA32" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AB32" s="4">
         <f>PI() * (AB24-((AB24-AB23)/2)) /10 * AB31</f>
@@ -8925,7 +8934,7 @@
         <v>133</v>
       </c>
       <c r="M33" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AA33" t="s">
         <v>8</v>
@@ -8958,40 +8967,40 @@
     </row>
     <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C35" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D35" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E35" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F35" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G35" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H35" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I35" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J35" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K35" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="R35" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA35" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AB35" s="2">
         <f>((AB24-AB23) + (2*AB25)  + (2*AB29))/10* AB26</f>
@@ -9010,7 +9019,7 @@
         <v>165</v>
       </c>
       <c r="C36" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D36" t="s">
         <v>163</v>
@@ -9019,22 +9028,22 @@
         <v>165</v>
       </c>
       <c r="F36" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G36" t="s">
         <v>165</v>
       </c>
       <c r="H36" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I36" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J36" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K36" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="R36" t="s">
         <v>102</v>
@@ -9043,7 +9052,7 @@
         <v>1250000</v>
       </c>
       <c r="AA36" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AB36" s="5">
         <f xml:space="preserve"> PI() * (AB23-AB29)</f>
@@ -9059,13 +9068,13 @@
     </row>
     <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="R37" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="S37">
         <v>0.9</v>
       </c>
       <c r="AA37" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AB37" s="20">
         <f>(AB29*AB30)/AB36</f>
@@ -9078,16 +9087,16 @@
     </row>
     <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="D38" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="M38" s="17" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O38" s="2">
         <v>14.8</v>
       </c>
       <c r="AA38" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AB38" s="2">
         <f>AB30*AB35 /100</f>
@@ -9098,7 +9107,7 @@
         <v>2.9320800000000005</v>
       </c>
       <c r="AD38" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="39" spans="2:30" x14ac:dyDescent="0.2">
@@ -9107,21 +9116,21 @@
         <v>6</v>
       </c>
       <c r="N39" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O39" s="2"/>
       <c r="R39" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="S39" s="5">
         <f>3/(0.01*(1-S37))</f>
         <v>3000.0000000000005</v>
       </c>
       <c r="T39" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AA39" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB39" s="5">
         <f>AB38*100 / (2.54 * 12)</f>
@@ -9132,7 +9141,7 @@
         <v>9.6196850393700792</v>
       </c>
       <c r="AD39" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="40" spans="2:30" x14ac:dyDescent="0.2">
@@ -9140,24 +9149,24 @@
         <v>24</v>
       </c>
       <c r="N40" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O40" s="2">
         <f>(M40*M41)/(M39/2)</f>
         <v>32</v>
       </c>
       <c r="R40" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="S40" s="33">
         <f>(1.6*S37)/(S39*S36)</f>
         <v>3.8400000000000002E-10</v>
       </c>
       <c r="T40" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AA40" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AB40">
         <v>1.5</v>
@@ -9174,7 +9183,7 @@
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O41" s="2"/>
       <c r="AB41" s="5">
@@ -9194,11 +9203,11 @@
         <v>1</v>
       </c>
       <c r="N42" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O42" s="2"/>
       <c r="AA42" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AB42" s="5">
         <f>AB39*3</f>
@@ -9209,22 +9218,22 @@
         <v>28.859055118110238</v>
       </c>
       <c r="AD42" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="M43" t="s">
+        <v>290</v>
+      </c>
+      <c r="N43" t="s">
         <v>291</v>
-      </c>
-      <c r="N43" t="s">
-        <v>292</v>
       </c>
       <c r="O43" s="2">
         <f>O38*O40</f>
         <v>473.6</v>
       </c>
       <c r="R43" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="44" spans="2:30" x14ac:dyDescent="0.2">
@@ -9246,13 +9255,13 @@
         <v>1200000</v>
       </c>
       <c r="V44" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="W44">
         <v>5000</v>
       </c>
       <c r="X44" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AB44" s="4">
         <f>AB41*AB28</f>
@@ -9263,7 +9272,7 @@
         <v>1.6177374218750664</v>
       </c>
       <c r="AD44" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="45" spans="2:30" x14ac:dyDescent="0.2">
@@ -9281,19 +9290,19 @@
       </c>
       <c r="O45" s="2"/>
       <c r="R45" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="S45">
         <v>0.88</v>
       </c>
       <c r="V45" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="W45" s="19">
         <v>3.9E-10</v>
       </c>
       <c r="X45" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="46" spans="2:30" x14ac:dyDescent="0.2">
@@ -9307,14 +9316,14 @@
       </c>
       <c r="O46" s="2"/>
       <c r="V46" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="W46" s="2">
         <f>1-(300/W44)</f>
         <v>0.94</v>
       </c>
       <c r="X46" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="47" spans="2:30" x14ac:dyDescent="0.2">
@@ -9332,14 +9341,14 @@
       </c>
       <c r="O47" s="2"/>
       <c r="R47" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="S47" s="5">
         <f>3/(0.01*(1-S45))</f>
         <v>2500</v>
       </c>
       <c r="T47" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="V47" t="s">
         <v>102</v>
@@ -9356,7 +9365,7 @@
         <v>77.792553191489432</v>
       </c>
       <c r="Z47" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="48" spans="2:30" x14ac:dyDescent="0.2">
@@ -9374,21 +9383,21 @@
       </c>
       <c r="O48" s="2"/>
       <c r="R48" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="S48" s="33">
         <f>(1.6*S45)/(S47*S44)</f>
         <v>4.6933333333333337E-10</v>
       </c>
       <c r="T48" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="W48" s="5">
         <f>1/W47*1000000000</f>
         <v>1296.5425531914896</v>
       </c>
       <c r="X48" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="49" spans="12:26" x14ac:dyDescent="0.2">
@@ -9400,7 +9409,7 @@
         <v>11.5824</v>
       </c>
       <c r="N50" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O50" s="2"/>
     </row>
@@ -9410,70 +9419,70 @@
         <v>3.5051999999999999</v>
       </c>
       <c r="N51" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O51" s="2"/>
       <c r="R51" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="S51">
         <v>2500</v>
       </c>
       <c r="T51" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="V51" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="W51">
         <v>3500</v>
       </c>
       <c r="X51" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="52" spans="12:26" x14ac:dyDescent="0.2">
       <c r="O52" s="2"/>
       <c r="R52" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="S52" s="19">
         <v>4.7000000000000003E-10</v>
       </c>
       <c r="T52" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="V52" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="W52" s="19">
         <v>3.9E-10</v>
       </c>
       <c r="X52" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="53" spans="12:26" x14ac:dyDescent="0.2">
       <c r="O53" s="2"/>
       <c r="R53" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="S53" s="2">
         <f>1-(300/S51)</f>
         <v>0.88</v>
       </c>
       <c r="T53" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="V53" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="W53" s="2">
         <f>1-(300/W51)</f>
         <v>0.91428571428571426</v>
       </c>
       <c r="X53" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="54" spans="12:26" x14ac:dyDescent="0.2">
@@ -9506,7 +9515,7 @@
         <v>79.980468750000043</v>
       </c>
       <c r="Z54" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="55" spans="12:26" x14ac:dyDescent="0.2">
@@ -9519,7 +9528,7 @@
         <v>933.10546875000011</v>
       </c>
       <c r="X55" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="56" spans="12:26" x14ac:dyDescent="0.2">
@@ -9536,71 +9545,71 @@
       </c>
       <c r="O57" s="2"/>
       <c r="R57" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="S57">
         <v>2700</v>
       </c>
       <c r="T57" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="V57" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="W57">
         <v>3000</v>
       </c>
       <c r="X57" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="58" spans="12:26" x14ac:dyDescent="0.2">
       <c r="O58" s="2"/>
       <c r="R58" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="S58" s="19">
         <v>4.7000000000000003E-10</v>
       </c>
       <c r="T58" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="V58" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="W58" s="19">
         <v>3.9E-10</v>
       </c>
       <c r="X58" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="59" spans="12:26" x14ac:dyDescent="0.2">
       <c r="M59" s="17" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O59" s="2">
         <v>14.8</v>
       </c>
       <c r="R59" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="S59" s="2">
         <f>1-(300/S57)</f>
         <v>0.88888888888888884</v>
       </c>
       <c r="T59" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="V59" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="W59" s="2">
         <f>1-(300/W57)</f>
         <v>0.9</v>
       </c>
       <c r="X59" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="60" spans="12:26" x14ac:dyDescent="0.2">
@@ -9609,7 +9618,7 @@
         <v>6</v>
       </c>
       <c r="N60" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O60" s="2"/>
       <c r="R60" t="s">
@@ -9637,7 +9646,7 @@
         <v>81.249999999999957</v>
       </c>
       <c r="Z60" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="61" spans="12:26" x14ac:dyDescent="0.2">
@@ -9645,7 +9654,7 @@
         <v>16</v>
       </c>
       <c r="N61" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O61" s="2">
         <f>(M61*M62)/(M60/2)</f>
@@ -9656,7 +9665,7 @@
         <v>812.49999999999989</v>
       </c>
       <c r="X61" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="62" spans="12:26" x14ac:dyDescent="0.2">
@@ -9664,7 +9673,7 @@
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O62" s="2"/>
     </row>
@@ -9673,56 +9682,56 @@
         <v>1</v>
       </c>
       <c r="N63" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O63" s="2"/>
       <c r="R63" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="S63">
         <v>3000</v>
       </c>
       <c r="T63" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="V63" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="W63">
         <v>2500</v>
       </c>
       <c r="X63" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="64" spans="12:26" x14ac:dyDescent="0.2">
       <c r="M64" t="s">
+        <v>290</v>
+      </c>
+      <c r="N64" t="s">
         <v>291</v>
-      </c>
-      <c r="N64" t="s">
-        <v>292</v>
       </c>
       <c r="O64" s="2">
         <f>O59*O61</f>
         <v>394.66666666666669</v>
       </c>
       <c r="R64" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="S64" s="19">
         <v>4.7000000000000003E-10</v>
       </c>
       <c r="T64" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="V64" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="W64" s="19">
         <v>3.9E-10</v>
       </c>
       <c r="X64" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="65" spans="12:26" x14ac:dyDescent="0.2">
@@ -9738,24 +9747,24 @@
       </c>
       <c r="O65" s="2"/>
       <c r="R65" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="S65" s="2">
         <f>1-(300/S63)</f>
         <v>0.9</v>
       </c>
       <c r="T65" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="V65" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="W65" s="2">
         <f>1-(300/W63)</f>
         <v>0.88</v>
       </c>
       <c r="X65" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="66" spans="12:26" x14ac:dyDescent="0.2">
@@ -9797,7 +9806,7 @@
         <v>83.096590909090892</v>
       </c>
       <c r="Z66" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="67" spans="12:26" x14ac:dyDescent="0.2">
@@ -9815,7 +9824,7 @@
         <v>692.47159090909076</v>
       </c>
       <c r="X67" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="68" spans="12:26" x14ac:dyDescent="0.2">
@@ -9848,25 +9857,25 @@
       </c>
       <c r="O69" s="2"/>
       <c r="R69" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="S69">
         <v>2200</v>
       </c>
       <c r="T69" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="70" spans="12:26" x14ac:dyDescent="0.2">
       <c r="O70" s="2"/>
       <c r="R70" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="S70" s="19">
         <v>4.7000000000000003E-10</v>
       </c>
       <c r="T70" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="71" spans="12:26" x14ac:dyDescent="0.2">
@@ -9875,18 +9884,18 @@
         <v>7.3152000000000008</v>
       </c>
       <c r="N71" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O71" s="2"/>
       <c r="R71" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="S71" s="2">
         <f>1-(300/S69)</f>
         <v>0.86363636363636365</v>
       </c>
       <c r="T71" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="72" spans="12:26" x14ac:dyDescent="0.2">
@@ -9895,7 +9904,7 @@
         <v>3.3782000000000005</v>
       </c>
       <c r="N72" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O72" s="2"/>
       <c r="R72" t="s">
@@ -9913,7 +9922,7 @@
         <v>102.03947368421052</v>
       </c>
       <c r="V72" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="74" spans="12:26" x14ac:dyDescent="0.2">
@@ -9927,7 +9936,7 @@
         <v>0.70699999999999996</v>
       </c>
       <c r="N75" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="76" spans="12:26" x14ac:dyDescent="0.2">
@@ -9935,7 +9944,7 @@
         <v>0.42699999999999999</v>
       </c>
       <c r="N76" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="77" spans="12:26" x14ac:dyDescent="0.2">
@@ -9944,7 +9953,7 @@
         <v>0.27999999999999997</v>
       </c>
       <c r="N77" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="78" spans="12:26" x14ac:dyDescent="0.2">
@@ -9953,12 +9962,12 @@
         <v>0.13999999999999999</v>
       </c>
       <c r="N78" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="81" spans="11:14" x14ac:dyDescent="0.2">
       <c r="M81" s="17" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="83" spans="11:14" x14ac:dyDescent="0.2">
@@ -9967,7 +9976,7 @@
         <v>625000</v>
       </c>
       <c r="N83" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="84" spans="11:14" x14ac:dyDescent="0.2">
@@ -9975,7 +9984,7 @@
         <v>15</v>
       </c>
       <c r="N84" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="85" spans="11:14" x14ac:dyDescent="0.2">
@@ -9992,7 +10001,7 @@
         <v>3926990.8169872416</v>
       </c>
       <c r="N86" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="87" spans="11:14" x14ac:dyDescent="0.2">
@@ -10010,7 +10019,7 @@
         <v>1.767145867644259E-2</v>
       </c>
       <c r="N88" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="89" spans="11:14" x14ac:dyDescent="0.2">
@@ -10019,7 +10028,7 @@
         <v>5.3014376029327774</v>
       </c>
       <c r="N89" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="92" spans="11:14" x14ac:dyDescent="0.2">
@@ -10120,7 +10129,7 @@
         <v>90.022505626406598</v>
       </c>
       <c r="L105" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="106" spans="11:12" x14ac:dyDescent="0.2">
@@ -10137,7 +10146,7 @@
         <v>250</v>
       </c>
       <c r="L108" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="110" spans="11:12" x14ac:dyDescent="0.2">
@@ -10163,7 +10172,7 @@
         <v>300</v>
       </c>
       <c r="L113" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="114" spans="11:12" x14ac:dyDescent="0.2">
@@ -10171,7 +10180,7 @@
         <v>300</v>
       </c>
       <c r="L114" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="115" spans="11:12" x14ac:dyDescent="0.2">
@@ -10207,7 +10216,7 @@
         <v>2.4696969696969697</v>
       </c>
       <c r="L119" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="121" spans="11:12" x14ac:dyDescent="0.2">
@@ -10270,29 +10279,29 @@
     </row>
     <row r="5" spans="3:11" x14ac:dyDescent="0.2">
       <c r="H5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="3:11" ht="19" x14ac:dyDescent="0.25">
       <c r="C7" s="24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D7" s="24">
         <v>30</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H7">
         <v>30</v>
@@ -10303,7 +10312,7 @@
     </row>
     <row r="8" spans="3:11" ht="19" x14ac:dyDescent="0.25">
       <c r="C8" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D8" s="24">
         <v>0.30099999999999999</v>
@@ -10320,7 +10329,7 @@
     </row>
     <row r="9" spans="3:11" ht="19" x14ac:dyDescent="0.25">
       <c r="C9" s="26" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D9" s="26">
         <v>21</v>
@@ -10338,7 +10347,7 @@
     </row>
     <row r="10" spans="3:11" ht="19" x14ac:dyDescent="0.25">
       <c r="C10" s="26" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D10" s="26">
         <v>2.5000000000000001E-2</v>
@@ -10357,7 +10366,7 @@
         <v>4</v>
       </c>
       <c r="K10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="3:11" ht="19" x14ac:dyDescent="0.25">
@@ -10369,25 +10378,25 @@
         <v>87.110734542640927</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="3:11" ht="19" x14ac:dyDescent="0.25">
       <c r="C12" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D12" s="28">
         <f>D11*D10*LOG(D9/D10,2.718)</f>
         <v>14.665310181214844</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H12">
         <v>0.1</v>
@@ -10400,12 +10409,12 @@
         <v>2000</v>
       </c>
       <c r="K12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H14" t="s">
         <v>121</v>
@@ -10413,13 +10422,13 @@
     </row>
     <row r="15" spans="3:11" ht="19" x14ac:dyDescent="0.25">
       <c r="C15" s="24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D15" s="24">
         <v>30</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H15">
         <f>H12*H9</f>
@@ -10433,12 +10442,12 @@
         <v>40</v>
       </c>
       <c r="K15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="3:11" ht="19" x14ac:dyDescent="0.25">
       <c r="C16" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D16" s="24">
         <v>0.30099999999999999</v>
@@ -10449,7 +10458,7 @@
     </row>
     <row r="17" spans="3:10" ht="19" x14ac:dyDescent="0.25">
       <c r="C17" s="26" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D17" s="26">
         <v>21</v>
@@ -10460,7 +10469,7 @@
     </row>
     <row r="18" spans="3:10" ht="19" x14ac:dyDescent="0.25">
       <c r="C18" s="26" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D18" s="26">
         <v>0.6</v>
@@ -10478,71 +10487,71 @@
         <v>41.657679872084323</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="3:10" ht="19" x14ac:dyDescent="0.25">
       <c r="C20" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D20" s="28">
         <f>D19*D18*LOG(D17/D18,2.718)</f>
         <v>88.87374563714863</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I20" s="4">
         <f>D12*2</f>
         <v>29.330620362429688</v>
       </c>
       <c r="J20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="3:10" x14ac:dyDescent="0.2">
       <c r="H21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I21" s="4">
         <f>D28</f>
         <v>205.59078000666895</v>
       </c>
       <c r="J21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I22">
         <v>4</v>
       </c>
       <c r="J22" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="3:10" ht="19" x14ac:dyDescent="0.25">
       <c r="C23" s="24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D23" s="24">
         <v>30</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24" spans="3:10" ht="19" x14ac:dyDescent="0.25">
       <c r="C24" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D24" s="24">
         <v>0.30099999999999999</v>
@@ -10553,7 +10562,7 @@
     </row>
     <row r="25" spans="3:10" ht="19" x14ac:dyDescent="0.25">
       <c r="C25" s="26" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D25" s="26">
         <v>25</v>
@@ -10562,7 +10571,7 @@
         <v>131</v>
       </c>
       <c r="H25" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I25" t="s">
         <v>145</v>
@@ -10570,7 +10579,7 @@
     </row>
     <row r="26" spans="3:10" ht="19" x14ac:dyDescent="0.25">
       <c r="C26" s="26" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D26" s="26">
         <v>2.5</v>
@@ -10579,7 +10588,7 @@
         <v>131</v>
       </c>
       <c r="H26" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I26">
         <v>0.127</v>
@@ -10594,10 +10603,10 @@
         <v>35.711073454264096</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H27" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I27">
         <v>0.25459999999999999</v>
@@ -10605,17 +10614,17 @@
     </row>
     <row r="28" spans="3:10" ht="19" x14ac:dyDescent="0.25">
       <c r="C28" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D28" s="28">
         <f>D27*D26*LOG(D25/D26,2.718)</f>
         <v>205.59078000666895</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H28" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I28">
         <v>0.3211</v>
@@ -10631,7 +10640,7 @@
     </row>
     <row r="30" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H30" t="s">
         <v>169</v>
@@ -10642,16 +10651,16 @@
     </row>
     <row r="31" spans="3:10" ht="19" x14ac:dyDescent="0.25">
       <c r="C31" s="24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D31" s="24">
         <v>30</v>
       </c>
       <c r="E31" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I31">
         <v>0.64380000000000004</v>
@@ -10659,7 +10668,7 @@
     </row>
     <row r="32" spans="3:10" ht="19" x14ac:dyDescent="0.25">
       <c r="C32" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D32" s="24">
         <v>0.30099999999999999</v>
@@ -10670,7 +10679,7 @@
     </row>
     <row r="33" spans="3:22" ht="19" x14ac:dyDescent="0.25">
       <c r="C33" s="26" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D33" s="26">
         <v>25</v>
@@ -10679,7 +10688,7 @@
         <v>131</v>
       </c>
       <c r="J33" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K33">
         <v>10</v>
@@ -10720,7 +10729,7 @@
     </row>
     <row r="34" spans="3:22" ht="19" x14ac:dyDescent="0.25">
       <c r="C34" s="26" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D34" s="26">
         <v>5</v>
@@ -10729,7 +10738,7 @@
         <v>131</v>
       </c>
       <c r="J34" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K34">
         <f t="shared" ref="K34:V34" si="0">K39-K40</f>
@@ -10789,10 +10798,10 @@
         <v>34.038338767364621</v>
       </c>
       <c r="E35" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K35" s="4">
         <f t="shared" ref="K35:V35" si="1">$D$12</f>
@@ -10845,17 +10854,17 @@
     </row>
     <row r="36" spans="3:22" ht="19" x14ac:dyDescent="0.25">
       <c r="C36" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D36" s="28">
         <f>D35*D34*LOG(D33/D34,2.718)</f>
         <v>273.94136785339589</v>
       </c>
       <c r="E36" s="25" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J36" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K36" s="4">
         <f t="shared" ref="K36:V36" si="2">$D$20</f>
@@ -10908,7 +10917,7 @@
     </row>
     <row r="37" spans="3:22" x14ac:dyDescent="0.2">
       <c r="J37" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K37">
         <v>21</v>
@@ -10949,10 +10958,10 @@
     </row>
     <row r="38" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K38">
         <v>1</v>
@@ -10993,16 +11002,16 @@
     </row>
     <row r="39" spans="3:22" ht="19" x14ac:dyDescent="0.25">
       <c r="C39" s="24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D39" s="24">
         <v>30</v>
       </c>
       <c r="E39" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J39" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K39">
         <f t="shared" ref="K39:V39" si="3">MAX(0, (K$38*K$33*(K$33-K35))/K$37)</f>
@@ -11055,7 +11064,7 @@
     </row>
     <row r="40" spans="3:22" ht="19" x14ac:dyDescent="0.25">
       <c r="C40" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D40" s="24">
         <v>0.30099999999999999</v>
@@ -11064,7 +11073,7 @@
         <v>131</v>
       </c>
       <c r="J40" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K40">
         <f t="shared" ref="K40:V40" si="4">MAX(0, (K$38*K$33*(K$33-K36))/K$37)</f>
@@ -11117,7 +11126,7 @@
     </row>
     <row r="41" spans="3:22" ht="19" x14ac:dyDescent="0.25">
       <c r="C41" s="26" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D41" s="26">
         <v>25</v>
@@ -11128,7 +11137,7 @@
     </row>
     <row r="42" spans="3:22" ht="19" x14ac:dyDescent="0.25">
       <c r="C42" s="26" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D42" s="26">
         <v>1</v>
@@ -11137,7 +11146,7 @@
         <v>131</v>
       </c>
       <c r="J42" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="43" spans="3:22" ht="19" x14ac:dyDescent="0.25">
@@ -11149,13 +11158,13 @@
         <v>39.03</v>
       </c>
       <c r="E43" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I43" s="29" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J43" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K43">
         <v>10</v>
@@ -11196,17 +11205,17 @@
     </row>
     <row r="44" spans="3:22" ht="19" x14ac:dyDescent="0.25">
       <c r="C44" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D44" s="28">
         <f>D43*D42*LOG(D41/D42,2.718)</f>
         <v>125.64575093270162</v>
       </c>
       <c r="E44" s="25" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J44" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K44" s="2">
         <f>K45/K43*K47</f>
@@ -11256,7 +11265,7 @@
         <v>1.4</v>
       </c>
       <c r="J45" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K45" s="2">
         <f t="shared" ref="K45:V45" si="6">K46*$I45</f>
@@ -11309,7 +11318,7 @@
     </row>
     <row r="46" spans="3:22" x14ac:dyDescent="0.2">
       <c r="J46" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K46">
         <v>0</v>
@@ -11350,10 +11359,10 @@
     </row>
     <row r="47" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C47" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J47" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K47">
         <v>0</v>
@@ -11394,13 +11403,13 @@
     </row>
     <row r="48" spans="3:22" ht="19" x14ac:dyDescent="0.25">
       <c r="C48" s="24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D48" s="24">
         <v>30</v>
       </c>
       <c r="E48" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K48" s="4">
         <f>K43*10/12</f>
@@ -11453,7 +11462,7 @@
     </row>
     <row r="49" spans="3:5" ht="19" x14ac:dyDescent="0.25">
       <c r="C49" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D49" s="24">
         <v>0.30099999999999999</v>
@@ -11464,7 +11473,7 @@
     </row>
     <row r="50" spans="3:5" ht="19" x14ac:dyDescent="0.25">
       <c r="C50" s="26" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D50" s="26">
         <v>3.7</v>
@@ -11475,7 +11484,7 @@
     </row>
     <row r="51" spans="3:5" ht="19" x14ac:dyDescent="0.25">
       <c r="C51" s="26" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D51" s="26">
         <v>0.6</v>
@@ -11493,19 +11502,19 @@
         <v>41.657679872084323</v>
       </c>
       <c r="E52" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="53" spans="3:5" ht="19" x14ac:dyDescent="0.25">
       <c r="C53" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D53" s="28">
         <f>D52*D51*LOG(D50/D51,2.718)</f>
         <v>45.473866968206337</v>
       </c>
       <c r="E53" s="25" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="67" spans="10:14" x14ac:dyDescent="0.2">
@@ -11520,7 +11529,7 @@
         <v>85.333333333333329</v>
       </c>
       <c r="N67" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="70" spans="10:14" x14ac:dyDescent="0.2">
@@ -11549,22 +11558,22 @@
     </row>
     <row r="75" spans="10:14" x14ac:dyDescent="0.2">
       <c r="J75" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="76" spans="10:14" x14ac:dyDescent="0.2">
       <c r="J76" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="78" spans="10:14" x14ac:dyDescent="0.2">
       <c r="J78" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="79" spans="10:14" x14ac:dyDescent="0.2">
       <c r="J79" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -11820,7 +11829,7 @@
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C25" s="5">
         <f>-C19</f>
@@ -11835,7 +11844,7 @@
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C26" s="5">
         <f>C23</f>
@@ -11921,10 +11930,10 @@
   <sheetData>
     <row r="6" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
+        <v>225</v>
+      </c>
+      <c r="D6" t="s">
         <v>226</v>
-      </c>
-      <c r="D6" t="s">
-        <v>227</v>
       </c>
       <c r="E6">
         <v>139439</v>
@@ -11932,10 +11941,10 @@
     </row>
     <row r="7" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
+        <v>225</v>
+      </c>
+      <c r="D7" t="s">
         <v>226</v>
-      </c>
-      <c r="D7" t="s">
-        <v>227</v>
       </c>
       <c r="E7">
         <v>139471</v>
@@ -11943,10 +11952,10 @@
     </row>
     <row r="8" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
+        <v>225</v>
+      </c>
+      <c r="D8" t="s">
         <v>226</v>
-      </c>
-      <c r="D8" t="s">
-        <v>227</v>
       </c>
       <c r="E8">
         <v>139341</v>
@@ -11954,10 +11963,10 @@
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
+        <v>225</v>
+      </c>
+      <c r="D9" t="s">
         <v>226</v>
-      </c>
-      <c r="D9" t="s">
-        <v>227</v>
       </c>
       <c r="E9">
         <v>139430</v>
@@ -11965,10 +11974,10 @@
     </row>
     <row r="10" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
+        <v>225</v>
+      </c>
+      <c r="D10" t="s">
         <v>226</v>
-      </c>
-      <c r="D10" t="s">
-        <v>227</v>
       </c>
       <c r="E10">
         <v>139415</v>
@@ -11976,10 +11985,10 @@
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
+        <v>225</v>
+      </c>
+      <c r="D11" t="s">
         <v>226</v>
-      </c>
-      <c r="D11" t="s">
-        <v>227</v>
       </c>
       <c r="E11">
         <v>139436</v>
@@ -11987,10 +11996,10 @@
     </row>
     <row r="12" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
+        <v>225</v>
+      </c>
+      <c r="D12" t="s">
         <v>226</v>
-      </c>
-      <c r="D12" t="s">
-        <v>227</v>
       </c>
       <c r="E12">
         <v>139456</v>
@@ -11998,10 +12007,10 @@
     </row>
     <row r="13" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
+        <v>225</v>
+      </c>
+      <c r="D13" t="s">
         <v>226</v>
-      </c>
-      <c r="D13" t="s">
-        <v>227</v>
       </c>
       <c r="E13">
         <v>139436</v>
@@ -12009,10 +12018,10 @@
     </row>
     <row r="14" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
+        <v>225</v>
+      </c>
+      <c r="D14" t="s">
         <v>226</v>
-      </c>
-      <c r="D14" t="s">
-        <v>227</v>
       </c>
       <c r="E14">
         <v>139461</v>
@@ -12020,10 +12029,10 @@
     </row>
     <row r="15" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
+        <v>225</v>
+      </c>
+      <c r="D15" t="s">
         <v>226</v>
-      </c>
-      <c r="D15" t="s">
-        <v>227</v>
       </c>
       <c r="E15">
         <v>139455</v>
@@ -12031,10 +12040,10 @@
     </row>
     <row r="16" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
+        <v>225</v>
+      </c>
+      <c r="D16" t="s">
         <v>226</v>
-      </c>
-      <c r="D16" t="s">
-        <v>227</v>
       </c>
       <c r="E16">
         <v>139435</v>
@@ -12042,10 +12051,10 @@
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
+        <v>225</v>
+      </c>
+      <c r="D17" t="s">
         <v>226</v>
-      </c>
-      <c r="D17" t="s">
-        <v>227</v>
       </c>
       <c r="E17">
         <v>139454</v>
@@ -12053,10 +12062,10 @@
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
+        <v>225</v>
+      </c>
+      <c r="D18" t="s">
         <v>226</v>
-      </c>
-      <c r="D18" t="s">
-        <v>227</v>
       </c>
       <c r="E18">
         <v>139432</v>
@@ -12064,10 +12073,10 @@
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
+        <v>225</v>
+      </c>
+      <c r="D19" t="s">
         <v>226</v>
-      </c>
-      <c r="D19" t="s">
-        <v>227</v>
       </c>
       <c r="E19">
         <v>139452</v>
@@ -12075,10 +12084,10 @@
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
+        <v>225</v>
+      </c>
+      <c r="D20" t="s">
         <v>226</v>
-      </c>
-      <c r="D20" t="s">
-        <v>227</v>
       </c>
       <c r="E20">
         <v>139444</v>
@@ -12086,10 +12095,10 @@
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
+        <v>225</v>
+      </c>
+      <c r="D21" t="s">
         <v>226</v>
-      </c>
-      <c r="D21" t="s">
-        <v>227</v>
       </c>
       <c r="E21">
         <v>139409</v>
@@ -12097,10 +12106,10 @@
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
+        <v>225</v>
+      </c>
+      <c r="D22" t="s">
         <v>226</v>
-      </c>
-      <c r="D22" t="s">
-        <v>227</v>
       </c>
       <c r="E22">
         <v>139463</v>
@@ -12108,10 +12117,10 @@
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
+        <v>225</v>
+      </c>
+      <c r="D23" t="s">
         <v>226</v>
-      </c>
-      <c r="D23" t="s">
-        <v>227</v>
       </c>
       <c r="E23">
         <v>139417</v>
@@ -12119,10 +12128,10 @@
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D24" t="s">
         <v>226</v>
-      </c>
-      <c r="D24" t="s">
-        <v>227</v>
       </c>
       <c r="E24">
         <v>139439</v>
@@ -12130,10 +12139,10 @@
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
+        <v>225</v>
+      </c>
+      <c r="D25" t="s">
         <v>226</v>
-      </c>
-      <c r="D25" t="s">
-        <v>227</v>
       </c>
       <c r="E25">
         <v>139369</v>
@@ -12148,10 +12157,10 @@
     </row>
     <row r="28" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
+        <v>225</v>
+      </c>
+      <c r="D28" t="s">
         <v>226</v>
-      </c>
-      <c r="D28" t="s">
-        <v>227</v>
       </c>
       <c r="E28">
         <v>502546</v>
@@ -12159,10 +12168,10 @@
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
+        <v>225</v>
+      </c>
+      <c r="D29" t="s">
         <v>226</v>
-      </c>
-      <c r="D29" t="s">
-        <v>227</v>
       </c>
       <c r="E29">
         <v>502494</v>
@@ -12170,10 +12179,10 @@
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
+        <v>225</v>
+      </c>
+      <c r="D30" t="s">
         <v>226</v>
-      </c>
-      <c r="D30" t="s">
-        <v>227</v>
       </c>
       <c r="E30">
         <v>502548</v>
@@ -12181,10 +12190,10 @@
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
+        <v>225</v>
+      </c>
+      <c r="D31" t="s">
         <v>226</v>
-      </c>
-      <c r="D31" t="s">
-        <v>227</v>
       </c>
       <c r="E31">
         <v>502442</v>
@@ -12192,10 +12201,10 @@
     </row>
     <row r="32" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
+        <v>225</v>
+      </c>
+      <c r="D32" t="s">
         <v>226</v>
-      </c>
-      <c r="D32" t="s">
-        <v>227</v>
       </c>
       <c r="E32">
         <v>502516</v>
@@ -12203,10 +12212,10 @@
     </row>
     <row r="33" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
+        <v>225</v>
+      </c>
+      <c r="D33" t="s">
         <v>226</v>
-      </c>
-      <c r="D33" t="s">
-        <v>227</v>
       </c>
       <c r="E33">
         <v>502508</v>
@@ -12214,10 +12223,10 @@
     </row>
     <row r="34" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
+        <v>225</v>
+      </c>
+      <c r="D34" t="s">
         <v>226</v>
-      </c>
-      <c r="D34" t="s">
-        <v>227</v>
       </c>
       <c r="E34">
         <v>502500</v>
@@ -12225,10 +12234,10 @@
     </row>
     <row r="35" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
+        <v>225</v>
+      </c>
+      <c r="D35" t="s">
         <v>226</v>
-      </c>
-      <c r="D35" t="s">
-        <v>227</v>
       </c>
       <c r="E35">
         <v>502542</v>
@@ -12236,10 +12245,10 @@
     </row>
     <row r="36" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
+        <v>225</v>
+      </c>
+      <c r="D36" t="s">
         <v>226</v>
-      </c>
-      <c r="D36" t="s">
-        <v>227</v>
       </c>
       <c r="E36">
         <v>502523</v>
@@ -12247,10 +12256,10 @@
     </row>
     <row r="37" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
+        <v>225</v>
+      </c>
+      <c r="D37" t="s">
         <v>226</v>
-      </c>
-      <c r="D37" t="s">
-        <v>227</v>
       </c>
       <c r="E37">
         <v>502559</v>
@@ -12258,10 +12267,10 @@
     </row>
     <row r="38" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
+        <v>225</v>
+      </c>
+      <c r="D38" t="s">
         <v>226</v>
-      </c>
-      <c r="D38" t="s">
-        <v>227</v>
       </c>
       <c r="E38">
         <v>502555</v>
@@ -12269,10 +12278,10 @@
     </row>
     <row r="39" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
+        <v>225</v>
+      </c>
+      <c r="D39" t="s">
         <v>226</v>
-      </c>
-      <c r="D39" t="s">
-        <v>227</v>
       </c>
       <c r="E39">
         <v>502494</v>
@@ -12280,10 +12289,10 @@
     </row>
     <row r="40" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C40" t="s">
+        <v>225</v>
+      </c>
+      <c r="D40" t="s">
         <v>226</v>
-      </c>
-      <c r="D40" t="s">
-        <v>227</v>
       </c>
       <c r="E40">
         <v>502541</v>
@@ -12291,10 +12300,10 @@
     </row>
     <row r="41" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
+        <v>225</v>
+      </c>
+      <c r="D41" t="s">
         <v>226</v>
-      </c>
-      <c r="D41" t="s">
-        <v>227</v>
       </c>
       <c r="E41">
         <v>502520</v>
@@ -12302,10 +12311,10 @@
     </row>
     <row r="42" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C42" t="s">
+        <v>225</v>
+      </c>
+      <c r="D42" t="s">
         <v>226</v>
-      </c>
-      <c r="D42" t="s">
-        <v>227</v>
       </c>
       <c r="E42">
         <v>502450</v>
@@ -12313,10 +12322,10 @@
     </row>
     <row r="43" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C43" t="s">
+        <v>225</v>
+      </c>
+      <c r="D43" t="s">
         <v>226</v>
-      </c>
-      <c r="D43" t="s">
-        <v>227</v>
       </c>
       <c r="E43">
         <v>502461</v>
@@ -12324,10 +12333,10 @@
     </row>
     <row r="44" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
+        <v>225</v>
+      </c>
+      <c r="D44" t="s">
         <v>226</v>
-      </c>
-      <c r="D44" t="s">
-        <v>227</v>
       </c>
       <c r="E44">
         <v>502502</v>
@@ -12335,10 +12344,10 @@
     </row>
     <row r="45" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C45" t="s">
+        <v>225</v>
+      </c>
+      <c r="D45" t="s">
         <v>226</v>
-      </c>
-      <c r="D45" t="s">
-        <v>227</v>
       </c>
       <c r="E45">
         <v>502492</v>
@@ -12346,10 +12355,10 @@
     </row>
     <row r="46" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
+        <v>225</v>
+      </c>
+      <c r="D46" t="s">
         <v>226</v>
-      </c>
-      <c r="D46" t="s">
-        <v>227</v>
       </c>
       <c r="E46">
         <v>502460</v>
@@ -12357,10 +12366,10 @@
     </row>
     <row r="47" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C47" t="s">
+        <v>225</v>
+      </c>
+      <c r="D47" t="s">
         <v>226</v>
-      </c>
-      <c r="D47" t="s">
-        <v>227</v>
       </c>
       <c r="E47">
         <v>502500</v>
@@ -12368,10 +12377,10 @@
     </row>
     <row r="48" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C48" t="s">
+        <v>225</v>
+      </c>
+      <c r="D48" t="s">
         <v>226</v>
-      </c>
-      <c r="D48" t="s">
-        <v>227</v>
       </c>
       <c r="E48">
         <v>502515</v>
@@ -12381,15 +12390,15 @@
         <v>139432.70000000001</v>
       </c>
       <c r="I48" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="49" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C49" t="s">
+        <v>225</v>
+      </c>
+      <c r="D49" t="s">
         <v>226</v>
-      </c>
-      <c r="D49" t="s">
-        <v>227</v>
       </c>
       <c r="E49">
         <v>502523</v>
@@ -12406,7 +12415,7 @@
         <v>191.79925082841086</v>
       </c>
       <c r="I49" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="50" spans="3:9" x14ac:dyDescent="0.2">

--- a/EHD/weight-model.xlsx
+++ b/EHD/weight-model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mickos01/Desktop/MolecularKinetics/EHD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B88F9D6E-5050-5D4A-BF6C-EB91832E8F00}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8DEBAE1-9DF9-1342-8988-8CF51C9E3DAA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="500" windowWidth="27240" windowHeight="16860" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1100" yWindow="500" windowWidth="27240" windowHeight="16860" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Thrust and Weight" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="328">
   <si>
     <t>Coil form</t>
   </si>
@@ -978,12 +978,6 @@
     <t>pf capacitance</t>
   </si>
   <si>
-    <t>1050/46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2*420/46 </t>
-  </si>
-  <si>
     <t>66/46</t>
   </si>
   <si>
@@ -996,9 +990,6 @@
     <t>Toroids</t>
   </si>
   <si>
-    <t>Measurements on actual sizes</t>
-  </si>
-  <si>
     <t>Ae cm^2</t>
   </si>
   <si>
@@ -1021,6 +1012,12 @@
   </si>
   <si>
     <t>battery 4X 16350</t>
+  </si>
+  <si>
+    <t>Measurements of actual sizes</t>
+  </si>
+  <si>
+    <t>(60/46) 80</t>
   </si>
 </sst>
 </file>
@@ -1034,7 +1031,7 @@
     <numFmt numFmtId="167" formatCode="0.0E+00"/>
     <numFmt numFmtId="168" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1123,16 +1120,8 @@
       <name val="Helvetica"/>
       <family val="2"/>
     </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1148,6 +1137,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1289,7 +1284,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1360,8 +1355,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="14"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -5018,8 +5016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:Y119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5211,7 +5209,7 @@
         <v>165</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="M7" s="9" t="s">
         <v>166</v>
@@ -5675,6 +5673,9 @@
       <c r="K16" s="7">
         <v>121.5</v>
       </c>
+      <c r="L16" t="s">
+        <v>327</v>
+      </c>
       <c r="M16" s="2">
         <f>PI()*(M10/2)^2</f>
         <v>0.63617251235193317</v>
@@ -5718,7 +5719,7 @@
       <c r="D17" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="49" t="s">
+      <c r="E17" s="48" t="s">
         <v>61</v>
       </c>
       <c r="M17" s="4">
@@ -5983,7 +5984,7 @@
         <v>165</v>
       </c>
       <c r="L32" s="9" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.2">
@@ -6303,7 +6304,7 @@
         <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G57" s="2">
         <f>B57</f>
@@ -7307,8 +7308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:AG125"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M117" sqref="M117"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7330,34 +7331,34 @@
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B3">
-        <v>11.1</v>
+        <v>10</v>
       </c>
       <c r="C3">
+        <v>13.3</v>
+      </c>
+      <c r="D3" s="49">
+        <v>13.3</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>13.3</v>
+      </c>
+      <c r="H3" s="49">
+        <v>13.3</v>
+      </c>
+      <c r="I3">
+        <v>13.3</v>
+      </c>
+      <c r="J3" s="49">
         <v>14.8</v>
       </c>
-      <c r="D3">
-        <v>14.8</v>
-      </c>
-      <c r="E3">
-        <v>11.1</v>
-      </c>
-      <c r="F3">
-        <v>11.1</v>
-      </c>
-      <c r="G3">
-        <v>14.8</v>
-      </c>
-      <c r="H3">
-        <v>14.8</v>
-      </c>
-      <c r="I3">
-        <v>14.8</v>
-      </c>
-      <c r="J3">
-        <v>14.8</v>
-      </c>
       <c r="K3">
-        <v>14.8</v>
+        <v>13.3</v>
       </c>
       <c r="L3" t="s">
         <v>100</v>
@@ -7367,7 +7368,7 @@
       </c>
       <c r="N3">
         <f>B3*2</f>
-        <v>22.2</v>
+        <v>20</v>
       </c>
       <c r="O3" t="s">
         <v>134</v>
@@ -7383,7 +7384,7 @@
       <c r="C4">
         <v>0.49</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="49">
         <v>0.49</v>
       </c>
       <c r="E4">
@@ -7395,13 +7396,13 @@
       <c r="G4">
         <v>0.626</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="49">
         <v>0.626</v>
       </c>
       <c r="I4">
         <v>0.626</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="49">
         <v>0.626</v>
       </c>
       <c r="K4">
@@ -7415,13 +7416,13 @@
       </c>
       <c r="N4">
         <f>K3*2</f>
-        <v>29.6</v>
+        <v>26.6</v>
       </c>
       <c r="O4" t="s">
         <v>134</v>
       </c>
       <c r="P4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.2">
@@ -7431,7 +7432,7 @@
       <c r="C5">
         <v>625000</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="49">
         <v>625000</v>
       </c>
       <c r="E5">
@@ -7443,13 +7444,13 @@
       <c r="G5">
         <v>625000</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="49">
         <v>625000</v>
       </c>
       <c r="I5">
         <v>625000</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="49">
         <v>625000</v>
       </c>
       <c r="K5">
@@ -7469,7 +7470,7 @@
       <c r="C6">
         <v>4</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="49">
         <v>4</v>
       </c>
       <c r="E6">
@@ -7481,13 +7482,13 @@
       <c r="G6">
         <v>3</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="49">
         <v>3</v>
       </c>
       <c r="I6">
         <v>3</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="49">
         <v>3</v>
       </c>
       <c r="K6">
@@ -7510,7 +7511,7 @@
       <c r="C7">
         <v>4</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="49">
         <v>4</v>
       </c>
       <c r="E7">
@@ -7522,13 +7523,13 @@
       <c r="G7">
         <v>4</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="49">
         <v>4</v>
       </c>
       <c r="I7">
         <v>4</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="49">
         <v>4</v>
       </c>
       <c r="K7">
@@ -7544,43 +7545,43 @@
     <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B8" s="5">
         <f t="shared" ref="B8:K8" si="0">(B3*10^8)/(B4*B5*B6*B7)</f>
-        <v>302.0408163265306</v>
+        <v>272.10884353741494</v>
       </c>
       <c r="C8" s="5">
         <f t="shared" si="0"/>
-        <v>302.0408163265306</v>
-      </c>
-      <c r="D8" s="5">
+        <v>271.42857142857144</v>
+      </c>
+      <c r="D8" s="50">
         <f t="shared" si="0"/>
-        <v>302.0408163265306</v>
+        <v>271.42857142857144</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" si="0"/>
-        <v>236.42172523961662</v>
+        <v>212.99254526091588</v>
       </c>
       <c r="F8" s="5">
         <f>(F3*10^8)/(F4*F5*F6*F7)</f>
-        <v>236.42172523961662</v>
+        <v>212.99254526091588</v>
       </c>
       <c r="G8" s="5">
         <f t="shared" si="0"/>
-        <v>315.22896698615551</v>
-      </c>
-      <c r="H8" s="5">
+        <v>283.28008519701808</v>
+      </c>
+      <c r="H8" s="50">
         <f t="shared" si="0"/>
-        <v>315.22896698615551</v>
+        <v>283.28008519701808</v>
       </c>
       <c r="I8" s="5">
         <f t="shared" si="0"/>
-        <v>315.22896698615551</v>
-      </c>
-      <c r="J8" s="5">
+        <v>283.28008519701808</v>
+      </c>
+      <c r="J8" s="50">
         <f>(J3*10^8)/(J4*J5*J6*J7)</f>
         <v>315.22896698615551</v>
       </c>
       <c r="K8" s="5">
         <f t="shared" si="0"/>
-        <v>236.42172523961662</v>
+        <v>212.46006389776358</v>
       </c>
       <c r="L8" t="s">
         <v>99</v>
@@ -7592,43 +7593,43 @@
     <row r="9" spans="1:33" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
         <f t="shared" ref="B9:K9" si="1">B8/10</f>
-        <v>30.204081632653061</v>
+        <v>27.210884353741495</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="1"/>
-        <v>30.204081632653061</v>
-      </c>
-      <c r="D9" s="4">
+        <v>27.142857142857146</v>
+      </c>
+      <c r="D9" s="51">
         <f t="shared" si="1"/>
-        <v>30.204081632653061</v>
+        <v>27.142857142857146</v>
       </c>
       <c r="E9" s="4">
         <f t="shared" si="1"/>
-        <v>23.642172523961662</v>
+        <v>21.299254526091588</v>
       </c>
       <c r="F9" s="4">
         <f>F8/10</f>
-        <v>23.642172523961662</v>
+        <v>21.299254526091588</v>
       </c>
       <c r="G9" s="4">
         <f t="shared" si="1"/>
-        <v>31.522896698615551</v>
-      </c>
-      <c r="H9" s="4">
+        <v>28.328008519701807</v>
+      </c>
+      <c r="H9" s="51">
         <f t="shared" si="1"/>
-        <v>31.522896698615551</v>
+        <v>28.328008519701807</v>
       </c>
       <c r="I9" s="4">
         <f t="shared" si="1"/>
-        <v>31.522896698615551</v>
-      </c>
-      <c r="J9" s="4">
+        <v>28.328008519701807</v>
+      </c>
+      <c r="J9" s="51">
         <f>J8/10</f>
         <v>31.522896698615551</v>
       </c>
       <c r="K9" s="4">
         <f t="shared" si="1"/>
-        <v>23.642172523961662</v>
+        <v>21.246006389776358</v>
       </c>
       <c r="L9" t="s">
         <v>99</v>
@@ -7641,6 +7642,9 @@
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="D10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="J10" s="49"/>
       <c r="N10" s="37" t="s">
         <v>283</v>
       </c>
@@ -7661,7 +7665,7 @@
       <c r="C11" s="7">
         <v>160</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="49">
         <v>250</v>
       </c>
       <c r="E11" s="7">
@@ -7673,13 +7677,13 @@
       <c r="G11" s="7">
         <v>100</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="49">
         <v>130</v>
       </c>
       <c r="I11" s="7">
         <v>160</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="49">
         <v>160</v>
       </c>
       <c r="K11" s="7">
@@ -7711,43 +7715,43 @@
     <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B12" s="2">
         <f>B11/B3</f>
-        <v>9.0090090090090094</v>
+        <v>10</v>
       </c>
       <c r="C12" s="2">
         <f>C11/C3</f>
-        <v>10.810810810810811</v>
-      </c>
-      <c r="D12" s="2">
+        <v>12.030075187969924</v>
+      </c>
+      <c r="D12" s="52">
         <f>D11/D3</f>
-        <v>16.891891891891891</v>
+        <v>18.796992481203006</v>
       </c>
       <c r="E12" s="2">
         <f>E11/E3</f>
-        <v>9.0090090090090094</v>
+        <v>10</v>
       </c>
       <c r="F12" s="2">
         <f>F11/F3</f>
-        <v>11.711711711711713</v>
+        <v>13</v>
       </c>
       <c r="G12" s="2">
         <f>G11/G3</f>
-        <v>6.7567567567567561</v>
-      </c>
-      <c r="H12" s="2">
+        <v>7.518796992481203</v>
+      </c>
+      <c r="H12" s="52">
         <f>H11/H3</f>
-        <v>8.7837837837837842</v>
+        <v>9.7744360902255636</v>
       </c>
       <c r="I12" s="2">
         <f>I11/I3</f>
-        <v>10.810810810810811</v>
-      </c>
-      <c r="J12" s="2">
+        <v>12.030075187969924</v>
+      </c>
+      <c r="J12" s="52">
         <f>J11/J3</f>
         <v>10.810810810810811</v>
       </c>
       <c r="K12" s="2">
         <f>K11/K3</f>
-        <v>10.810810810810811</v>
+        <v>12.030075187969924</v>
       </c>
       <c r="L12" t="s">
         <v>122</v>
@@ -7757,11 +7761,11 @@
       </c>
       <c r="O12" s="36">
         <f>B12/2</f>
-        <v>4.5045045045045047</v>
+        <v>5</v>
       </c>
       <c r="P12" s="43">
         <f>H12/2</f>
-        <v>4.3918918918918921</v>
+        <v>4.8872180451127818</v>
       </c>
       <c r="Q12" s="36"/>
       <c r="R12" t="s">
@@ -7801,43 +7805,43 @@
     <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B13" s="2">
         <f>B12/2</f>
-        <v>4.5045045045045047</v>
+        <v>5</v>
       </c>
       <c r="C13" s="2">
         <f>C12/2</f>
-        <v>5.4054054054054053</v>
-      </c>
-      <c r="D13" s="2">
+        <v>6.0150375939849621</v>
+      </c>
+      <c r="D13" s="52">
         <f>D12/2</f>
-        <v>8.4459459459459456</v>
+        <v>9.3984962406015029</v>
       </c>
       <c r="E13" s="2">
         <f>E12/2</f>
-        <v>4.5045045045045047</v>
+        <v>5</v>
       </c>
       <c r="F13" s="2">
         <f>F12/2</f>
-        <v>5.8558558558558564</v>
+        <v>6.5</v>
       </c>
       <c r="G13" s="2">
         <f>G12/2</f>
-        <v>3.3783783783783781</v>
-      </c>
-      <c r="H13" s="2">
+        <v>3.7593984962406015</v>
+      </c>
+      <c r="H13" s="52">
         <f>H12/2</f>
-        <v>4.3918918918918921</v>
+        <v>4.8872180451127818</v>
       </c>
       <c r="I13" s="2">
         <f>I12/2</f>
-        <v>5.4054054054054053</v>
-      </c>
-      <c r="J13" s="2">
+        <v>6.0150375939849621</v>
+      </c>
+      <c r="J13" s="52">
         <f>J12/2</f>
         <v>5.4054054054054053</v>
       </c>
       <c r="K13" s="2">
         <f>K12/2</f>
-        <v>5.4054054054054053</v>
+        <v>6.0150375939849621</v>
       </c>
       <c r="L13" t="s">
         <v>124</v>
@@ -7847,11 +7851,11 @@
       </c>
       <c r="O13" s="36">
         <f>O12*O11</f>
-        <v>0.15765765765765768</v>
+        <v>0.17500000000000002</v>
       </c>
       <c r="P13" s="43">
         <f>P12*P11</f>
-        <v>0.15371621621621623</v>
+        <v>0.17105263157894737</v>
       </c>
       <c r="Q13" s="36"/>
       <c r="R13">
@@ -7903,16 +7907,19 @@
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="D14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="J14" s="49"/>
       <c r="N14" s="42" t="s">
         <v>121</v>
       </c>
       <c r="O14" s="36">
         <f>O12^2 * O11</f>
-        <v>0.71016962908854819</v>
+        <v>0.87500000000000011</v>
       </c>
       <c r="P14" s="43">
         <f>P12^2 * P11</f>
-        <v>0.67510500365230108</v>
+        <v>0.83597150771666018</v>
       </c>
       <c r="Q14" s="36"/>
       <c r="R14">
@@ -7970,8 +7977,8 @@
       <c r="C15" s="7">
         <v>300</v>
       </c>
-      <c r="D15" s="7">
-        <v>300</v>
+      <c r="D15" s="49">
+        <v>333</v>
       </c>
       <c r="E15" s="7">
         <v>300</v>
@@ -7982,13 +7989,13 @@
       <c r="G15" s="7">
         <v>300</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="49">
         <v>300</v>
       </c>
       <c r="I15" s="7">
         <v>300</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="49">
         <v>300</v>
       </c>
       <c r="K15" s="7">
@@ -8002,11 +8009,11 @@
       </c>
       <c r="O15" s="36">
         <f>2*O14</f>
-        <v>1.4203392581770964</v>
+        <v>1.7500000000000002</v>
       </c>
       <c r="P15" s="43">
         <f>2*P14</f>
-        <v>1.3502100073046022</v>
+        <v>1.6719430154333204</v>
       </c>
       <c r="Q15" s="36"/>
       <c r="R15">
@@ -8060,46 +8067,46 @@
     <row r="16" spans="1:33" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="5">
         <f>B15/B3*B6</f>
-        <v>81.081081081081081</v>
+        <v>90</v>
       </c>
       <c r="C16" s="5">
         <f>C15/C3*C6</f>
-        <v>81.081081081081081</v>
-      </c>
-      <c r="D16" s="5">
+        <v>90.225563909774436</v>
+      </c>
+      <c r="D16" s="50">
         <f>D15/D3*D6</f>
-        <v>81.081081081081081</v>
+        <v>100.15037593984962</v>
       </c>
       <c r="E16" s="5">
         <f>E15/E3*E6</f>
-        <v>81.081081081081081</v>
+        <v>90</v>
       </c>
       <c r="F16" s="5">
         <f>F15/F3*F6</f>
-        <v>81.081081081081081</v>
+        <v>90</v>
       </c>
       <c r="G16" s="5">
         <f>G15/G3*G6</f>
-        <v>60.810810810810807</v>
-      </c>
-      <c r="H16" s="5">
+        <v>67.669172932330824</v>
+      </c>
+      <c r="H16" s="50">
         <f>H15/H3*H6</f>
-        <v>60.810810810810807</v>
+        <v>67.669172932330824</v>
       </c>
       <c r="I16" s="5">
         <f>I15/I3*I6</f>
-        <v>60.810810810810807</v>
-      </c>
-      <c r="J16" s="5">
+        <v>67.669172932330824</v>
+      </c>
+      <c r="J16" s="50">
         <f>J15/J3*J6</f>
         <v>60.810810810810807</v>
       </c>
       <c r="K16" s="5">
         <f>K15/K3*K6</f>
-        <v>81.081081081081081</v>
+        <v>90.225563909774436</v>
       </c>
       <c r="L16" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="N16" s="44"/>
       <c r="O16" s="45"/>
@@ -8162,9 +8169,9 @@
         <f>C11/C15</f>
         <v>0.53333333333333333</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="52">
         <f>D11/D15</f>
-        <v>0.83333333333333337</v>
+        <v>0.75075075075075071</v>
       </c>
       <c r="E17" s="2">
         <f>E11/E15</f>
@@ -8178,7 +8185,7 @@
         <f>G11/G15</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="52">
         <f>H11/H15</f>
         <v>0.43333333333333335</v>
       </c>
@@ -8186,7 +8193,7 @@
         <f>I11/I15</f>
         <v>0.53333333333333333</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="52">
         <f>J11/J15</f>
         <v>0.53333333333333333</v>
       </c>
@@ -8217,6 +8224,9 @@
       </c>
     </row>
     <row r="18" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="D18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="J18" s="49"/>
       <c r="T18">
         <v>330</v>
       </c>
@@ -8238,34 +8248,34 @@
     </row>
     <row r="19" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B19" s="7">
-        <v>267</v>
+        <v>300</v>
       </c>
       <c r="C19" s="7">
-        <v>267</v>
-      </c>
-      <c r="D19" s="7">
-        <v>267</v>
+        <v>300</v>
+      </c>
+      <c r="D19" s="49">
+        <v>300</v>
       </c>
       <c r="E19" s="7">
-        <v>267</v>
+        <v>300</v>
       </c>
       <c r="F19" s="7">
-        <v>267</v>
+        <v>300</v>
       </c>
       <c r="G19" s="7">
-        <v>267</v>
-      </c>
-      <c r="H19" s="7">
-        <v>267</v>
+        <v>300</v>
+      </c>
+      <c r="H19" s="49">
+        <v>300</v>
       </c>
       <c r="I19" s="7">
-        <v>267</v>
-      </c>
-      <c r="J19" s="7">
-        <v>267</v>
+        <v>300</v>
+      </c>
+      <c r="J19" s="49">
+        <v>300</v>
       </c>
       <c r="K19" s="7">
-        <v>267</v>
+        <v>300</v>
       </c>
       <c r="L19" t="s">
         <v>305</v>
@@ -8290,6 +8300,9 @@
       </c>
     </row>
     <row r="20" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="D20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="J20" s="49"/>
       <c r="R20" s="31"/>
       <c r="T20">
         <v>660</v>
@@ -8313,43 +8326,43 @@
     <row r="21" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B21">
         <f>B15*B19</f>
-        <v>80100</v>
+        <v>90000</v>
       </c>
       <c r="C21">
         <f>C15*C19</f>
-        <v>80100</v>
-      </c>
-      <c r="D21">
+        <v>90000</v>
+      </c>
+      <c r="D21" s="49">
         <f>D15*D19</f>
-        <v>80100</v>
+        <v>99900</v>
       </c>
       <c r="E21">
         <f>E15*E19</f>
-        <v>80100</v>
+        <v>90000</v>
       </c>
       <c r="F21">
         <f>F15*F19</f>
-        <v>80100</v>
+        <v>90000</v>
       </c>
       <c r="G21">
         <f>G15*G19</f>
-        <v>80100</v>
-      </c>
-      <c r="H21">
+        <v>90000</v>
+      </c>
+      <c r="H21" s="49">
         <f>H15*H19</f>
-        <v>80100</v>
+        <v>90000</v>
       </c>
       <c r="I21">
         <f>I15*I19</f>
-        <v>80100</v>
-      </c>
-      <c r="J21">
+        <v>90000</v>
+      </c>
+      <c r="J21" s="49">
         <f>J15*J19</f>
-        <v>80100</v>
+        <v>90000</v>
       </c>
       <c r="K21">
         <f>K15*K19</f>
-        <v>80100</v>
+        <v>90000</v>
       </c>
       <c r="L21" t="s">
         <v>126</v>
@@ -8361,43 +8374,43 @@
     <row r="22" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B22" s="2">
         <f>B11/B21*1000</f>
-        <v>1.2484394506866416</v>
+        <v>1.1111111111111112</v>
       </c>
       <c r="C22" s="2">
         <f t="shared" ref="C22:K22" si="4">C11/C21*1000</f>
-        <v>1.9975031210986267</v>
-      </c>
-      <c r="D22" s="2">
+        <v>1.7777777777777779</v>
+      </c>
+      <c r="D22" s="52">
         <f t="shared" si="4"/>
-        <v>3.1210986267166039</v>
+        <v>2.5025025025025025</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="4"/>
-        <v>1.2484394506866416</v>
+        <v>1.1111111111111112</v>
       </c>
       <c r="F22" s="2">
         <f t="shared" si="4"/>
-        <v>1.6229712858926342</v>
+        <v>1.4444444444444444</v>
       </c>
       <c r="G22" s="2">
         <f t="shared" si="4"/>
-        <v>1.2484394506866416</v>
-      </c>
-      <c r="H22" s="2">
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="H22" s="52">
         <f t="shared" si="4"/>
-        <v>1.6229712858926342</v>
+        <v>1.4444444444444444</v>
       </c>
       <c r="I22" s="2">
         <f t="shared" si="4"/>
-        <v>1.9975031210986267</v>
-      </c>
-      <c r="J22" s="2">
+        <v>1.7777777777777779</v>
+      </c>
+      <c r="J22" s="52">
         <f t="shared" si="4"/>
-        <v>1.9975031210986267</v>
+        <v>1.7777777777777779</v>
       </c>
       <c r="K22" s="2">
         <f t="shared" si="4"/>
-        <v>1.9975031210986267</v>
+        <v>1.7777777777777779</v>
       </c>
       <c r="L22" t="s">
         <v>130</v>
@@ -8407,13 +8420,16 @@
       </c>
       <c r="R22" s="31"/>
       <c r="T22" s="17" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="AA22" s="17" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="23" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="D23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="J23" s="49"/>
       <c r="T23">
         <v>40</v>
       </c>
@@ -8437,7 +8453,7 @@
       <c r="C24">
         <v>300</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="49">
         <v>300</v>
       </c>
       <c r="E24">
@@ -8449,13 +8465,13 @@
       <c r="G24">
         <v>300</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="49">
         <v>300</v>
       </c>
       <c r="I24">
         <v>300</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="49">
         <v>300</v>
       </c>
       <c r="K24">
@@ -8488,7 +8504,7 @@
       <c r="C25">
         <v>300</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="49">
         <v>300</v>
       </c>
       <c r="E25">
@@ -8500,13 +8516,13 @@
       <c r="G25">
         <v>300</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="49">
         <v>300</v>
       </c>
       <c r="I25">
         <v>300</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="49">
         <v>300</v>
       </c>
       <c r="K25">
@@ -8537,43 +8553,43 @@
     <row r="26" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B26" s="4">
         <f>B24*B13</f>
-        <v>1351.3513513513515</v>
+        <v>1500</v>
       </c>
       <c r="C26" s="4">
         <f>C24*C13</f>
-        <v>1621.6216216216217</v>
-      </c>
-      <c r="D26" s="4">
+        <v>1804.5112781954886</v>
+      </c>
+      <c r="D26" s="51">
         <f>D24*D13</f>
-        <v>2533.7837837837837</v>
+        <v>2819.5488721804509</v>
       </c>
       <c r="E26" s="4">
         <f>E24*E13</f>
-        <v>1351.3513513513515</v>
+        <v>1500</v>
       </c>
       <c r="F26" s="4">
         <f>F24*F13</f>
-        <v>1756.7567567567569</v>
+        <v>1950</v>
       </c>
       <c r="G26" s="4">
         <f>G24*G13</f>
-        <v>1013.5135135135134</v>
-      </c>
-      <c r="H26" s="4">
+        <v>1127.8195488721803</v>
+      </c>
+      <c r="H26" s="51">
         <f>H24*H13</f>
-        <v>1317.5675675675677</v>
+        <v>1466.1654135338345</v>
       </c>
       <c r="I26" s="4">
         <f>I24*I13</f>
-        <v>1621.6216216216217</v>
-      </c>
-      <c r="J26" s="4">
+        <v>1804.5112781954886</v>
+      </c>
+      <c r="J26" s="51">
         <f>J24*J13</f>
         <v>1621.6216216216217</v>
       </c>
       <c r="K26" s="4">
         <f>K24*K13</f>
-        <v>1621.6216216216217</v>
+        <v>1804.5112781954886</v>
       </c>
       <c r="L26" t="s">
         <v>127</v>
@@ -8598,7 +8614,7 @@
         <v>1</v>
       </c>
       <c r="AD26" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="27" spans="2:30" x14ac:dyDescent="0.2">
@@ -8610,9 +8626,9 @@
         <f>C25*C17</f>
         <v>160</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="49">
         <f>D25*D17</f>
-        <v>250</v>
+        <v>225.22522522522522</v>
       </c>
       <c r="E27">
         <f>E25*E17</f>
@@ -8626,7 +8642,7 @@
         <f>G25*G17</f>
         <v>100</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="49">
         <f>H25*H17</f>
         <v>130</v>
       </c>
@@ -8634,7 +8650,7 @@
         <f>I25*I17</f>
         <v>160</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="49">
         <f>J24*J17</f>
         <v>160</v>
       </c>
@@ -8649,65 +8665,65 @@
         <v>280</v>
       </c>
       <c r="T27">
-        <v>270</v>
-      </c>
-      <c r="U27" s="48">
-        <v>3.9E-2</v>
+        <v>420</v>
+      </c>
+      <c r="U27">
+        <v>4.8000000000000001E-2</v>
       </c>
     </row>
     <row r="28" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B28" s="2">
         <f>B24*(B22/1000)</f>
-        <v>0.37453183520599254</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="C28" s="2">
         <f t="shared" ref="C28:K28" si="5">C24*(C22/1000)</f>
-        <v>0.59925093632958804</v>
-      </c>
-      <c r="D28" s="2">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="D28" s="52">
         <f t="shared" si="5"/>
-        <v>0.93632958801498123</v>
+        <v>0.75075075075075071</v>
       </c>
       <c r="E28" s="2">
         <f t="shared" si="5"/>
-        <v>0.37453183520599254</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F28" s="2">
         <f t="shared" si="5"/>
-        <v>0.48689138576779023</v>
+        <v>0.43333333333333329</v>
       </c>
       <c r="G28" s="2">
         <f t="shared" si="5"/>
-        <v>0.37453183520599254</v>
-      </c>
-      <c r="H28" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H28" s="52">
         <f t="shared" si="5"/>
-        <v>0.48689138576779023</v>
+        <v>0.43333333333333329</v>
       </c>
       <c r="I28" s="2">
         <f t="shared" si="5"/>
-        <v>0.59925093632958804</v>
-      </c>
-      <c r="J28" s="2">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="J28" s="52">
         <f t="shared" si="5"/>
-        <v>0.59925093632958804</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="K28" s="2">
         <f t="shared" si="5"/>
-        <v>0.59925093632958804</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="L28" t="s">
         <v>129</v>
       </c>
       <c r="R28" s="31"/>
       <c r="T28">
-        <v>330</v>
-      </c>
-      <c r="U28" s="48">
-        <v>4.2000000000000003E-2</v>
+        <v>660</v>
+      </c>
+      <c r="U28">
+        <v>6.2E-2</v>
       </c>
       <c r="AA28" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="AB28">
         <v>3.2000000000000001E-2</v>
@@ -8720,11 +8736,14 @@
       </c>
     </row>
     <row r="29" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="D29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="J29" s="49"/>
       <c r="T29">
-        <v>420</v>
+        <v>1162</v>
       </c>
       <c r="U29">
-        <v>4.8000000000000001E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="AA29" t="s">
         <v>152</v>
@@ -8750,7 +8769,7 @@
         <f t="shared" si="6"/>
         <v>2.4696969696969697</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="51">
         <f t="shared" si="6"/>
         <v>2.4696969696969697</v>
       </c>
@@ -8766,7 +8785,7 @@
         <f t="shared" si="6"/>
         <v>2.4696969696969697</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="51">
         <f t="shared" si="6"/>
         <v>2.4696969696969697</v>
       </c>
@@ -8774,7 +8793,7 @@
         <f t="shared" si="6"/>
         <v>2.4696969696969697</v>
       </c>
-      <c r="J30" s="4">
+      <c r="J30" s="51">
         <f t="shared" si="6"/>
         <v>2.4696969696969697</v>
       </c>
@@ -8787,10 +8806,10 @@
       </c>
       <c r="R30" s="31"/>
       <c r="T30">
-        <v>660</v>
+        <v>3000</v>
       </c>
       <c r="U30">
-        <v>6.2E-2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AA30" t="s">
         <v>84</v>
@@ -8803,14 +8822,11 @@
       </c>
     </row>
     <row r="31" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="T31">
-        <v>1162</v>
-      </c>
-      <c r="U31">
-        <v>8.2000000000000003E-2</v>
-      </c>
+      <c r="D31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="J31" s="49"/>
       <c r="AA31" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="AB31">
         <f>(AB24-AB23)/2*AB25/100</f>
@@ -8827,52 +8843,46 @@
     <row r="32" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B32" s="5">
         <f t="shared" ref="B32:K32" si="7">B26/B30</f>
-        <v>547.17293981097669</v>
+        <v>607.36196319018404</v>
       </c>
       <c r="C32" s="5">
         <f t="shared" si="7"/>
-        <v>656.60752777317191</v>
-      </c>
-      <c r="D32" s="5">
+        <v>730.66100834909355</v>
+      </c>
+      <c r="D32" s="50">
         <f t="shared" ref="D32" si="8">D26/D30</f>
-        <v>1025.9492621455811</v>
+        <v>1141.6578255454585</v>
       </c>
       <c r="E32" s="5">
         <f t="shared" si="7"/>
-        <v>547.17293981097669</v>
+        <v>607.36196319018404</v>
       </c>
       <c r="F32" s="5">
         <f>F26/F30</f>
-        <v>711.32482175426969</v>
+        <v>789.57055214723925</v>
       </c>
       <c r="G32" s="5">
         <f t="shared" ref="G32" si="9">G26/G30</f>
-        <v>410.3797048582324</v>
-      </c>
-      <c r="H32" s="5">
+        <v>456.66313021818343</v>
+      </c>
+      <c r="H32" s="50">
         <f t="shared" si="7"/>
-        <v>533.4936163157023</v>
+        <v>593.66206928363852</v>
       </c>
       <c r="I32" s="5">
         <f t="shared" si="7"/>
-        <v>656.60752777317191</v>
-      </c>
-      <c r="J32" s="5">
+        <v>730.66100834909355</v>
+      </c>
+      <c r="J32" s="50">
         <f>J26/J30</f>
         <v>656.60752777317191</v>
       </c>
       <c r="K32" s="5">
         <f t="shared" si="7"/>
-        <v>656.60752777317191</v>
+        <v>730.66100834909355</v>
       </c>
       <c r="L32" t="s">
         <v>132</v>
-      </c>
-      <c r="T32">
-        <v>3000</v>
-      </c>
-      <c r="U32">
-        <v>0.14000000000000001</v>
       </c>
       <c r="AA32" t="s">
         <v>268</v>
@@ -8898,9 +8908,9 @@
         <f t="shared" si="10"/>
         <v>64.785276073619627</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="50">
         <f t="shared" ref="D33" si="11">D27/D30</f>
-        <v>101.22699386503068</v>
+        <v>91.195489968496105</v>
       </c>
       <c r="E33" s="5">
         <f t="shared" si="10"/>
@@ -8914,7 +8924,7 @@
         <f t="shared" ref="G33" si="12">G27/G30</f>
         <v>40.490797546012267</v>
       </c>
-      <c r="H33" s="5">
+      <c r="H33" s="50">
         <f t="shared" si="10"/>
         <v>52.638036809815951</v>
       </c>
@@ -8922,7 +8932,7 @@
         <f t="shared" si="10"/>
         <v>64.785276073619627</v>
       </c>
-      <c r="J33" s="5">
+      <c r="J33" s="50">
         <f>J27/J30</f>
         <v>64.785276073619627</v>
       </c>
@@ -8950,6 +8960,9 @@
       </c>
     </row>
     <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="D34" s="49"/>
+      <c r="H34" s="49"/>
+      <c r="J34" s="49"/>
       <c r="AA34" t="s">
         <v>6</v>
       </c>
@@ -8972,8 +8985,8 @@
       <c r="C35" t="s">
         <v>282</v>
       </c>
-      <c r="D35" t="s">
-        <v>314</v>
+      <c r="D35" s="49" t="s">
+        <v>164</v>
       </c>
       <c r="E35" t="s">
         <v>282</v>
@@ -8984,13 +8997,13 @@
       <c r="G35" t="s">
         <v>285</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H35" s="49" t="s">
         <v>282</v>
       </c>
       <c r="I35" t="s">
         <v>282</v>
       </c>
-      <c r="J35" t="s">
+      <c r="J35" s="49" t="s">
         <v>282</v>
       </c>
       <c r="K35" t="s">
@@ -9019,31 +9032,31 @@
         <v>165</v>
       </c>
       <c r="C36" t="s">
-        <v>316</v>
-      </c>
-      <c r="D36" t="s">
+        <v>314</v>
+      </c>
+      <c r="D36" s="49" t="s">
         <v>163</v>
       </c>
       <c r="E36" t="s">
         <v>165</v>
       </c>
       <c r="F36" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G36" t="s">
         <v>165</v>
       </c>
-      <c r="H36" t="s">
-        <v>316</v>
+      <c r="H36" s="49" t="s">
+        <v>314</v>
       </c>
       <c r="I36" t="s">
-        <v>316</v>
-      </c>
-      <c r="J36" t="s">
-        <v>316</v>
+        <v>314</v>
+      </c>
+      <c r="J36" s="49" t="s">
+        <v>314</v>
       </c>
       <c r="K36" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="R36" t="s">
         <v>102</v>
@@ -9074,7 +9087,7 @@
         <v>0.9</v>
       </c>
       <c r="AA37" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="AB37" s="20">
         <f>(AB29*AB30)/AB36</f>
@@ -9086,9 +9099,6 @@
       </c>
     </row>
     <row r="38" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="D38" t="s">
-        <v>315</v>
-      </c>
       <c r="M38" s="17" t="s">
         <v>296</v>
       </c>
@@ -9107,7 +9117,7 @@
         <v>2.9320800000000005</v>
       </c>
       <c r="AD38" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="39" spans="2:30" x14ac:dyDescent="0.2">
@@ -9141,7 +9151,7 @@
         <v>9.6196850393700792</v>
       </c>
       <c r="AD39" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="40" spans="2:30" x14ac:dyDescent="0.2">
@@ -9166,7 +9176,7 @@
         <v>278</v>
       </c>
       <c r="AA40" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="AB40">
         <v>1.5</v>
@@ -10117,7 +10127,7 @@
     </row>
     <row r="104" spans="11:12" x14ac:dyDescent="0.2">
       <c r="K104" s="7">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L104" t="s">
         <v>123</v>
@@ -10126,16 +10136,16 @@
     <row r="105" spans="11:12" x14ac:dyDescent="0.2">
       <c r="K105" s="5">
         <f>K104/K92*K95</f>
-        <v>90.022505626406598</v>
+        <v>67.516879219804949</v>
       </c>
       <c r="L105" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="106" spans="11:12" x14ac:dyDescent="0.2">
       <c r="K106" s="2">
         <f>K100/K104</f>
-        <v>1</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="L106" t="s">
         <v>125</v>
@@ -10143,7 +10153,7 @@
     </row>
     <row r="108" spans="11:12" x14ac:dyDescent="0.2">
       <c r="K108" s="7">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="L108" t="s">
         <v>305</v>
@@ -10152,7 +10162,7 @@
     <row r="110" spans="11:12" x14ac:dyDescent="0.2">
       <c r="K110">
         <f>K104*K108</f>
-        <v>100000</v>
+        <v>120000</v>
       </c>
       <c r="L110" t="s">
         <v>126</v>
@@ -10161,7 +10171,7 @@
     <row r="111" spans="11:12" x14ac:dyDescent="0.2">
       <c r="K111" s="2">
         <f t="shared" ref="K111" si="15">K100/K110*1000</f>
-        <v>4</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="L111" t="s">
         <v>130</v>
@@ -10195,7 +10205,7 @@
     <row r="116" spans="11:12" x14ac:dyDescent="0.2">
       <c r="K116">
         <f>K113*K106</f>
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L116" t="s">
         <v>128</v>
@@ -10204,7 +10214,7 @@
     <row r="117" spans="11:12" x14ac:dyDescent="0.2">
       <c r="K117" s="2">
         <f t="shared" ref="K117:L117" si="16">K113*(K111/1000)</f>
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="L117" t="s">
         <v>129</v>
@@ -10231,7 +10241,7 @@
     <row r="122" spans="11:12" x14ac:dyDescent="0.2">
       <c r="K122" s="5">
         <f t="shared" ref="K122:L122" si="19">K116/K119</f>
-        <v>121.47239263803681</v>
+        <v>161.96319018404907</v>
       </c>
       <c r="L122" t="s">
         <v>133</v>

--- a/EHD/weight-model.xlsx
+++ b/EHD/weight-model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mickos01/Desktop/MolecularKinetics/EHD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8DEBAE1-9DF9-1342-8988-8CF51C9E3DAA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB62A8DF-56DF-2844-BC9E-EE602B543A67}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="500" windowWidth="27240" windowHeight="16860" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5017,7 +5017,7 @@
   <dimension ref="A2:Y119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7308,8 +7308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:AG125"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V24" sqref="V24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8431,10 +8431,7 @@
       <c r="H23" s="49"/>
       <c r="J23" s="49"/>
       <c r="T23">
-        <v>40</v>
-      </c>
-      <c r="U23">
-        <v>1.7000000000000001E-2</v>
+        <v>30</v>
       </c>
       <c r="AA23" t="s">
         <v>154</v>
@@ -8482,10 +8479,10 @@
       </c>
       <c r="R24" s="31"/>
       <c r="T24">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="U24">
-        <v>1.9E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="AA24" t="s">
         <v>152</v>
@@ -8532,13 +8529,10 @@
         <v>303</v>
       </c>
       <c r="T25">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="U25">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="V25">
-        <v>2.7E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="AA25" t="s">
         <v>153</v>
@@ -8596,13 +8590,7 @@
       </c>
       <c r="R26" s="31"/>
       <c r="T26">
-        <v>175</v>
-      </c>
-      <c r="U26">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="V26">
-        <v>0.03</v>
+        <v>66</v>
       </c>
       <c r="AA26" t="s">
         <v>242</v>
@@ -8665,10 +8653,13 @@
         <v>280</v>
       </c>
       <c r="T27">
-        <v>420</v>
+        <v>100</v>
       </c>
       <c r="U27">
-        <v>4.8000000000000001E-2</v>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="V27">
+        <v>2.7E-2</v>
       </c>
     </row>
     <row r="28" spans="2:30" x14ac:dyDescent="0.2">
@@ -8717,10 +8708,13 @@
       </c>
       <c r="R28" s="31"/>
       <c r="T28">
-        <v>660</v>
+        <v>175</v>
       </c>
       <c r="U28">
-        <v>6.2E-2</v>
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="V28">
+        <v>0.03</v>
       </c>
       <c r="AA28" t="s">
         <v>319</v>
@@ -8740,10 +8734,10 @@
       <c r="H29" s="49"/>
       <c r="J29" s="49"/>
       <c r="T29">
-        <v>1162</v>
+        <v>420</v>
       </c>
       <c r="U29">
-        <v>8.2000000000000003E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="AA29" t="s">
         <v>152</v>
@@ -8806,10 +8800,10 @@
       </c>
       <c r="R30" s="31"/>
       <c r="T30">
-        <v>3000</v>
+        <v>660</v>
       </c>
       <c r="U30">
-        <v>0.14000000000000001</v>
+        <v>6.2E-2</v>
       </c>
       <c r="AA30" t="s">
         <v>84</v>
@@ -8825,6 +8819,12 @@
       <c r="D31" s="49"/>
       <c r="H31" s="49"/>
       <c r="J31" s="49"/>
+      <c r="T31">
+        <v>1162</v>
+      </c>
+      <c r="U31">
+        <v>8.2000000000000003E-2</v>
+      </c>
       <c r="AA31" t="s">
         <v>318</v>
       </c>
@@ -8883,6 +8883,12 @@
       </c>
       <c r="L32" t="s">
         <v>132</v>
+      </c>
+      <c r="T32">
+        <v>3000</v>
+      </c>
+      <c r="U32">
+        <v>0.14000000000000001</v>
       </c>
       <c r="AA32" t="s">
         <v>268</v>

--- a/EHD/weight-model.xlsx
+++ b/EHD/weight-model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mickos01/Desktop/MolecularKinetics/EHD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18ABF4B0-CAF0-4447-BDF6-2E73BE4E14D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9275BE6-7458-5C4C-83CC-FE46E3F6983E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="500" windowWidth="27240" windowHeight="16860" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="500" windowWidth="27240" windowHeight="16860" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Thrust and Weight" sheetId="1" r:id="rId1"/>
@@ -5133,10 +5133,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:Y119"/>
+  <dimension ref="A2:Z119"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="N40" sqref="N40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5149,7 +5149,7 @@
     <col min="18" max="18" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:26">
       <c r="A2" s="18" t="s">
         <v>109</v>
       </c>
@@ -5170,7 +5170,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:26">
       <c r="B3">
         <v>6.7</v>
       </c>
@@ -5206,7 +5206,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:26">
       <c r="B4" s="7">
         <v>11</v>
       </c>
@@ -5240,7 +5240,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:26">
       <c r="B5" s="11"/>
       <c r="I5" s="2">
         <f>I6/J4</f>
@@ -5268,7 +5268,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:26">
       <c r="A6" s="18" t="s">
         <v>93</v>
       </c>
@@ -5299,468 +5299,496 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:26">
       <c r="B7" s="7">
         <v>750</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="7">
+        <v>750</v>
+      </c>
+      <c r="D7" t="s">
         <v>84</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="F7" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="G7" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="H7" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="I7" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="J7" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="K7" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="K7" s="22" t="s">
+      <c r="L7" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="M7" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="M7" s="9" t="s">
+      <c r="N7" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="N7" s="9" t="s">
+      <c r="O7" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="O7" s="22" t="s">
+      <c r="P7" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="P7" s="22" t="s">
+      <c r="Q7" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="Q7" s="9" t="s">
+      <c r="R7" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="R7" s="9" t="s">
+      <c r="S7" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="S7" s="9" t="s">
+      <c r="T7" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="U7" s="4">
+      <c r="V7" s="4">
         <f>U5/1000*U6</f>
         <v>23.090706003884982</v>
       </c>
-      <c r="V7" s="12" t="s">
+      <c r="W7" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="W7" s="9" t="s">
+      <c r="X7" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="X7" s="9" t="s">
+      <c r="Y7" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="Y7" s="7" t="s">
+      <c r="Z7" s="7" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:26">
       <c r="B8" s="7">
         <v>17</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="7">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
         <v>111</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>12</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>14</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>15</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>16</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>11</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>13</v>
       </c>
-      <c r="K8" s="7">
+      <c r="L8" s="7">
         <v>17</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>19</v>
       </c>
-      <c r="O8" s="7"/>
-      <c r="P8" s="22"/>
-      <c r="W8" s="9"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="22"/>
       <c r="X8" s="9"/>
-      <c r="Y8" s="7"/>
-    </row>
-    <row r="9" spans="1:25">
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="7"/>
+    </row>
+    <row r="9" spans="1:26">
       <c r="B9" s="7">
         <v>1.05</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="7">
+        <v>1.05</v>
+      </c>
+      <c r="D9" t="s">
         <v>64</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>10</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>11</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>13</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>14</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>9</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>11</v>
       </c>
-      <c r="K9" s="7"/>
-      <c r="M9" s="9" t="s">
+      <c r="L9" s="7"/>
+      <c r="N9" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="N9" s="9" t="s">
+      <c r="O9" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="O9" s="22" t="s">
+      <c r="P9" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="P9" s="22" t="s">
+      <c r="Q9" s="22" t="s">
         <v>166</v>
-      </c>
-      <c r="Q9" s="9" t="s">
-        <v>139</v>
       </c>
       <c r="R9" s="9" t="s">
         <v>139</v>
       </c>
       <c r="S9" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="T9" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>32</v>
       </c>
-      <c r="V9" s="9" t="s">
+      <c r="W9" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="W9" s="9" t="s">
+      <c r="X9" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="X9" s="9" t="s">
+      <c r="Y9" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="Y9" s="7"/>
-    </row>
-    <row r="10" spans="1:25">
+      <c r="Z9" s="7"/>
+    </row>
+    <row r="10" spans="1:26">
       <c r="B10" s="2">
-        <f>B35*B50* B9</f>
+        <f>(B8/1000)*B7* B9</f>
         <v>13.387500000000003</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2">
+        <f>(C8/1000)*C7* C9</f>
+        <v>13.387500000000003</v>
+      </c>
+      <c r="D10" t="s">
         <v>95</v>
       </c>
-      <c r="K10" s="7"/>
-      <c r="M10">
+      <c r="L10" s="7"/>
+      <c r="N10">
         <v>0.9</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>0.68</v>
       </c>
-      <c r="O10" s="7">
+      <c r="P10" s="7">
         <v>0.66</v>
       </c>
-      <c r="P10" s="7">
+      <c r="Q10" s="7">
         <v>2.25</v>
-      </c>
-      <c r="Q10">
-        <v>3.3</v>
       </c>
       <c r="R10">
         <v>3.3</v>
       </c>
       <c r="S10">
+        <v>3.3</v>
+      </c>
+      <c r="T10">
         <v>2.5</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>143</v>
       </c>
-      <c r="U10">
-        <f>N15*U9</f>
+      <c r="V10">
+        <f>O15*V9</f>
         <v>6400</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>157</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>0.75</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>1.87</v>
       </c>
-      <c r="Y10" s="7"/>
-    </row>
-    <row r="11" spans="1:25">
+      <c r="Z10" s="7"/>
+    </row>
+    <row r="11" spans="1:26">
       <c r="B11" s="7">
         <v>1.93</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="7">
+        <v>1.93</v>
+      </c>
+      <c r="D11" t="s">
         <v>112</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>0.34</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>0.28000000000000003</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>0.38</v>
       </c>
-      <c r="K11" s="7">
+      <c r="L11" s="7">
         <v>0.39</v>
-      </c>
-      <c r="M11" s="1">
-        <f>M10/25.4</f>
-        <v>3.5433070866141732E-2</v>
       </c>
       <c r="N11" s="1">
         <f>N10/25.4</f>
+        <v>3.5433070866141732E-2</v>
+      </c>
+      <c r="O11" s="1">
+        <f>O10/25.4</f>
         <v>2.677165354330709E-2</v>
       </c>
-      <c r="O11" s="23">
-        <f>O10/25.4</f>
+      <c r="P11" s="23">
+        <f>P10/25.4</f>
         <v>2.598425196850394E-2</v>
       </c>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="1">
-        <f>Q10/25.4</f>
-        <v>0.12992125984251968</v>
-      </c>
+      <c r="Q11" s="23"/>
       <c r="R11" s="1">
         <f>R10/25.4</f>
         <v>0.12992125984251968</v>
       </c>
       <c r="S11" s="1">
         <f>S10/25.4</f>
+        <v>0.12992125984251968</v>
+      </c>
+      <c r="T11" s="1">
+        <f>T10/25.4</f>
         <v>9.8425196850393706E-2</v>
       </c>
-      <c r="T11" t="s">
+      <c r="U11" t="s">
         <v>144</v>
       </c>
-      <c r="U11" s="5">
-        <f>Q15*U9</f>
+      <c r="V11" s="5">
+        <f>R15*V9</f>
         <v>256</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>158</v>
       </c>
-      <c r="Y11" s="7">
+      <c r="Z11" s="7">
         <v>0.13</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:26">
       <c r="B12" s="5">
         <f>PI() * B11 * B7</f>
         <v>4547.4553660712254</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="5">
+        <f>PI() * C11 * C7</f>
+        <v>4547.4553660712254</v>
+      </c>
+      <c r="D12" t="s">
         <v>96</v>
       </c>
-      <c r="F12" s="1">
-        <f t="shared" ref="F12:I12" si="0">F11/25.4</f>
+      <c r="G12" s="1">
+        <f t="shared" ref="G12:J12" si="0">G11/25.4</f>
         <v>1.3385826771653545E-2</v>
       </c>
-      <c r="I12" s="1">
+      <c r="J12" s="1">
         <f t="shared" si="0"/>
         <v>1.1023622047244096E-2</v>
       </c>
-      <c r="J12" s="1">
-        <f>J11/25.4</f>
+      <c r="K12" s="1">
+        <f>K11/25.4</f>
         <v>1.4960629921259844E-2</v>
       </c>
-      <c r="K12" s="21">
-        <f>K11/J4</f>
+      <c r="L12" s="21">
+        <f>L11/J4</f>
         <v>0.15354330708661418</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>408</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>240</v>
       </c>
-      <c r="O12" s="7">
+      <c r="P12" s="7">
         <v>247</v>
       </c>
-      <c r="P12" s="7">
+      <c r="Q12" s="7">
         <v>2800</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <f>1050*6.25</f>
         <v>6562.5</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <f>1650*4</f>
         <v>6600</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <f>1050*4</f>
         <v>4200</v>
       </c>
-      <c r="T12" t="s">
+      <c r="U12" t="s">
         <v>130</v>
       </c>
-      <c r="U12" s="5">
-        <f>U10/25.4</f>
+      <c r="V12" s="5">
+        <f>V10/25.4</f>
         <v>251.96850393700788</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
         <v>3</v>
       </c>
-      <c r="Y12" s="7"/>
-    </row>
-    <row r="13" spans="1:25">
+      <c r="Z12" s="7"/>
+    </row>
+    <row r="13" spans="1:26">
       <c r="B13" s="5">
         <f>B12/12</f>
         <v>378.9546138392688</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="5">
+        <f>C12/12</f>
+        <v>378.9546138392688</v>
+      </c>
+      <c r="D13" t="s">
         <v>92</v>
       </c>
-      <c r="K13" s="7"/>
-      <c r="M13" s="2">
-        <f>M12/500</f>
+      <c r="L13" s="7"/>
+      <c r="N13" s="2">
+        <f>N12/500</f>
         <v>0.81599999999999995</v>
       </c>
-      <c r="N13">
-        <f>N12/500</f>
+      <c r="O13">
+        <f>O12/500</f>
         <v>0.48</v>
       </c>
-      <c r="O13" s="7">
-        <f t="shared" ref="O13:S13" si="1">O12/500</f>
+      <c r="P13" s="7">
+        <f t="shared" ref="P13:T13" si="1">P12/500</f>
         <v>0.49399999999999999</v>
       </c>
-      <c r="P13" s="7">
+      <c r="Q13" s="7">
         <f t="shared" si="1"/>
         <v>5.6</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <f t="shared" si="1"/>
         <v>13.125</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <f t="shared" si="1"/>
         <v>13.2</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <f t="shared" si="1"/>
         <v>8.4</v>
       </c>
-      <c r="T13" t="s">
+      <c r="U13" t="s">
         <v>159</v>
       </c>
-      <c r="U13" s="5">
-        <f>U11/25.4</f>
+      <c r="V13" s="5">
+        <f>V11/25.4</f>
         <v>10.078740157480315</v>
       </c>
-      <c r="V13" t="s">
+      <c r="W13" t="s">
         <v>3</v>
       </c>
-      <c r="Y13" s="7"/>
-    </row>
-    <row r="14" spans="1:25">
+      <c r="Z13" s="7"/>
+    </row>
+    <row r="14" spans="1:26">
       <c r="B14">
         <v>121.5</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14">
+        <v>121.5</v>
+      </c>
+      <c r="D14" t="s">
         <v>85</v>
       </c>
-      <c r="E14" s="4">
+      <c r="F14" s="4">
         <v>172.87</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>129.65</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>103.72</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>86.43</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>210.35</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>140.22</v>
       </c>
-      <c r="K14" s="7">
+      <c r="L14" s="7">
         <v>105</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>71.599999999999994</v>
-      </c>
-      <c r="M14">
-        <f>M12/750</f>
-        <v>0.54400000000000004</v>
       </c>
       <c r="N14">
         <f>N12/750</f>
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="O14">
+        <f>O12/750</f>
         <v>0.32</v>
       </c>
-      <c r="O14" s="2">
-        <f t="shared" ref="O14:R14" si="2">O12/750</f>
+      <c r="P14" s="2">
+        <f t="shared" ref="P14:S14" si="2">P12/750</f>
         <v>0.32933333333333331</v>
       </c>
-      <c r="P14" s="2">
+      <c r="Q14" s="2">
         <f t="shared" si="2"/>
         <v>3.7333333333333334</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <f t="shared" si="2"/>
         <v>8.75</v>
       </c>
-      <c r="R14" s="2">
+      <c r="S14" s="2">
         <f t="shared" si="2"/>
         <v>8.8000000000000007</v>
       </c>
-      <c r="S14" s="2">
-        <f t="shared" ref="S14" si="3">S12/750</f>
+      <c r="T14" s="2">
+        <f t="shared" ref="T14" si="3">T12/750</f>
         <v>5.6</v>
       </c>
-      <c r="T14" t="s">
+      <c r="U14" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:26">
       <c r="B15" s="5">
         <f>(B12/12000)*B14</f>
         <v>46.042985581471157</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="5">
+        <f>(C12/12000)*C14</f>
+        <v>46.042985581471157</v>
+      </c>
+      <c r="D15" t="s">
         <v>86</v>
       </c>
-      <c r="E15" s="1"/>
-      <c r="K15" s="7">
+      <c r="F15" s="1"/>
+      <c r="L15" s="7">
         <v>98.8</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>130</v>
-      </c>
-      <c r="M15">
-        <v>200</v>
       </c>
       <c r="N15">
         <v>200</v>
@@ -5769,10 +5797,10 @@
         <v>200</v>
       </c>
       <c r="P15">
+        <v>200</v>
+      </c>
+      <c r="Q15">
         <v>16</v>
-      </c>
-      <c r="Q15">
-        <v>8</v>
       </c>
       <c r="R15">
         <v>8</v>
@@ -5780,301 +5808,343 @@
       <c r="S15">
         <v>8</v>
       </c>
-      <c r="T15" t="s">
+      <c r="T15">
+        <v>8</v>
+      </c>
+      <c r="U15" t="s">
         <v>10</v>
       </c>
-      <c r="U15" t="s">
+      <c r="V15" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
-      <c r="E16" s="1"/>
-      <c r="K16" s="7">
+    <row r="16" spans="1:26">
+      <c r="F16" s="1"/>
+      <c r="L16" s="7">
         <v>121.5</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>318</v>
-      </c>
-      <c r="M16" s="2">
-        <f>PI()*(M10/2)^2</f>
-        <v>0.63617251235193317</v>
       </c>
       <c r="N16" s="2">
         <f>PI()*(N10/2)^2</f>
+        <v>0.63617251235193317</v>
+      </c>
+      <c r="O16" s="2">
+        <f>PI()*(O10/2)^2</f>
         <v>0.36316811075498018</v>
       </c>
-      <c r="O16" s="2">
-        <f t="shared" ref="O16:P16" si="4">PI()*(O10/2)^2</f>
+      <c r="P16" s="2">
+        <f t="shared" ref="P16:Q16" si="4">PI()*(P10/2)^2</f>
         <v>0.34211943997592853</v>
       </c>
-      <c r="P16" s="2">
+      <c r="Q16" s="2">
         <f t="shared" si="4"/>
         <v>3.9760782021995817</v>
       </c>
-      <c r="Q16" s="2">
-        <f t="shared" ref="Q16:S16" si="5">PI()*(Q10/2)^2</f>
+      <c r="R16" s="2">
+        <f t="shared" ref="R16:T16" si="5">PI()*(R10/2)^2</f>
         <v>8.55298599939821</v>
       </c>
-      <c r="R16" s="2">
+      <c r="S16" s="2">
         <f t="shared" si="5"/>
         <v>8.55298599939821</v>
       </c>
-      <c r="S16" s="2">
+      <c r="T16" s="2">
         <f t="shared" si="5"/>
         <v>4.908738521234052</v>
       </c>
-      <c r="T16" t="s">
+      <c r="U16" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:21">
       <c r="B17" s="2">
-        <f>(0.29*B10+(0.41*(B45/2))+(1.94*SQRT(((B45/2)^3)/B10)))</f>
+        <f>(0.29*B10+(0.41*(B11/2))+(1.94*SQRT(((B11/2)^3)/B10)))</f>
         <v>4.7806486944273656</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="2">
+        <f>(0.29*C10+(0.41*(C11/2))+(1.94*SQRT(((C11/2)^3)/C10)))</f>
+        <v>4.7806486944273656</v>
+      </c>
+      <c r="D17" t="s">
         <v>54</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="45" t="s">
+      <c r="F17" s="45" t="s">
         <v>61</v>
-      </c>
-      <c r="M17" s="4">
-        <f>M15*M16*$S2</f>
-        <v>254.46900494077326</v>
       </c>
       <c r="N17" s="4">
         <f>N15*N16*$S2</f>
+        <v>254.46900494077326</v>
+      </c>
+      <c r="O17" s="4">
+        <f>O15*O16*$S2</f>
         <v>145.26724430199206</v>
       </c>
-      <c r="O17" s="4">
-        <f t="shared" ref="O17:P17" si="6">O15*O16*$S2</f>
+      <c r="P17" s="4">
+        <f>P15*P16*$S2</f>
         <v>136.84777599037142</v>
-      </c>
-      <c r="P17" s="4">
-        <f t="shared" si="6"/>
-        <v>127.23450247038662</v>
       </c>
       <c r="Q17" s="4">
         <f>Q15*Q16*$S2</f>
-        <v>136.84777599037136</v>
+        <v>127.23450247038662</v>
       </c>
       <c r="R17" s="4">
         <f>R15*R16*$S2</f>
         <v>136.84777599037136</v>
       </c>
       <c r="S17" s="4">
-        <f t="shared" ref="S17" si="7">S15*S16*2</f>
+        <f>S15*S16*$S2</f>
+        <v>136.84777599037136</v>
+      </c>
+      <c r="T17" s="4">
+        <f t="shared" ref="T17" si="6">T15*T16*2</f>
         <v>78.539816339744831</v>
       </c>
-      <c r="T17" t="s">
+      <c r="U17" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:21">
       <c r="B18" s="15">
-        <f>1.2 * (B44/10)</f>
+        <f>1.2 * (B11*25.4/10)</f>
         <v>5.8826399999999994</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="15">
+        <f>1.2 * (C11*25.4/10)</f>
+        <v>5.8826399999999994</v>
+      </c>
+      <c r="D18" t="s">
         <v>54</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>56</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>60</v>
-      </c>
-      <c r="M18" s="20">
-        <f>M17/$S6</f>
-        <v>0.61247637051039705</v>
       </c>
       <c r="N18" s="20">
         <f>N17/$S6</f>
+        <v>0.61247637051039705</v>
+      </c>
+      <c r="O18" s="20">
+        <f>O17/$S6</f>
         <v>0.34964083175803412</v>
       </c>
-      <c r="O18" s="20">
-        <f t="shared" ref="O18:P18" si="8">O17/$S6</f>
+      <c r="P18" s="20">
+        <f>P17/$S6</f>
         <v>0.32937618147448022</v>
       </c>
-      <c r="P18" s="20">
-        <f t="shared" si="8"/>
+      <c r="Q18" s="20">
+        <f>Q17/$S6</f>
         <v>0.30623818525519847</v>
       </c>
-      <c r="Q18" s="20">
-        <f t="shared" ref="Q18:S18" si="9">Q17/$S6</f>
+      <c r="R18" s="20">
+        <f>R17/$S6</f>
         <v>0.32937618147448011</v>
       </c>
-      <c r="R18" s="20">
-        <f t="shared" si="9"/>
+      <c r="S18" s="20">
+        <f>S17/$S6</f>
         <v>0.32937618147448011</v>
       </c>
-      <c r="S18" s="20">
-        <f t="shared" si="9"/>
+      <c r="T18" s="20">
+        <f>T17/$S6</f>
         <v>0.18903591682419663</v>
       </c>
-      <c r="T18" t="s">
+      <c r="U18" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
-      <c r="M19" s="10">
+    <row r="19" spans="1:21">
+      <c r="N19" s="10">
         <v>28.7</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>42</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>4</v>
       </c>
-      <c r="T19" t="s">
+      <c r="U19" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:21">
       <c r="B20" s="15">
         <f>((((B7^2) * ((B11/2)^2)) /(( 9 * (B11/2)) + ( 10 * B10))))</f>
         <v>3674.3410669191912</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="15">
+        <f>((((C7^2) * ((C11/2)^2)) /(( 9 * (C11/2)) + ( 10 * C10))))</f>
+        <v>3674.3410669191912</v>
+      </c>
+      <c r="D20" t="s">
         <v>57</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>55</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>61</v>
       </c>
-      <c r="K20" s="17" t="s">
+      <c r="L20" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="L20" s="17"/>
-    </row>
-    <row r="21" spans="1:20">
+      <c r="M20" s="17"/>
+    </row>
+    <row r="21" spans="1:21">
       <c r="B21" s="8">
         <v>4355.4007000000001</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="8">
+        <v>4355.4007000000001</v>
+      </c>
+      <c r="D21" t="s">
         <v>57</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>58</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>59</v>
       </c>
-      <c r="K21" s="19">
+      <c r="L21" s="19">
         <f>B51/299800000</f>
         <v>3.8527473748568757E-7</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
-      <c r="K22">
+    <row r="22" spans="1:21">
+      <c r="L22">
         <v>4</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:21">
       <c r="B23" s="16">
-        <f>1/(2*PI() * SQRT( (B20*0.000001) * ((B18+B4)*0.000000000001) ) )</f>
+        <f>1/(2*PI() * SQRT( (B20*0.000001) * ((B18+$B4)*0.000000000001) ) )</f>
         <v>639013.77227889106</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="16">
+        <f>1/(2*PI() * SQRT( (C20*0.000001) * ((C18+$B4)*0.000000000001) ) )</f>
+        <v>639013.77227889106</v>
+      </c>
+      <c r="D23" t="s">
         <v>63</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>39</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>68</v>
       </c>
-      <c r="K23" s="19">
-        <f>K21*SQRT(K22)</f>
+      <c r="L23" s="19">
+        <f>L21*SQRT(L22)</f>
         <v>7.7054947497137513E-7</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:21">
       <c r="B24" s="2">
-        <f>2000000*PI() * SQRT( (B20*0.000001) * ((B18+B4)*0.000000000001) )</f>
+        <f>2000000*PI() * SQRT( (B20*0.000001) * ((B18+$B4)*0.000000000001) )</f>
         <v>1.5649114985953076</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="2">
+        <f>2000000*PI() * SQRT( (C20*0.000001) * ((C18+$B4)*0.000000000001) )</f>
+        <v>1.5649114985953076</v>
+      </c>
+      <c r="D24" t="s">
         <v>69</v>
       </c>
-      <c r="K24" s="5">
-        <f>1/(K23*4)</f>
+      <c r="L24" s="5">
+        <f>1/(L23*4)</f>
         <v>324443.80032740551</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="s">
         <v>40</v>
       </c>
-      <c r="M24" t="s">
+      <c r="N24" t="s">
         <v>39</v>
       </c>
-      <c r="N24" t="s">
+      <c r="O24" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:21">
       <c r="B25" s="5">
         <f xml:space="preserve"> 2*PI()*B23</f>
         <v>4015041.9450681303</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="5">
+        <f xml:space="preserve"> 2*PI()*C23</f>
+        <v>4015041.9450681303</v>
+      </c>
+      <c r="D25" t="s">
         <v>81</v>
       </c>
-      <c r="K25" s="5">
-        <f>K24*2</f>
+      <c r="L25" s="5">
+        <f>L24*2</f>
         <v>648887.60065481102</v>
       </c>
-      <c r="N25" t="s">
+      <c r="O25" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:21">
       <c r="B27" s="16">
         <f>B25*(B20/1000000)</f>
         <v>14752.633504166939</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="16">
+        <f>C25*(C20/1000000)</f>
+        <v>14752.633504166939</v>
+      </c>
+      <c r="D27" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:21">
       <c r="B28" s="16">
-        <f>1/(B25*((B18+B4)/1000000000000))</f>
+        <f>1/(B25*((B18+$B4)/1000000000000))</f>
         <v>14752.633504166934</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="16">
+        <f>1/(C25*((C18+$B4)/1000000000000))</f>
+        <v>14752.633504166934</v>
+      </c>
+      <c r="D28" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:21">
       <c r="B30" s="14">
         <f>B27/B15</f>
         <v>320.4100107292731</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="14">
+        <f>C27/C15</f>
+        <v>320.4100107292731</v>
+      </c>
+      <c r="D30" t="s">
         <v>87</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:21">
       <c r="B31" s="4"/>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:21">
       <c r="A32" s="18" t="s">
         <v>94</v>
       </c>
@@ -6557,7 +6627,7 @@
         <v>0.75</v>
       </c>
       <c r="K67" s="4">
-        <f t="shared" ref="K67:K68" si="10">J67*L$66/L$65</f>
+        <f t="shared" ref="K67:K68" si="7">J67*L$66/L$65</f>
         <v>12.024663803819641</v>
       </c>
     </row>
@@ -6579,7 +6649,7 @@
         <v>1</v>
       </c>
       <c r="K68" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>16.032885071759519</v>
       </c>
     </row>
@@ -7011,7 +7081,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E17" r:id="rId1" xr:uid="{982F6BD9-0C86-C144-8943-34BF5C65EA30}"/>
+    <hyperlink ref="F17" r:id="rId1" xr:uid="{982F6BD9-0C86-C144-8943-34BF5C65EA30}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7427,8 +7497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:AJ129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U73" sqref="U73"/>
+    <sheetView topLeftCell="K17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/EHD/weight-model.xlsx
+++ b/EHD/weight-model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mickos01/Desktop/MolecularKinetics/EHD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9275BE6-7458-5C4C-83CC-FE46E3F6983E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5018B18C-0DB4-7941-A13C-CED6740B3C1A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="500" windowWidth="27240" windowHeight="16860" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="336">
   <si>
     <t>Coil form</t>
   </si>
@@ -1033,6 +1033,15 @@
   </si>
   <si>
     <t>Vp-p high</t>
+  </si>
+  <si>
+    <t>thruster length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pf </t>
+  </si>
+  <si>
+    <t>load capacitance</t>
   </si>
 </sst>
 </file>
@@ -5133,10 +5142,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:Z119"/>
+  <dimension ref="A2:Z121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5163,12 +5172,6 @@
       <c r="H2" t="s">
         <v>300</v>
       </c>
-      <c r="S2">
-        <v>2</v>
-      </c>
-      <c r="T2" t="s">
-        <v>147</v>
-      </c>
     </row>
     <row r="3" spans="1:26">
       <c r="B3">
@@ -5192,19 +5195,6 @@
         <f>F4*F3/F2</f>
         <v>181.81818181818181</v>
       </c>
-      <c r="S3">
-        <v>37</v>
-      </c>
-      <c r="T3" t="s">
-        <v>150</v>
-      </c>
-      <c r="U3" s="2">
-        <f>PI()*(S3/2)^2*S4</f>
-        <v>7526.4705998377476</v>
-      </c>
-      <c r="V3" t="s">
-        <v>153</v>
-      </c>
     </row>
     <row r="4" spans="1:26">
       <c r="B4" s="7">
@@ -5223,1867 +5213,1910 @@
       <c r="G4" t="s">
         <v>299</v>
       </c>
-      <c r="J4">
-        <v>2.54</v>
-      </c>
       <c r="S4">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="T4" t="s">
-        <v>151</v>
-      </c>
-      <c r="U4" s="2">
-        <f>S6*S4</f>
-        <v>2908.3293990607508</v>
-      </c>
-      <c r="V4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:26">
-      <c r="B5" s="11"/>
-      <c r="I5" s="2">
-        <f>I6/J4</f>
-        <v>0.11023622047244096</v>
-      </c>
-      <c r="J5" s="2">
-        <f>J6/J4</f>
-        <v>0.14960629921259844</v>
-      </c>
-      <c r="M5" s="2">
-        <f>M6/J4</f>
-        <v>0.3543307086614173</v>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>333</v>
       </c>
       <c r="S5">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="T5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="U5" s="2">
-        <f>U3-U4</f>
-        <v>4618.1412007769968</v>
+        <f>PI()*(S5/2)^2*S6</f>
+        <v>7526.4705998377476</v>
       </c>
       <c r="V5" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:26">
-      <c r="A6" s="18" t="s">
+      <c r="B6" s="7">
+        <f>B4*B5</f>
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>334</v>
+      </c>
+      <c r="D6" t="s">
+        <v>335</v>
+      </c>
+      <c r="J6">
+        <v>2.54</v>
+      </c>
+      <c r="S6">
+        <v>7</v>
+      </c>
+      <c r="T6" t="s">
+        <v>151</v>
+      </c>
+      <c r="U6" s="2">
+        <f>S8*S6</f>
+        <v>2908.3293990607508</v>
+      </c>
+      <c r="V6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
+      <c r="B7" s="11"/>
+      <c r="I7" s="2">
+        <f>I8/J6</f>
+        <v>0.11023622047244096</v>
+      </c>
+      <c r="J7" s="2">
+        <f>J8/J6</f>
+        <v>0.14960629921259844</v>
+      </c>
+      <c r="M7" s="2">
+        <f>M8/J6</f>
+        <v>0.3543307086614173</v>
+      </c>
+      <c r="S7">
+        <v>23</v>
+      </c>
+      <c r="T7" t="s">
+        <v>152</v>
+      </c>
+      <c r="U7" s="2">
+        <f>U5-U6</f>
+        <v>4618.1412007769968</v>
+      </c>
+      <c r="V7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
+      <c r="A8" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="I6">
+      <c r="I8">
         <v>0.28000000000000003</v>
       </c>
-      <c r="J6">
+      <c r="J8">
         <v>0.38</v>
       </c>
-      <c r="M6">
+      <c r="M8">
         <v>0.9</v>
       </c>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9" t="s">
+      <c r="O8" s="9"/>
+      <c r="P8" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="S6" s="2">
-        <f>PI()*(S5/2)^2</f>
+      <c r="S8" s="2">
+        <f>PI()*(S7/2)^2</f>
         <v>415.47562843725012</v>
       </c>
-      <c r="T6" t="s">
+      <c r="T8" t="s">
         <v>142</v>
       </c>
-      <c r="U6">
+      <c r="U8">
         <v>5</v>
       </c>
-      <c r="V6" t="s">
+      <c r="V8" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="7" spans="1:26">
-      <c r="B7" s="7">
-        <v>750</v>
-      </c>
-      <c r="C7" s="7">
-        <v>750</v>
-      </c>
-      <c r="D7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="L7" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="N7" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="O7" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="P7" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q7" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="R7" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="S7" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="T7" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="V7" s="4">
-        <f>U5/1000*U6</f>
-        <v>23.090706003884982</v>
-      </c>
-      <c r="W7" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="X7" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="Y7" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="Z7" s="7" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26">
-      <c r="B8" s="7">
-        <v>17</v>
-      </c>
-      <c r="C8" s="7">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>111</v>
-      </c>
-      <c r="F8">
-        <v>12</v>
-      </c>
-      <c r="G8">
-        <v>14</v>
-      </c>
-      <c r="H8">
-        <v>15</v>
-      </c>
-      <c r="I8">
-        <v>16</v>
-      </c>
-      <c r="J8">
-        <v>11</v>
-      </c>
-      <c r="K8">
-        <v>13</v>
-      </c>
-      <c r="L8" s="7">
-        <v>17</v>
-      </c>
-      <c r="M8">
-        <v>19</v>
-      </c>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="22"/>
-      <c r="X8" s="9"/>
-      <c r="Y8" s="9"/>
-      <c r="Z8" s="7"/>
     </row>
     <row r="9" spans="1:26">
       <c r="B9" s="7">
-        <v>1.05</v>
+        <v>750</v>
       </c>
       <c r="C9" s="7">
-        <v>1.05</v>
+        <v>750</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9">
-        <v>10</v>
-      </c>
-      <c r="G9">
+        <v>84</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="L9" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="P9" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q9" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="S9" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="T9" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="V9" s="4">
+        <f>U7/1000*U8</f>
+        <v>23.090706003884982</v>
+      </c>
+      <c r="W9" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="X9" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y9" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z9" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="B10" s="7">
+        <v>17</v>
+      </c>
+      <c r="C10" s="7">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F10">
+        <v>12</v>
+      </c>
+      <c r="G10">
+        <v>14</v>
+      </c>
+      <c r="H10">
+        <v>15</v>
+      </c>
+      <c r="I10">
+        <v>16</v>
+      </c>
+      <c r="J10">
         <v>11</v>
       </c>
-      <c r="H9">
+      <c r="K10">
         <v>13</v>
       </c>
-      <c r="I9">
-        <v>14</v>
-      </c>
-      <c r="J9">
-        <v>9</v>
-      </c>
-      <c r="K9">
-        <v>11</v>
-      </c>
-      <c r="L9" s="7"/>
-      <c r="N9" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="O9" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="P9" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q9" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="R9" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="S9" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="T9" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="V9">
-        <v>32</v>
-      </c>
-      <c r="W9" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="X9" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="Y9" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="Z9" s="7"/>
-    </row>
-    <row r="10" spans="1:26">
-      <c r="B10" s="2">
-        <f>(B8/1000)*B7* B9</f>
-        <v>13.387500000000003</v>
-      </c>
-      <c r="C10" s="2">
-        <f>(C8/1000)*C7* C9</f>
-        <v>13.387500000000003</v>
-      </c>
-      <c r="D10" t="s">
-        <v>95</v>
-      </c>
-      <c r="L10" s="7"/>
-      <c r="N10">
-        <v>0.9</v>
-      </c>
-      <c r="O10">
-        <v>0.68</v>
-      </c>
-      <c r="P10" s="7">
-        <v>0.66</v>
-      </c>
-      <c r="Q10" s="7">
-        <v>2.25</v>
-      </c>
-      <c r="R10">
-        <v>3.3</v>
-      </c>
-      <c r="S10">
-        <v>3.3</v>
-      </c>
-      <c r="T10">
-        <v>2.5</v>
-      </c>
-      <c r="U10" t="s">
-        <v>143</v>
-      </c>
-      <c r="V10">
-        <f>O15*V9</f>
-        <v>6400</v>
-      </c>
-      <c r="W10" t="s">
-        <v>157</v>
-      </c>
-      <c r="X10">
-        <v>0.75</v>
-      </c>
-      <c r="Y10">
-        <v>1.87</v>
-      </c>
+      <c r="L10" s="7">
+        <v>17</v>
+      </c>
+      <c r="M10">
+        <v>19</v>
+      </c>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="22"/>
+      <c r="X10" s="9"/>
+      <c r="Y10" s="9"/>
       <c r="Z10" s="7"/>
     </row>
     <row r="11" spans="1:26">
       <c r="B11" s="7">
+        <v>1.05</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1.05</v>
+      </c>
+      <c r="D11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <v>11</v>
+      </c>
+      <c r="H11">
+        <v>13</v>
+      </c>
+      <c r="I11">
+        <v>14</v>
+      </c>
+      <c r="J11">
+        <v>9</v>
+      </c>
+      <c r="K11">
+        <v>11</v>
+      </c>
+      <c r="L11" s="7"/>
+      <c r="N11" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="P11" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q11" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="R11" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="S11" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="T11" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="V11">
+        <v>32</v>
+      </c>
+      <c r="W11" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="X11" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y11" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="Z11" s="7"/>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="B12" s="2">
+        <f>(B10/1000)*B9* B11</f>
+        <v>13.387500000000003</v>
+      </c>
+      <c r="C12" s="2">
+        <f>(C10/1000)*C9* C11</f>
+        <v>13.387500000000003</v>
+      </c>
+      <c r="D12" t="s">
+        <v>95</v>
+      </c>
+      <c r="L12" s="7"/>
+      <c r="N12">
+        <v>0.9</v>
+      </c>
+      <c r="O12">
+        <v>0.68</v>
+      </c>
+      <c r="P12" s="7">
+        <v>0.66</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>2.25</v>
+      </c>
+      <c r="R12">
+        <v>3.3</v>
+      </c>
+      <c r="S12">
+        <v>3.3</v>
+      </c>
+      <c r="T12">
+        <v>2.5</v>
+      </c>
+      <c r="U12" t="s">
+        <v>143</v>
+      </c>
+      <c r="V12">
+        <f>O17*V11</f>
+        <v>6400</v>
+      </c>
+      <c r="W12" t="s">
+        <v>157</v>
+      </c>
+      <c r="X12">
+        <v>0.75</v>
+      </c>
+      <c r="Y12">
+        <v>1.87</v>
+      </c>
+      <c r="Z12" s="7"/>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="B13" s="7">
         <v>1.93</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C13" s="7">
         <v>1.93</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D13" t="s">
         <v>112</v>
       </c>
-      <c r="G11">
+      <c r="G13">
         <v>0.34</v>
       </c>
-      <c r="J11">
+      <c r="J13">
         <v>0.28000000000000003</v>
       </c>
-      <c r="K11">
+      <c r="K13">
         <v>0.38</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L13" s="7">
         <v>0.39</v>
       </c>
-      <c r="N11" s="1">
-        <f>N10/25.4</f>
+      <c r="N13" s="1">
+        <f>N12/25.4</f>
         <v>3.5433070866141732E-2</v>
       </c>
-      <c r="O11" s="1">
-        <f>O10/25.4</f>
+      <c r="O13" s="1">
+        <f>O12/25.4</f>
         <v>2.677165354330709E-2</v>
       </c>
-      <c r="P11" s="23">
-        <f>P10/25.4</f>
+      <c r="P13" s="23">
+        <f>P12/25.4</f>
         <v>2.598425196850394E-2</v>
       </c>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="1">
-        <f>R10/25.4</f>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="1">
+        <f>R12/25.4</f>
         <v>0.12992125984251968</v>
       </c>
-      <c r="S11" s="1">
-        <f>S10/25.4</f>
+      <c r="S13" s="1">
+        <f>S12/25.4</f>
         <v>0.12992125984251968</v>
       </c>
-      <c r="T11" s="1">
-        <f>T10/25.4</f>
+      <c r="T13" s="1">
+        <f>T12/25.4</f>
         <v>9.8425196850393706E-2</v>
       </c>
-      <c r="U11" t="s">
+      <c r="U13" t="s">
         <v>144</v>
       </c>
-      <c r="V11" s="5">
-        <f>R15*V9</f>
+      <c r="V13" s="5">
+        <f>R17*V11</f>
         <v>256</v>
       </c>
-      <c r="W11" t="s">
+      <c r="W13" t="s">
         <v>158</v>
       </c>
-      <c r="Z11" s="7">
+      <c r="Z13" s="7">
         <v>0.13</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
-      <c r="B12" s="5">
-        <f>PI() * B11 * B7</f>
+    <row r="14" spans="1:26">
+      <c r="B14" s="5">
+        <f>PI() * B13 * B9</f>
         <v>4547.4553660712254</v>
       </c>
-      <c r="C12" s="5">
-        <f>PI() * C11 * C7</f>
+      <c r="C14" s="5">
+        <f>PI() * C13 * C9</f>
         <v>4547.4553660712254</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D14" t="s">
         <v>96</v>
       </c>
-      <c r="G12" s="1">
-        <f t="shared" ref="G12:J12" si="0">G11/25.4</f>
+      <c r="G14" s="1">
+        <f t="shared" ref="G14:J14" si="0">G13/25.4</f>
         <v>1.3385826771653545E-2</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J14" s="1">
         <f t="shared" si="0"/>
         <v>1.1023622047244096E-2</v>
       </c>
-      <c r="K12" s="1">
-        <f>K11/25.4</f>
+      <c r="K14" s="1">
+        <f>K13/25.4</f>
         <v>1.4960629921259844E-2</v>
       </c>
-      <c r="L12" s="21">
-        <f>L11/J4</f>
+      <c r="L14" s="21">
+        <f>L13/J6</f>
         <v>0.15354330708661418</v>
       </c>
-      <c r="N12">
+      <c r="N14">
         <v>408</v>
       </c>
-      <c r="O12">
+      <c r="O14">
         <v>240</v>
       </c>
-      <c r="P12" s="7">
+      <c r="P14" s="7">
         <v>247</v>
       </c>
-      <c r="Q12" s="7">
+      <c r="Q14" s="7">
         <v>2800</v>
       </c>
-      <c r="R12">
+      <c r="R14">
         <f>1050*6.25</f>
         <v>6562.5</v>
       </c>
-      <c r="S12">
+      <c r="S14">
         <f>1650*4</f>
         <v>6600</v>
       </c>
-      <c r="T12">
+      <c r="T14">
         <f>1050*4</f>
         <v>4200</v>
       </c>
-      <c r="U12" t="s">
+      <c r="U14" t="s">
         <v>130</v>
       </c>
-      <c r="V12" s="5">
-        <f>V10/25.4</f>
+      <c r="V14" s="5">
+        <f>V12/25.4</f>
         <v>251.96850393700788</v>
       </c>
-      <c r="W12" t="s">
+      <c r="W14" t="s">
         <v>3</v>
       </c>
-      <c r="Z12" s="7"/>
-    </row>
-    <row r="13" spans="1:26">
-      <c r="B13" s="5">
-        <f>B12/12</f>
+      <c r="Z14" s="7"/>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="B15" s="5">
+        <f>B14/12</f>
         <v>378.9546138392688</v>
       </c>
-      <c r="C13" s="5">
-        <f>C12/12</f>
+      <c r="C15" s="5">
+        <f>C14/12</f>
         <v>378.9546138392688</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D15" t="s">
         <v>92</v>
       </c>
-      <c r="L13" s="7"/>
-      <c r="N13" s="2">
-        <f>N12/500</f>
+      <c r="L15" s="7"/>
+      <c r="N15" s="2">
+        <f>N14/500</f>
         <v>0.81599999999999995</v>
       </c>
-      <c r="O13">
-        <f>O12/500</f>
+      <c r="O15">
+        <f>O14/500</f>
         <v>0.48</v>
       </c>
-      <c r="P13" s="7">
-        <f t="shared" ref="P13:T13" si="1">P12/500</f>
+      <c r="P15" s="7">
+        <f t="shared" ref="P15:T15" si="1">P14/500</f>
         <v>0.49399999999999999</v>
       </c>
-      <c r="Q13" s="7">
+      <c r="Q15" s="7">
         <f t="shared" si="1"/>
         <v>5.6</v>
       </c>
-      <c r="R13">
+      <c r="R15">
         <f t="shared" si="1"/>
         <v>13.125</v>
       </c>
-      <c r="S13">
+      <c r="S15">
         <f t="shared" si="1"/>
         <v>13.2</v>
       </c>
-      <c r="T13">
+      <c r="T15">
         <f t="shared" si="1"/>
         <v>8.4</v>
       </c>
-      <c r="U13" t="s">
+      <c r="U15" t="s">
         <v>159</v>
       </c>
-      <c r="V13" s="5">
-        <f>V11/25.4</f>
+      <c r="V15" s="5">
+        <f>V13/25.4</f>
         <v>10.078740157480315</v>
       </c>
-      <c r="W13" t="s">
+      <c r="W15" t="s">
         <v>3</v>
       </c>
-      <c r="Z13" s="7"/>
-    </row>
-    <row r="14" spans="1:26">
-      <c r="B14">
+      <c r="Z15" s="7"/>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="B16">
         <v>121.5</v>
       </c>
-      <c r="C14">
+      <c r="C16">
         <v>121.5</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D16" t="s">
         <v>85</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F16" s="4">
         <v>172.87</v>
       </c>
-      <c r="G14">
+      <c r="G16">
         <v>129.65</v>
       </c>
-      <c r="H14">
+      <c r="H16">
         <v>103.72</v>
       </c>
-      <c r="I14">
+      <c r="I16">
         <v>86.43</v>
       </c>
-      <c r="J14">
+      <c r="J16">
         <v>210.35</v>
       </c>
-      <c r="K14">
+      <c r="K16">
         <v>140.22</v>
       </c>
-      <c r="L14" s="7">
+      <c r="L16" s="7">
         <v>105</v>
       </c>
-      <c r="M14">
+      <c r="M16">
         <v>71.599999999999994</v>
       </c>
-      <c r="N14">
-        <f>N12/750</f>
+      <c r="N16">
+        <f>N14/750</f>
         <v>0.54400000000000004</v>
       </c>
-      <c r="O14">
-        <f>O12/750</f>
+      <c r="O16">
+        <f>O14/750</f>
         <v>0.32</v>
       </c>
-      <c r="P14" s="2">
-        <f t="shared" ref="P14:S14" si="2">P12/750</f>
+      <c r="P16" s="2">
+        <f t="shared" ref="P16:S16" si="2">P14/750</f>
         <v>0.32933333333333331</v>
       </c>
-      <c r="Q14" s="2">
+      <c r="Q16" s="2">
         <f t="shared" si="2"/>
         <v>3.7333333333333334</v>
       </c>
-      <c r="R14">
+      <c r="R16">
         <f t="shared" si="2"/>
         <v>8.75</v>
       </c>
-      <c r="S14" s="2">
+      <c r="S16" s="2">
         <f t="shared" si="2"/>
         <v>8.8000000000000007</v>
       </c>
-      <c r="T14" s="2">
-        <f t="shared" ref="T14" si="3">T12/750</f>
+      <c r="T16" s="2">
+        <f t="shared" ref="T16" si="3">T14/750</f>
         <v>5.6</v>
       </c>
-      <c r="U14" t="s">
+      <c r="U16" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="15" spans="1:26">
-      <c r="B15" s="5">
-        <f>(B12/12000)*B14</f>
+    <row r="17" spans="2:22">
+      <c r="B17" s="5">
+        <f>(B14/12000)*B16</f>
         <v>46.042985581471157</v>
       </c>
-      <c r="C15" s="5">
-        <f>(C12/12000)*C14</f>
+      <c r="C17" s="5">
+        <f>(C14/12000)*C16</f>
         <v>46.042985581471157</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D17" t="s">
         <v>86</v>
       </c>
-      <c r="F15" s="1"/>
-      <c r="L15" s="7">
+      <c r="F17" s="1"/>
+      <c r="L17" s="7">
         <v>98.8</v>
       </c>
-      <c r="M15" t="s">
+      <c r="M17" t="s">
         <v>130</v>
       </c>
-      <c r="N15">
+      <c r="N17">
         <v>200</v>
       </c>
-      <c r="O15">
+      <c r="O17">
         <v>200</v>
       </c>
-      <c r="P15">
+      <c r="P17">
         <v>200</v>
       </c>
-      <c r="Q15">
+      <c r="Q17">
         <v>16</v>
       </c>
-      <c r="R15">
+      <c r="R17">
         <v>8</v>
       </c>
-      <c r="S15">
+      <c r="S17">
         <v>8</v>
       </c>
-      <c r="T15">
+      <c r="T17">
         <v>8</v>
       </c>
-      <c r="U15" t="s">
+      <c r="U17" t="s">
         <v>10</v>
       </c>
-      <c r="V15" t="s">
+      <c r="V17" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="16" spans="1:26">
-      <c r="F16" s="1"/>
-      <c r="L16" s="7">
+    <row r="18" spans="2:22">
+      <c r="F18" s="1"/>
+      <c r="L18" s="7">
         <v>121.5</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M18" t="s">
         <v>318</v>
       </c>
-      <c r="N16" s="2">
-        <f>PI()*(N10/2)^2</f>
+      <c r="N18" s="2">
+        <f>PI()*(N12/2)^2</f>
         <v>0.63617251235193317</v>
       </c>
-      <c r="O16" s="2">
-        <f>PI()*(O10/2)^2</f>
+      <c r="O18" s="2">
+        <f>PI()*(O12/2)^2</f>
         <v>0.36316811075498018</v>
       </c>
-      <c r="P16" s="2">
-        <f t="shared" ref="P16:Q16" si="4">PI()*(P10/2)^2</f>
+      <c r="P18" s="2">
+        <f t="shared" ref="P18:Q18" si="4">PI()*(P12/2)^2</f>
         <v>0.34211943997592853</v>
       </c>
-      <c r="Q16" s="2">
+      <c r="Q18" s="2">
         <f t="shared" si="4"/>
         <v>3.9760782021995817</v>
       </c>
-      <c r="R16" s="2">
-        <f t="shared" ref="R16:T16" si="5">PI()*(R10/2)^2</f>
+      <c r="R18" s="2">
+        <f t="shared" ref="R18:T18" si="5">PI()*(R12/2)^2</f>
         <v>8.55298599939821</v>
       </c>
-      <c r="S16" s="2">
+      <c r="S18" s="2">
         <f t="shared" si="5"/>
         <v>8.55298599939821</v>
       </c>
-      <c r="T16" s="2">
+      <c r="T18" s="2">
         <f t="shared" si="5"/>
         <v>4.908738521234052</v>
       </c>
-      <c r="U16" t="s">
+      <c r="U18" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
-      <c r="B17" s="2">
-        <f>(0.29*B10+(0.41*(B11/2))+(1.94*SQRT(((B11/2)^3)/B10)))</f>
+    <row r="19" spans="2:22">
+      <c r="B19" s="2">
+        <f>(0.29*B12+(0.41*(B13/2))+(1.94*SQRT(((B13/2)^3)/B12)))</f>
         <v>4.7806486944273656</v>
       </c>
-      <c r="C17" s="2">
-        <f>(0.29*C10+(0.41*(C11/2))+(1.94*SQRT(((C11/2)^3)/C10)))</f>
+      <c r="C19" s="2">
+        <f>(0.29*C12+(0.41*(C13/2))+(1.94*SQRT(((C13/2)^3)/C12)))</f>
         <v>4.7806486944273656</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D19" t="s">
         <v>54</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E19" t="s">
         <v>55</v>
       </c>
-      <c r="F17" s="45" t="s">
+      <c r="F19" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="N17" s="4">
-        <f>N15*N16*$S2</f>
+      <c r="N19" s="4">
+        <f t="shared" ref="N19:S19" si="6">N17*N18*$S4</f>
         <v>254.46900494077326</v>
       </c>
-      <c r="O17" s="4">
-        <f>O15*O16*$S2</f>
+      <c r="O19" s="4">
+        <f t="shared" si="6"/>
         <v>145.26724430199206</v>
       </c>
-      <c r="P17" s="4">
-        <f>P15*P16*$S2</f>
+      <c r="P19" s="4">
+        <f t="shared" si="6"/>
         <v>136.84777599037142</v>
       </c>
-      <c r="Q17" s="4">
-        <f>Q15*Q16*$S2</f>
+      <c r="Q19" s="4">
+        <f t="shared" si="6"/>
         <v>127.23450247038662</v>
       </c>
-      <c r="R17" s="4">
-        <f>R15*R16*$S2</f>
+      <c r="R19" s="4">
+        <f t="shared" si="6"/>
         <v>136.84777599037136</v>
       </c>
-      <c r="S17" s="4">
-        <f>S15*S16*$S2</f>
+      <c r="S19" s="4">
+        <f t="shared" si="6"/>
         <v>136.84777599037136</v>
       </c>
-      <c r="T17" s="4">
-        <f t="shared" ref="T17" si="6">T15*T16*2</f>
+      <c r="T19" s="4">
+        <f t="shared" ref="T19" si="7">T17*T18*2</f>
         <v>78.539816339744831</v>
       </c>
-      <c r="U17" t="s">
+      <c r="U19" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
-      <c r="B18" s="15">
-        <f>1.2 * (B11*25.4/10)</f>
+    <row r="20" spans="2:22">
+      <c r="B20" s="15">
+        <f>1.2 * (B13*25.4/10)</f>
         <v>5.8826399999999994</v>
       </c>
-      <c r="C18" s="15">
-        <f>1.2 * (C11*25.4/10)</f>
+      <c r="C20" s="15">
+        <f>1.2 * (C13*25.4/10)</f>
         <v>5.8826399999999994</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D20" t="s">
         <v>54</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E20" t="s">
         <v>56</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F20" t="s">
         <v>60</v>
       </c>
-      <c r="N18" s="20">
-        <f>N17/$S6</f>
+      <c r="N20" s="20">
+        <f t="shared" ref="N20:T20" si="8">N19/$S8</f>
         <v>0.61247637051039705</v>
       </c>
-      <c r="O18" s="20">
-        <f>O17/$S6</f>
+      <c r="O20" s="20">
+        <f t="shared" si="8"/>
         <v>0.34964083175803412</v>
       </c>
-      <c r="P18" s="20">
-        <f>P17/$S6</f>
+      <c r="P20" s="20">
+        <f t="shared" si="8"/>
         <v>0.32937618147448022</v>
       </c>
-      <c r="Q18" s="20">
-        <f>Q17/$S6</f>
+      <c r="Q20" s="20">
+        <f t="shared" si="8"/>
         <v>0.30623818525519847</v>
       </c>
-      <c r="R18" s="20">
-        <f>R17/$S6</f>
+      <c r="R20" s="20">
+        <f t="shared" si="8"/>
         <v>0.32937618147448011</v>
       </c>
-      <c r="S18" s="20">
-        <f>S17/$S6</f>
+      <c r="S20" s="20">
+        <f t="shared" si="8"/>
         <v>0.32937618147448011</v>
       </c>
-      <c r="T18" s="20">
-        <f>T17/$S6</f>
+      <c r="T20" s="20">
+        <f t="shared" si="8"/>
         <v>0.18903591682419663</v>
       </c>
-      <c r="U18" t="s">
+      <c r="U20" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
-      <c r="N19" s="10">
+    <row r="21" spans="2:22">
+      <c r="N21" s="10">
         <v>28.7</v>
       </c>
-      <c r="P19">
+      <c r="P21">
         <v>42</v>
       </c>
-      <c r="Q19">
+      <c r="Q21">
         <v>4</v>
       </c>
-      <c r="U19" t="s">
+      <c r="U21" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
-      <c r="B20" s="15">
-        <f>((((B7^2) * ((B11/2)^2)) /(( 9 * (B11/2)) + ( 10 * B10))))</f>
+    <row r="22" spans="2:22">
+      <c r="B22" s="15">
+        <f>((((B9^2) * ((B13/2)^2)) /(( 9 * (B13/2)) + ( 10 * B12))))</f>
         <v>3674.3410669191912</v>
       </c>
-      <c r="C20" s="15">
-        <f>((((C7^2) * ((C11/2)^2)) /(( 9 * (C11/2)) + ( 10 * C10))))</f>
+      <c r="C22" s="15">
+        <f>((((C9^2) * ((C13/2)^2)) /(( 9 * (C13/2)) + ( 10 * C12))))</f>
         <v>3674.3410669191912</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D22" t="s">
         <v>57</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E22" t="s">
         <v>55</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F22" t="s">
         <v>61</v>
       </c>
-      <c r="L20" s="17" t="s">
+      <c r="L22" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="M20" s="17"/>
-    </row>
-    <row r="21" spans="1:21">
-      <c r="B21" s="8">
+      <c r="M22" s="17"/>
+    </row>
+    <row r="23" spans="2:22">
+      <c r="B23" s="8">
         <v>4355.4007000000001</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C23" s="8">
         <v>4355.4007000000001</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D23" t="s">
         <v>57</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E23" t="s">
         <v>58</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F23" t="s">
         <v>59</v>
       </c>
-      <c r="L21" s="19">
-        <f>B51/299800000</f>
+      <c r="L23" s="19">
+        <f>B53/299800000</f>
         <v>3.8527473748568757E-7</v>
       </c>
-      <c r="M21" t="s">
+      <c r="M23" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
-      <c r="L22">
+    <row r="24" spans="2:22">
+      <c r="L24">
         <v>4</v>
       </c>
-      <c r="M22" t="s">
+      <c r="M24" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
-      <c r="B23" s="16">
-        <f>1/(2*PI() * SQRT( (B20*0.000001) * ((B18+$B4)*0.000000000001) ) )</f>
+    <row r="25" spans="2:22">
+      <c r="B25" s="16">
+        <f>1/(2*PI() * SQRT( (B22*0.000001) * ((B20+$B6)*0.000000000001) ) )</f>
         <v>639013.77227889106</v>
       </c>
-      <c r="C23" s="16">
-        <f>1/(2*PI() * SQRT( (C20*0.000001) * ((C18+$B4)*0.000000000001) ) )</f>
+      <c r="C25" s="16">
+        <f>1/(2*PI() * SQRT( (C22*0.000001) * ((C20+$B6)*0.000000000001) ) )</f>
         <v>639013.77227889106</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D25" t="s">
         <v>63</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E25" t="s">
         <v>39</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F25" t="s">
         <v>68</v>
       </c>
-      <c r="L23" s="19">
-        <f>L21*SQRT(L22)</f>
+      <c r="L25" s="19">
+        <f>L23*SQRT(L24)</f>
         <v>7.7054947497137513E-7</v>
       </c>
-      <c r="M23" t="s">
+      <c r="M25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
-      <c r="B24" s="2">
-        <f>2000000*PI() * SQRT( (B20*0.000001) * ((B18+$B4)*0.000000000001) )</f>
+    <row r="26" spans="2:22">
+      <c r="B26" s="2">
+        <f>2000000*PI() * SQRT( (B22*0.000001) * ((B20+$B4)*0.000000000001) )</f>
         <v>1.5649114985953076</v>
       </c>
-      <c r="C24" s="2">
-        <f>2000000*PI() * SQRT( (C20*0.000001) * ((C18+$B4)*0.000000000001) )</f>
+      <c r="C26" s="2">
+        <f>2000000*PI() * SQRT( (C22*0.000001) * ((C20+$B4)*0.000000000001) )</f>
         <v>1.5649114985953076</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D26" t="s">
         <v>69</v>
       </c>
-      <c r="L24" s="5">
-        <f>1/(L23*4)</f>
+      <c r="L26" s="5">
+        <f>1/(L25*4)</f>
         <v>324443.80032740551</v>
       </c>
-      <c r="M24" t="s">
+      <c r="M26" t="s">
         <v>40</v>
       </c>
-      <c r="N24" t="s">
+      <c r="N26" t="s">
         <v>39</v>
       </c>
-      <c r="O24" t="s">
+      <c r="O26" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
-      <c r="B25" s="5">
-        <f xml:space="preserve"> 2*PI()*B23</f>
+    <row r="27" spans="2:22">
+      <c r="B27" s="5">
+        <f xml:space="preserve"> 2*PI()*B25</f>
         <v>4015041.9450681303</v>
       </c>
-      <c r="C25" s="5">
-        <f xml:space="preserve"> 2*PI()*C23</f>
+      <c r="C27" s="5">
+        <f xml:space="preserve"> 2*PI()*C25</f>
         <v>4015041.9450681303</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D27" t="s">
         <v>81</v>
       </c>
-      <c r="L25" s="5">
-        <f>L24*2</f>
+      <c r="L27" s="5">
+        <f>L26*2</f>
         <v>648887.60065481102</v>
       </c>
-      <c r="O25" t="s">
+      <c r="O27" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
-      <c r="B27" s="16">
-        <f>B25*(B20/1000000)</f>
+    <row r="29" spans="2:22">
+      <c r="B29" s="16">
+        <f>B27*(B22/1000000)</f>
         <v>14752.633504166939</v>
       </c>
-      <c r="C27" s="16">
-        <f>C25*(C20/1000000)</f>
+      <c r="C29" s="16">
+        <f>C27*(C22/1000000)</f>
         <v>14752.633504166939</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D29" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
-      <c r="B28" s="16">
-        <f>1/(B25*((B18+$B4)/1000000000000))</f>
+    <row r="30" spans="2:22">
+      <c r="B30" s="16">
+        <f>1/(B27*((B20+$B6)/1000000000000))</f>
         <v>14752.633504166934</v>
       </c>
-      <c r="C28" s="16">
-        <f>1/(C25*((C18+$B4)/1000000000000))</f>
+      <c r="C30" s="16">
+        <f>1/(C27*((C20+$B6)/1000000000000))</f>
         <v>14752.633504166934</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D30" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
-      <c r="B30" s="14">
-        <f>B27/B15</f>
+    <row r="32" spans="2:22">
+      <c r="B32" s="14">
+        <f>B29/B17</f>
         <v>320.4100107292731</v>
       </c>
-      <c r="C30" s="14">
-        <f>C27/C15</f>
+      <c r="C32" s="14">
+        <f>C29/C17</f>
         <v>320.4100107292731</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D32" t="s">
         <v>87</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E32" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
-      <c r="B31" s="4"/>
-    </row>
-    <row r="32" spans="1:21">
-      <c r="A32" s="18" t="s">
+    <row r="33" spans="1:12">
+      <c r="B33" s="4"/>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="C32" t="s">
+      <c r="B34" s="29" t="s">
         <v>163</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E34" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="F34" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="G32" s="9" t="s">
+      <c r="G34" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="H32" s="9" t="s">
+      <c r="H34" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="I32" s="9" t="s">
+      <c r="I34" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="J32" s="9" t="s">
+      <c r="J34" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="K32" s="9" t="s">
+      <c r="K34" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="L32" s="9" t="s">
+      <c r="L34" s="9" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="33" spans="2:12">
-      <c r="B33">
+    <row r="35" spans="1:12">
+      <c r="B35">
         <v>0.34799999999999998</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C35" t="s">
         <v>89</v>
       </c>
-      <c r="E33">
+      <c r="E35">
         <v>0.20399999999999999</v>
       </c>
-      <c r="F33">
+      <c r="F35">
         <v>0.26900000000000002</v>
       </c>
-      <c r="G33">
+      <c r="G35">
         <v>0.33300000000000002</v>
       </c>
-      <c r="H33">
+      <c r="H35">
         <v>0.39700000000000002</v>
       </c>
-      <c r="I33">
+      <c r="I35">
         <v>0.17100000000000001</v>
       </c>
-      <c r="J33">
+      <c r="J35">
         <v>0.252</v>
       </c>
-      <c r="K33">
+      <c r="K35">
         <v>0.34799999999999998</v>
       </c>
-      <c r="L33">
+      <c r="L35">
         <v>0.52</v>
       </c>
     </row>
-    <row r="34" spans="2:12">
-      <c r="B34" s="13">
-        <f>1000/B33</f>
+    <row r="36" spans="1:12">
+      <c r="B36" s="13">
+        <f>1000/B35</f>
         <v>2873.5632183908046</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C36" t="s">
         <v>5</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D36" t="s">
         <v>8</v>
       </c>
-      <c r="E34">
+      <c r="E36">
         <v>0.185</v>
       </c>
-      <c r="F34">
+      <c r="F36">
         <v>0.247</v>
       </c>
-      <c r="G34">
+      <c r="G36">
         <v>0.308</v>
       </c>
-      <c r="H34">
+      <c r="H36">
         <v>0.37</v>
       </c>
-      <c r="I34">
+      <c r="I36">
         <v>0.154</v>
       </c>
-      <c r="J34">
+      <c r="J36">
         <v>0.23100000000000001</v>
       </c>
-      <c r="L34" t="s">
+      <c r="L36" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="35" spans="2:12">
-      <c r="B35">
-        <f>B8/1000</f>
+    <row r="37" spans="1:12">
+      <c r="B37">
+        <f>B10/1000</f>
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C37" t="s">
         <v>3</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D37" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="2:12">
-      <c r="B37" s="1">
-        <f>454/(B34*(2.54*0.12))</f>
+    <row r="39" spans="1:12">
+      <c r="B39" s="1">
+        <f>454/(B36*(2.54*0.12))</f>
         <v>0.51834645669291335</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C39" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="2:12">
-      <c r="B39" t="s">
+    <row r="41" spans="1:12">
+      <c r="B41" t="s">
         <v>0</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D41" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="2:12">
-      <c r="B40">
+    <row r="42" spans="1:12">
+      <c r="B42">
         <v>1.27</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C42" t="s">
         <v>34</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D42" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="2:12">
-      <c r="B42">
+    <row r="44" spans="1:12">
+      <c r="B44">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C44" t="s">
         <v>3</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D44" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:12">
-      <c r="B43">
-        <f>B42*25.4</f>
+    <row r="45" spans="1:12">
+      <c r="B45">
+        <f>B44*25.4</f>
         <v>0.43180000000000002</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C45" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="2:12">
-      <c r="B44">
-        <f>B11*25.4</f>
+    <row r="46" spans="1:12">
+      <c r="B46">
+        <f>B13*25.4</f>
         <v>49.021999999999998</v>
-      </c>
-      <c r="C44" t="s">
-        <v>2</v>
-      </c>
-      <c r="D44" t="s">
-        <v>4</v>
-      </c>
-      <c r="F44" s="2"/>
-      <c r="J44" s="2">
-        <f>(B44/20)^2 * PI() * (B46/10)</f>
-        <v>660.60214111159428</v>
-      </c>
-      <c r="K44" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="45" spans="2:12">
-      <c r="B45">
-        <f>B11</f>
-        <v>1.93</v>
-      </c>
-      <c r="C45" t="s">
-        <v>3</v>
-      </c>
-      <c r="D45" t="s">
-        <v>4</v>
-      </c>
-      <c r="J45" s="1">
-        <f>J44/1000</f>
-        <v>0.66060214111159432</v>
-      </c>
-    </row>
-    <row r="46" spans="2:12">
-      <c r="B46">
-        <v>350</v>
       </c>
       <c r="C46" t="s">
         <v>2</v>
       </c>
       <c r="D46" t="s">
+        <v>4</v>
+      </c>
+      <c r="F46" s="2"/>
+      <c r="J46" s="2">
+        <f>(B46/20)^2 * PI() * (B48/10)</f>
+        <v>660.60214111159428</v>
+      </c>
+      <c r="K46" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="B47">
+        <f>B13</f>
+        <v>1.93</v>
+      </c>
+      <c r="C47" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47" t="s">
+        <v>4</v>
+      </c>
+      <c r="J47" s="1">
+        <f>J46/1000</f>
+        <v>0.66060214111159432</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="B48">
+        <v>350</v>
+      </c>
+      <c r="C48" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48" t="s">
         <v>62</v>
       </c>
-      <c r="E46" s="2">
-        <f>B46/25.4</f>
+      <c r="E48" s="2">
+        <f>B48/25.4</f>
         <v>13.779527559055119</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F48" t="s">
         <v>7</v>
       </c>
-      <c r="J46" s="4">
-        <f>B65*J45</f>
+      <c r="J48" s="4">
+        <f>B67*J47</f>
         <v>10.591358206600455</v>
       </c>
-      <c r="K46" t="s">
+      <c r="K48" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="47" spans="2:12">
-      <c r="B47" s="2">
-        <f>PI() * B44*B43*B46/1000</f>
+    <row r="49" spans="2:11">
+      <c r="B49" s="2">
+        <f>PI() * B46*B45*B48/1000</f>
         <v>23.275101344864463</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C49" t="s">
         <v>21</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D49" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="2:12">
-      <c r="B48" s="2">
-        <f>B47*B40</f>
+    <row r="50" spans="2:11">
+      <c r="B50" s="2">
+        <f>B49*B42</f>
         <v>29.559378707977871</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C50" t="s">
         <v>9</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D50" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="2:11">
-      <c r="I49" s="2"/>
-    </row>
-    <row r="50" spans="2:11">
-      <c r="B50">
-        <f>B7</f>
+    <row r="51" spans="2:11">
+      <c r="I51" s="2"/>
+    </row>
+    <row r="52" spans="2:11">
+      <c r="B52">
+        <f>B9</f>
         <v>750</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C52" t="s">
         <v>10</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D52" t="s">
         <v>12</v>
       </c>
-      <c r="G50">
+      <c r="G52">
         <v>18650</v>
       </c>
-      <c r="H50">
+      <c r="H52">
         <v>18500</v>
       </c>
-      <c r="I50">
+      <c r="I52">
         <v>18350</v>
       </c>
-      <c r="J50">
+      <c r="J52">
         <v>10440</v>
-      </c>
-    </row>
-    <row r="51" spans="2:11">
-      <c r="B51" s="2">
-        <f>PI() * B44 *B50/1000</f>
-        <v>115.50536629820913</v>
-      </c>
-      <c r="C51" t="s">
-        <v>11</v>
-      </c>
-      <c r="D51" t="s">
-        <v>35</v>
-      </c>
-      <c r="G51" t="s">
-        <v>174</v>
-      </c>
-      <c r="H51" t="s">
-        <v>173</v>
-      </c>
-      <c r="I51" t="s">
-        <v>172</v>
-      </c>
-      <c r="J51">
-        <v>8</v>
-      </c>
-      <c r="K51" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="2:11">
-      <c r="G52" t="s">
-        <v>177</v>
-      </c>
-      <c r="H52" t="s">
-        <v>176</v>
-      </c>
-      <c r="I52" t="s">
-        <v>175</v>
-      </c>
-      <c r="J52">
-        <v>600</v>
-      </c>
-      <c r="K52" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="53" spans="2:11">
       <c r="B53" s="2">
-        <f>B37*B51</f>
-        <v>59.87179734969375</v>
+        <f>PI() * B46 *B52/1000</f>
+        <v>115.50536629820913</v>
       </c>
       <c r="C53" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" t="s">
+        <v>35</v>
+      </c>
+      <c r="G53" t="s">
+        <v>174</v>
+      </c>
+      <c r="H53" t="s">
+        <v>173</v>
+      </c>
+      <c r="I53" t="s">
+        <v>172</v>
+      </c>
+      <c r="J53">
+        <v>8</v>
+      </c>
+      <c r="K53" t="s">
         <v>9</v>
       </c>
-      <c r="D53" t="s">
-        <v>32</v>
+    </row>
+    <row r="54" spans="2:11">
+      <c r="G54" t="s">
+        <v>177</v>
+      </c>
+      <c r="H54" t="s">
+        <v>176</v>
+      </c>
+      <c r="I54" t="s">
+        <v>175</v>
+      </c>
+      <c r="J54">
+        <v>600</v>
+      </c>
+      <c r="K54" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="55" spans="2:11">
       <c r="B55" s="2">
-        <f>B53+B48</f>
-        <v>89.431176057671621</v>
+        <f>B39*B53</f>
+        <v>59.87179734969375</v>
       </c>
       <c r="C55" t="s">
         <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>14</v>
-      </c>
-      <c r="G55" s="2">
-        <f>B55</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11">
+      <c r="B57" s="2">
+        <f>B55+B50</f>
         <v>89.431176057671621</v>
-      </c>
-    </row>
-    <row r="57" spans="2:11">
-      <c r="B57">
-        <v>91</v>
       </c>
       <c r="C57" t="s">
         <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>316</v>
+        <v>14</v>
       </c>
       <c r="G57" s="2">
         <f>B57</f>
-        <v>91</v>
-      </c>
-    </row>
-    <row r="58" spans="2:11">
-      <c r="G58" s="2"/>
+        <v>89.431176057671621</v>
+      </c>
     </row>
     <row r="59" spans="2:11">
       <c r="B59">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="C59" t="s">
         <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>116</v>
+        <v>316</v>
       </c>
       <c r="G59" s="2">
-        <v>40</v>
-      </c>
+        <f>B59</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11">
+      <c r="G60" s="2"/>
     </row>
     <row r="61" spans="2:11">
       <c r="B61">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C61" t="s">
         <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c r="G61" s="2">
-        <f>B61</f>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="62" spans="2:11">
-      <c r="I62" t="s">
-        <v>231</v>
+        <v>40</v>
       </c>
     </row>
     <row r="63" spans="2:11">
       <c r="B63">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C63" t="s">
         <v>9</v>
       </c>
       <c r="D63" t="s">
+        <v>15</v>
+      </c>
+      <c r="G63" s="2">
+        <f>B63</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11">
+      <c r="I64" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="B65">
+        <v>20</v>
+      </c>
+      <c r="C65" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" t="s">
         <v>115</v>
       </c>
-      <c r="G63">
-        <f>B63</f>
+      <c r="G65">
+        <f>B65</f>
         <v>20</v>
       </c>
-      <c r="I63" s="3" t="s">
+      <c r="I65" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
-      <c r="B65" s="4">
-        <f>K68</f>
+    <row r="67" spans="1:12">
+      <c r="B67" s="4">
+        <f>K70</f>
         <v>16.032885071759519</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C67" t="s">
         <v>23</v>
       </c>
-      <c r="J65" t="s">
+      <c r="J67" t="s">
         <v>43</v>
       </c>
-      <c r="K65" t="s">
+      <c r="K67" t="s">
         <v>23</v>
       </c>
-      <c r="L65">
+      <c r="L67">
         <v>28.316800000000001</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12">
-      <c r="B66">
-        <v>150</v>
-      </c>
-      <c r="C66" t="s">
-        <v>20</v>
-      </c>
-      <c r="D66" t="s">
-        <v>19</v>
-      </c>
-      <c r="E66" s="2">
-        <f>B66/2.54</f>
-        <v>59.055118110236222</v>
-      </c>
-      <c r="F66" t="s">
-        <v>7</v>
-      </c>
-      <c r="I66" t="s">
-        <v>220</v>
-      </c>
-      <c r="J66">
-        <v>1.2</v>
-      </c>
-      <c r="K66" s="4">
-        <f>J66*L$66/L$65</f>
-        <v>19.239462086111423</v>
-      </c>
-      <c r="L66">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12">
-      <c r="B67">
-        <v>30</v>
-      </c>
-      <c r="C67" t="s">
-        <v>130</v>
-      </c>
-      <c r="D67" t="s">
-        <v>232</v>
-      </c>
-      <c r="E67">
-        <v>4</v>
-      </c>
-      <c r="F67">
-        <v>0.7</v>
-      </c>
-      <c r="I67" t="s">
-        <v>227</v>
-      </c>
-      <c r="J67">
-        <v>0.75</v>
-      </c>
-      <c r="K67" s="4">
-        <f t="shared" ref="K67:K68" si="7">J67*L$66/L$65</f>
-        <v>12.024663803819641</v>
       </c>
     </row>
     <row r="68" spans="1:12">
       <c r="B68">
-        <f>B67*E67*F67</f>
-        <v>84</v>
+        <v>150</v>
       </c>
       <c r="C68" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D68" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="E68" s="2">
+        <f>B68/2.54</f>
+        <v>59.055118110236222</v>
+      </c>
+      <c r="F68" t="s">
+        <v>7</v>
       </c>
       <c r="I68" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="J68">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="K68" s="4">
-        <f t="shared" si="7"/>
-        <v>16.032885071759519</v>
+        <f>J68*L$68/L$67</f>
+        <v>19.239462086111423</v>
+      </c>
+      <c r="L68">
+        <v>454</v>
       </c>
     </row>
     <row r="69" spans="1:12">
       <c r="B69">
-        <f>B68*B66</f>
-        <v>12600</v>
+        <v>30</v>
       </c>
       <c r="C69" t="s">
-        <v>21</v>
+        <v>130</v>
       </c>
       <c r="D69" t="s">
-        <v>22</v>
+        <v>232</v>
+      </c>
+      <c r="E69">
+        <v>4</v>
+      </c>
+      <c r="F69">
+        <v>0.7</v>
+      </c>
+      <c r="I69" t="s">
+        <v>227</v>
+      </c>
+      <c r="J69">
+        <v>0.75</v>
+      </c>
+      <c r="K69" s="4">
+        <f t="shared" ref="K69:K70" si="9">J69*L$68/L$67</f>
+        <v>12.024663803819641</v>
       </c>
     </row>
     <row r="70" spans="1:12">
       <c r="B70">
-        <f>B69/1000</f>
+        <f>B69*E69*F69</f>
+        <v>84</v>
+      </c>
+      <c r="C70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D70" t="s">
+        <v>18</v>
+      </c>
+      <c r="I70" t="s">
+        <v>226</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70" s="4">
+        <f t="shared" si="9"/>
+        <v>16.032885071759519</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="B71">
+        <f>B70*B68</f>
+        <v>12600</v>
+      </c>
+      <c r="C71" t="s">
+        <v>21</v>
+      </c>
+      <c r="D71" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="B72">
+        <f>B71/1000</f>
         <v>12.6</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C72" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:12">
-      <c r="B71" s="2">
-        <f>B65*B70</f>
+    <row r="73" spans="1:12">
+      <c r="B73" s="2">
+        <f>B67*B72</f>
         <v>202.01435190416993</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C73" t="s">
         <v>9</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D73" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="1:12">
-      <c r="G72" s="2">
-        <f>B71</f>
+    <row r="74" spans="1:12">
+      <c r="G74" s="2">
+        <f>B73</f>
         <v>202.01435190416993</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12">
-      <c r="B74">
-        <v>20</v>
-      </c>
-      <c r="C74" t="s">
-        <v>9</v>
-      </c>
-      <c r="D74" t="s">
-        <v>117</v>
-      </c>
-      <c r="G74">
-        <v>20</v>
       </c>
     </row>
     <row r="76" spans="1:12">
       <c r="B76">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C76" t="s">
         <v>9</v>
       </c>
       <c r="D76" t="s">
+        <v>117</v>
+      </c>
+      <c r="G76">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="B78">
+        <v>40</v>
+      </c>
+      <c r="C78" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" t="s">
         <v>118</v>
       </c>
-      <c r="G76">
-        <f>B76</f>
+      <c r="G78">
+        <f>B78</f>
         <v>40</v>
       </c>
     </row>
-    <row r="78" spans="1:12">
-      <c r="A78" s="17" t="s">
+    <row r="80" spans="1:12">
+      <c r="A80" s="17" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="79" spans="1:12">
-      <c r="B79">
-        <f>H83</f>
+    <row r="81" spans="2:9">
+      <c r="B81">
+        <f>H85</f>
         <v>1.6</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C81" t="s">
         <v>26</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D81" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="80" spans="1:12">
-      <c r="B80" s="2">
-        <f>B79*1000/9.8</f>
+    <row r="82" spans="2:9">
+      <c r="B82" s="2">
+        <f>B81*1000/9.8</f>
         <v>163.26530612244898</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C82" t="s">
         <v>48</v>
       </c>
-      <c r="G80" t="s">
+      <c r="G82" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
-      <c r="G81" t="s">
+    <row r="83" spans="2:9">
+      <c r="G83" t="s">
         <v>180</v>
       </c>
-      <c r="H81" s="29">
+      <c r="H83" s="29">
         <v>25</v>
       </c>
-      <c r="I81" t="s">
+      <c r="I83" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
-      <c r="B82" s="2">
-        <f>SUM(G55:G76)</f>
+    <row r="84" spans="2:9">
+      <c r="B84" s="2">
+        <f>SUM(G57:G78)</f>
         <v>529.44552796184155</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C84" t="s">
         <v>9</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D84" t="s">
         <v>31</v>
       </c>
-      <c r="G82" t="s">
+      <c r="G84" t="s">
         <v>181</v>
       </c>
-      <c r="H82" s="29">
+      <c r="H84" s="29">
         <v>100</v>
       </c>
-      <c r="I82" t="s">
+      <c r="I84" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
-      <c r="G83" t="s">
+    <row r="85" spans="2:9">
+      <c r="G85" t="s">
         <v>182</v>
       </c>
-      <c r="H83" s="29">
+      <c r="H85" s="29">
         <v>1.6</v>
       </c>
-      <c r="I83" t="s">
+      <c r="I85" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
-      <c r="B84" s="2">
-        <f>B80/B82</f>
+    <row r="86" spans="2:9">
+      <c r="B86" s="2">
+        <f>B82/B84</f>
         <v>0.30837035634422416</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D86" t="s">
         <v>27</v>
       </c>
-      <c r="G84" t="s">
+      <c r="G86" t="s">
         <v>183</v>
       </c>
-      <c r="H84" s="29">
+      <c r="H86" s="29">
         <v>60</v>
       </c>
-      <c r="I84" t="s">
+      <c r="I86" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
-      <c r="G85" t="s">
+    <row r="87" spans="2:9">
+      <c r="G87" t="s">
         <v>184</v>
       </c>
-      <c r="H85" s="29">
+      <c r="H87" s="29">
         <v>0.8</v>
       </c>
-      <c r="I85" t="s">
+      <c r="I87" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
-      <c r="B86">
-        <f>B66*B67</f>
+    <row r="88" spans="2:9">
+      <c r="B88">
+        <f>B68*B69</f>
         <v>4500</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C88" t="s">
         <v>17</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D88" t="s">
         <v>28</v>
       </c>
-      <c r="G86" t="s">
+      <c r="G88" t="s">
         <v>185</v>
       </c>
-      <c r="H86" s="29">
+      <c r="H88" s="29">
         <v>75</v>
       </c>
-      <c r="I86" t="s">
+      <c r="I88" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
-      <c r="B88" s="1">
-        <f>B82/B86</f>
+    <row r="90" spans="2:9">
+      <c r="B90" s="1">
+        <f>B84/B88</f>
         <v>0.11765456176929812</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C90" t="s">
         <v>29</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D90" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
-      <c r="B90" s="2">
-        <f>B82/30</f>
+    <row r="92" spans="2:9">
+      <c r="B92" s="2">
+        <f>B84/30</f>
         <v>17.648184265394718</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C92" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
-      <c r="B91" s="2">
-        <f>B86/2.54^2</f>
+    <row r="93" spans="2:9">
+      <c r="B93" s="2">
+        <f>B88/2.54^2</f>
         <v>697.50139500278999</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C93" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
-      <c r="B93" s="2">
-        <f>B90/(B91/144)</f>
+    <row r="95" spans="2:9">
+      <c r="B95" s="2">
+        <f>B92/(B93/144)</f>
         <v>3.643488819411858</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C95" t="s">
         <v>51</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D95" t="s">
         <v>30</v>
       </c>
-      <c r="F93" s="2">
-        <f>B93/16</f>
+      <c r="F95" s="2">
+        <f>B95/16</f>
         <v>0.22771805121324112</v>
       </c>
-      <c r="G93" t="s">
+      <c r="G95" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
-      <c r="B94" s="4">
-        <f>B90/(B91/144)^1.5</f>
+    <row r="96" spans="2:9">
+      <c r="B96" s="4">
+        <f>B92/(B93/144)^1.5</f>
         <v>1.6554884188545633</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C96" t="s">
         <v>52</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D96" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
-      <c r="A96" s="17" t="s">
+    <row r="98" spans="1:5">
+      <c r="A98" s="17" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="97" spans="2:5">
-      <c r="B97">
+    <row r="99" spans="1:5">
+      <c r="B99">
         <v>454</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C99" t="s">
         <v>70</v>
       </c>
-      <c r="D97">
+      <c r="D99">
         <v>1</v>
       </c>
-      <c r="E97" t="s">
+      <c r="E99" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="98" spans="2:5">
-      <c r="B98">
-        <f>B97/454</f>
+    <row r="100" spans="1:5">
+      <c r="B100">
+        <f>B99/454</f>
         <v>1</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C100" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="99" spans="2:5">
-      <c r="B99" s="5">
-        <f>(B101^3)/1000</f>
+    <row r="101" spans="1:5">
+      <c r="B101" s="5">
+        <f>(B103^3)/1000</f>
         <v>28.316846592000001</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C101" t="s">
         <v>74</v>
       </c>
-      <c r="D99" s="5">
-        <f>B97/B99</f>
+      <c r="D101" s="5">
+        <f>B99/B101</f>
         <v>16.03285869155582</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E101" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="100" spans="2:5">
-      <c r="B100">
+    <row r="102" spans="1:5">
+      <c r="B102">
         <v>1</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C102" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="101" spans="2:5">
-      <c r="B101">
-        <f>2.54*12*B100</f>
+    <row r="103" spans="1:5">
+      <c r="B103">
+        <f>2.54*12*B102</f>
         <v>30.48</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C103" t="s">
         <v>73</v>
       </c>
-      <c r="D101" s="5">
-        <f>D97*D99</f>
+      <c r="D103" s="5">
+        <f>D99*D101</f>
         <v>16.03285869155582</v>
       </c>
-      <c r="E101" t="s">
+      <c r="E103" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="103" spans="2:5">
-      <c r="C103" t="s">
+    <row r="105" spans="1:5">
+      <c r="C105" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="104" spans="2:5">
-      <c r="B104" s="6">
+    <row r="106" spans="1:5">
+      <c r="B106" s="6">
         <v>35.314999999999998</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C106" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="105" spans="2:5">
-      <c r="B105">
+    <row r="107" spans="1:5">
+      <c r="B107">
         <v>1</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C107" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="106" spans="2:5">
-      <c r="B106">
-        <f>B105*0.454</f>
+    <row r="108" spans="1:5">
+      <c r="B108">
+        <f>B107*0.454</f>
         <v>0.45400000000000001</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C108" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="107" spans="2:5">
-      <c r="B107" s="2">
-        <f>B106*B104</f>
+    <row r="109" spans="1:5">
+      <c r="B109" s="2">
+        <f>B108*B106</f>
         <v>16.033010000000001</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C109" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="110" spans="2:5">
-      <c r="B110">
+    <row r="112" spans="1:5">
+      <c r="B112">
         <v>0.3</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C112" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="111" spans="2:5">
-      <c r="B111">
-        <v>5</v>
-      </c>
-      <c r="C111" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="112" spans="2:5">
-      <c r="B112" s="4">
-        <f>PI()* (B110^2) * B111</f>
-        <v>1.4137166941154069</v>
-      </c>
-      <c r="C112" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="113" spans="2:4">
       <c r="B113">
+        <v>5</v>
+      </c>
+      <c r="C113" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4">
+      <c r="B114" s="4">
+        <f>PI()* (B112^2) * B113</f>
+        <v>1.4137166941154069</v>
+      </c>
+      <c r="C114" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4">
+      <c r="B115">
         <v>16</v>
       </c>
     </row>
-    <row r="114" spans="2:4">
-      <c r="B114" s="2">
-        <f>B112*B113</f>
+    <row r="116" spans="2:4">
+      <c r="B116" s="2">
+        <f>B114*B115</f>
         <v>22.61946710584651</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C116" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="116" spans="2:4">
-      <c r="B116">
+    <row r="118" spans="2:4">
+      <c r="B118">
         <v>1.2</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C118" t="s">
         <v>45</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D118" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="117" spans="2:4">
-      <c r="B117" s="1">
-        <f>(B116/0.454)/((1/0.0254)/12)^3</f>
+    <row r="119" spans="2:4">
+      <c r="B119" s="1">
+        <f>(B118/0.454)/((1/0.0254)/12)^3</f>
         <v>7.4846290551541836E-2</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C119" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="119" spans="2:4">
-      <c r="B119" s="30">
-        <f>1/B117</f>
+    <row r="121" spans="2:4">
+      <c r="B121" s="30">
+        <f>1/B119</f>
         <v>13.360715576296519</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C121" t="s">
         <v>235</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F17" r:id="rId1" xr:uid="{982F6BD9-0C86-C144-8943-34BF5C65EA30}"/>
+    <hyperlink ref="F19" r:id="rId1" xr:uid="{982F6BD9-0C86-C144-8943-34BF5C65EA30}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -8037,11 +8070,11 @@
         <v>0.40639999999999998</v>
       </c>
       <c r="AB15" s="56">
-        <f>U$40/$AA15</f>
+        <f t="shared" ref="AB15:AC22" si="3">U$40/$AA15</f>
         <v>194.70453367248237</v>
       </c>
       <c r="AC15" s="56">
-        <f>V$40/$AA15</f>
+        <f t="shared" si="3"/>
         <v>172.69174026607908</v>
       </c>
       <c r="AD15" s="69">
@@ -8049,11 +8082,11 @@
         <v>0.36909448818897639</v>
       </c>
       <c r="AE15" s="66">
-        <f>$AD15*U$42</f>
+        <f t="shared" ref="AE15:AF18" si="4">$AD15*U$42</f>
         <v>1.2166476377952757</v>
       </c>
       <c r="AF15" s="70">
-        <f>$AD15*V$42</f>
+        <f t="shared" si="4"/>
         <v>1.0822145669291341</v>
       </c>
       <c r="AH15">
@@ -8062,47 +8095,47 @@
     </row>
     <row r="16" spans="1:36">
       <c r="B16" s="81">
-        <f t="shared" ref="B16:L16" si="3">B15/B7</f>
+        <f t="shared" ref="B16:L16" si="5">B15/B7</f>
         <v>10</v>
       </c>
       <c r="C16" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="D16" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>12.030075187969924</v>
       </c>
       <c r="E16" s="82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>18.796992481203006</v>
       </c>
       <c r="F16" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="G16" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="H16" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7.518796992481203</v>
       </c>
       <c r="I16" s="82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9.7744360902255636</v>
       </c>
       <c r="J16" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>12.030075187969924</v>
       </c>
       <c r="K16" s="82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>10.810810810810811</v>
       </c>
       <c r="L16" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>12.030075187969924</v>
       </c>
       <c r="M16" s="44" t="s">
@@ -8146,11 +8179,11 @@
         <v>0.53339999999999999</v>
       </c>
       <c r="AB16" s="56">
-        <f>U$40/$AA16</f>
+        <f t="shared" si="3"/>
         <v>148.34631136951037</v>
       </c>
       <c r="AC16" s="56">
-        <f>V$40/$AA16</f>
+        <f t="shared" si="3"/>
         <v>131.57465925034597</v>
       </c>
       <c r="AD16" s="69">
@@ -8158,11 +8191,11 @@
         <v>0.23490813648293962</v>
       </c>
       <c r="AE16" s="66">
-        <f>$AD16*U$42</f>
+        <f t="shared" si="4"/>
         <v>0.77432862992125984</v>
       </c>
       <c r="AF16" s="70">
-        <f>$AD16*V$42</f>
+        <f t="shared" si="4"/>
         <v>0.68876944881889768</v>
       </c>
       <c r="AH16">
@@ -8177,47 +8210,47 @@
     </row>
     <row r="17" spans="2:36">
       <c r="B17" s="81">
-        <f t="shared" ref="B17:L17" si="4">B16/2</f>
+        <f t="shared" ref="B17:L17" si="6">B16/2</f>
         <v>5</v>
       </c>
       <c r="C17" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="D17" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6.0150375939849621</v>
       </c>
       <c r="E17" s="82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>9.3984962406015029</v>
       </c>
       <c r="F17" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="G17" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6.5</v>
       </c>
       <c r="H17" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.7593984962406015</v>
       </c>
       <c r="I17" s="82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4.8872180451127818</v>
       </c>
       <c r="J17" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6.0150375939849621</v>
       </c>
       <c r="K17" s="82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5.4054054054054053</v>
       </c>
       <c r="L17" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6.0150375939849621</v>
       </c>
       <c r="M17" s="44" t="s">
@@ -8263,11 +8296,11 @@
         <v>0.66039999999999999</v>
       </c>
       <c r="AB17" s="56">
-        <f>U$40/$AA17</f>
+        <f t="shared" si="3"/>
         <v>119.81817456768147</v>
       </c>
       <c r="AC17" s="56">
-        <f>V$40/$AA17</f>
+        <f t="shared" si="3"/>
         <v>106.27184016374098</v>
       </c>
       <c r="AD17" s="69">
@@ -8275,11 +8308,11 @@
         <v>0.14796587926509186</v>
       </c>
       <c r="AE17" s="66">
-        <f>$AD17*U$42</f>
+        <f t="shared" si="4"/>
         <v>0.4877405196850394</v>
       </c>
       <c r="AF17" s="70">
-        <f>$AD17*V$42</f>
+        <f t="shared" si="4"/>
         <v>0.43384779527559059</v>
       </c>
       <c r="AH17">
@@ -8345,11 +8378,11 @@
         <v>0.81279999999999997</v>
       </c>
       <c r="AB18" s="56">
-        <f>U$40/$AA18</f>
+        <f t="shared" si="3"/>
         <v>97.352266836241185</v>
       </c>
       <c r="AC18" s="56">
-        <f>V$40/$AA18</f>
+        <f t="shared" si="3"/>
         <v>86.34587013303954</v>
       </c>
       <c r="AD18" s="69">
@@ -8357,11 +8390,11 @@
         <v>9.416010498687663E-2</v>
       </c>
       <c r="AE18" s="66">
-        <f>$AD18*U$42</f>
+        <f t="shared" si="4"/>
         <v>0.31038033070866139</v>
       </c>
       <c r="AF18" s="70">
-        <f>$AD18*V$42</f>
+        <f t="shared" si="4"/>
         <v>0.27608496062992127</v>
       </c>
       <c r="AH18">
@@ -8436,11 +8469,11 @@
         <v>0.99059999999999993</v>
       </c>
       <c r="AB19" s="56">
-        <f>U$40/$AA19</f>
+        <f t="shared" si="3"/>
         <v>79.878783045120983</v>
       </c>
       <c r="AC19" s="56">
-        <f>V$40/$AA19</f>
+        <f t="shared" si="3"/>
         <v>70.847893442493984</v>
       </c>
       <c r="AD19" s="44"/>
@@ -8452,47 +8485,47 @@
     </row>
     <row r="20" spans="2:36">
       <c r="B20" s="75">
-        <f t="shared" ref="B20:L20" si="5">B19/B7*B10</f>
+        <f t="shared" ref="B20:L20" si="7">B19/B7*B10</f>
         <v>90</v>
       </c>
       <c r="C20" s="56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>90</v>
       </c>
       <c r="D20" s="56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>90.225563909774436</v>
       </c>
       <c r="E20" s="76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>100.15037593984962</v>
       </c>
       <c r="F20" s="56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>90</v>
       </c>
       <c r="G20" s="56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>90</v>
       </c>
       <c r="H20" s="56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>67.669172932330824</v>
       </c>
       <c r="I20" s="76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>67.669172932330824</v>
       </c>
       <c r="J20" s="56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>67.669172932330824</v>
       </c>
       <c r="K20" s="76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>60.810810810810807</v>
       </c>
       <c r="L20" s="56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>90.225563909774436</v>
       </c>
       <c r="M20" s="44" t="s">
@@ -8526,11 +8559,11 @@
         <v>1.0668</v>
       </c>
       <c r="AB20" s="56">
-        <f>U$40/$AA20</f>
+        <f t="shared" si="3"/>
         <v>74.173155684755187</v>
       </c>
       <c r="AC20" s="56">
-        <f>V$40/$AA20</f>
+        <f t="shared" si="3"/>
         <v>65.787329625172987</v>
       </c>
       <c r="AD20" s="44"/>
@@ -8545,47 +8578,47 @@
     </row>
     <row r="21" spans="2:36" ht="17" thickBot="1">
       <c r="B21" s="81">
-        <f t="shared" ref="B21:L21" si="6">B15/B19</f>
+        <f t="shared" ref="B21:L21" si="8">B15/B19</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="C21" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="D21" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.53333333333333333</v>
       </c>
       <c r="E21" s="82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.75075075075075071</v>
       </c>
       <c r="F21" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="G21" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.43333333333333335</v>
       </c>
       <c r="H21" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="I21" s="82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.43333333333333335</v>
       </c>
       <c r="J21" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.53333333333333333</v>
       </c>
       <c r="K21" s="82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.53333333333333333</v>
       </c>
       <c r="L21" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.53333333333333333</v>
       </c>
       <c r="M21" s="44" t="s">
@@ -8607,15 +8640,15 @@
       <c r="Y21" s="44"/>
       <c r="Z21" s="44"/>
       <c r="AA21" s="33">
-        <f t="shared" ref="AA21:AA22" si="7">W21*25.4</f>
+        <f t="shared" ref="AA21:AA22" si="9">W21*25.4</f>
         <v>1.2192000000000001</v>
       </c>
       <c r="AB21" s="56">
-        <f>U$40/$AA21</f>
+        <f t="shared" si="3"/>
         <v>64.901511224160785</v>
       </c>
       <c r="AC21" s="56">
-        <f>V$40/$AA21</f>
+        <f t="shared" si="3"/>
         <v>57.56391342202636</v>
       </c>
       <c r="AD21" s="44"/>
@@ -8654,15 +8687,15 @@
       <c r="Y22" s="42"/>
       <c r="Z22" s="42"/>
       <c r="AA22" s="50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.5748</v>
       </c>
       <c r="AB22" s="72">
-        <f>U$40/$AA22</f>
+        <f t="shared" si="3"/>
         <v>50.246331270318031</v>
       </c>
       <c r="AC22" s="72">
-        <f>V$40/$AA22</f>
+        <f t="shared" si="3"/>
         <v>44.565610391246217</v>
       </c>
       <c r="AD22" s="42"/>
@@ -8734,47 +8767,47 @@
     </row>
     <row r="25" spans="2:36">
       <c r="B25" s="39">
-        <f t="shared" ref="B25:L25" si="8">B19*B23</f>
+        <f t="shared" ref="B25:L25" si="10">B19*B23</f>
         <v>90000</v>
       </c>
       <c r="C25" s="44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>90000</v>
       </c>
       <c r="D25" s="44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>90000</v>
       </c>
       <c r="E25" s="74">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>99900</v>
       </c>
       <c r="F25" s="44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>90000</v>
       </c>
       <c r="G25" s="44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>90000</v>
       </c>
       <c r="H25" s="44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>90000</v>
       </c>
       <c r="I25" s="74">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>90000</v>
       </c>
       <c r="J25" s="44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>90000</v>
       </c>
       <c r="K25" s="74">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>90000</v>
       </c>
       <c r="L25" s="44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>90000</v>
       </c>
       <c r="M25" s="44" t="s">
@@ -8802,39 +8835,39 @@
         <v>1.1111111111111112</v>
       </c>
       <c r="D26" s="33">
-        <f t="shared" ref="D26:L26" si="9">D15/D25*1000</f>
+        <f t="shared" ref="D26:L26" si="11">D15/D25*1000</f>
         <v>1.7777777777777779</v>
       </c>
       <c r="E26" s="82">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2.5025025025025025</v>
       </c>
       <c r="F26" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.1111111111111112</v>
       </c>
       <c r="G26" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.4444444444444444</v>
       </c>
       <c r="H26" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.1111111111111112</v>
       </c>
       <c r="I26" s="82">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.4444444444444444</v>
       </c>
       <c r="J26" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.7777777777777779</v>
       </c>
       <c r="K26" s="82">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.7777777777777779</v>
       </c>
       <c r="L26" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.7777777777777779</v>
       </c>
       <c r="M26" s="44" t="s">
@@ -9067,47 +9100,47 @@
     </row>
     <row r="30" spans="2:36">
       <c r="B30" s="77">
-        <f t="shared" ref="B30:L30" si="10">B28*B17</f>
+        <f t="shared" ref="B30:L30" si="12">B28*B17</f>
         <v>1500</v>
       </c>
       <c r="C30" s="66">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1500</v>
       </c>
       <c r="D30" s="66">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1804.5112781954886</v>
       </c>
       <c r="E30" s="78">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2819.5488721804509</v>
       </c>
       <c r="F30" s="66">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1500</v>
       </c>
       <c r="G30" s="66">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1950</v>
       </c>
       <c r="H30" s="66">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1127.8195488721803</v>
       </c>
       <c r="I30" s="78">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1466.1654135338345</v>
       </c>
       <c r="J30" s="66">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1804.5112781954886</v>
       </c>
       <c r="K30" s="78">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1621.6216216216217</v>
       </c>
       <c r="L30" s="66">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1804.5112781954886</v>
       </c>
       <c r="M30" s="44" t="s">
@@ -9157,39 +9190,39 @@
     </row>
     <row r="31" spans="2:36" ht="17" thickBot="1">
       <c r="B31" s="39">
-        <f t="shared" ref="B31:J31" si="11">B29*B21</f>
+        <f t="shared" ref="B31:J31" si="13">B29*B21</f>
         <v>100</v>
       </c>
       <c r="C31" s="44">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>100</v>
       </c>
       <c r="D31" s="44">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>160</v>
       </c>
       <c r="E31" s="74">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>225.22522522522522</v>
       </c>
       <c r="F31" s="44">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>100</v>
       </c>
       <c r="G31" s="44">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>130</v>
       </c>
       <c r="H31" s="44">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>100</v>
       </c>
       <c r="I31" s="74">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>130</v>
       </c>
       <c r="J31" s="44">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>160</v>
       </c>
       <c r="K31" s="74">
@@ -9246,39 +9279,39 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="D32" s="33">
-        <f t="shared" ref="D32:L32" si="12">D28*(D26/1000)</f>
+        <f t="shared" ref="D32:L32" si="14">D28*(D26/1000)</f>
         <v>0.53333333333333333</v>
       </c>
       <c r="E32" s="82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.75075075075075071</v>
       </c>
       <c r="F32" s="33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="G32" s="33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.43333333333333329</v>
       </c>
       <c r="H32" s="33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="I32" s="82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.43333333333333329</v>
       </c>
       <c r="J32" s="33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.53333333333333333</v>
       </c>
       <c r="K32" s="82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.53333333333333333</v>
       </c>
       <c r="L32" s="33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.53333333333333333</v>
       </c>
       <c r="M32" s="44" t="s">
@@ -9380,47 +9413,47 @@
     </row>
     <row r="34" spans="2:36">
       <c r="B34" s="77">
-        <f t="shared" ref="B34:L34" si="13">1630/660</f>
+        <f t="shared" ref="B34:L34" si="15">1630/660</f>
         <v>2.4696969696969697</v>
       </c>
       <c r="C34" s="66">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2.4696969696969697</v>
       </c>
       <c r="D34" s="66">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2.4696969696969697</v>
       </c>
       <c r="E34" s="78">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2.4696969696969697</v>
       </c>
       <c r="F34" s="66">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2.4696969696969697</v>
       </c>
       <c r="G34" s="66">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2.4696969696969697</v>
       </c>
       <c r="H34" s="66">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2.4696969696969697</v>
       </c>
       <c r="I34" s="78">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2.4696969696969697</v>
       </c>
       <c r="J34" s="66">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2.4696969696969697</v>
       </c>
       <c r="K34" s="78">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2.4696969696969697</v>
       </c>
       <c r="L34" s="66">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2.4696969696969697</v>
       </c>
       <c r="M34" s="44" t="s">
@@ -9522,23 +9555,23 @@
     </row>
     <row r="36" spans="2:36">
       <c r="B36" s="75">
-        <f t="shared" ref="B36" si="14">B30/B34</f>
+        <f t="shared" ref="B36" si="16">B30/B34</f>
         <v>607.36196319018404</v>
       </c>
       <c r="C36" s="56">
-        <f t="shared" ref="C36:L36" si="15">C30/C34</f>
+        <f t="shared" ref="C36:L36" si="17">C30/C34</f>
         <v>607.36196319018404</v>
       </c>
       <c r="D36" s="56">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>730.66100834909355</v>
       </c>
       <c r="E36" s="76">
-        <f t="shared" ref="E36" si="16">E30/E34</f>
+        <f t="shared" ref="E36" si="18">E30/E34</f>
         <v>1141.6578255454585</v>
       </c>
       <c r="F36" s="56">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>607.36196319018404</v>
       </c>
       <c r="G36" s="56">
@@ -9546,15 +9579,15 @@
         <v>789.57055214723925</v>
       </c>
       <c r="H36" s="56">
-        <f t="shared" ref="H36" si="17">H30/H34</f>
+        <f t="shared" ref="H36" si="19">H30/H34</f>
         <v>456.66313021818343</v>
       </c>
       <c r="I36" s="76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>593.66206928363852</v>
       </c>
       <c r="J36" s="56">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>730.66100834909355</v>
       </c>
       <c r="K36" s="76">
@@ -9562,7 +9595,7 @@
         <v>656.60752777317191</v>
       </c>
       <c r="L36" s="56">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>730.66100834909355</v>
       </c>
       <c r="M36" s="44" t="s">
@@ -9615,23 +9648,23 @@
     </row>
     <row r="37" spans="2:36">
       <c r="B37" s="75">
-        <f t="shared" ref="B37" si="18">B31/B34</f>
+        <f t="shared" ref="B37" si="20">B31/B34</f>
         <v>40.490797546012267</v>
       </c>
       <c r="C37" s="56">
-        <f t="shared" ref="C37:L37" si="19">C31/C34</f>
+        <f t="shared" ref="C37:L37" si="21">C31/C34</f>
         <v>40.490797546012267</v>
       </c>
       <c r="D37" s="56">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>64.785276073619627</v>
       </c>
       <c r="E37" s="76">
-        <f t="shared" ref="E37" si="20">E31/E34</f>
+        <f t="shared" ref="E37" si="22">E31/E34</f>
         <v>91.195489968496105</v>
       </c>
       <c r="F37" s="56">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>40.490797546012267</v>
       </c>
       <c r="G37" s="56">
@@ -9639,15 +9672,15 @@
         <v>52.638036809815951</v>
       </c>
       <c r="H37" s="56">
-        <f t="shared" ref="H37" si="21">H31/H34</f>
+        <f t="shared" ref="H37" si="23">H31/H34</f>
         <v>40.490797546012267</v>
       </c>
       <c r="I37" s="76">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>52.638036809815951</v>
       </c>
       <c r="J37" s="56">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>64.785276073619627</v>
       </c>
       <c r="K37" s="76">
@@ -9655,7 +9688,7 @@
         <v>64.785276073619627</v>
       </c>
       <c r="L37" s="56">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>64.785276073619627</v>
       </c>
       <c r="M37" s="44" t="s">
@@ -10717,7 +10750,7 @@
     </row>
     <row r="101" spans="12:13">
       <c r="L101" s="75">
-        <f t="shared" ref="L101" si="22">(L96*10^8)/(L97*L98*L99*L100)</f>
+        <f t="shared" ref="L101" si="24">(L96*10^8)/(L97*L98*L99*L100)</f>
         <v>233.85964912280701</v>
       </c>
       <c r="M101" s="49" t="s">
@@ -10726,7 +10759,7 @@
     </row>
     <row r="102" spans="12:13">
       <c r="L102" s="77">
-        <f t="shared" ref="L102" si="23">L101/10</f>
+        <f t="shared" ref="L102" si="25">L101/10</f>
         <v>23.385964912280702</v>
       </c>
       <c r="M102" s="49" t="s">
@@ -10820,7 +10853,7 @@
     </row>
     <row r="115" spans="12:13">
       <c r="L115" s="81">
-        <f t="shared" ref="L115" si="24">L104/L114*1000</f>
+        <f t="shared" ref="L115" si="26">L104/L114*1000</f>
         <v>3.3333333333333335</v>
       </c>
       <c r="M115" s="49" t="s">
@@ -10867,7 +10900,7 @@
     </row>
     <row r="121" spans="12:13">
       <c r="L121" s="81">
-        <f t="shared" ref="L121" si="25">L117*(L115/1000)</f>
+        <f t="shared" ref="L121" si="27">L117*(L115/1000)</f>
         <v>1</v>
       </c>
       <c r="M121" s="49" t="s">
@@ -10880,7 +10913,7 @@
     </row>
     <row r="123" spans="12:13">
       <c r="L123" s="77">
-        <f t="shared" ref="L123" si="26">1630/660</f>
+        <f t="shared" ref="L123" si="28">1630/660</f>
         <v>2.4696969696969697</v>
       </c>
       <c r="M123" s="49" t="s">
@@ -10893,7 +10926,7 @@
     </row>
     <row r="125" spans="12:13">
       <c r="L125" s="75">
-        <f t="shared" ref="L125" si="27">L119/L123</f>
+        <f t="shared" ref="L125" si="29">L119/L123</f>
         <v>1822.5415249517901</v>
       </c>
       <c r="M125" s="49" t="s">
@@ -10902,7 +10935,7 @@
     </row>
     <row r="126" spans="12:13">
       <c r="L126" s="75">
-        <f t="shared" ref="L126" si="28">L120/L123</f>
+        <f t="shared" ref="L126" si="30">L120/L123</f>
         <v>161.96319018404907</v>
       </c>
       <c r="M126" s="49" t="s">

--- a/EHD/weight-model.xlsx
+++ b/EHD/weight-model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mickos01/Desktop/MolecularKinetics/EHD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5018B18C-0DB4-7941-A13C-CED6740B3C1A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B2D9098-7E7A-964B-829A-FC0C692F7976}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="500" windowWidth="27240" windowHeight="16860" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="336">
   <si>
     <t>Coil form</t>
   </si>
@@ -561,9 +561,6 @@
     <t>45-49g</t>
   </si>
   <si>
-    <t>900mAh</t>
-  </si>
-  <si>
     <t>1600mAh</t>
   </si>
   <si>
@@ -1042,6 +1039,9 @@
   </si>
   <si>
     <t>load capacitance</t>
+  </si>
+  <si>
+    <t>1200mAh</t>
   </si>
 </sst>
 </file>
@@ -5144,8 +5144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:Z121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J55" sqref="J55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5167,10 +5167,10 @@
         <v>1.1000000000000001E-11</v>
       </c>
       <c r="G2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -5189,7 +5189,7 @@
         <v>1.5999999999999999E-6</v>
       </c>
       <c r="G3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H3" s="5">
         <f>F4*F3/F2</f>
@@ -5211,7 +5211,7 @@
         <v>1.25E-3</v>
       </c>
       <c r="G4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="S4">
         <v>2</v>
@@ -5228,7 +5228,7 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="S5">
         <v>37</v>
@@ -5250,10 +5250,10 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
+        <v>333</v>
+      </c>
+      <c r="D6" t="s">
         <v>334</v>
-      </c>
-      <c r="D6" t="s">
-        <v>335</v>
       </c>
       <c r="J6">
         <v>2.54</v>
@@ -5363,7 +5363,7 @@
         <v>163</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="N9" s="9" t="s">
         <v>164</v>
@@ -5408,7 +5408,7 @@
         <v>17</v>
       </c>
       <c r="C10" s="7">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
         <v>111</v>
@@ -5514,7 +5514,7 @@
       </c>
       <c r="C12" s="2">
         <f>(C10/1000)*C9* C11</f>
-        <v>13.387500000000003</v>
+        <v>10.237500000000001</v>
       </c>
       <c r="D12" t="s">
         <v>95</v>
@@ -5739,10 +5739,10 @@
     </row>
     <row r="16" spans="1:26">
       <c r="B16">
-        <v>121.5</v>
+        <v>105</v>
       </c>
       <c r="C16">
-        <v>121.5</v>
+        <v>140.22</v>
       </c>
       <c r="D16" t="s">
         <v>85</v>
@@ -5806,11 +5806,11 @@
     <row r="17" spans="2:22">
       <c r="B17" s="5">
         <f>(B14/12000)*B16</f>
-        <v>46.042985581471157</v>
+        <v>39.790234453123219</v>
       </c>
       <c r="C17" s="5">
         <f>(C14/12000)*C16</f>
-        <v>46.042985581471157</v>
+        <v>53.137015952542264</v>
       </c>
       <c r="D17" t="s">
         <v>86</v>
@@ -5856,7 +5856,7 @@
         <v>121.5</v>
       </c>
       <c r="M18" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="N18" s="2">
         <f>PI()*(N12/2)^2</f>
@@ -5897,7 +5897,7 @@
       </c>
       <c r="C19" s="2">
         <f>(0.29*C12+(0.41*(C13/2))+(1.94*SQRT(((C13/2)^3)/C12)))</f>
-        <v>4.7806486944273656</v>
+        <v>3.9392971842606475</v>
       </c>
       <c r="D19" t="s">
         <v>54</v>
@@ -6011,7 +6011,7 @@
       </c>
       <c r="C22" s="15">
         <f>((((C9^2) * ((C13/2)^2)) /(( 9 * (C13/2)) + ( 10 * C12))))</f>
-        <v>3674.3410669191912</v>
+        <v>4716.4961507293356</v>
       </c>
       <c r="D22" t="s">
         <v>57</v>
@@ -6066,7 +6066,7 @@
       </c>
       <c r="C25" s="16">
         <f>1/(2*PI() * SQRT( (C22*0.000001) * ((C20+$B6)*0.000000000001) ) )</f>
-        <v>639013.77227889106</v>
+        <v>564014.42254131637</v>
       </c>
       <c r="D25" t="s">
         <v>63</v>
@@ -6092,7 +6092,7 @@
       </c>
       <c r="C26" s="2">
         <f>2000000*PI() * SQRT( (C22*0.000001) * ((C20+$B4)*0.000000000001) )</f>
-        <v>1.5649114985953076</v>
+        <v>1.7730043063335779</v>
       </c>
       <c r="D26" t="s">
         <v>69</v>
@@ -6118,7 +6118,7 @@
       </c>
       <c r="C27" s="5">
         <f xml:space="preserve"> 2*PI()*C25</f>
-        <v>4015041.9450681303</v>
+        <v>3543807.1327489777</v>
       </c>
       <c r="D27" t="s">
         <v>81</v>
@@ -6138,7 +6138,7 @@
       </c>
       <c r="C29" s="16">
         <f>C27*(C22/1000000)</f>
-        <v>14752.633504166939</v>
+        <v>16714.352700537718</v>
       </c>
       <c r="D29" t="s">
         <v>82</v>
@@ -6151,7 +6151,7 @@
       </c>
       <c r="C30" s="16">
         <f>1/(C27*((C20+$B6)/1000000000000))</f>
-        <v>14752.633504166934</v>
+        <v>16714.352700537711</v>
       </c>
       <c r="D30" t="s">
         <v>83</v>
@@ -6160,11 +6160,11 @@
     <row r="32" spans="2:22">
       <c r="B32" s="14">
         <f>B29/B17</f>
-        <v>320.4100107292731</v>
+        <v>370.76015527244459</v>
       </c>
       <c r="C32" s="14">
         <f>C29/C17</f>
-        <v>320.4100107292731</v>
+        <v>314.55196346489691</v>
       </c>
       <c r="D32" t="s">
         <v>87</v>
@@ -6173,128 +6173,109 @@
         <v>113</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:11">
       <c r="B33" s="4"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:11">
       <c r="A34" s="18" t="s">
         <v>94</v>
       </c>
       <c r="B34" s="29" t="s">
         <v>163</v>
       </c>
-      <c r="E34" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="I34" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="J34" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="K34" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="L34" s="9" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
+      <c r="C34" s="29"/>
+      <c r="F34" s="9"/>
+    </row>
+    <row r="35" spans="1:11">
       <c r="B35">
         <v>0.34799999999999998</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35">
+        <v>0.252</v>
+      </c>
+      <c r="D35" t="s">
         <v>89</v>
       </c>
-      <c r="E35">
-        <v>0.20399999999999999</v>
-      </c>
-      <c r="F35">
-        <v>0.26900000000000002</v>
-      </c>
-      <c r="G35">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="H35">
-        <v>0.39700000000000002</v>
-      </c>
-      <c r="I35">
-        <v>0.17100000000000001</v>
-      </c>
-      <c r="J35">
-        <v>0.252</v>
-      </c>
-      <c r="K35">
-        <v>0.34799999999999998</v>
-      </c>
-      <c r="L35">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
+      <c r="G35" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="B36" s="13">
         <f>1000/B35</f>
         <v>2873.5632183908046</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="13">
+        <f>1000/C35</f>
+        <v>3968.2539682539682</v>
+      </c>
+      <c r="D36" t="s">
         <v>5</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>8</v>
       </c>
-      <c r="E36">
-        <v>0.185</v>
-      </c>
-      <c r="F36">
-        <v>0.247</v>
-      </c>
       <c r="G36">
-        <v>0.308</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="H36">
-        <v>0.37</v>
+        <v>0.252</v>
       </c>
       <c r="I36">
-        <v>0.154</v>
+        <v>0.34799999999999998</v>
       </c>
       <c r="J36">
-        <v>0.23100000000000001</v>
-      </c>
-      <c r="L36" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="B37">
         <f>B10/1000</f>
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37">
+        <f>C10/1000</f>
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="D37" t="s">
         <v>3</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="39" spans="1:12">
+      <c r="G37">
+        <v>0.154</v>
+      </c>
+      <c r="H37">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="J37" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="B39" s="1">
         <f>454/(B36*(2.54*0.12))</f>
         <v>0.51834645669291335</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="1">
+        <f>454/(C36*(2.54*0.12))</f>
+        <v>0.37535433070866137</v>
+      </c>
+      <c r="D39" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:11">
       <c r="B41" t="s">
         <v>0</v>
       </c>
@@ -6302,7 +6283,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:11">
       <c r="B42">
         <v>1.27</v>
       </c>
@@ -6313,7 +6294,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:11">
       <c r="B44">
         <v>1.7000000000000001E-2</v>
       </c>
@@ -6324,7 +6305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:11">
       <c r="B45">
         <f>B44*25.4</f>
         <v>0.43180000000000002</v>
@@ -6333,7 +6314,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:11">
       <c r="B46">
         <f>B13*25.4</f>
         <v>49.021999999999998</v>
@@ -6353,7 +6334,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:11">
       <c r="B47">
         <f>B13</f>
         <v>1.93</v>
@@ -6369,7 +6350,7 @@
         <v>0.66060214111159432</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:11">
       <c r="B48">
         <v>350</v>
       </c>
@@ -6391,7 +6372,7 @@
         <v>10.591358206600455</v>
       </c>
       <c r="K48" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="49" spans="2:11">
@@ -6474,13 +6455,13 @@
     </row>
     <row r="54" spans="2:11">
       <c r="G54" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H54" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I54" t="s">
-        <v>175</v>
+        <v>335</v>
       </c>
       <c r="J54">
         <v>600</v>
@@ -6525,7 +6506,7 @@
         <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G59" s="2">
         <f>B59</f>
@@ -6566,7 +6547,7 @@
     </row>
     <row r="64" spans="2:11">
       <c r="I64" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -6623,7 +6604,7 @@
         <v>7</v>
       </c>
       <c r="I68" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J68">
         <v>1.2</v>
@@ -6644,7 +6625,7 @@
         <v>130</v>
       </c>
       <c r="D69" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E69">
         <v>4</v>
@@ -6653,7 +6634,7 @@
         <v>0.7</v>
       </c>
       <c r="I69" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J69">
         <v>0.75</v>
@@ -6675,7 +6656,7 @@
         <v>18</v>
       </c>
       <c r="I70" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J70">
         <v>1</v>
@@ -6767,7 +6748,7 @@
         <v>26</v>
       </c>
       <c r="D81" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="82" spans="2:9">
@@ -6779,12 +6760,12 @@
         <v>48</v>
       </c>
       <c r="G82" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="83" spans="2:9">
       <c r="G83" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H83" s="29">
         <v>25</v>
@@ -6805,7 +6786,7 @@
         <v>31</v>
       </c>
       <c r="G84" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H84" s="29">
         <v>100</v>
@@ -6816,7 +6797,7 @@
     </row>
     <row r="85" spans="2:9">
       <c r="G85" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H85" s="29">
         <v>1.6</v>
@@ -6834,7 +6815,7 @@
         <v>27</v>
       </c>
       <c r="G86" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H86" s="29">
         <v>60</v>
@@ -6845,13 +6826,13 @@
     </row>
     <row r="87" spans="2:9">
       <c r="G87" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H87" s="29">
         <v>0.8</v>
       </c>
       <c r="I87" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="88" spans="2:9">
@@ -6866,13 +6847,13 @@
         <v>28</v>
       </c>
       <c r="G88" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H88" s="29">
         <v>75</v>
       </c>
       <c r="I88" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="90" spans="2:9">
@@ -6921,7 +6902,7 @@
         <v>0.22771805121324112</v>
       </c>
       <c r="G95" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="96" spans="2:9">
@@ -7006,7 +6987,7 @@
     </row>
     <row r="105" spans="1:5">
       <c r="C105" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -7090,7 +7071,7 @@
         <v>45</v>
       </c>
       <c r="D118" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="119" spans="2:4">
@@ -7108,7 +7089,7 @@
         <v>13.360715576296519</v>
       </c>
       <c r="C121" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -7132,7 +7113,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -7145,7 +7126,7 @@
         <v>130</v>
       </c>
       <c r="B3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -7530,7 +7511,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:AJ129"/>
   <sheetViews>
-    <sheetView topLeftCell="K17" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
@@ -7548,25 +7529,25 @@
   <sheetData>
     <row r="2" spans="1:36">
       <c r="A2" s="17" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B2" s="17"/>
       <c r="C2" t="s">
+        <v>328</v>
+      </c>
+      <c r="D2" t="s">
         <v>329</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>330</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>331</v>
-      </c>
-      <c r="F2" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="3" spans="1:36">
       <c r="B3" s="29" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C3">
         <v>9.9</v>
@@ -7585,7 +7566,7 @@
     </row>
     <row r="4" spans="1:36">
       <c r="B4" s="29" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C4">
         <v>13.2</v>
@@ -7772,10 +7753,10 @@
         <v>119</v>
       </c>
       <c r="O10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AH10" s="17" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="11" spans="1:36">
@@ -7929,10 +7910,10 @@
         <v>98</v>
       </c>
       <c r="N13" s="49" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="T13" s="17" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AH13">
         <v>50</v>
@@ -7953,43 +7934,43 @@
       <c r="M14" s="44"/>
       <c r="N14" s="49"/>
       <c r="P14" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T14" s="34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="U14" s="35" t="s">
         <v>130</v>
       </c>
       <c r="V14" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="W14" s="35" t="s">
         <v>253</v>
       </c>
-      <c r="W14" s="35" t="s">
-        <v>254</v>
-      </c>
       <c r="X14" s="35" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Y14" s="35" t="s">
         <v>159</v>
       </c>
       <c r="Z14" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="AA14" s="35" t="s">
+        <v>256</v>
+      </c>
+      <c r="AB14" s="35" t="s">
+        <v>323</v>
+      </c>
+      <c r="AC14" s="35" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD14" s="35" t="s">
         <v>258</v>
       </c>
-      <c r="AA14" s="35" t="s">
-        <v>257</v>
-      </c>
-      <c r="AB14" s="35" t="s">
-        <v>324</v>
-      </c>
-      <c r="AC14" s="35" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD14" s="35" t="s">
-        <v>259</v>
-      </c>
       <c r="AE14" s="35" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AF14" s="36"/>
       <c r="AH14">
@@ -8038,7 +8019,7 @@
       </c>
       <c r="N15" s="49"/>
       <c r="P15" s="34" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Q15" s="35"/>
       <c r="R15" s="36"/>
@@ -8143,7 +8124,7 @@
       </c>
       <c r="N16" s="49"/>
       <c r="P16" s="37" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Q16" s="32">
         <v>3.5000000000000003E-2</v>
@@ -8258,7 +8239,7 @@
       </c>
       <c r="N17" s="49"/>
       <c r="P17" s="39" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Q17" s="33">
         <f>C16/2</f>
@@ -8340,7 +8321,7 @@
       <c r="M18" s="44"/>
       <c r="N18" s="49"/>
       <c r="P18" s="39" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Q18" s="33">
         <f>Q17*Q16</f>
@@ -8529,11 +8510,11 @@
         <v>90.225563909774436</v>
       </c>
       <c r="M20" s="44" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="N20" s="49"/>
       <c r="P20" s="39" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Q20" s="33">
         <f>2*Q19</f>
@@ -8743,7 +8724,7 @@
         <v>300</v>
       </c>
       <c r="M23" s="44" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="N23" s="49"/>
     </row>
@@ -8762,7 +8743,7 @@
       <c r="M24" s="44"/>
       <c r="N24" s="49"/>
       <c r="P24" s="17" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="25" spans="2:36">
@@ -8821,7 +8802,7 @@
         <v>625000</v>
       </c>
       <c r="Q25" s="35" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="R25" s="36"/>
     </row>
@@ -8874,18 +8855,18 @@
         <v>129</v>
       </c>
       <c r="N26" s="49" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="P26" s="39">
         <v>15</v>
       </c>
       <c r="Q26" s="44" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="R26" s="49"/>
       <c r="S26" s="31"/>
       <c r="T26" s="17" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="27" spans="2:36">
@@ -8922,7 +8903,7 @@
       <c r="X27" s="36"/>
       <c r="Z27" s="34"/>
       <c r="AA27" s="46" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AB27" s="35"/>
       <c r="AC27" s="47">
@@ -8931,7 +8912,7 @@
       <c r="AD27" s="36"/>
       <c r="AF27" s="34"/>
       <c r="AG27" s="46" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AH27" s="35"/>
       <c r="AI27" s="47">
@@ -8974,7 +8955,7 @@
         <v>300</v>
       </c>
       <c r="M28" s="44" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="N28" s="49"/>
       <c r="P28" s="75">
@@ -8982,7 +8963,7 @@
         <v>3926990.8169872416</v>
       </c>
       <c r="Q28" s="44" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="R28" s="49"/>
       <c r="S28" s="31"/>
@@ -9002,7 +8983,7 @@
         <v>6</v>
       </c>
       <c r="AB28" s="44" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AC28" s="33"/>
       <c r="AD28" s="49"/>
@@ -9011,7 +8992,7 @@
         <v>6</v>
       </c>
       <c r="AH28" s="44" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AI28" s="33"/>
       <c r="AJ28" s="49"/>
@@ -9051,7 +9032,7 @@
         <v>300</v>
       </c>
       <c r="M29" s="44" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="N29" s="49"/>
       <c r="P29" s="75">
@@ -9078,7 +9059,7 @@
         <v>24</v>
       </c>
       <c r="AB29" s="44" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AC29" s="33">
         <f>(AA29*AA30)/(AA28/2)</f>
@@ -9090,7 +9071,7 @@
         <v>16</v>
       </c>
       <c r="AH29" s="44" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AI29" s="33">
         <f>(AG29*AG30)/(AG28/2)</f>
@@ -9152,12 +9133,12 @@
         <v>1.767145867644259E-2</v>
       </c>
       <c r="Q30" s="44" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="R30" s="49"/>
       <c r="S30" s="31"/>
       <c r="T30" s="39" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="U30" s="44">
         <v>1</v>
@@ -9166,7 +9147,7 @@
         <v>1</v>
       </c>
       <c r="W30" s="44" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="X30" s="49"/>
       <c r="Z30" s="39"/>
@@ -9174,7 +9155,7 @@
         <v>4</v>
       </c>
       <c r="AB30" s="44" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AC30" s="33"/>
       <c r="AD30" s="49"/>
@@ -9183,7 +9164,7 @@
         <v>5</v>
       </c>
       <c r="AH30" s="44" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AI30" s="33"/>
       <c r="AJ30" s="49"/>
@@ -9242,7 +9223,7 @@
         <v>5.3014376029327774</v>
       </c>
       <c r="Q31" s="42" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="R31" s="43"/>
       <c r="T31" s="39"/>
@@ -9255,7 +9236,7 @@
         <v>1</v>
       </c>
       <c r="AB31" s="44" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AC31" s="33"/>
       <c r="AD31" s="49"/>
@@ -9264,7 +9245,7 @@
         <v>1</v>
       </c>
       <c r="AH31" s="44" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AI31" s="33"/>
       <c r="AJ31" s="49"/>
@@ -9320,7 +9301,7 @@
       <c r="N32" s="49"/>
       <c r="S32" s="31"/>
       <c r="T32" s="39" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="U32" s="44">
         <v>3.2000000000000001E-2</v>
@@ -9334,10 +9315,10 @@
       <c r="X32" s="49"/>
       <c r="Z32" s="39"/>
       <c r="AA32" s="44" t="s">
+        <v>283</v>
+      </c>
+      <c r="AB32" s="44" t="s">
         <v>284</v>
-      </c>
-      <c r="AB32" s="44" t="s">
-        <v>285</v>
       </c>
       <c r="AC32" s="33">
         <f>AC27*AC29</f>
@@ -9346,10 +9327,10 @@
       <c r="AD32" s="49"/>
       <c r="AF32" s="39"/>
       <c r="AG32" s="44" t="s">
+        <v>283</v>
+      </c>
+      <c r="AH32" s="44" t="s">
         <v>284</v>
-      </c>
-      <c r="AH32" s="44" t="s">
-        <v>285</v>
       </c>
       <c r="AI32" s="33">
         <f>AI27*AI29</f>
@@ -9457,7 +9438,7 @@
         <v>2.4696969696969697</v>
       </c>
       <c r="M34" s="44" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N34" s="49"/>
       <c r="S34" s="31"/>
@@ -9516,7 +9497,7 @@
       <c r="M35" s="44"/>
       <c r="N35" s="49"/>
       <c r="T35" s="39" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="U35" s="44">
         <f>(U28-U27)/2*U29/100</f>
@@ -9603,7 +9584,7 @@
       </c>
       <c r="N36" s="49"/>
       <c r="T36" s="39" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="U36" s="66">
         <f>PI() * (U28-((U28-U27)/2)) /10 * U35</f>
@@ -9695,7 +9676,7 @@
         <v>132</v>
       </c>
       <c r="N37" s="49" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T37" s="39" t="s">
         <v>8</v>
@@ -9781,42 +9762,42 @@
     </row>
     <row r="39" spans="2:36">
       <c r="B39" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C39" s="44" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D39" s="44" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E39" s="74" t="s">
         <v>162</v>
       </c>
       <c r="F39" s="44" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G39" s="44" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H39" s="44" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I39" s="74" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J39" s="44" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K39" s="74" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L39" s="44" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M39" s="44"/>
       <c r="N39" s="49"/>
       <c r="T39" s="39" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="U39" s="33">
         <f>((U28-U27) + (2*U29)  + (2*U33))/10* U30</f>
@@ -9836,7 +9817,7 @@
         <v>11.5824</v>
       </c>
       <c r="AB39" s="44" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AC39" s="33"/>
       <c r="AD39" s="49"/>
@@ -9846,7 +9827,7 @@
         <v>7.3152000000000008</v>
       </c>
       <c r="AH39" s="44" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AI39" s="33"/>
       <c r="AJ39" s="49"/>
@@ -9859,7 +9840,7 @@
         <v>163</v>
       </c>
       <c r="D40" s="42" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E40" s="83" t="s">
         <v>161</v>
@@ -9868,27 +9849,27 @@
         <v>163</v>
       </c>
       <c r="G40" s="42" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H40" s="42" t="s">
         <v>163</v>
       </c>
       <c r="I40" s="83" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J40" s="42" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K40" s="83" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="L40" s="42" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="M40" s="42"/>
       <c r="N40" s="43"/>
       <c r="T40" s="39" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="U40" s="56">
         <f xml:space="preserve"> PI() * (U27-U33)</f>
@@ -9908,7 +9889,7 @@
         <v>3.5051999999999999</v>
       </c>
       <c r="AB40" s="44" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AC40" s="33"/>
       <c r="AD40" s="49"/>
@@ -9918,14 +9899,14 @@
         <v>3.3782000000000005</v>
       </c>
       <c r="AH40" s="44" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AI40" s="33"/>
       <c r="AJ40" s="49"/>
     </row>
     <row r="41" spans="2:36">
       <c r="T41" s="39" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="U41" s="67">
         <f>(U33*U34)/U40</f>
@@ -9950,7 +9931,7 @@
     </row>
     <row r="42" spans="2:36">
       <c r="T42" s="39" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="U42" s="33">
         <f>U34*U39 /100</f>
@@ -9961,7 +9942,7 @@
         <v>2.9320800000000005</v>
       </c>
       <c r="W42" s="44" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="X42" s="49"/>
       <c r="Z42" s="39"/>
@@ -9977,7 +9958,7 @@
     </row>
     <row r="43" spans="2:36">
       <c r="T43" s="39" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="U43" s="56">
         <f>U42*100 / (2.54 * 12)</f>
@@ -9988,7 +9969,7 @@
         <v>9.6196850393700792</v>
       </c>
       <c r="W43" s="44" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="X43" s="49"/>
       <c r="Z43" s="39"/>
@@ -10003,14 +9984,14 @@
         <v>0.70699999999999996</v>
       </c>
       <c r="AH43" s="44" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AI43" s="44"/>
       <c r="AJ43" s="49"/>
     </row>
     <row r="44" spans="2:36">
       <c r="T44" s="39" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="U44" s="44">
         <v>1.5</v>
@@ -10034,7 +10015,7 @@
         <v>0.42699999999999999</v>
       </c>
       <c r="AH44" s="44" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AI44" s="44"/>
       <c r="AJ44" s="49"/>
@@ -10067,14 +10048,14 @@
         <v>0.27999999999999997</v>
       </c>
       <c r="AH45" s="44" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AI45" s="44"/>
       <c r="AJ45" s="49"/>
     </row>
     <row r="46" spans="2:36" ht="17" thickBot="1">
       <c r="T46" s="39" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="U46" s="56">
         <f>U43*3</f>
@@ -10085,7 +10066,7 @@
         <v>28.859055118110238</v>
       </c>
       <c r="W46" s="44" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="X46" s="49"/>
       <c r="Z46" s="41"/>
@@ -10102,7 +10083,7 @@
         <v>0.13999999999999999</v>
       </c>
       <c r="AH46" s="42" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AI46" s="42"/>
       <c r="AJ46" s="43"/>
@@ -10125,19 +10106,19 @@
         <v>1.6177374218750664</v>
       </c>
       <c r="W48" s="42" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="X48" s="43"/>
     </row>
     <row r="53" spans="16:33">
       <c r="T53" s="64" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="X53" s="64" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AC53" s="64" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="54" spans="16:33">
@@ -10145,22 +10126,22 @@
       <c r="U54" s="32"/>
       <c r="V54" s="52"/>
       <c r="X54" s="51" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Y54" s="32">
         <v>2500</v>
       </c>
       <c r="Z54" s="52" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AC54" s="51" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AD54" s="32">
         <v>5000</v>
       </c>
       <c r="AE54" s="32" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AF54" s="32"/>
       <c r="AG54" s="52"/>
@@ -10174,53 +10155,53 @@
       </c>
       <c r="V55" s="55"/>
       <c r="X55" s="53" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Y55" s="54">
         <v>4.7000000000000003E-10</v>
       </c>
       <c r="Z55" s="55" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AC55" s="53" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AD55" s="54">
         <v>3.9E-10</v>
       </c>
       <c r="AE55" s="44" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AF55" s="44"/>
       <c r="AG55" s="55"/>
     </row>
     <row r="56" spans="16:33">
       <c r="T56" s="53" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="U56" s="44">
         <v>0.9</v>
       </c>
       <c r="V56" s="55"/>
       <c r="X56" s="53" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Y56" s="33">
         <f>1-(300/Y54)</f>
         <v>0.88</v>
       </c>
       <c r="Z56" s="55" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AC56" s="53" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AD56" s="33">
         <f>1-(300/AD54)</f>
         <v>0.94</v>
       </c>
       <c r="AE56" s="44" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AF56" s="44"/>
       <c r="AG56" s="55"/>
@@ -10254,19 +10235,19 @@
         <v>77.792553191489432</v>
       </c>
       <c r="AG57" s="55" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="58" spans="16:33">
       <c r="T58" s="53" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="U58" s="56">
         <f>3/(0.01*(1-U56))</f>
         <v>3000.0000000000005</v>
       </c>
       <c r="V58" s="55" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="X58" s="53"/>
       <c r="Y58" s="44"/>
@@ -10277,21 +10258,21 @@
         <v>1296.5425531914896</v>
       </c>
       <c r="AE58" s="44" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AF58" s="44"/>
       <c r="AG58" s="55"/>
     </row>
     <row r="59" spans="16:33">
       <c r="T59" s="57" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="U59" s="58">
         <f>(1.6*U56)/(U58*U55)</f>
         <v>3.8400000000000002E-10</v>
       </c>
       <c r="V59" s="59" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="X59" s="53"/>
       <c r="Y59" s="44"/>
@@ -10307,22 +10288,22 @@
       <c r="U60" s="32"/>
       <c r="V60" s="52"/>
       <c r="X60" s="53" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Y60" s="44">
         <v>2700</v>
       </c>
       <c r="Z60" s="55" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AC60" s="53" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AD60" s="44">
         <v>3500</v>
       </c>
       <c r="AE60" s="44" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AF60" s="44"/>
       <c r="AG60" s="55"/>
@@ -10336,22 +10317,22 @@
       </c>
       <c r="V61" s="55"/>
       <c r="X61" s="53" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Y61" s="54">
         <v>4.7000000000000003E-10</v>
       </c>
       <c r="Z61" s="55" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AC61" s="53" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AD61" s="54">
         <v>3.9E-10</v>
       </c>
       <c r="AE61" s="44" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AF61" s="44"/>
       <c r="AG61" s="55"/>
@@ -10359,31 +10340,31 @@
     <row r="62" spans="16:33">
       <c r="P62" s="2"/>
       <c r="T62" s="53" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="U62" s="44">
         <v>0.88</v>
       </c>
       <c r="V62" s="55"/>
       <c r="X62" s="53" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Y62" s="33">
         <f>1-(300/Y60)</f>
         <v>0.88888888888888884</v>
       </c>
       <c r="Z62" s="55" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AC62" s="53" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AD62" s="33">
         <f>1-(300/AD60)</f>
         <v>0.91428571428571426</v>
       </c>
       <c r="AE62" s="44" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AF62" s="44"/>
       <c r="AG62" s="55"/>
@@ -10417,19 +10398,19 @@
         <v>79.980468750000043</v>
       </c>
       <c r="AG63" s="55" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="64" spans="16:33">
       <c r="T64" s="53" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="U64" s="56">
         <f>3/(0.01*(1-U62))</f>
         <v>2500</v>
       </c>
       <c r="V64" s="55" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="X64" s="53"/>
       <c r="Y64" s="44"/>
@@ -10440,21 +10421,21 @@
         <v>933.10546875000011</v>
       </c>
       <c r="AE64" s="44" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AF64" s="44"/>
       <c r="AG64" s="55"/>
     </row>
     <row r="65" spans="20:33">
       <c r="T65" s="57" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="U65" s="58">
         <f>(1.6*U62)/(U64*U61)</f>
         <v>4.6933333333333337E-10</v>
       </c>
       <c r="V65" s="59" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="X65" s="53"/>
       <c r="Y65" s="44"/>
@@ -10467,68 +10448,68 @@
     </row>
     <row r="66" spans="20:33">
       <c r="X66" s="53" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Y66" s="44">
         <v>3000</v>
       </c>
       <c r="Z66" s="55" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AC66" s="53" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AD66" s="44">
         <v>3000</v>
       </c>
       <c r="AE66" s="44" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AF66" s="44"/>
       <c r="AG66" s="55"/>
     </row>
     <row r="67" spans="20:33">
       <c r="X67" s="53" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Y67" s="54">
         <v>4.7000000000000003E-10</v>
       </c>
       <c r="Z67" s="55" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AC67" s="53" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AD67" s="54">
         <v>3.9E-10</v>
       </c>
       <c r="AE67" s="44" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AF67" s="44"/>
       <c r="AG67" s="55"/>
     </row>
     <row r="68" spans="20:33">
       <c r="X68" s="53" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Y68" s="33">
         <f>1-(300/Y66)</f>
         <v>0.9</v>
       </c>
       <c r="Z68" s="55" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AC68" s="53" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AD68" s="33">
         <f>1-(300/AD66)</f>
         <v>0.9</v>
       </c>
       <c r="AE68" s="44" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AF68" s="44"/>
       <c r="AG68" s="55"/>
@@ -10559,7 +10540,7 @@
         <v>81.249999999999957</v>
       </c>
       <c r="AG69" s="55" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="70" spans="20:33">
@@ -10572,7 +10553,7 @@
         <v>812.49999999999989</v>
       </c>
       <c r="AE70" s="44" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AF70" s="44"/>
       <c r="AG70" s="55"/>
@@ -10589,75 +10570,75 @@
     </row>
     <row r="72" spans="20:33">
       <c r="X72" s="53" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Y72" s="44">
         <v>2200</v>
       </c>
       <c r="Z72" s="55" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AC72" s="53" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AD72" s="44">
         <v>2500</v>
       </c>
       <c r="AE72" s="44" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AF72" s="44"/>
       <c r="AG72" s="55"/>
     </row>
     <row r="73" spans="20:33">
       <c r="X73" s="53" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Y73" s="54">
         <v>4.7000000000000003E-10</v>
       </c>
       <c r="Z73" s="55" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AC73" s="53" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AD73" s="54">
         <v>3.9E-10</v>
       </c>
       <c r="AE73" s="44" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AF73" s="44"/>
       <c r="AG73" s="55"/>
     </row>
     <row r="74" spans="20:33">
       <c r="X74" s="53" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Y74" s="33">
         <f>1-(300/Y72)</f>
         <v>0.86363636363636365</v>
       </c>
       <c r="Z74" s="55" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AA74" s="5">
         <f>1/Y75*(1-Y74)*1000000000</f>
         <v>102.03947368421052</v>
       </c>
       <c r="AB74" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AC74" s="53" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AD74" s="33">
         <f>1-(300/AD72)</f>
         <v>0.88</v>
       </c>
       <c r="AE74" s="44" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AF74" s="44"/>
       <c r="AG74" s="55"/>
@@ -10692,7 +10673,7 @@
         <v>83.096590909090892</v>
       </c>
       <c r="AG75" s="55" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="76" spans="20:33">
@@ -10702,7 +10683,7 @@
         <v>692.47159090909076</v>
       </c>
       <c r="AE76" s="62" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AF76" s="62"/>
       <c r="AG76" s="59"/>
@@ -10814,7 +10795,7 @@
         <v>67.516879219804949</v>
       </c>
       <c r="M109" s="49" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="110" spans="12:13">
@@ -10835,7 +10816,7 @@
         <v>400</v>
       </c>
       <c r="M112" s="49" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="113" spans="12:13">
@@ -10869,7 +10850,7 @@
         <v>300</v>
       </c>
       <c r="M117" s="49" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="118" spans="12:13">
@@ -10877,7 +10858,7 @@
         <v>300</v>
       </c>
       <c r="M118" s="49" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="119" spans="12:13">
@@ -10917,7 +10898,7 @@
         <v>2.4696969696969697</v>
       </c>
       <c r="M123" s="49" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="124" spans="12:13">
@@ -10990,29 +10971,29 @@
     </row>
     <row r="5" spans="3:11">
       <c r="H5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="3:11">
       <c r="C6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="3:11" ht="19">
       <c r="C7" s="24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D7" s="24">
         <v>30</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H7">
         <v>30</v>
@@ -11023,7 +11004,7 @@
     </row>
     <row r="8" spans="3:11" ht="19">
       <c r="C8" s="24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D8" s="24">
         <v>0.30099999999999999</v>
@@ -11040,7 +11021,7 @@
     </row>
     <row r="9" spans="3:11" ht="19">
       <c r="C9" s="26" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D9" s="26">
         <v>21</v>
@@ -11058,7 +11039,7 @@
     </row>
     <row r="10" spans="3:11" ht="19">
       <c r="C10" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D10" s="26">
         <v>2.5000000000000001E-2</v>
@@ -11077,7 +11058,7 @@
         <v>4</v>
       </c>
       <c r="K10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="3:11" ht="19">
@@ -11089,25 +11070,25 @@
         <v>87.110734542640927</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="3:11" ht="19">
       <c r="C12" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D12" s="28">
         <f>D11*D10*LOG(D9/D10,2.718)</f>
         <v>14.665310181214844</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H12">
         <v>0.1</v>
@@ -11120,12 +11101,12 @@
         <v>2000</v>
       </c>
       <c r="K12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="3:11">
       <c r="C14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H14" t="s">
         <v>120</v>
@@ -11133,13 +11114,13 @@
     </row>
     <row r="15" spans="3:11" ht="19">
       <c r="C15" s="24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D15" s="24">
         <v>30</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H15">
         <f>H12*H9</f>
@@ -11153,12 +11134,12 @@
         <v>40</v>
       </c>
       <c r="K15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="3:11" ht="19">
       <c r="C16" s="24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D16" s="24">
         <v>0.30099999999999999</v>
@@ -11169,7 +11150,7 @@
     </row>
     <row r="17" spans="3:10" ht="19">
       <c r="C17" s="26" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D17" s="26">
         <v>21</v>
@@ -11180,7 +11161,7 @@
     </row>
     <row r="18" spans="3:10" ht="19">
       <c r="C18" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D18" s="26">
         <v>0.6</v>
@@ -11198,71 +11179,71 @@
         <v>41.657679872084323</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="3:10" ht="19">
       <c r="C20" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D20" s="28">
         <f>D19*D18*LOG(D17/D18,2.718)</f>
         <v>88.87374563714863</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I20" s="4">
         <f>D12*2</f>
         <v>29.330620362429688</v>
       </c>
       <c r="J20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="3:10">
       <c r="H21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I21" s="4">
         <f>D28</f>
         <v>205.59078000666895</v>
       </c>
       <c r="J21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="3:10">
       <c r="C22" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I22">
         <v>4</v>
       </c>
       <c r="J22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" spans="3:10" ht="19">
       <c r="C23" s="24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D23" s="24">
         <v>30</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24" spans="3:10" ht="19">
       <c r="C24" s="24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D24" s="24">
         <v>0.30099999999999999</v>
@@ -11273,7 +11254,7 @@
     </row>
     <row r="25" spans="3:10" ht="19">
       <c r="C25" s="26" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D25" s="26">
         <v>25</v>
@@ -11282,7 +11263,7 @@
         <v>130</v>
       </c>
       <c r="H25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I25" t="s">
         <v>143</v>
@@ -11290,7 +11271,7 @@
     </row>
     <row r="26" spans="3:10" ht="19">
       <c r="C26" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D26" s="26">
         <v>2.5</v>
@@ -11299,7 +11280,7 @@
         <v>130</v>
       </c>
       <c r="H26" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I26">
         <v>0.127</v>
@@ -11314,10 +11295,10 @@
         <v>35.711073454264096</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H27" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I27">
         <v>0.25459999999999999</v>
@@ -11325,17 +11306,17 @@
     </row>
     <row r="28" spans="3:10" ht="19">
       <c r="C28" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D28" s="28">
         <f>D27*D26*LOG(D25/D26,2.718)</f>
         <v>205.59078000666895</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H28" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I28">
         <v>0.3211</v>
@@ -11351,7 +11332,7 @@
     </row>
     <row r="30" spans="3:10">
       <c r="C30" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H30" t="s">
         <v>167</v>
@@ -11362,16 +11343,16 @@
     </row>
     <row r="31" spans="3:10" ht="19">
       <c r="C31" s="24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D31" s="24">
         <v>30</v>
       </c>
       <c r="E31" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H31" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I31">
         <v>0.64380000000000004</v>
@@ -11379,7 +11360,7 @@
     </row>
     <row r="32" spans="3:10" ht="19">
       <c r="C32" s="24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D32" s="24">
         <v>0.30099999999999999</v>
@@ -11390,7 +11371,7 @@
     </row>
     <row r="33" spans="3:22" ht="19">
       <c r="C33" s="26" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D33" s="26">
         <v>25</v>
@@ -11399,7 +11380,7 @@
         <v>130</v>
       </c>
       <c r="J33" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K33">
         <v>10</v>
@@ -11440,7 +11421,7 @@
     </row>
     <row r="34" spans="3:22" ht="19">
       <c r="C34" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D34" s="26">
         <v>5</v>
@@ -11449,7 +11430,7 @@
         <v>130</v>
       </c>
       <c r="J34" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K34">
         <f t="shared" ref="K34:V34" si="0">K39-K40</f>
@@ -11509,10 +11490,10 @@
         <v>34.038338767364621</v>
       </c>
       <c r="E35" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J35" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K35" s="4">
         <f t="shared" ref="K35:V35" si="1">$D$12</f>
@@ -11565,17 +11546,17 @@
     </row>
     <row r="36" spans="3:22" ht="19">
       <c r="C36" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D36" s="28">
         <f>D35*D34*LOG(D33/D34,2.718)</f>
         <v>273.94136785339589</v>
       </c>
       <c r="E36" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J36" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K36" s="4">
         <f t="shared" ref="K36:V36" si="2">$D$20</f>
@@ -11628,7 +11609,7 @@
     </row>
     <row r="37" spans="3:22">
       <c r="J37" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K37">
         <v>21</v>
@@ -11669,10 +11650,10 @@
     </row>
     <row r="38" spans="3:22">
       <c r="C38" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J38" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K38">
         <v>1</v>
@@ -11713,16 +11694,16 @@
     </row>
     <row r="39" spans="3:22" ht="19">
       <c r="C39" s="24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D39" s="24">
         <v>30</v>
       </c>
       <c r="E39" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J39" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K39">
         <f t="shared" ref="K39:V39" si="3">MAX(0, (K$38*K$33*(K$33-K35))/K$37)</f>
@@ -11775,7 +11756,7 @@
     </row>
     <row r="40" spans="3:22" ht="19">
       <c r="C40" s="24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D40" s="24">
         <v>0.30099999999999999</v>
@@ -11784,7 +11765,7 @@
         <v>130</v>
       </c>
       <c r="J40" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K40">
         <f t="shared" ref="K40:V40" si="4">MAX(0, (K$38*K$33*(K$33-K36))/K$37)</f>
@@ -11837,7 +11818,7 @@
     </row>
     <row r="41" spans="3:22" ht="19">
       <c r="C41" s="26" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D41" s="26">
         <v>25</v>
@@ -11848,7 +11829,7 @@
     </row>
     <row r="42" spans="3:22" ht="19">
       <c r="C42" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D42" s="26">
         <v>1</v>
@@ -11857,7 +11838,7 @@
         <v>130</v>
       </c>
       <c r="J42" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="43" spans="3:22" ht="19">
@@ -11869,13 +11850,13 @@
         <v>39.03</v>
       </c>
       <c r="E43" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I43" s="29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K43">
         <v>10</v>
@@ -11916,17 +11897,17 @@
     </row>
     <row r="44" spans="3:22" ht="19">
       <c r="C44" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D44" s="28">
         <f>D43*D42*LOG(D41/D42,2.718)</f>
         <v>125.64575093270162</v>
       </c>
       <c r="E44" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J44" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K44" s="2">
         <f>K45/K43*K47</f>
@@ -11976,7 +11957,7 @@
         <v>1.4</v>
       </c>
       <c r="J45" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K45" s="2">
         <f t="shared" ref="K45:V45" si="6">K46*$I45</f>
@@ -12029,7 +12010,7 @@
     </row>
     <row r="46" spans="3:22">
       <c r="J46" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K46">
         <v>0</v>
@@ -12070,10 +12051,10 @@
     </row>
     <row r="47" spans="3:22">
       <c r="C47" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J47" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K47">
         <v>0</v>
@@ -12114,13 +12095,13 @@
     </row>
     <row r="48" spans="3:22" ht="19">
       <c r="C48" s="24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D48" s="24">
         <v>30</v>
       </c>
       <c r="E48" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K48" s="4">
         <f>K43*10/12</f>
@@ -12173,7 +12154,7 @@
     </row>
     <row r="49" spans="3:5" ht="19">
       <c r="C49" s="24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D49" s="24">
         <v>0.30099999999999999</v>
@@ -12184,7 +12165,7 @@
     </row>
     <row r="50" spans="3:5" ht="19">
       <c r="C50" s="26" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D50" s="26">
         <v>3.7</v>
@@ -12195,7 +12176,7 @@
     </row>
     <row r="51" spans="3:5" ht="19">
       <c r="C51" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D51" s="26">
         <v>0.6</v>
@@ -12213,19 +12194,19 @@
         <v>41.657679872084323</v>
       </c>
       <c r="E52" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="53" spans="3:5" ht="19">
       <c r="C53" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D53" s="28">
         <f>D52*D51*LOG(D50/D51,2.718)</f>
         <v>45.473866968206337</v>
       </c>
       <c r="E53" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="67" spans="10:14">
@@ -12240,7 +12221,7 @@
         <v>85.333333333333329</v>
       </c>
       <c r="N67" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="70" spans="10:14">
@@ -12269,22 +12250,22 @@
     </row>
     <row r="75" spans="10:14">
       <c r="J75" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="76" spans="10:14">
       <c r="J76" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="78" spans="10:14">
       <c r="J78" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="79" spans="10:14">
       <c r="J79" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -12540,7 +12521,7 @@
     </row>
     <row r="25" spans="2:7">
       <c r="B25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C25" s="5">
         <f>-C19</f>
@@ -12555,7 +12536,7 @@
     </row>
     <row r="26" spans="2:7">
       <c r="B26" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C26" s="5">
         <f>C23</f>
@@ -12641,10 +12622,10 @@
   <sheetData>
     <row r="6" spans="3:5">
       <c r="C6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D6" t="s">
         <v>223</v>
-      </c>
-      <c r="D6" t="s">
-        <v>224</v>
       </c>
       <c r="E6">
         <v>139439</v>
@@ -12652,10 +12633,10 @@
     </row>
     <row r="7" spans="3:5">
       <c r="C7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D7" t="s">
         <v>223</v>
-      </c>
-      <c r="D7" t="s">
-        <v>224</v>
       </c>
       <c r="E7">
         <v>139471</v>
@@ -12663,10 +12644,10 @@
     </row>
     <row r="8" spans="3:5">
       <c r="C8" t="s">
+        <v>222</v>
+      </c>
+      <c r="D8" t="s">
         <v>223</v>
-      </c>
-      <c r="D8" t="s">
-        <v>224</v>
       </c>
       <c r="E8">
         <v>139341</v>
@@ -12674,10 +12655,10 @@
     </row>
     <row r="9" spans="3:5">
       <c r="C9" t="s">
+        <v>222</v>
+      </c>
+      <c r="D9" t="s">
         <v>223</v>
-      </c>
-      <c r="D9" t="s">
-        <v>224</v>
       </c>
       <c r="E9">
         <v>139430</v>
@@ -12685,10 +12666,10 @@
     </row>
     <row r="10" spans="3:5">
       <c r="C10" t="s">
+        <v>222</v>
+      </c>
+      <c r="D10" t="s">
         <v>223</v>
-      </c>
-      <c r="D10" t="s">
-        <v>224</v>
       </c>
       <c r="E10">
         <v>139415</v>
@@ -12696,10 +12677,10 @@
     </row>
     <row r="11" spans="3:5">
       <c r="C11" t="s">
+        <v>222</v>
+      </c>
+      <c r="D11" t="s">
         <v>223</v>
-      </c>
-      <c r="D11" t="s">
-        <v>224</v>
       </c>
       <c r="E11">
         <v>139436</v>
@@ -12707,10 +12688,10 @@
     </row>
     <row r="12" spans="3:5">
       <c r="C12" t="s">
+        <v>222</v>
+      </c>
+      <c r="D12" t="s">
         <v>223</v>
-      </c>
-      <c r="D12" t="s">
-        <v>224</v>
       </c>
       <c r="E12">
         <v>139456</v>
@@ -12718,10 +12699,10 @@
     </row>
     <row r="13" spans="3:5">
       <c r="C13" t="s">
+        <v>222</v>
+      </c>
+      <c r="D13" t="s">
         <v>223</v>
-      </c>
-      <c r="D13" t="s">
-        <v>224</v>
       </c>
       <c r="E13">
         <v>139436</v>
@@ -12729,10 +12710,10 @@
     </row>
     <row r="14" spans="3:5">
       <c r="C14" t="s">
+        <v>222</v>
+      </c>
+      <c r="D14" t="s">
         <v>223</v>
-      </c>
-      <c r="D14" t="s">
-        <v>224</v>
       </c>
       <c r="E14">
         <v>139461</v>
@@ -12740,10 +12721,10 @@
     </row>
     <row r="15" spans="3:5">
       <c r="C15" t="s">
+        <v>222</v>
+      </c>
+      <c r="D15" t="s">
         <v>223</v>
-      </c>
-      <c r="D15" t="s">
-        <v>224</v>
       </c>
       <c r="E15">
         <v>139455</v>
@@ -12751,10 +12732,10 @@
     </row>
     <row r="16" spans="3:5">
       <c r="C16" t="s">
+        <v>222</v>
+      </c>
+      <c r="D16" t="s">
         <v>223</v>
-      </c>
-      <c r="D16" t="s">
-        <v>224</v>
       </c>
       <c r="E16">
         <v>139435</v>
@@ -12762,10 +12743,10 @@
     </row>
     <row r="17" spans="3:6">
       <c r="C17" t="s">
+        <v>222</v>
+      </c>
+      <c r="D17" t="s">
         <v>223</v>
-      </c>
-      <c r="D17" t="s">
-        <v>224</v>
       </c>
       <c r="E17">
         <v>139454</v>
@@ -12773,10 +12754,10 @@
     </row>
     <row r="18" spans="3:6">
       <c r="C18" t="s">
+        <v>222</v>
+      </c>
+      <c r="D18" t="s">
         <v>223</v>
-      </c>
-      <c r="D18" t="s">
-        <v>224</v>
       </c>
       <c r="E18">
         <v>139432</v>
@@ -12784,10 +12765,10 @@
     </row>
     <row r="19" spans="3:6">
       <c r="C19" t="s">
+        <v>222</v>
+      </c>
+      <c r="D19" t="s">
         <v>223</v>
-      </c>
-      <c r="D19" t="s">
-        <v>224</v>
       </c>
       <c r="E19">
         <v>139452</v>
@@ -12795,10 +12776,10 @@
     </row>
     <row r="20" spans="3:6">
       <c r="C20" t="s">
+        <v>222</v>
+      </c>
+      <c r="D20" t="s">
         <v>223</v>
-      </c>
-      <c r="D20" t="s">
-        <v>224</v>
       </c>
       <c r="E20">
         <v>139444</v>
@@ -12806,10 +12787,10 @@
     </row>
     <row r="21" spans="3:6">
       <c r="C21" t="s">
+        <v>222</v>
+      </c>
+      <c r="D21" t="s">
         <v>223</v>
-      </c>
-      <c r="D21" t="s">
-        <v>224</v>
       </c>
       <c r="E21">
         <v>139409</v>
@@ -12817,10 +12798,10 @@
     </row>
     <row r="22" spans="3:6">
       <c r="C22" t="s">
+        <v>222</v>
+      </c>
+      <c r="D22" t="s">
         <v>223</v>
-      </c>
-      <c r="D22" t="s">
-        <v>224</v>
       </c>
       <c r="E22">
         <v>139463</v>
@@ -12828,10 +12809,10 @@
     </row>
     <row r="23" spans="3:6">
       <c r="C23" t="s">
+        <v>222</v>
+      </c>
+      <c r="D23" t="s">
         <v>223</v>
-      </c>
-      <c r="D23" t="s">
-        <v>224</v>
       </c>
       <c r="E23">
         <v>139417</v>
@@ -12839,10 +12820,10 @@
     </row>
     <row r="24" spans="3:6">
       <c r="C24" t="s">
+        <v>222</v>
+      </c>
+      <c r="D24" t="s">
         <v>223</v>
-      </c>
-      <c r="D24" t="s">
-        <v>224</v>
       </c>
       <c r="E24">
         <v>139439</v>
@@ -12850,10 +12831,10 @@
     </row>
     <row r="25" spans="3:6">
       <c r="C25" t="s">
+        <v>222</v>
+      </c>
+      <c r="D25" t="s">
         <v>223</v>
-      </c>
-      <c r="D25" t="s">
-        <v>224</v>
       </c>
       <c r="E25">
         <v>139369</v>
@@ -12868,10 +12849,10 @@
     </row>
     <row r="28" spans="3:6">
       <c r="C28" t="s">
+        <v>222</v>
+      </c>
+      <c r="D28" t="s">
         <v>223</v>
-      </c>
-      <c r="D28" t="s">
-        <v>224</v>
       </c>
       <c r="E28">
         <v>502546</v>
@@ -12879,10 +12860,10 @@
     </row>
     <row r="29" spans="3:6">
       <c r="C29" t="s">
+        <v>222</v>
+      </c>
+      <c r="D29" t="s">
         <v>223</v>
-      </c>
-      <c r="D29" t="s">
-        <v>224</v>
       </c>
       <c r="E29">
         <v>502494</v>
@@ -12890,10 +12871,10 @@
     </row>
     <row r="30" spans="3:6">
       <c r="C30" t="s">
+        <v>222</v>
+      </c>
+      <c r="D30" t="s">
         <v>223</v>
-      </c>
-      <c r="D30" t="s">
-        <v>224</v>
       </c>
       <c r="E30">
         <v>502548</v>
@@ -12901,10 +12882,10 @@
     </row>
     <row r="31" spans="3:6">
       <c r="C31" t="s">
+        <v>222</v>
+      </c>
+      <c r="D31" t="s">
         <v>223</v>
-      </c>
-      <c r="D31" t="s">
-        <v>224</v>
       </c>
       <c r="E31">
         <v>502442</v>
@@ -12912,10 +12893,10 @@
     </row>
     <row r="32" spans="3:6">
       <c r="C32" t="s">
+        <v>222</v>
+      </c>
+      <c r="D32" t="s">
         <v>223</v>
-      </c>
-      <c r="D32" t="s">
-        <v>224</v>
       </c>
       <c r="E32">
         <v>502516</v>
@@ -12923,10 +12904,10 @@
     </row>
     <row r="33" spans="3:9">
       <c r="C33" t="s">
+        <v>222</v>
+      </c>
+      <c r="D33" t="s">
         <v>223</v>
-      </c>
-      <c r="D33" t="s">
-        <v>224</v>
       </c>
       <c r="E33">
         <v>502508</v>
@@ -12934,10 +12915,10 @@
     </row>
     <row r="34" spans="3:9">
       <c r="C34" t="s">
+        <v>222</v>
+      </c>
+      <c r="D34" t="s">
         <v>223</v>
-      </c>
-      <c r="D34" t="s">
-        <v>224</v>
       </c>
       <c r="E34">
         <v>502500</v>
@@ -12945,10 +12926,10 @@
     </row>
     <row r="35" spans="3:9">
       <c r="C35" t="s">
+        <v>222</v>
+      </c>
+      <c r="D35" t="s">
         <v>223</v>
-      </c>
-      <c r="D35" t="s">
-        <v>224</v>
       </c>
       <c r="E35">
         <v>502542</v>
@@ -12956,10 +12937,10 @@
     </row>
     <row r="36" spans="3:9">
       <c r="C36" t="s">
+        <v>222</v>
+      </c>
+      <c r="D36" t="s">
         <v>223</v>
-      </c>
-      <c r="D36" t="s">
-        <v>224</v>
       </c>
       <c r="E36">
         <v>502523</v>
@@ -12967,10 +12948,10 @@
     </row>
     <row r="37" spans="3:9">
       <c r="C37" t="s">
+        <v>222</v>
+      </c>
+      <c r="D37" t="s">
         <v>223</v>
-      </c>
-      <c r="D37" t="s">
-        <v>224</v>
       </c>
       <c r="E37">
         <v>502559</v>
@@ -12978,10 +12959,10 @@
     </row>
     <row r="38" spans="3:9">
       <c r="C38" t="s">
+        <v>222</v>
+      </c>
+      <c r="D38" t="s">
         <v>223</v>
-      </c>
-      <c r="D38" t="s">
-        <v>224</v>
       </c>
       <c r="E38">
         <v>502555</v>
@@ -12989,10 +12970,10 @@
     </row>
     <row r="39" spans="3:9">
       <c r="C39" t="s">
+        <v>222</v>
+      </c>
+      <c r="D39" t="s">
         <v>223</v>
-      </c>
-      <c r="D39" t="s">
-        <v>224</v>
       </c>
       <c r="E39">
         <v>502494</v>
@@ -13000,10 +12981,10 @@
     </row>
     <row r="40" spans="3:9">
       <c r="C40" t="s">
+        <v>222</v>
+      </c>
+      <c r="D40" t="s">
         <v>223</v>
-      </c>
-      <c r="D40" t="s">
-        <v>224</v>
       </c>
       <c r="E40">
         <v>502541</v>
@@ -13011,10 +12992,10 @@
     </row>
     <row r="41" spans="3:9">
       <c r="C41" t="s">
+        <v>222</v>
+      </c>
+      <c r="D41" t="s">
         <v>223</v>
-      </c>
-      <c r="D41" t="s">
-        <v>224</v>
       </c>
       <c r="E41">
         <v>502520</v>
@@ -13022,10 +13003,10 @@
     </row>
     <row r="42" spans="3:9">
       <c r="C42" t="s">
+        <v>222</v>
+      </c>
+      <c r="D42" t="s">
         <v>223</v>
-      </c>
-      <c r="D42" t="s">
-        <v>224</v>
       </c>
       <c r="E42">
         <v>502450</v>
@@ -13033,10 +13014,10 @@
     </row>
     <row r="43" spans="3:9">
       <c r="C43" t="s">
+        <v>222</v>
+      </c>
+      <c r="D43" t="s">
         <v>223</v>
-      </c>
-      <c r="D43" t="s">
-        <v>224</v>
       </c>
       <c r="E43">
         <v>502461</v>
@@ -13044,10 +13025,10 @@
     </row>
     <row r="44" spans="3:9">
       <c r="C44" t="s">
+        <v>222</v>
+      </c>
+      <c r="D44" t="s">
         <v>223</v>
-      </c>
-      <c r="D44" t="s">
-        <v>224</v>
       </c>
       <c r="E44">
         <v>502502</v>
@@ -13055,10 +13036,10 @@
     </row>
     <row r="45" spans="3:9">
       <c r="C45" t="s">
+        <v>222</v>
+      </c>
+      <c r="D45" t="s">
         <v>223</v>
-      </c>
-      <c r="D45" t="s">
-        <v>224</v>
       </c>
       <c r="E45">
         <v>502492</v>
@@ -13066,10 +13047,10 @@
     </row>
     <row r="46" spans="3:9">
       <c r="C46" t="s">
+        <v>222</v>
+      </c>
+      <c r="D46" t="s">
         <v>223</v>
-      </c>
-      <c r="D46" t="s">
-        <v>224</v>
       </c>
       <c r="E46">
         <v>502460</v>
@@ -13077,10 +13058,10 @@
     </row>
     <row r="47" spans="3:9">
       <c r="C47" t="s">
+        <v>222</v>
+      </c>
+      <c r="D47" t="s">
         <v>223</v>
-      </c>
-      <c r="D47" t="s">
-        <v>224</v>
       </c>
       <c r="E47">
         <v>502500</v>
@@ -13088,10 +13069,10 @@
     </row>
     <row r="48" spans="3:9">
       <c r="C48" t="s">
+        <v>222</v>
+      </c>
+      <c r="D48" t="s">
         <v>223</v>
-      </c>
-      <c r="D48" t="s">
-        <v>224</v>
       </c>
       <c r="E48">
         <v>502515</v>
@@ -13101,15 +13082,15 @@
         <v>139432.70000000001</v>
       </c>
       <c r="I48" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="49" spans="3:9">
       <c r="C49" t="s">
+        <v>222</v>
+      </c>
+      <c r="D49" t="s">
         <v>223</v>
-      </c>
-      <c r="D49" t="s">
-        <v>224</v>
       </c>
       <c r="E49">
         <v>502523</v>
@@ -13126,7 +13107,7 @@
         <v>191.79925082841086</v>
       </c>
       <c r="I49" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="50" spans="3:9">
